--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55EB86F-149B-494E-BD6D-CF042DF3987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58201866-A774-7344-9501-76EEEFA93593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="profits_costs" sheetId="2" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="45">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -153,12 +175,30 @@
   <si>
     <t>Distribution of energy within the P2P market in 2016, when users are equipped battery - init values are zero (it doesn’t differantiate significantly when simulated for the whole year)</t>
   </si>
+  <si>
+    <t>Distribution of energy within the P2P market on November 6th, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on November 6th, 2016, when users are equipped battery - init value is the previous hour</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on August, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on August, 2016, when users are equipped battery - init value is the previous hour</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on January, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in 2016, when users are equipped battery - Zero init values</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +227,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -379,11 +440,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -438,21 +538,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,11 +559,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,9 +629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -529,7 +669,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -635,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,23 +925,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
-  <dimension ref="C2:S48"/>
+  <dimension ref="A2:AK130"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106:S106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
@@ -828,7 +968,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
@@ -879,8 +1019,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -902,8 +1042,8 @@
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="50"/>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="39"/>
       <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
@@ -923,8 +1063,8 @@
       <c r="R6" s="5"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -946,8 +1086,8 @@
       <c r="R7" s="20"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="50"/>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
@@ -967,8 +1107,8 @@
       <c r="R8" s="5"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="49" t="s">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -990,8 +1130,8 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="50"/>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="39"/>
       <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1011,12 +1151,12 @@
       <c r="R10" s="5"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="14" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1183,7 @@
       <c r="R16" s="13"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
@@ -1094,8 +1234,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="49" t="s">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1117,8 +1257,8 @@
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="50"/>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="39"/>
       <c r="D19" s="7" t="s">
         <v>3</v>
       </c>
@@ -1138,8 +1278,8 @@
       <c r="R19" s="5"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="49" t="s">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1161,8 +1301,8 @@
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="50"/>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="39"/>
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1322,8 @@
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="49" t="s">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1205,8 +1345,8 @@
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="50"/>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1226,15 +1366,15 @@
       <c r="R23" s="5"/>
       <c r="S23" s="6"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C27" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="11" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1401,7 @@
       <c r="R28" s="13"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="11" t="s">
         <v>2</v>
       </c>
@@ -1312,8 +1452,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="49" t="s">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C30" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1335,8 +1475,8 @@
       <c r="R30" s="2"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="50"/>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C31" s="39"/>
       <c r="D31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1496,8 @@
       <c r="R31" s="5"/>
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C32" s="49" t="s">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1379,8 +1519,8 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C33" s="50"/>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C33" s="39"/>
       <c r="D33" s="7" t="s">
         <v>3</v>
       </c>
@@ -1400,8 +1540,8 @@
       <c r="R33" s="5"/>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="49" t="s">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C34" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1423,8 +1563,8 @@
       <c r="R34" s="2"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="50"/>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C35" s="39"/>
       <c r="D35" s="7" t="s">
         <v>3</v>
       </c>
@@ -1444,12 +1584,12 @@
       <c r="R35" s="5"/>
       <c r="S35" s="6"/>
     </row>
-    <row r="39" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C39" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C41" s="11" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1616,7 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C42" s="11" t="s">
         <v>2</v>
       </c>
@@ -1527,8 +1667,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="49" t="s">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -1550,8 +1690,8 @@
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="50"/>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C44" s="39"/>
       <c r="D44" s="7" t="s">
         <v>3</v>
       </c>
@@ -1571,8 +1711,8 @@
       <c r="R44" s="5"/>
       <c r="S44" s="6"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="49" t="s">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -1594,8 +1734,8 @@
       <c r="R45" s="20"/>
       <c r="S45" s="21"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="50"/>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C46" s="39"/>
       <c r="D46" s="7" t="s">
         <v>3</v>
       </c>
@@ -1615,8 +1755,8 @@
       <c r="R46" s="5"/>
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C47" s="49" t="s">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C47" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -1638,8 +1778,8 @@
       <c r="R47" s="2"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C48" s="50"/>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C48" s="39"/>
       <c r="D48" s="7" t="s">
         <v>3</v>
       </c>
@@ -1659,20 +1799,1752 @@
       <c r="R48" s="5"/>
       <c r="S48" s="6"/>
     </row>
+    <row r="52" spans="3:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="C52" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="14"/>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="9">
+        <v>40</v>
+      </c>
+      <c r="F54" s="8">
+        <v>80</v>
+      </c>
+      <c r="G54" s="8">
+        <v>120</v>
+      </c>
+      <c r="H54" s="8">
+        <v>160</v>
+      </c>
+      <c r="I54" s="8">
+        <v>200</v>
+      </c>
+      <c r="J54" s="9">
+        <v>40</v>
+      </c>
+      <c r="K54" s="8">
+        <v>80</v>
+      </c>
+      <c r="L54" s="8">
+        <v>120</v>
+      </c>
+      <c r="M54" s="8">
+        <v>160</v>
+      </c>
+      <c r="N54" s="8">
+        <v>200</v>
+      </c>
+      <c r="O54" s="9">
+        <v>40</v>
+      </c>
+      <c r="P54" s="8">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>120</v>
+      </c>
+      <c r="R54" s="8">
+        <v>160</v>
+      </c>
+      <c r="S54" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C55" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C56" s="39"/>
+      <c r="D56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="6"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C57" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="21"/>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C58" s="39"/>
+      <c r="D58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="6"/>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C59" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C60" s="39"/>
+      <c r="D60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="64" spans="3:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="C64" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="14"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="9">
+        <v>40</v>
+      </c>
+      <c r="F67" s="8">
+        <v>80</v>
+      </c>
+      <c r="G67" s="8">
+        <v>120</v>
+      </c>
+      <c r="H67" s="8">
+        <v>160</v>
+      </c>
+      <c r="I67" s="8">
+        <v>200</v>
+      </c>
+      <c r="J67" s="9">
+        <v>40</v>
+      </c>
+      <c r="K67" s="8">
+        <v>80</v>
+      </c>
+      <c r="L67" s="8">
+        <v>120</v>
+      </c>
+      <c r="M67" s="8">
+        <v>160</v>
+      </c>
+      <c r="N67" s="8">
+        <v>200</v>
+      </c>
+      <c r="O67" s="9">
+        <v>40</v>
+      </c>
+      <c r="P67" s="8">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>120</v>
+      </c>
+      <c r="R67" s="8">
+        <v>160</v>
+      </c>
+      <c r="S67" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C69" s="39"/>
+      <c r="D69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="6"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C70" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="21"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C71" s="39"/>
+      <c r="D71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="6"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C72" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="39"/>
+      <c r="D73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="6"/>
+    </row>
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="54"/>
+      <c r="E78" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="58"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="59">
+        <v>40</v>
+      </c>
+      <c r="F79" s="59">
+        <v>80</v>
+      </c>
+      <c r="G79" s="59">
+        <v>120</v>
+      </c>
+      <c r="H79" s="59">
+        <v>160</v>
+      </c>
+      <c r="I79" s="59">
+        <v>200</v>
+      </c>
+      <c r="J79" s="60">
+        <v>40</v>
+      </c>
+      <c r="K79" s="59">
+        <v>80</v>
+      </c>
+      <c r="L79" s="59">
+        <v>120</v>
+      </c>
+      <c r="M79" s="59">
+        <v>160</v>
+      </c>
+      <c r="N79" s="59">
+        <v>200</v>
+      </c>
+      <c r="O79" s="60">
+        <v>40</v>
+      </c>
+      <c r="P79" s="59">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="59">
+        <v>120</v>
+      </c>
+      <c r="R79" s="59">
+        <v>160</v>
+      </c>
+      <c r="S79" s="61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="63"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="63"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="64"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="64"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
+      <c r="R81" s="64"/>
+      <c r="S81" s="65"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="66"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="67"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="64"/>
+      <c r="R83" s="64"/>
+      <c r="S83" s="65"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="63"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="65"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
+    </row>
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="54"/>
+      <c r="E91" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="58"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="54"/>
+      <c r="E92" s="59">
+        <v>40</v>
+      </c>
+      <c r="F92" s="59">
+        <v>80</v>
+      </c>
+      <c r="G92" s="59">
+        <v>120</v>
+      </c>
+      <c r="H92" s="59">
+        <v>160</v>
+      </c>
+      <c r="I92" s="59">
+        <v>200</v>
+      </c>
+      <c r="J92" s="60">
+        <v>40</v>
+      </c>
+      <c r="K92" s="59">
+        <v>80</v>
+      </c>
+      <c r="L92" s="59">
+        <v>120</v>
+      </c>
+      <c r="M92" s="59">
+        <v>160</v>
+      </c>
+      <c r="N92" s="59">
+        <v>200</v>
+      </c>
+      <c r="O92" s="60">
+        <v>40</v>
+      </c>
+      <c r="P92" s="59">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="59">
+        <v>120</v>
+      </c>
+      <c r="R92" s="59">
+        <v>160</v>
+      </c>
+      <c r="S92" s="61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="63"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="64"/>
+      <c r="R94" s="64"/>
+      <c r="S94" s="65"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="66"/>
+      <c r="Q95" s="66"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="67"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="64"/>
+      <c r="R96" s="64"/>
+      <c r="S96" s="65"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="63"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="63"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="65"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="64"/>
+      <c r="R98" s="64"/>
+      <c r="S98" s="65"/>
+    </row>
+    <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="54"/>
+      <c r="E103" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="P103" s="56"/>
+      <c r="Q103" s="56"/>
+      <c r="R103" s="56"/>
+      <c r="S103" s="58"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="54"/>
+      <c r="E104" s="59">
+        <v>40</v>
+      </c>
+      <c r="F104" s="59">
+        <v>80</v>
+      </c>
+      <c r="G104" s="59">
+        <v>120</v>
+      </c>
+      <c r="H104" s="59">
+        <v>160</v>
+      </c>
+      <c r="I104" s="59">
+        <v>200</v>
+      </c>
+      <c r="J104" s="60">
+        <v>40</v>
+      </c>
+      <c r="K104" s="59">
+        <v>80</v>
+      </c>
+      <c r="L104" s="59">
+        <v>120</v>
+      </c>
+      <c r="M104" s="59">
+        <v>160</v>
+      </c>
+      <c r="N104" s="59">
+        <v>200</v>
+      </c>
+      <c r="O104" s="60">
+        <v>40</v>
+      </c>
+      <c r="P104" s="59">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="59">
+        <v>120</v>
+      </c>
+      <c r="R104" s="59">
+        <v>160</v>
+      </c>
+      <c r="S104" s="61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" s="51"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="63"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" s="51"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="64">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F106" s="64">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G106" s="64">
+        <v>102131.99</v>
+      </c>
+      <c r="H106" s="64">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I106" s="65">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J106" s="64">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K106" s="64">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L106" s="64">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M106" s="64">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N106" s="65">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O106" s="64">
+        <v>13110.2808</v>
+      </c>
+      <c r="P106" s="64">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q106" s="64">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R106" s="64">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S106" s="65">
+        <v>59244.1231999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" s="51"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="66"/>
+      <c r="N107" s="67"/>
+      <c r="O107" s="66"/>
+      <c r="P107" s="66"/>
+      <c r="Q107" s="66"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="67"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="65"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="64"/>
+      <c r="Q108" s="64"/>
+      <c r="R108" s="64"/>
+      <c r="S108" s="65"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" s="51"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="63"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" s="51"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
+      <c r="L110" s="64"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="65"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="64"/>
+      <c r="Q110" s="64"/>
+      <c r="R110" s="64"/>
+      <c r="S110" s="65"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" s="51"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
+    </row>
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A113" s="51"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+    </row>
+    <row r="114" spans="1:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="51"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="52"/>
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="51"/>
+      <c r="R114" s="51"/>
+      <c r="S114" s="51"/>
+    </row>
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A115" s="51"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
+    </row>
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="54"/>
+      <c r="E116" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="P116" s="56"/>
+      <c r="Q116" s="56"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="58"/>
+      <c r="U116">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="W116" cm="1">
+        <f t="array" ref="W116:AK116">TRANSPOSE(U116:U130)</f>
+        <v>32968.180400000099</v>
+      </c>
+      <c r="X116">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="Y116">
+        <v>102131.99</v>
+      </c>
+      <c r="Z116">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="AA116">
+        <v>176320.868399998</v>
+      </c>
+      <c r="AB116">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="AC116">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="AD116">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="AE116">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="AF116">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="AG116">
+        <v>13110.2808</v>
+      </c>
+      <c r="AH116">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="AI116">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="AJ116">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="AK116">
+        <v>59244.1231999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="54"/>
+      <c r="E117" s="59">
+        <v>40</v>
+      </c>
+      <c r="F117" s="59">
+        <v>80</v>
+      </c>
+      <c r="G117" s="59">
+        <v>120</v>
+      </c>
+      <c r="H117" s="59">
+        <v>160</v>
+      </c>
+      <c r="I117" s="59">
+        <v>200</v>
+      </c>
+      <c r="J117" s="60">
+        <v>40</v>
+      </c>
+      <c r="K117" s="59">
+        <v>80</v>
+      </c>
+      <c r="L117" s="59">
+        <v>120</v>
+      </c>
+      <c r="M117" s="59">
+        <v>160</v>
+      </c>
+      <c r="N117" s="59">
+        <v>200</v>
+      </c>
+      <c r="O117" s="60">
+        <v>40</v>
+      </c>
+      <c r="P117" s="59">
+        <v>80</v>
+      </c>
+      <c r="Q117" s="59">
+        <v>120</v>
+      </c>
+      <c r="R117" s="59">
+        <v>160</v>
+      </c>
+      <c r="S117" s="61">
+        <v>200</v>
+      </c>
+      <c r="U117">
+        <v>70400.167599999695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A118" s="51"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="51"/>
+      <c r="M118" s="51"/>
+      <c r="N118" s="63"/>
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="51"/>
+      <c r="R118" s="51"/>
+      <c r="S118" s="63"/>
+      <c r="U118">
+        <v>102131.99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A119" s="51"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>137569.13560000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A120" s="51"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="66"/>
+      <c r="K120" s="66"/>
+      <c r="L120" s="66"/>
+      <c r="M120" s="66"/>
+      <c r="N120" s="67"/>
+      <c r="O120" s="66"/>
+      <c r="P120" s="66"/>
+      <c r="Q120" s="66"/>
+      <c r="R120" s="66"/>
+      <c r="S120" s="67"/>
+      <c r="U120">
+        <v>176320.868399998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
+      <c r="L121" s="64"/>
+      <c r="M121" s="64"/>
+      <c r="N121" s="65"/>
+      <c r="O121" s="64"/>
+      <c r="P121" s="64"/>
+      <c r="Q121" s="64"/>
+      <c r="R121" s="64"/>
+      <c r="S121" s="65"/>
+      <c r="U121">
+        <v>22551.297999999901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A122" s="51"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="63"/>
+      <c r="O122" s="51"/>
+      <c r="P122" s="51"/>
+      <c r="Q122" s="51"/>
+      <c r="R122" s="51"/>
+      <c r="S122" s="63"/>
+      <c r="U122">
+        <v>48875.265599999897</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A123" s="51"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="64"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="64"/>
+      <c r="L123" s="64"/>
+      <c r="M123" s="64"/>
+      <c r="N123" s="65"/>
+      <c r="O123" s="64"/>
+      <c r="P123" s="64"/>
+      <c r="Q123" s="64"/>
+      <c r="R123" s="64"/>
+      <c r="S123" s="65"/>
+      <c r="U123">
+        <v>70400.167599999695</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="U124">
+        <v>92826.499199999598</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="U125">
+        <v>114702.02319999901</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="U126">
+        <v>13110.2808</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="U127">
+        <v>22551.297999999901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="U128">
+        <v>32968.180400000099</v>
+      </c>
+    </row>
+    <row r="129" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U129">
+        <v>48875.265599999897</v>
+      </c>
+    </row>
+    <row r="130" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U130">
+        <v>59244.1231999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="30">
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1683,63 +3555,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="18"/>
     <col min="3" max="3" width="17.5" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="11" style="18"/>
-    <col min="16" max="18" width="11.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="18"/>
-    <col min="20" max="20" width="11.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="21" max="33" width="11" style="18"/>
-    <col min="34" max="36" width="11.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45">
+      <c r="C4" s="49"/>
+      <c r="D4" s="42">
         <v>0.25</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="45">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="42">
         <v>0.5</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="45">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="42">
         <v>0.75</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="9">
         <v>40</v>
       </c>
@@ -1786,8 +3658,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -1839,8 +3711,8 @@
         <v>143.09599999999901</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="41"/>
       <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +3762,7 @@
         <v>139.35499999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
       <c r="C8" s="24"/>
       <c r="D8" s="26">
@@ -1954,11 +3826,11 @@
         <v>282.450999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="29">
         <v>51.249999999999901</v>
       </c>
@@ -2005,8 +3877,8 @@
         <v>51.4722222222222</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -2058,8 +3930,8 @@
         <v>143.096</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="50"/>
       <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
@@ -2109,8 +3981,8 @@
         <v>3867.1559999999899</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
       <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
@@ -2160,8 +4032,8 @@
         <v>356.85400000000101</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -2213,8 +4085,8 @@
         <v>16.777999999999899</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
       <c r="C14" s="23" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +4136,7 @@
         <v>380.47500000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
       <c r="C15" s="35" t="s">
         <v>26</v>
@@ -2330,7 +4202,7 @@
         <v>754.10700000000088</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C16" s="35" t="s">
         <v>27</v>
       </c>
@@ -2395,55 +4267,55 @@
         <v>4383.8839999999909</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C17" s="35"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C18" s="35"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C19" s="35"/>
     </row>
-    <row r="20" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="22"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="45">
+      <c r="C22" s="49"/>
+      <c r="D22" s="42">
         <v>0.25</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="45">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42">
         <v>0.5</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="45">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="42">
         <v>0.75</v>
       </c>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="44"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="9">
         <v>40</v>
       </c>
@@ -2490,8 +4362,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -2543,8 +4415,8 @@
         <v>282.45100000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="24"/>
       <c r="D26" s="26">
@@ -2658,11 +4530,11 @@
         <v>282.45100000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="29">
         <v>79.1666666666666</v>
       </c>
@@ -2709,8 +4581,8 @@
         <v>79.5555555555555</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -2762,8 +4634,8 @@
         <v>265.137</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="50"/>
       <c r="C29" s="25" t="s">
         <v>22</v>
       </c>
@@ -2813,8 +4685,8 @@
         <v>879.75662436382902</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
       <c r="C30" s="25" t="s">
         <v>25</v>
       </c>
@@ -2864,8 +4736,8 @@
         <v>697.49099999999896</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -2917,8 +4789,8 @@
         <v>5.1779999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="41"/>
       <c r="C32" s="23" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +4840,7 @@
         <v>51.437999999999903</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="34"/>
       <c r="C33" s="35" t="s">
         <v>26</v>
@@ -3034,7 +4906,7 @@
         <v>754.10699999999883</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="35" t="s">
         <v>30</v>
       </c>
@@ -3099,7 +4971,7 @@
         <v>1847.5626243638283</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="35" t="s">
         <v>31</v>
       </c>
@@ -3149,7 +5021,7 @@
         <v>2536.3213756361702</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C36" s="35" t="s">
         <v>29</v>
       </c>
@@ -3214,52 +5086,52 @@
         <v>4383.8839999999982</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C37" s="35"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="35"/>
     </row>
-    <row r="39" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="45">
+      <c r="C41" s="49"/>
+      <c r="D41" s="42">
         <v>0.25</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="45">
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="42">
         <v>0.5</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="45">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="42">
         <v>0.75</v>
       </c>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="47"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="44"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="9">
         <v>40</v>
       </c>
@@ -3306,8 +5178,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B43" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -3359,8 +5231,8 @@
         <v>282.45100000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="41"/>
       <c r="C44" s="25" t="s">
         <v>8</v>
       </c>
@@ -3410,11 +5282,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="43" t="s">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B45" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="29">
         <v>95.4166666666666</v>
       </c>
@@ -3461,8 +5333,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -3514,8 +5386,8 @@
         <v>282.45100000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="50"/>
       <c r="C47" s="25" t="s">
         <v>22</v>
       </c>
@@ -3565,8 +5437,8 @@
         <v>3189.9958773902399</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="41"/>
       <c r="C48" s="25" t="s">
         <v>25</v>
       </c>
@@ -3616,8 +5488,8 @@
         <v>754.10699999999804</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="38" t="s">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="25" t="s">
@@ -3669,8 +5541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="41"/>
       <c r="C50" s="23" t="s">
         <v>8</v>
       </c>
@@ -3720,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="34"/>
       <c r="C51" s="35" t="s">
         <v>26</v>
@@ -3786,7 +5658,7 @@
         <v>754.10699999999804</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="34"/>
       <c r="C52" s="35" t="s">
         <v>30</v>
@@ -3852,7 +5724,7 @@
         <v>4226.5538773902381</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="34"/>
       <c r="C53" s="35" t="s">
         <v>31</v>
@@ -3903,7 +5775,7 @@
         <v>2546.4249582587499</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="34"/>
       <c r="C54" s="35" t="s">
         <v>33</v>
@@ -3969,7 +5841,7 @@
         <v>6772.978835648988</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="34"/>
       <c r="C55" s="35" t="s">
         <v>34</v>
@@ -4020,7 +5892,7 @@
         <v>2389.0948356489998</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="34"/>
       <c r="C56" s="35" t="s">
         <v>29</v>
@@ -4086,52 +5958,52 @@
         <v>4383.8839999999882</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C57" s="35"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C58" s="35"/>
     </row>
-    <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="45">
+      <c r="C61" s="49"/>
+      <c r="D61" s="42">
         <v>0.25</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="45">
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="42">
         <v>0.5</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="45">
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="42">
         <v>0.75</v>
       </c>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="47"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="44"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="42"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="9">
         <v>40</v>
       </c>
@@ -4178,8 +6050,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="38" t="s">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="25" t="s">
@@ -4231,8 +6103,8 @@
         <v>30.446999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="41"/>
       <c r="C64" s="25" t="s">
         <v>8</v>
       </c>
@@ -4282,7 +6154,7 @@
         <v>416.897999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="36"/>
       <c r="C65" s="24"/>
       <c r="D65" s="26">
@@ -4346,11 +6218,11 @@
         <v>447.344999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="43" t="s">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="44"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="29">
         <v>10</v>
       </c>
@@ -4397,8 +6269,8 @@
         <v>9.4722222222222197</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="38" t="s">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="25" t="s">
@@ -4450,8 +6322,8 @@
         <v>30.446999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="39"/>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="50"/>
       <c r="C68" s="25" t="s">
         <v>22</v>
       </c>
@@ -4501,8 +6373,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="40"/>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="41"/>
       <c r="C69" s="25" t="s">
         <v>25</v>
       </c>
@@ -4552,8 +6424,8 @@
         <v>24.221</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="38" t="s">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="25" t="s">
@@ -4605,8 +6477,8 @@
         <v>73.428000000000296</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="40"/>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="41"/>
       <c r="C71" s="23" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +6528,7 @@
         <v>1324.3039999999901</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="34"/>
       <c r="C72" s="35" t="s">
         <v>26</v>
@@ -4722,7 +6594,7 @@
         <v>1421.9529999999904</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="34"/>
       <c r="C73" s="35" t="s">
         <v>27</v>
@@ -4788,50 +6660,50 @@
         <v>128.09600000000029</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="34"/>
       <c r="C74" s="35"/>
     </row>
-    <row r="76" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="41" t="s">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="45">
+      <c r="C78" s="49"/>
+      <c r="D78" s="42">
         <v>0.25</v>
       </c>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="45">
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="42">
         <v>0.5</v>
       </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="45">
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="42">
         <v>0.75</v>
       </c>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="47"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="41" t="s">
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="44"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="42"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="9">
         <v>40</v>
       </c>
@@ -4878,8 +6750,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="38" t="s">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="25" t="s">
@@ -4931,8 +6803,8 @@
         <v>447.344999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B81" s="41"/>
       <c r="C81" s="25" t="s">
         <v>8</v>
       </c>
@@ -4982,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="36"/>
       <c r="C82" s="24"/>
       <c r="D82" s="26">
@@ -5046,11 +6918,11 @@
         <v>447.344999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="s">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B83" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="44"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="29">
         <v>10</v>
       </c>
@@ -5097,8 +6969,8 @@
         <v>77.2777777777777</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B84" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="25" t="s">
@@ -5150,8 +7022,8 @@
         <v>447.344999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="39"/>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B85" s="50"/>
       <c r="C85" s="25" t="s">
         <v>22</v>
       </c>
@@ -5201,8 +7073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="40"/>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B86" s="41"/>
       <c r="C86" s="25" t="s">
         <v>25</v>
       </c>
@@ -5252,8 +7124,8 @@
         <v>733.05399999999804</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="38" t="s">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B87" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="25" t="s">
@@ -5305,8 +7177,8 @@
         <v>53.317144616080597</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B88" s="41"/>
       <c r="C88" s="23" t="s">
         <v>8</v>
       </c>
@@ -5356,7 +7228,7 @@
         <v>635.58185538391797</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="34"/>
       <c r="C89" s="35" t="s">
         <v>26</v>
@@ -5422,7 +7294,7 @@
         <v>1421.9529999999966</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="34"/>
       <c r="C90" s="35" t="s">
         <v>30</v>
@@ -5488,7 +7360,7 @@
         <v>1233.7161446160778</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="34"/>
       <c r="C91" s="35" t="s">
         <v>31</v>
@@ -5539,7 +7411,7 @@
         <v>601.25893286548501</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="34"/>
       <c r="C92" s="35" t="s">
         <v>33</v>
@@ -5605,7 +7477,7 @@
         <v>1834.9750774815629</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="34"/>
       <c r="C93" s="35" t="s">
         <v>34</v>
@@ -5656,7 +7528,7 @@
         <v>1706.87907748156</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C94" s="35" t="s">
         <v>29</v>
       </c>
@@ -5721,49 +7593,49 @@
         <v>128.09600000000296</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C95" s="35"/>
     </row>
-    <row r="97" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B97" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B98" s="22"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="41" t="s">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B99" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="45">
+      <c r="C99" s="49"/>
+      <c r="D99" s="42">
         <v>0.25</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="45">
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="42">
         <v>0.5</v>
       </c>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="45">
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="42">
         <v>0.75</v>
       </c>
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
-      <c r="Q99" s="46"/>
-      <c r="R99" s="47"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="41" t="s">
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="44"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B100" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="42"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="9">
         <v>40</v>
       </c>
@@ -5810,8 +7682,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" s="38" t="s">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B101" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="25" t="s">
@@ -5863,8 +7735,8 @@
         <v>6354.0019999999904</v>
       </c>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="40"/>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B102" s="41"/>
       <c r="C102" s="25" t="s">
         <v>8</v>
       </c>
@@ -5914,7 +7786,7 @@
         <v>5716.29</v>
       </c>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="36"/>
       <c r="C103" s="24"/>
       <c r="D103" s="26">
@@ -5978,11 +7850,11 @@
         <v>12070.29199999999</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="43" t="s">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="44"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="29">
         <v>45.403225806451601</v>
       </c>
@@ -6029,8 +7901,8 @@
         <v>45.735663082437199</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="38" t="s">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B105" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="25" t="s">
@@ -6082,8 +7954,8 @@
         <v>6354.0019999999904</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="39"/>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B106" s="50"/>
       <c r="C106" s="25" t="s">
         <v>22</v>
       </c>
@@ -6133,8 +8005,8 @@
         <v>69848.159999999902</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="40"/>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B107" s="41"/>
       <c r="C107" s="25" t="s">
         <v>25</v>
       </c>
@@ -6184,8 +8056,8 @@
         <v>13189.684999999899</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="38" t="s">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B108" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="25" t="s">
@@ -6237,8 +8109,8 @@
         <v>2569.5189999999502</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="40"/>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B109" s="41"/>
       <c r="C109" s="23" t="s">
         <v>8</v>
       </c>
@@ -6288,7 +8160,7 @@
         <v>16573.290000000201</v>
       </c>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B110" s="34"/>
       <c r="C110" s="35" t="s">
         <v>26</v>
@@ -6354,7 +8226,7 @@
         <v>32332.49400000005</v>
       </c>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B111" s="34"/>
       <c r="C111" s="35" t="s">
         <v>27</v>
@@ -6420,50 +8292,50 @@
         <v>91961.365999999747</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="34"/>
       <c r="C112" s="35"/>
     </row>
-    <row r="114" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B114" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B115" s="22"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="41" t="s">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B116" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="45">
+      <c r="C116" s="49"/>
+      <c r="D116" s="42">
         <v>0.25</v>
       </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="45">
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="42">
         <v>0.5</v>
       </c>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="45">
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="42">
         <v>0.75</v>
       </c>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="46"/>
-      <c r="R116" s="47"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="41" t="s">
+      <c r="O116" s="43"/>
+      <c r="P116" s="43"/>
+      <c r="Q116" s="43"/>
+      <c r="R116" s="44"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B117" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="42"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="9">
         <v>40</v>
       </c>
@@ -6510,8 +8382,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B118" s="38" t="s">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B118" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="25" t="s">
@@ -6563,8 +8435,8 @@
         <v>12070.291999999999</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="40"/>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B119" s="41"/>
       <c r="C119" s="25" t="s">
         <v>8</v>
       </c>
@@ -6614,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B120" s="36"/>
       <c r="C120" s="24"/>
       <c r="D120" s="26">
@@ -6678,11 +8550,11 @@
         <v>12070.291999999999</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="43" t="s">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B121" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="44"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="29">
         <v>60.2822580645161</v>
       </c>
@@ -6729,8 +8601,8 @@
         <v>99.202508960573397</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B122" s="38" t="s">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B122" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="25" t="s">
@@ -6782,8 +8654,8 @@
         <v>12070.291999999999</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="39"/>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B123" s="50"/>
       <c r="C123" s="25" t="s">
         <v>22</v>
       </c>
@@ -6833,8 +8705,8 @@
         <v>47770.936721560698</v>
       </c>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="40"/>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B124" s="41"/>
       <c r="C124" s="25" t="s">
         <v>25</v>
       </c>
@@ -6884,8 +8756,8 @@
         <v>31716.034000000702</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B125" s="38" t="s">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B125" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="25" t="s">
@@ -6937,8 +8809,8 @@
         <v>144.37940356997399</v>
       </c>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="40"/>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B126" s="41"/>
       <c r="C126" s="23" t="s">
         <v>8</v>
       </c>
@@ -6988,7 +8860,7 @@
         <v>472.08059643002503</v>
       </c>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B127" s="34"/>
       <c r="C127" s="35" t="s">
         <v>26</v>
@@ -7054,7 +8926,7 @@
         <v>32332.494000000701</v>
       </c>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B128" s="34"/>
       <c r="C128" s="35" t="s">
         <v>30</v>
@@ -7120,7 +8992,7 @@
         <v>91701.642125131373</v>
       </c>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B129" s="34"/>
       <c r="C129" s="35" t="s">
         <v>31</v>
@@ -7171,7 +9043,7 @@
         <v>2288.6559649363298</v>
       </c>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="34"/>
       <c r="C130" s="35" t="s">
         <v>33</v>
@@ -7237,7 +9109,7 @@
         <v>93990.298090067707</v>
       </c>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B131" s="34"/>
       <c r="C131" s="35" t="s">
         <v>34</v>
@@ -7288,7 +9160,7 @@
         <v>2028.93209006712</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B132" s="34"/>
       <c r="C132" s="35" t="s">
         <v>29</v>
@@ -7354,49 +9226,49 @@
         <v>91961.366000000591</v>
       </c>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="37"/>
     </row>
-    <row r="134" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B134" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B135" s="22"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="41" t="s">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B136" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="48"/>
-      <c r="D136" s="45">
+      <c r="C136" s="49"/>
+      <c r="D136" s="42">
         <v>0.25</v>
       </c>
-      <c r="E136" s="46"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="45">
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="42">
         <v>0.5</v>
       </c>
-      <c r="J136" s="46"/>
-      <c r="K136" s="46"/>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="45">
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="42">
         <v>0.75</v>
       </c>
-      <c r="O136" s="46"/>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="46"/>
-      <c r="R136" s="47"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="41" t="s">
+      <c r="O136" s="43"/>
+      <c r="P136" s="43"/>
+      <c r="Q136" s="43"/>
+      <c r="R136" s="44"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B137" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="42"/>
+      <c r="C137" s="46"/>
       <c r="D137" s="9">
         <v>40</v>
       </c>
@@ -7443,8 +9315,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B138" s="38" t="s">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B138" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="25" t="s">
@@ -7496,8 +9368,8 @@
         <v>4135.3130000000001</v>
       </c>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="40"/>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B139" s="41"/>
       <c r="C139" s="25" t="s">
         <v>8</v>
       </c>
@@ -7547,7 +9419,7 @@
         <v>9693.7629999999899</v>
       </c>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="36"/>
       <c r="C140" s="24"/>
       <c r="D140" s="26">
@@ -7611,11 +9483,11 @@
         <v>13829.07599999999</v>
       </c>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="43" t="s">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B141" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="44"/>
+      <c r="C141" s="48"/>
       <c r="D141" s="29">
         <v>24.024226110363301</v>
       </c>
@@ -7662,8 +9534,8 @@
         <v>24.224315836698</v>
       </c>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B142" s="38" t="s">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B142" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="25" t="s">
@@ -7715,8 +9587,8 @@
         <v>4135.3130000000001</v>
       </c>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="39"/>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B143" s="50"/>
       <c r="C143" s="25" t="s">
         <v>22</v>
       </c>
@@ -7766,8 +9638,8 @@
         <v>23899.341</v>
       </c>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="40"/>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B144" s="41"/>
       <c r="C144" s="25" t="s">
         <v>25</v>
       </c>
@@ -7817,8 +9689,8 @@
         <v>6131.6579999999603</v>
       </c>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B145" s="38" t="s">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B145" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="25" t="s">
@@ -7870,8 +9742,8 @@
         <v>3348.3039999999901</v>
       </c>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="40"/>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B146" s="41"/>
       <c r="C146" s="23" t="s">
         <v>8</v>
       </c>
@@ -7921,7 +9793,7 @@
         <v>30062.030999999999</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B147" s="34"/>
       <c r="C147" s="35" t="s">
         <v>26</v>
@@ -7987,7 +9859,7 @@
         <v>39541.992999999951</v>
       </c>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B148" s="34"/>
       <c r="C148" s="35" t="s">
         <v>27</v>
@@ -8053,50 +9925,50 @@
         <v>37514.615999999951</v>
       </c>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B149" s="34"/>
       <c r="C149" s="35"/>
     </row>
-    <row r="151" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B151" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B152" s="22"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="41" t="s">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B153" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="48"/>
-      <c r="D153" s="45">
+      <c r="C153" s="49"/>
+      <c r="D153" s="42">
         <v>0.25</v>
       </c>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="45">
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="42">
         <v>0.5</v>
       </c>
-      <c r="J153" s="46"/>
-      <c r="K153" s="46"/>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="45">
+      <c r="J153" s="43"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="42">
         <v>0.75</v>
       </c>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="47"/>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="41" t="s">
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="44"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B154" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="42"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="9">
         <v>40</v>
       </c>
@@ -8143,8 +10015,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B155" s="38" t="s">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B155" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="25" t="s">
@@ -8196,8 +10068,8 @@
         <v>11653.578529516701</v>
       </c>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="40"/>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B156" s="41"/>
       <c r="C156" s="25" t="s">
         <v>8</v>
       </c>
@@ -8247,7 +10119,7 @@
         <v>2175.4974704832198</v>
       </c>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B157" s="36"/>
       <c r="C157" s="24"/>
       <c r="D157" s="26">
@@ -8311,11 +10183,11 @@
         <v>13829.075999999921</v>
       </c>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="43" t="s">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B158" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="44"/>
+      <c r="C158" s="48"/>
       <c r="D158" s="29">
         <v>28.360215053763401</v>
       </c>
@@ -8362,8 +10234,8 @@
         <v>66.600358422938996</v>
       </c>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B159" s="38" t="s">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B159" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C159" s="25" t="s">
@@ -8415,8 +10287,8 @@
         <v>11653.578529516701</v>
       </c>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="39"/>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B160" s="50"/>
       <c r="C160" s="25" t="s">
         <v>22</v>
       </c>
@@ -8466,8 +10338,8 @@
         <v>446.41410795884099</v>
       </c>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="40"/>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B161" s="41"/>
       <c r="C161" s="25" t="s">
         <v>25</v>
       </c>
@@ -8517,8 +10389,8 @@
         <v>22370.7760000003</v>
       </c>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B162" s="38" t="s">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B162" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="25" t="s">
@@ -8570,8 +10442,8 @@
         <v>2578.0878870677202</v>
       </c>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="40"/>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B163" s="41"/>
       <c r="C163" s="23" t="s">
         <v>8</v>
       </c>
@@ -8621,7 +10493,7 @@
         <v>14593.1291129323</v>
       </c>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B164" s="34"/>
       <c r="C164" s="35" t="s">
         <v>26</v>
@@ -8687,7 +10559,7 @@
         <v>39541.993000000322</v>
       </c>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B165" s="34"/>
       <c r="C165" s="35" t="s">
         <v>30</v>
@@ -8753,7 +10625,7 @@
         <v>37048.85652454356</v>
       </c>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B166" s="34"/>
       <c r="C166" s="35" t="s">
         <v>31</v>
@@ -8804,7 +10676,7 @@
         <v>465.75947545666702</v>
       </c>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B167" s="34"/>
       <c r="C167" s="35" t="s">
         <v>29</v>
@@ -8870,50 +10742,50 @@
         <v>37514.616000000227</v>
       </c>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B168" s="34"/>
       <c r="C168" s="35"/>
     </row>
-    <row r="169" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B169" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B170" s="22"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="41" t="s">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B171" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="48"/>
-      <c r="D171" s="45">
+      <c r="C171" s="49"/>
+      <c r="D171" s="42">
         <v>0.25</v>
       </c>
-      <c r="E171" s="46"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="45">
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="42">
         <v>0.5</v>
       </c>
-      <c r="J171" s="46"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="45">
+      <c r="J171" s="43"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="43"/>
+      <c r="M171" s="43"/>
+      <c r="N171" s="42">
         <v>0.75</v>
       </c>
-      <c r="O171" s="46"/>
-      <c r="P171" s="46"/>
-      <c r="Q171" s="46"/>
-      <c r="R171" s="47"/>
-    </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="41" t="s">
+      <c r="O171" s="43"/>
+      <c r="P171" s="43"/>
+      <c r="Q171" s="43"/>
+      <c r="R171" s="44"/>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B172" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="42"/>
+      <c r="C172" s="46"/>
       <c r="D172" s="9">
         <v>40</v>
       </c>
@@ -8960,8 +10832,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B173" s="38" t="s">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B173" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C173" s="25" t="s">
@@ -9013,8 +10885,8 @@
         <v>12326.682024571801</v>
       </c>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="40"/>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B174" s="41"/>
       <c r="C174" s="25" t="s">
         <v>8</v>
       </c>
@@ -9064,7 +10936,7 @@
         <v>1502.39397542811</v>
       </c>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B175" s="36"/>
       <c r="C175" s="24"/>
       <c r="D175" s="26">
@@ -9128,11 +11000,11 @@
         <v>13829.07599999991</v>
       </c>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="43" t="s">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B176" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="44"/>
+      <c r="C176" s="48"/>
       <c r="D176" s="29">
         <v>28.360215053763401</v>
       </c>
@@ -9179,8 +11051,8 @@
         <v>70.579749103942603</v>
       </c>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B177" s="38" t="s">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B177" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="25" t="s">
@@ -9232,8 +11104,8 @@
         <v>12326.682024571801</v>
       </c>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="39"/>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B178" s="50"/>
       <c r="C178" s="25" t="s">
         <v>22</v>
       </c>
@@ -9283,8 +11155,8 @@
         <v>447.07390122965501</v>
       </c>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="40"/>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B179" s="41"/>
       <c r="C179" s="25" t="s">
         <v>25</v>
       </c>
@@ -9334,8 +11206,8 @@
         <v>23554.240000000202</v>
       </c>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B180" s="38" t="s">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B180" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="25" t="s">
@@ -9387,8 +11259,8 @@
         <v>2470.2381324373</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="40"/>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B181" s="41"/>
       <c r="C181" s="23" t="s">
         <v>8</v>
       </c>
@@ -9438,7 +11310,7 @@
         <v>13517.514867562701</v>
       </c>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B182" s="34"/>
       <c r="C182" s="35" t="s">
         <v>26</v>
@@ -9504,7 +11376,7 @@
         <v>39541.993000000199</v>
       </c>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B183" s="34"/>
       <c r="C183" s="35" t="s">
         <v>30</v>
@@ -9570,7 +11442,7 @@
         <v>38798.234058238959</v>
       </c>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B184" s="34"/>
       <c r="C184" s="35" t="s">
         <v>31</v>
@@ -9621,7 +11493,7 @@
         <v>465.75947545666702</v>
       </c>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B185" s="34"/>
       <c r="C185" s="35" t="s">
         <v>33</v>
@@ -9687,7 +11559,7 @@
         <v>39263.993533695626</v>
       </c>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B186" s="34"/>
       <c r="C186" s="35" t="s">
         <v>34</v>
@@ -9738,7 +11610,7 @@
         <v>1749.3775336955</v>
       </c>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B187" s="34"/>
       <c r="C187" s="35" t="s">
         <v>29</v>
@@ -9804,46 +11676,46 @@
         <v>37514.616000000125</v>
       </c>
     </row>
-    <row r="190" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B190" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B191" s="22"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="41" t="s">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B192" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="48"/>
-      <c r="D192" s="45">
+      <c r="C192" s="49"/>
+      <c r="D192" s="42">
         <v>0.25</v>
       </c>
-      <c r="E192" s="46"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="45">
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+      <c r="I192" s="42">
         <v>0.5</v>
       </c>
-      <c r="J192" s="46"/>
-      <c r="K192" s="46"/>
-      <c r="L192" s="46"/>
-      <c r="M192" s="46"/>
-      <c r="N192" s="45">
+      <c r="J192" s="43"/>
+      <c r="K192" s="43"/>
+      <c r="L192" s="43"/>
+      <c r="M192" s="43"/>
+      <c r="N192" s="42">
         <v>0.75</v>
       </c>
-      <c r="O192" s="46"/>
-      <c r="P192" s="46"/>
-      <c r="Q192" s="46"/>
-      <c r="R192" s="47"/>
-    </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="41" t="s">
+      <c r="O192" s="43"/>
+      <c r="P192" s="43"/>
+      <c r="Q192" s="43"/>
+      <c r="R192" s="44"/>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B193" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="42"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="9">
         <v>40</v>
       </c>
@@ -9890,8 +11762,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B194" s="38" t="s">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B194" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="25" t="s">
@@ -9943,8 +11815,8 @@
         <v>64892.758999999998</v>
       </c>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="40"/>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B195" s="41"/>
       <c r="C195" s="25" t="s">
         <v>8</v>
       </c>
@@ -9994,7 +11866,7 @@
         <v>83217.548999999795</v>
       </c>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B196" s="36"/>
       <c r="C196" s="24"/>
       <c r="D196" s="26">
@@ -10058,11 +11930,11 @@
         <v>148110.30799999979</v>
       </c>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="43" t="s">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B197" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="44"/>
+      <c r="C197" s="48"/>
       <c r="D197" s="29">
         <v>37.490892531876099</v>
       </c>
@@ -10109,8 +11981,8 @@
         <v>37.936247723132901</v>
       </c>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B198" s="38" t="s">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B198" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="25" t="s">
@@ -10162,8 +12034,8 @@
         <v>64892.758999999998</v>
       </c>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="39"/>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B199" s="50"/>
       <c r="C199" s="25" t="s">
         <v>22</v>
       </c>
@@ -10213,8 +12085,8 @@
         <v>582188.41700000002</v>
       </c>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="40"/>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B200" s="41"/>
       <c r="C200" s="25" t="s">
         <v>25</v>
       </c>
@@ -10264,8 +12136,8 @@
         <v>122088.448999985</v>
       </c>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B201" s="38" t="s">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B201" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="25" t="s">
@@ -10317,8 +12189,8 @@
         <v>37533.597000000103</v>
       </c>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="40"/>
+    <row r="202" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B202" s="41"/>
       <c r="C202" s="23" t="s">
         <v>8</v>
       </c>
@@ -10368,7 +12240,7 @@
         <v>257734.99999998201</v>
       </c>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B203" s="34"/>
       <c r="C203" s="35" t="s">
         <v>24</v>
@@ -10434,7 +12306,7 @@
         <v>417357.04599996714</v>
       </c>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C204" s="35" t="s">
         <v>23</v>
       </c>
@@ -10499,52 +12371,52 @@
         <v>806703.22199998505</v>
       </c>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C205" s="35"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C206" s="35"/>
     </row>
-    <row r="207" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B207" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="208" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B208" s="22"/>
     </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="41" t="s">
+    <row r="209" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B209" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="48"/>
-      <c r="D209" s="45">
+      <c r="C209" s="49"/>
+      <c r="D209" s="42">
         <v>0.25</v>
       </c>
-      <c r="E209" s="46"/>
-      <c r="F209" s="46"/>
-      <c r="G209" s="46"/>
-      <c r="H209" s="46"/>
-      <c r="I209" s="45">
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="42">
         <v>0.5</v>
       </c>
-      <c r="J209" s="46"/>
-      <c r="K209" s="46"/>
-      <c r="L209" s="46"/>
-      <c r="M209" s="46"/>
-      <c r="N209" s="45">
+      <c r="J209" s="43"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
+      <c r="M209" s="43"/>
+      <c r="N209" s="42">
         <v>0.75</v>
       </c>
-      <c r="O209" s="46"/>
-      <c r="P209" s="46"/>
-      <c r="Q209" s="46"/>
-      <c r="R209" s="47"/>
-    </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="41" t="s">
+      <c r="O209" s="43"/>
+      <c r="P209" s="43"/>
+      <c r="Q209" s="43"/>
+      <c r="R209" s="44"/>
+    </row>
+    <row r="210" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B210" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="42"/>
+      <c r="C210" s="46"/>
       <c r="D210" s="9">
         <v>40</v>
       </c>
@@ -10591,8 +12463,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B211" s="38" t="s">
+    <row r="211" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B211" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C211" s="25" t="s">
@@ -10644,8 +12516,8 @@
         <v>143837.329561235</v>
       </c>
     </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="40"/>
+    <row r="212" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B212" s="41"/>
       <c r="C212" s="25" t="s">
         <v>8</v>
       </c>
@@ -10695,7 +12567,7 @@
         <v>4272.9784387647796</v>
       </c>
     </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B213" s="36"/>
       <c r="C213" s="24"/>
       <c r="D213" s="26">
@@ -10759,11 +12631,11 @@
         <v>148110.30799999979</v>
       </c>
     </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="43" t="s">
+    <row r="214" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B214" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="44"/>
+      <c r="C214" s="48"/>
       <c r="D214" s="29">
         <v>48.226320582877896</v>
       </c>
@@ -10810,8 +12682,8 @@
         <v>90.570582877959893</v>
       </c>
     </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="38" t="s">
+    <row r="215" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B215" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C215" s="25" t="s">
@@ -10863,8 +12735,8 @@
         <v>143837.329561235</v>
       </c>
     </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="39"/>
+    <row r="216" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B216" s="50"/>
       <c r="C216" s="25" t="s">
         <v>22</v>
       </c>
@@ -10914,8 +12786,8 @@
         <v>297307.87253847002</v>
       </c>
     </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="40"/>
+    <row r="217" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B217" s="41"/>
       <c r="C217" s="25" t="s">
         <v>25</v>
       </c>
@@ -10965,8 +12837,8 @@
         <v>352606.74000000802</v>
       </c>
     </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B218" s="38" t="s">
+    <row r="218" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B218" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="25" t="s">
@@ -11018,8 +12890,8 @@
         <v>11229.1503665984</v>
       </c>
     </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="40"/>
+    <row r="219" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B219" s="41"/>
       <c r="C219" s="23" t="s">
         <v>8</v>
       </c>
@@ -11069,7 +12941,7 @@
         <v>53521.155633401097</v>
       </c>
     </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B220" s="34"/>
       <c r="C220" s="35" t="s">
         <v>24</v>
@@ -11135,7 +13007,7 @@
         <v>417357.04600000754</v>
       </c>
     </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C221" s="35" t="s">
         <v>30</v>
       </c>
@@ -11200,7 +13072,7 @@
         <v>804981.09246631141</v>
       </c>
     </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C222" s="35" t="s">
         <v>31</v>
       </c>
@@ -11250,7 +13122,7 @@
         <v>1722.1295336955</v>
       </c>
     </row>
-    <row r="223" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C223" s="35" t="s">
         <v>29</v>
       </c>
@@ -11317,29 +13189,67 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
     <mergeCell ref="B171:C171"/>
     <mergeCell ref="B172:C172"/>
     <mergeCell ref="B173:B174"/>
@@ -11364,67 +13274,29 @@
     <mergeCell ref="B136:C136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="N136:R136"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D9ACA-B772-4470-9CA8-2DF1D3038D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B13CDCF-7C5A-43EB-9C8C-74DE12799128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="profits_costs" sheetId="2" r:id="rId1"/>
     <sheet name="Distributions" sheetId="3" r:id="rId2"/>
+    <sheet name="transpose" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="60">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -176,22 +177,67 @@
     <t>Distribution of energy within the P2P market in 2016, when users are equipped battery - init values are zero (it doesn’t differantiate significantly when simulated for the whole year)</t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market on November 6th, 2016</t>
+    <t>Prosumers Balance</t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market on November 6th, 2016, when users are equipped battery - init value is the previous hour</t>
+    <t xml:space="preserve">Prosumers Profits </t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market on August, 2016</t>
+    <t xml:space="preserve">Prosumers Costs </t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market on August, 2016, when users are equipped battery - init value is the previous hour</t>
+    <t xml:space="preserve">Buyers Costs </t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market on January, 2016</t>
+    <t>Buyers Costs (P2P)</t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market in 2016, when users are equipped battery - Zero init values</t>
+    <t>Buyers Costs (Supp)</t>
+  </si>
+  <si>
+    <t>Buyers Total Costs</t>
+  </si>
+  <si>
+    <t>Prosumers Profits (P2P)</t>
+  </si>
+  <si>
+    <t>Prosumers Profits (FiT)</t>
+  </si>
+  <si>
+    <t>No P2P</t>
+  </si>
+  <si>
+    <t>All Users Balance</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on April 21st, 2016</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on April 21st, 2016, when users are equipped battery - init value is the previous hour</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on November 6th, 2016</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on November 6th, 2016, when users are equipped battery - init value is the previous hour</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on August, 2016</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on August, 2016, when users are equipped battery - init value is the previous hour</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market on January, 2016</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market in January, 2016, when users are equipped battery - Zero init values</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market in 2016</t>
+  </si>
+  <si>
+    <t>Profits within the P2P market in 2016, when users are equipped battery - Zero init values</t>
   </si>
 </sst>
 </file>
@@ -483,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +576,21 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,33 +600,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,56 +941,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
-  <dimension ref="A2:AK123"/>
+  <dimension ref="A2:AK137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11" style="4"/>
+    <col min="1" max="2" width="11" style="4"/>
+    <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="55"/>
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="36">
+      <c r="E3" s="41">
         <v>0.25</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="41">
         <v>0.5</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="36">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="41">
         <v>0.75</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38"/>
-    </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="56"/>
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24"/>
       <c r="E4" s="2">
         <v>40</v>
       </c>
@@ -976,583 +1038,394 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C5" s="39" t="s">
-        <v>6</v>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>12.00272</v>
-      </c>
-      <c r="F5" s="6">
-        <v>28.240159999999999</v>
-      </c>
-      <c r="G5" s="6">
-        <v>35.706399999999903</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43.729439999999897</v>
-      </c>
-      <c r="I5" s="7">
-        <v>53.0428</v>
-      </c>
-      <c r="J5" s="5">
-        <v>28.240159999999999</v>
-      </c>
-      <c r="K5" s="6">
-        <v>43.729439999999897</v>
-      </c>
-      <c r="L5" s="6">
-        <v>66.544639999999902</v>
-      </c>
-      <c r="M5" s="6">
-        <v>84.455599999999905</v>
-      </c>
-      <c r="N5" s="7">
-        <v>105.9644</v>
-      </c>
-      <c r="O5" s="5">
-        <v>35.706399999999903</v>
-      </c>
-      <c r="P5" s="6">
-        <v>66.544639999999902</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>97.811440000000005</v>
-      </c>
-      <c r="R5" s="6">
-        <v>129.084959999999</v>
-      </c>
-      <c r="S5" s="7">
-        <v>168.63015999999899</v>
-      </c>
-    </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
+        <v>42</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="53"/>
       <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="F6" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="G6" s="13">
-        <v>186.85999999999899</v>
-      </c>
-      <c r="H6" s="13">
-        <v>251.23320000000001</v>
-      </c>
-      <c r="I6" s="14">
-        <v>327.44159999999999</v>
-      </c>
-      <c r="J6" s="12">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="K6" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="L6" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="M6" s="13">
-        <v>172.738799999999</v>
-      </c>
-      <c r="N6" s="14">
-        <v>203.89079999999899</v>
-      </c>
-      <c r="O6" s="12">
-        <v>26.415599999999898</v>
-      </c>
-      <c r="P6" s="13">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="R6" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="S6" s="14">
-        <v>112.9804</v>
-      </c>
-    </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="53"/>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>19.9031494405743</v>
-      </c>
-      <c r="F7" s="6">
-        <v>46.439450326183</v>
-      </c>
-      <c r="G7" s="6">
-        <v>60.432492848047303</v>
-      </c>
-      <c r="H7" s="6">
-        <v>77.024386887912101</v>
-      </c>
-      <c r="I7" s="7">
-        <v>95.749359427952399</v>
-      </c>
-      <c r="J7" s="5">
-        <v>35.089276890691799</v>
-      </c>
-      <c r="K7" s="6">
-        <v>57.337500523445001</v>
-      </c>
-      <c r="L7" s="6">
-        <v>87.461851631575996</v>
-      </c>
-      <c r="M7" s="6">
-        <v>110.576998467123</v>
-      </c>
-      <c r="N7" s="7">
-        <v>136.800016920974</v>
-      </c>
-      <c r="O7" s="5">
-        <v>40.905893508044798</v>
-      </c>
-      <c r="P7" s="6">
-        <v>75.286865310576005</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>109.102090852781</v>
-      </c>
-      <c r="R7" s="6">
-        <v>145.221882917588</v>
-      </c>
-      <c r="S7" s="7">
-        <v>189.311366370169</v>
-      </c>
-    </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C8" s="40"/>
       <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12">
-        <v>49.662336690631797</v>
-      </c>
-      <c r="F8" s="13">
-        <v>107.21655010873199</v>
-      </c>
-      <c r="G8" s="13">
-        <v>141.93901556640699</v>
-      </c>
-      <c r="H8" s="13">
-        <v>190.25180885040399</v>
-      </c>
-      <c r="I8" s="14">
-        <v>248.852880081687</v>
-      </c>
-      <c r="J8" s="12">
-        <v>35.453982014327003</v>
-      </c>
-      <c r="K8" s="13">
-        <v>69.612003741979194</v>
-      </c>
-      <c r="L8" s="13">
-        <v>105.87847861973999</v>
-      </c>
-      <c r="M8" s="13">
-        <v>129.87431215370199</v>
-      </c>
-      <c r="N8" s="14">
-        <v>153.16169422543899</v>
-      </c>
-      <c r="O8" s="12">
-        <v>20.155358115781699</v>
-      </c>
-      <c r="P8" s="13">
-        <v>36.443023207807499</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>50.096358308875701</v>
-      </c>
-      <c r="R8" s="13">
-        <v>72.4151406325187</v>
-      </c>
-      <c r="S8" s="14">
-        <v>87.891907745789396</v>
-      </c>
-    </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C9" s="39" t="s">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="53"/>
       <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C10" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="53"/>
       <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="14" spans="3:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
-      <c r="U16" s="4">
-        <v>19.9031494405743</v>
-      </c>
-      <c r="W16" s="4" cm="1">
-        <f t="array" ref="W16:AK16">TRANSPOSE(U16:U30)</f>
-        <v>19.9031494405743</v>
-      </c>
-      <c r="X16" s="4">
-        <v>46.439450326183</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>60.432492848047303</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>77.024386887912101</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>95.749359427952399</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>35.089276890691799</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>57.337500523445001</v>
-      </c>
-      <c r="AD16" s="4">
-        <v>87.461851631575996</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>110.576998467123</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>136.800016920974</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>40.905893508044798</v>
-      </c>
-      <c r="AH16" s="4">
-        <v>75.286865310576005</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>109.102090852781</v>
-      </c>
-      <c r="AJ16" s="4">
-        <v>145.221882917588</v>
-      </c>
-      <c r="AK16" s="4">
-        <v>189.311366370169</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="2">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1">
-        <v>120</v>
-      </c>
-      <c r="H17" s="1">
-        <v>160</v>
-      </c>
-      <c r="I17" s="1">
-        <v>200</v>
-      </c>
-      <c r="J17" s="2">
-        <v>40</v>
-      </c>
-      <c r="K17" s="1">
-        <v>80</v>
-      </c>
-      <c r="L17" s="1">
-        <v>120</v>
-      </c>
-      <c r="M17" s="1">
-        <v>160</v>
-      </c>
-      <c r="N17" s="1">
-        <v>200</v>
-      </c>
-      <c r="O17" s="2">
-        <v>40</v>
-      </c>
-      <c r="P17" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>120</v>
-      </c>
-      <c r="R17" s="1">
-        <v>160</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-      <c r="U17" s="4">
-        <v>46.439450326183</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="39" t="s">
-        <v>6</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="53"/>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="53"/>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="53"/>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="53"/>
+      <c r="D14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="53"/>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C17" s="53"/>
+      <c r="D17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C18" s="53"/>
       <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5">
-        <v>213.979399882552</v>
-      </c>
-      <c r="F18" s="6">
-        <v>467.24764750055198</v>
-      </c>
-      <c r="G18" s="6">
-        <v>694.50676269174403</v>
-      </c>
-      <c r="H18" s="6">
-        <v>947.15376239309001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1137.0875268699399</v>
-      </c>
-      <c r="J18" s="5">
-        <v>690.845741729427</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1337.02888996774</v>
-      </c>
-      <c r="L18" s="6">
-        <v>2035.15682670263</v>
-      </c>
-      <c r="M18" s="6">
-        <v>2722.2423740374002</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3423.3155817535799</v>
-      </c>
-      <c r="O18" s="5">
-        <v>1076.05001851051</v>
-      </c>
-      <c r="P18" s="6">
-        <v>2182.2545383342199</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>3276.3411864923301</v>
-      </c>
-      <c r="R18" s="6">
-        <v>4353.8029712139996</v>
-      </c>
-      <c r="S18" s="7">
-        <v>5477.8931966463097</v>
-      </c>
-      <c r="U18" s="4">
-        <v>60.432492848047303</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C19" s="53"/>
       <c r="D19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="F19" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="G19" s="13">
-        <v>186.85999999999899</v>
-      </c>
-      <c r="H19" s="13">
-        <v>251.23320000000001</v>
-      </c>
-      <c r="I19" s="14">
-        <v>327.44159999999999</v>
-      </c>
-      <c r="J19" s="12">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="K19" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="L19" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="M19" s="13">
-        <v>172.738799999999</v>
-      </c>
-      <c r="N19" s="14">
-        <v>203.89079999999899</v>
-      </c>
-      <c r="O19" s="12">
-        <v>26.415599999999898</v>
-      </c>
-      <c r="P19" s="13">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="R19" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="S19" s="14">
-        <v>112.9804</v>
-      </c>
-      <c r="U19" s="4">
-        <v>77.024386887912101</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="39" t="s">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C20" s="53"/>
       <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="7"/>
-      <c r="U20" s="4">
-        <v>95.749359427952399</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="40"/>
+        <v>46</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C21" s="53"/>
       <c r="D21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="U21" s="4">
-        <v>35.089276890691799</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="39" t="s">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C22" s="53"/>
       <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="7"/>
-      <c r="U22" s="4">
-        <v>57.337500523445001</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C23" s="40"/>
+        <v>39</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C23" s="54"/>
       <c r="D23" s="11" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
@@ -1569,346 +1442,407 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="14"/>
-      <c r="U23" s="4">
+    </row>
+    <row r="27" spans="3:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43"/>
+      <c r="U29" s="4">
+        <v>19.9031494405743</v>
+      </c>
+      <c r="W29" s="4" cm="1">
+        <f t="array" ref="W29:AK29">TRANSPOSE(U29:U43)</f>
+        <v>19.9031494405743</v>
+      </c>
+      <c r="X29" s="4">
+        <v>46.439450326183</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>60.432492848047303</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>77.024386887912101</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>95.749359427952399</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>35.089276890691799</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>57.337500523445001</v>
+      </c>
+      <c r="AD29" s="4">
         <v>87.461851631575996</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U24" s="4">
+      <c r="AE29" s="4">
         <v>110.576998467123</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U25" s="4">
+      <c r="AF29" s="4">
         <v>136.800016920974</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="21"/>
-      <c r="U26" s="4">
+      <c r="AG29" s="4">
         <v>40.905893508044798</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" s="4">
+      <c r="AH29" s="4">
         <v>75.286865310576005</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="38"/>
-      <c r="U28" s="4">
+      <c r="AI29" s="4">
         <v>109.102090852781</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="AJ29" s="4">
+        <v>145.221882917588</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>189.311366370169</v>
+      </c>
+    </row>
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="2">
+      <c r="D30" s="24"/>
+      <c r="E30" s="2">
         <v>40</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>80</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>120</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>160</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>200</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J30" s="2">
         <v>40</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>80</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L30" s="1">
         <v>120</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M30" s="1">
         <v>160</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N30" s="1">
         <v>200</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O30" s="2">
         <v>40</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P30" s="1">
         <v>80</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q30" s="1">
         <v>120</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R30" s="1">
         <v>160</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S30" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="4">
-        <v>145.221882917588</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C30" s="39" t="s">
+      <c r="U30" s="4">
+        <v>46.439450326183</v>
+      </c>
+    </row>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="5">
-        <v>-39.501679999999901</v>
-      </c>
-      <c r="F30" s="6">
-        <v>-67.047039999999996</v>
-      </c>
-      <c r="G30" s="6">
-        <v>-116.94687999999999</v>
-      </c>
-      <c r="H30" s="6">
-        <v>-138.19551999999999</v>
-      </c>
-      <c r="I30" s="7">
-        <v>-171.47631999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>-67.047039999999996</v>
-      </c>
-      <c r="K30" s="6">
-        <v>-138.19551999999999</v>
-      </c>
-      <c r="L30" s="6">
-        <v>-205.56048000000001</v>
-      </c>
-      <c r="M30" s="6">
-        <v>-288.45175999999901</v>
-      </c>
-      <c r="N30" s="7">
-        <v>-359.64199999999897</v>
-      </c>
-      <c r="O30" s="5">
-        <v>-116.94687999999999</v>
-      </c>
-      <c r="P30" s="6">
-        <v>-205.56048000000001</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>-318.34607999999901</v>
-      </c>
-      <c r="R30" s="6">
-        <v>-424.31671999999799</v>
-      </c>
-      <c r="S30" s="7">
-        <v>-527.28583999999796</v>
-      </c>
-      <c r="U30" s="4">
-        <v>189.311366370169</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C31" s="40"/>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="5">
+        <v>213.979399882552</v>
+      </c>
+      <c r="F31" s="6">
+        <v>467.24764750055198</v>
+      </c>
+      <c r="G31" s="6">
+        <v>694.50676269174403</v>
+      </c>
+      <c r="H31" s="6">
+        <v>947.15376239309001</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1137.0875268699399</v>
+      </c>
+      <c r="J31" s="5">
+        <v>690.845741729427</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1337.02888996774</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2035.15682670263</v>
+      </c>
+      <c r="M31" s="6">
+        <v>2722.2423740374002</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3423.3155817535799</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1076.05001851051</v>
+      </c>
+      <c r="P31" s="6">
+        <v>2182.2545383342199</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>3276.3411864923301</v>
+      </c>
+      <c r="R31" s="6">
+        <v>4353.8029712139996</v>
+      </c>
+      <c r="S31" s="7">
+        <v>5477.8931966463097</v>
+      </c>
+      <c r="U31" s="4">
+        <v>60.432492848047303</v>
+      </c>
+    </row>
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C32" s="40"/>
+      <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="12">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="F31" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="G31" s="13">
-        <v>303.19439999999997</v>
-      </c>
-      <c r="H31" s="13">
-        <v>405.10919999999999</v>
-      </c>
-      <c r="I31" s="14">
-        <v>538.44199999999898</v>
-      </c>
-      <c r="J31" s="12">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="K31" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="L31" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="M31" s="13">
-        <v>277.55759999999901</v>
-      </c>
-      <c r="N31" s="14">
-        <v>338.86160000000001</v>
-      </c>
-      <c r="O31" s="12">
-        <v>37.567999999999998</v>
-      </c>
-      <c r="P31" s="13">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="R31" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="S31" s="14">
-        <v>178.93799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="39" t="s">
+      <c r="E32" s="12">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="F32" s="13">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="G32" s="13">
+        <v>186.85999999999899</v>
+      </c>
+      <c r="H32" s="13">
+        <v>251.23320000000001</v>
+      </c>
+      <c r="I32" s="14">
+        <v>327.44159999999999</v>
+      </c>
+      <c r="J32" s="12">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="K32" s="13">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="L32" s="13">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="M32" s="13">
+        <v>172.738799999999</v>
+      </c>
+      <c r="N32" s="14">
+        <v>203.89079999999899</v>
+      </c>
+      <c r="O32" s="12">
+        <v>26.415599999999898</v>
+      </c>
+      <c r="P32" s="13">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="R32" s="13">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="S32" s="14">
+        <v>112.9804</v>
+      </c>
+      <c r="U32" s="4">
+        <v>77.024386887912101</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="7"/>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C33" s="40"/>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="7"/>
+      <c r="U33" s="4">
+        <v>95.749359427952399</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="40"/>
+      <c r="D34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="14"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="14"/>
+      <c r="U34" s="4">
+        <v>35.089276890691799</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="7"/>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="40"/>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="7"/>
+      <c r="U35" s="4">
+        <v>57.337500523445001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="40"/>
+      <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="14"/>
-    </row>
-    <row r="39" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C39" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="14"/>
+      <c r="U36" s="4">
+        <v>87.461851631575996</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U37" s="4">
+        <v>110.576998467123</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U38" s="4">
+        <v>136.800016920974</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="21"/>
+      <c r="U39" s="4">
+        <v>40.905893508044798</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="4">
+        <v>75.286865310576005</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="36">
+      <c r="E41" s="41">
         <v>0.25</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="36">
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="41">
         <v>0.5</v>
       </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="36">
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="41">
         <v>0.75</v>
       </c>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="38"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="43"/>
+      <c r="U41" s="4">
+        <v>109.102090852781</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
         <v>2</v>
       </c>
@@ -1958,8 +1892,11 @@
       <c r="S42" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="U42" s="4">
+        <v>145.221882917588</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="39" t="s">
         <v>6</v>
       </c>
@@ -1982,37 +1919,40 @@
         <v>-171.47631999999999</v>
       </c>
       <c r="J43" s="5">
-        <v>-52.923969252390201</v>
+        <v>-67.047039999999996</v>
       </c>
       <c r="K43" s="6">
-        <v>-137.299464532722</v>
+        <v>-138.19551999999999</v>
       </c>
       <c r="L43" s="6">
-        <v>-181.81539635732901</v>
+        <v>-205.56048000000001</v>
       </c>
       <c r="M43" s="6">
-        <v>-277.10412007401197</v>
+        <v>-288.45175999999901</v>
       </c>
       <c r="N43" s="7">
-        <v>-345.00888493787397</v>
+        <v>-359.64199999999897</v>
       </c>
       <c r="O43" s="5">
-        <v>403.24862176261502</v>
+        <v>-116.94687999999999</v>
       </c>
       <c r="P43" s="6">
-        <v>934.81633852824496</v>
+        <v>-205.56048000000001</v>
       </c>
       <c r="Q43" s="6">
-        <v>1404.73547832093</v>
+        <v>-318.34607999999901</v>
       </c>
       <c r="R43" s="6">
-        <v>1594.8872653257899</v>
+        <v>-424.31671999999799</v>
       </c>
       <c r="S43" s="7">
-        <v>2058.8518970886598</v>
-      </c>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+        <v>-527.28583999999796</v>
+      </c>
+      <c r="U43" s="4">
+        <v>189.311366370169</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
       <c r="D44" s="11" t="s">
         <v>3</v>
@@ -2063,7 +2003,7 @@
         <v>178.93799999999999</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="39" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2026,7 @@
       <c r="R45" s="6"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="40"/>
       <c r="D46" s="11" t="s">
         <v>3</v>
@@ -2107,7 +2047,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="39" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2070,7 @@
       <c r="R47" s="6"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="40"/>
       <c r="D48" s="11" t="s">
         <v>3</v>
@@ -2153,238 +2093,183 @@
     </row>
     <row r="52" spans="3:19" ht="18" x14ac:dyDescent="0.25">
       <c r="C52" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="38"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="43"/>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="2">
+      <c r="D55" s="24"/>
+      <c r="E55" s="2">
         <v>40</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F55" s="1">
         <v>80</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G55" s="1">
         <v>120</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H55" s="1">
         <v>160</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I55" s="1">
         <v>200</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J55" s="2">
         <v>40</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K55" s="1">
         <v>80</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L55" s="1">
         <v>120</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M55" s="1">
         <v>160</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N55" s="1">
         <v>200</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O55" s="2">
         <v>40</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P55" s="1">
         <v>80</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q55" s="1">
         <v>120</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R55" s="1">
         <v>160</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S55" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="39" t="s">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C56" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="5">
-        <v>-20.469600000001002</v>
-      </c>
-      <c r="F55" s="6">
-        <v>11.778479999997799</v>
-      </c>
-      <c r="G55" s="6">
-        <v>-246.65439999999199</v>
-      </c>
-      <c r="H55" s="6">
-        <v>-146.98735999999599</v>
-      </c>
-      <c r="I55" s="7">
-        <v>-176.28743999998801</v>
-      </c>
-      <c r="J55" s="5">
-        <v>11.778479999997799</v>
-      </c>
-      <c r="K55" s="6">
-        <v>-146.98735999999599</v>
-      </c>
-      <c r="L55" s="6">
-        <v>-183.594879999977</v>
-      </c>
-      <c r="M55" s="6">
-        <v>-364.49639999999602</v>
-      </c>
-      <c r="N55" s="7">
-        <v>-451.898960000047</v>
-      </c>
-      <c r="O55" s="5">
-        <v>-246.65439999999199</v>
-      </c>
-      <c r="P55" s="6">
-        <v>-183.594879999977</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>-332.499760000008</v>
-      </c>
-      <c r="R55" s="6">
-        <v>-597.73664000006102</v>
-      </c>
-      <c r="S55" s="7">
-        <v>-533.14304000011998</v>
-      </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="40"/>
-      <c r="D56" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="12">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="F56" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="G56" s="13">
-        <v>8190.7740000000003</v>
-      </c>
-      <c r="H56" s="13">
-        <v>11052.956399999999</v>
-      </c>
-      <c r="I56" s="14">
-        <v>14117.1923999999</v>
-      </c>
-      <c r="J56" s="12">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="K56" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="L56" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="M56" s="13">
-        <v>7542.5716000000002</v>
-      </c>
-      <c r="N56" s="14">
-        <v>9186.0111999999899</v>
-      </c>
-      <c r="O56" s="12">
-        <v>1056.5555999999999</v>
-      </c>
-      <c r="P56" s="13">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="Q56" s="13">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="R56" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="S56" s="14">
-        <v>4828.1167999999998</v>
-      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="7"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="7"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="19"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C58" s="40"/>
       <c r="D58" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="14"/>
+      <c r="E58" s="12">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="F58" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="G58" s="13">
+        <v>303.19439999999997</v>
+      </c>
+      <c r="H58" s="13">
+        <v>405.10919999999999</v>
+      </c>
+      <c r="I58" s="14">
+        <v>538.44199999999898</v>
+      </c>
+      <c r="J58" s="12">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="K58" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="L58" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="M58" s="13">
+        <v>277.55759999999901</v>
+      </c>
+      <c r="N58" s="14">
+        <v>338.86160000000001</v>
+      </c>
+      <c r="O58" s="12">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="P58" s="13">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="R58" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="S58" s="14">
+        <v>178.93799999999999</v>
+      </c>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C59" s="39" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>7</v>
@@ -2426,994 +2311,960 @@
       <c r="R60" s="13"/>
       <c r="S60" s="14"/>
     </row>
-    <row r="64" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C64" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C61" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="7"/>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C62" s="40"/>
+      <c r="D62" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="14"/>
+    </row>
+    <row r="66" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C66" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="36">
+      <c r="D67" s="10"/>
+      <c r="E67" s="41">
         <v>0.25</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="36">
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="41">
         <v>0.5</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="36">
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="41">
         <v>0.75</v>
       </c>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="38"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="43"/>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C68" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="2">
+      <c r="D68" s="24"/>
+      <c r="E68" s="2">
         <v>40</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F68" s="1">
         <v>80</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G68" s="1">
         <v>120</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H68" s="1">
         <v>160</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I68" s="1">
         <v>200</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J68" s="2">
         <v>40</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K68" s="1">
         <v>80</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L68" s="1">
         <v>120</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M68" s="1">
         <v>160</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N68" s="1">
         <v>200</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O68" s="2">
         <v>40</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P68" s="1">
         <v>80</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q68" s="1">
         <v>120</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R68" s="1">
         <v>160</v>
       </c>
-      <c r="S67" s="3">
+      <c r="S68" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C69" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="5">
+        <v>-20.469600000001002</v>
+      </c>
+      <c r="F69" s="6">
+        <v>11.778479999997799</v>
+      </c>
+      <c r="G69" s="6">
+        <v>-246.65439999999199</v>
+      </c>
+      <c r="H69" s="6">
+        <v>-146.98735999999599</v>
+      </c>
+      <c r="I69" s="7">
+        <v>-176.28743999998801</v>
+      </c>
+      <c r="J69" s="5">
+        <v>11.778479999997799</v>
+      </c>
+      <c r="K69" s="6">
+        <v>-146.98735999999599</v>
+      </c>
+      <c r="L69" s="6">
+        <v>-183.594879999977</v>
+      </c>
+      <c r="M69" s="6">
+        <v>-364.49639999999602</v>
+      </c>
+      <c r="N69" s="7">
+        <v>-451.898960000047</v>
+      </c>
+      <c r="O69" s="5">
+        <v>-246.65439999999199</v>
+      </c>
+      <c r="P69" s="6">
+        <v>-183.594879999977</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>-332.499760000008</v>
+      </c>
+      <c r="R69" s="6">
+        <v>-597.73664000006102</v>
+      </c>
+      <c r="S69" s="7">
+        <v>-533.14304000011998</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C70" s="40"/>
+      <c r="D70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="12">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="F70" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="G70" s="13">
+        <v>8190.7740000000003</v>
+      </c>
+      <c r="H70" s="13">
+        <v>11052.956399999999</v>
+      </c>
+      <c r="I70" s="14">
+        <v>14117.1923999999</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="K70" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="L70" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="M70" s="13">
+        <v>7542.5716000000002</v>
+      </c>
+      <c r="N70" s="14">
+        <v>9186.0111999999899</v>
+      </c>
+      <c r="O70" s="12">
+        <v>1056.5555999999999</v>
+      </c>
+      <c r="P70" s="13">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="R70" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="S70" s="14">
+        <v>4828.1167999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C71" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="7"/>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C72" s="40"/>
+      <c r="D72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="14"/>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C73" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C74" s="40"/>
+      <c r="D74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="14"/>
+    </row>
+    <row r="78" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="43"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="2">
+        <v>40</v>
+      </c>
+      <c r="F81" s="1">
+        <v>80</v>
+      </c>
+      <c r="G81" s="1">
+        <v>120</v>
+      </c>
+      <c r="H81" s="1">
+        <v>160</v>
+      </c>
+      <c r="I81" s="1">
+        <v>200</v>
+      </c>
+      <c r="J81" s="2">
+        <v>40</v>
+      </c>
+      <c r="K81" s="1">
+        <v>80</v>
+      </c>
+      <c r="L81" s="1">
+        <v>120</v>
+      </c>
+      <c r="M81" s="1">
+        <v>160</v>
+      </c>
+      <c r="N81" s="1">
+        <v>200</v>
+      </c>
+      <c r="O81" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>120</v>
+      </c>
+      <c r="R81" s="1">
+        <v>160</v>
+      </c>
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C82" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5">
         <v>1347.0157639399199</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F82" s="6">
         <v>2889.10194178645</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G82" s="6">
         <v>3897.6967613308302</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H82" s="6">
         <v>5528.5760184048704</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I82" s="7">
         <v>6926.8878754609204</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J82" s="5">
         <v>17875.025137457</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K82" s="6">
         <v>32998.851611536702</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L82" s="6">
         <v>51425.252160948097</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M82" s="6">
         <v>67865.1635257491</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N82" s="7">
         <v>85879.339286614006</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O82" s="5">
         <v>29398.7842612811</v>
       </c>
-      <c r="P68" s="6">
+      <c r="P82" s="6">
         <v>61568.4171596714</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="Q82" s="6">
         <v>92239.787022626595</v>
       </c>
-      <c r="R68" s="6">
+      <c r="R82" s="6">
         <v>122128.22478471301</v>
       </c>
-      <c r="S68" s="7">
+      <c r="S82" s="7">
         <v>154244.014362132</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C69" s="40"/>
-      <c r="D69" s="11" t="s">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C83" s="40"/>
+      <c r="D83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E83" s="12">
         <v>2786.5972000000002</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F83" s="13">
         <v>5697.0415999999896</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G83" s="13">
         <v>8190.7740000000003</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H83" s="13">
         <v>11052.956399999999</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I83" s="14">
         <v>14117.1923999999</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J83" s="12">
         <v>1883.42479999999</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K83" s="13">
         <v>3972.1223999999902</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L83" s="13">
         <v>5697.0415999999896</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M83" s="13">
         <v>7542.5716000000002</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N83" s="14">
         <v>9186.0111999999899</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O83" s="12">
         <v>1056.5555999999999</v>
       </c>
-      <c r="P69" s="13">
+      <c r="P83" s="13">
         <v>1883.42479999999</v>
       </c>
-      <c r="Q69" s="13">
+      <c r="Q83" s="13">
         <v>2786.5972000000002</v>
       </c>
-      <c r="R69" s="13">
+      <c r="R83" s="13">
         <v>3972.1223999999902</v>
       </c>
-      <c r="S69" s="14">
+      <c r="S83" s="14">
         <v>4828.1167999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C70" s="39" t="s">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C84" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="7"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C71" s="40"/>
-      <c r="D71" s="11" t="s">
+      <c r="E84" s="5"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="7"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C85" s="40"/>
+      <c r="D85" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="14"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C72" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="E85" s="12"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="14"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="7"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C73" s="40"/>
-      <c r="D73" s="11" t="s">
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C87" s="40"/>
+      <c r="D87" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="14"/>
-    </row>
-    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="29"/>
-      <c r="E78" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="38"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" s="1">
-        <v>80</v>
-      </c>
-      <c r="G79" s="1">
-        <v>120</v>
-      </c>
-      <c r="H79" s="1">
-        <v>160</v>
-      </c>
-      <c r="I79" s="1">
-        <v>200</v>
-      </c>
-      <c r="J79" s="2">
-        <v>40</v>
-      </c>
-      <c r="K79" s="1">
-        <v>80</v>
-      </c>
-      <c r="L79" s="1">
-        <v>120</v>
-      </c>
-      <c r="M79" s="1">
-        <v>160</v>
-      </c>
-      <c r="N79" s="1">
-        <v>200</v>
-      </c>
-      <c r="O79" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>120</v>
-      </c>
-      <c r="R79" s="1">
-        <v>160</v>
-      </c>
-      <c r="S79" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="26">
-        <v>-653.95656000000201</v>
-      </c>
-      <c r="F80" s="26">
-        <v>-1117.1593599999901</v>
-      </c>
-      <c r="G80" s="26">
-        <v>-2115.90112</v>
-      </c>
-      <c r="H80" s="26">
-        <v>-2568.8923999999902</v>
-      </c>
-      <c r="I80" s="27">
-        <v>-3267.6420800000001</v>
-      </c>
-      <c r="J80" s="26">
-        <v>-1117.1593599999901</v>
-      </c>
-      <c r="K80" s="26">
-        <v>-2568.8923999999902</v>
-      </c>
-      <c r="L80" s="26">
-        <v>-3895.7800000000102</v>
-      </c>
-      <c r="M80" s="26">
-        <v>-5451.1823199999999</v>
-      </c>
-      <c r="N80" s="27">
-        <v>-6711.9140800000096</v>
-      </c>
-      <c r="O80" s="26">
-        <v>-2115.90112</v>
-      </c>
-      <c r="P80" s="26">
-        <v>-3895.7800000000102</v>
-      </c>
-      <c r="Q80" s="26">
-        <v>-5954.1264000000501</v>
-      </c>
-      <c r="R80" s="26">
-        <v>-8022.38544000006</v>
-      </c>
-      <c r="S80" s="27">
-        <v>-9782.0400800000098</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="F81" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="G81" s="31">
-        <v>9521.5679999999993</v>
-      </c>
-      <c r="H81" s="31">
-        <v>12769.879199999899</v>
-      </c>
-      <c r="I81" s="32">
-        <v>16299.1023999999</v>
-      </c>
-      <c r="J81" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="K81" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="L81" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="M81" s="31">
-        <v>8658.7952000000096</v>
-      </c>
-      <c r="N81" s="32">
-        <v>10661.754800000001</v>
-      </c>
-      <c r="O81" s="31">
-        <v>1233.0303999999901</v>
-      </c>
-      <c r="P81" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="Q81" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="R81" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="S81" s="32">
-        <v>5531.63039999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="27"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="32"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="27"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="32"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="26"/>
-      <c r="S87" s="26"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="26"/>
-    </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
-      <c r="S89" s="26"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E87" s="12"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="14"/>
+    </row>
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
-      <c r="C91" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="29"/>
-      <c r="E91" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="38"/>
+      <c r="C91" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" s="29"/>
-      <c r="E92" s="2">
-        <v>40</v>
-      </c>
-      <c r="F92" s="1">
-        <v>80</v>
-      </c>
-      <c r="G92" s="1">
-        <v>120</v>
-      </c>
-      <c r="H92" s="1">
-        <v>160</v>
-      </c>
-      <c r="I92" s="1">
-        <v>200</v>
-      </c>
-      <c r="J92" s="2">
-        <v>40</v>
-      </c>
-      <c r="K92" s="1">
-        <v>80</v>
-      </c>
-      <c r="L92" s="1">
-        <v>120</v>
-      </c>
-      <c r="M92" s="1">
-        <v>160</v>
-      </c>
-      <c r="N92" s="1">
-        <v>200</v>
-      </c>
-      <c r="O92" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>120</v>
-      </c>
-      <c r="R92" s="1">
-        <v>160</v>
-      </c>
-      <c r="S92" s="3">
-        <v>200</v>
-      </c>
+      <c r="E92" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="43"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
-      <c r="C93" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="26">
-        <v>-373.84705097330402</v>
-      </c>
-      <c r="F93" s="26">
-        <v>-562.76674347951405</v>
-      </c>
-      <c r="G93" s="26">
-        <v>-1368.46561727485</v>
-      </c>
-      <c r="H93" s="26">
-        <v>-1528.4107611506499</v>
-      </c>
-      <c r="I93" s="27">
-        <v>-1916.8771993197799</v>
-      </c>
-      <c r="J93" s="26">
-        <v>1230.35450639943</v>
-      </c>
-      <c r="K93" s="26">
-        <v>1338.09816531294</v>
-      </c>
-      <c r="L93" s="26">
-        <v>2253.84716969797</v>
-      </c>
-      <c r="M93" s="26">
-        <v>2500.2228688598598</v>
-      </c>
-      <c r="N93" s="27">
-        <v>3446.3220905510798</v>
-      </c>
-      <c r="O93" s="26">
-        <v>6457.5991530648398</v>
-      </c>
-      <c r="P93" s="26">
-        <v>16848.4663466688</v>
-      </c>
-      <c r="Q93" s="26">
-        <v>23944.069107949999</v>
-      </c>
-      <c r="R93" s="26">
-        <v>27564.393379085799</v>
-      </c>
-      <c r="S93" s="27">
-        <v>37206.593962543498</v>
+      <c r="C93" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="2">
+        <v>40</v>
+      </c>
+      <c r="F93" s="1">
+        <v>80</v>
+      </c>
+      <c r="G93" s="1">
+        <v>120</v>
+      </c>
+      <c r="H93" s="1">
+        <v>160</v>
+      </c>
+      <c r="I93" s="1">
+        <v>200</v>
+      </c>
+      <c r="J93" s="2">
+        <v>40</v>
+      </c>
+      <c r="K93" s="1">
+        <v>80</v>
+      </c>
+      <c r="L93" s="1">
+        <v>120</v>
+      </c>
+      <c r="M93" s="1">
+        <v>160</v>
+      </c>
+      <c r="N93" s="1">
+        <v>200</v>
+      </c>
+      <c r="O93" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>120</v>
+      </c>
+      <c r="R93" s="1">
+        <v>160</v>
+      </c>
+      <c r="S93" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="42"/>
+      <c r="C94" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="D94" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="F94" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="G94" s="31">
-        <v>9521.5679999999993</v>
-      </c>
-      <c r="H94" s="31">
-        <v>12769.879199999899</v>
-      </c>
-      <c r="I94" s="32">
-        <v>16299.1023999999</v>
-      </c>
-      <c r="J94" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="K94" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="L94" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="M94" s="31">
-        <v>8658.7952000000096</v>
-      </c>
-      <c r="N94" s="32">
-        <v>10661.754800000001</v>
-      </c>
-      <c r="O94" s="31">
-        <v>1233.0303999999901</v>
-      </c>
-      <c r="P94" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="Q94" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="R94" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="S94" s="32">
-        <v>5531.63039999999</v>
+        <v>7</v>
+      </c>
+      <c r="E94" s="26">
+        <v>-653.95656000000201</v>
+      </c>
+      <c r="F94" s="26">
+        <v>-1117.1593599999901</v>
+      </c>
+      <c r="G94" s="26">
+        <v>-2115.90112</v>
+      </c>
+      <c r="H94" s="26">
+        <v>-2568.8923999999902</v>
+      </c>
+      <c r="I94" s="27">
+        <v>-3267.6420800000001</v>
+      </c>
+      <c r="J94" s="26">
+        <v>-1117.1593599999901</v>
+      </c>
+      <c r="K94" s="26">
+        <v>-2568.8923999999902</v>
+      </c>
+      <c r="L94" s="26">
+        <v>-3895.7800000000102</v>
+      </c>
+      <c r="M94" s="26">
+        <v>-5451.1823199999999</v>
+      </c>
+      <c r="N94" s="27">
+        <v>-6711.9140800000096</v>
+      </c>
+      <c r="O94" s="26">
+        <v>-2115.90112</v>
+      </c>
+      <c r="P94" s="26">
+        <v>-3895.7800000000102</v>
+      </c>
+      <c r="Q94" s="26">
+        <v>-5954.1264000000501</v>
+      </c>
+      <c r="R94" s="26">
+        <v>-8022.38544000006</v>
+      </c>
+      <c r="S94" s="27">
+        <v>-9782.0400800000098</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="43" t="s">
-        <v>1</v>
-      </c>
+      <c r="C95" s="37"/>
       <c r="D95" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="E95" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="F95" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="G95" s="31">
+        <v>9521.5679999999993</v>
+      </c>
+      <c r="H95" s="31">
+        <v>12769.879199999899</v>
+      </c>
+      <c r="I95" s="32">
+        <v>16299.1023999999</v>
+      </c>
+      <c r="J95" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="K95" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="L95" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="M95" s="31">
+        <v>8658.7952000000096</v>
+      </c>
+      <c r="N95" s="32">
+        <v>10661.754800000001</v>
+      </c>
+      <c r="O95" s="31">
+        <v>1233.0303999999901</v>
+      </c>
+      <c r="P95" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="Q95" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="R95" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="S95" s="32">
+        <v>5531.63039999999</v>
+      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="42"/>
+      <c r="C96" s="38" t="s">
+        <v>1</v>
+      </c>
       <c r="D96" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31"/>
-      <c r="R96" s="31"/>
-      <c r="S96" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="27"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="43" t="s">
-        <v>0</v>
-      </c>
+      <c r="C97" s="37"/>
       <c r="D97" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="26"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="32"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
-      <c r="C98" s="42"/>
+      <c r="C98" s="38" t="s">
+        <v>0</v>
+      </c>
       <c r="D98" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="27"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="31"/>
-      <c r="R98" s="31"/>
-      <c r="S98" s="32"/>
-    </row>
-    <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="31"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="32"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="26"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
+      <c r="S101" s="26"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
-      <c r="C102" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
       <c r="I102" s="26"/>
       <c r="J102" s="26"/>
       <c r="K102" s="26"/>
@@ -3426,249 +3277,245 @@
       <c r="R102" s="26"/>
       <c r="S102" s="26"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
-      <c r="C103" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
-      <c r="S103" s="38"/>
+      <c r="C103" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
-      <c r="C104" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="2">
-        <v>40</v>
-      </c>
-      <c r="F104" s="1">
-        <v>80</v>
-      </c>
-      <c r="G104" s="1">
-        <v>120</v>
-      </c>
-      <c r="H104" s="1">
-        <v>160</v>
-      </c>
-      <c r="I104" s="1">
-        <v>200</v>
-      </c>
-      <c r="J104" s="2">
-        <v>40</v>
-      </c>
-      <c r="K104" s="1">
-        <v>80</v>
-      </c>
-      <c r="L104" s="1">
-        <v>120</v>
-      </c>
-      <c r="M104" s="1">
-        <v>160</v>
-      </c>
-      <c r="N104" s="1">
-        <v>200</v>
-      </c>
-      <c r="O104" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q104" s="1">
-        <v>120</v>
-      </c>
-      <c r="R104" s="1">
-        <v>160</v>
-      </c>
-      <c r="S104" s="3">
-        <v>200</v>
-      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
-      <c r="C105" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="26">
-        <v>-3315.38080000019</v>
-      </c>
-      <c r="F105" s="26">
-        <v>-5195.7693600005296</v>
-      </c>
-      <c r="G105" s="26">
-        <v>-11663.930479999801</v>
-      </c>
-      <c r="H105" s="26">
-        <v>-13281.257359999199</v>
-      </c>
-      <c r="I105" s="27">
-        <v>-17121.577679998001</v>
-      </c>
-      <c r="J105" s="26">
-        <v>-5195.7693600005296</v>
-      </c>
-      <c r="K105" s="26">
-        <v>-13281.257359999199</v>
-      </c>
-      <c r="L105" s="26">
-        <v>-20221.211839997799</v>
-      </c>
-      <c r="M105" s="26">
-        <v>-29335.600559996401</v>
-      </c>
-      <c r="N105" s="27">
-        <v>-35733.0486399941</v>
-      </c>
-      <c r="O105" s="26">
-        <v>-11663.930479999801</v>
-      </c>
-      <c r="P105" s="26">
-        <v>-20221.211839997799</v>
-      </c>
-      <c r="Q105" s="26">
-        <v>-31584.904559995699</v>
-      </c>
-      <c r="R105" s="26">
-        <v>-42706.9446399917</v>
-      </c>
-      <c r="S105" s="27">
-        <v>-51327.505919993098</v>
-      </c>
+      <c r="C105" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="43"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="31">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="F106" s="31">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="G106" s="31">
-        <v>102131.99</v>
-      </c>
-      <c r="H106" s="31">
-        <v>137569.13560000001</v>
-      </c>
-      <c r="I106" s="32">
-        <v>176320.868399998</v>
-      </c>
-      <c r="J106" s="31">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="K106" s="31">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="L106" s="31">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="M106" s="31">
-        <v>92826.499199999598</v>
-      </c>
-      <c r="N106" s="32">
-        <v>114702.02319999901</v>
-      </c>
-      <c r="O106" s="31">
-        <v>13110.2808</v>
-      </c>
-      <c r="P106" s="31">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="Q106" s="31">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="R106" s="31">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="S106" s="32">
-        <v>59244.1231999999</v>
+      <c r="C106" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="2">
+        <v>40</v>
+      </c>
+      <c r="F106" s="1">
+        <v>80</v>
+      </c>
+      <c r="G106" s="1">
+        <v>120</v>
+      </c>
+      <c r="H106" s="1">
+        <v>160</v>
+      </c>
+      <c r="I106" s="1">
+        <v>200</v>
+      </c>
+      <c r="J106" s="2">
+        <v>40</v>
+      </c>
+      <c r="K106" s="1">
+        <v>80</v>
+      </c>
+      <c r="L106" s="1">
+        <v>120</v>
+      </c>
+      <c r="M106" s="1">
+        <v>160</v>
+      </c>
+      <c r="N106" s="1">
+        <v>200</v>
+      </c>
+      <c r="O106" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>120</v>
+      </c>
+      <c r="R106" s="1">
+        <v>160</v>
+      </c>
+      <c r="S106" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
-      <c r="C107" s="43" t="s">
-        <v>1</v>
+      <c r="C107" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="D107" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="27"/>
+      <c r="E107" s="26">
+        <v>-373.84705097330402</v>
+      </c>
+      <c r="F107" s="26">
+        <v>-562.76674347951405</v>
+      </c>
+      <c r="G107" s="26">
+        <v>-1368.46561727485</v>
+      </c>
+      <c r="H107" s="26">
+        <v>-1528.4107611506499</v>
+      </c>
+      <c r="I107" s="27">
+        <v>-1916.8771993197799</v>
+      </c>
+      <c r="J107" s="26">
+        <v>1230.35450639943</v>
+      </c>
+      <c r="K107" s="26">
+        <v>1338.09816531294</v>
+      </c>
+      <c r="L107" s="26">
+        <v>2253.84716969797</v>
+      </c>
+      <c r="M107" s="26">
+        <v>2500.2228688598598</v>
+      </c>
+      <c r="N107" s="27">
+        <v>3446.3220905510798</v>
+      </c>
+      <c r="O107" s="26">
+        <v>6457.5991530648398</v>
+      </c>
+      <c r="P107" s="26">
+        <v>16848.4663466688</v>
+      </c>
+      <c r="Q107" s="26">
+        <v>23944.069107949999</v>
+      </c>
+      <c r="R107" s="26">
+        <v>27564.393379085799</v>
+      </c>
+      <c r="S107" s="27">
+        <v>37206.593962543498</v>
+      </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
-      <c r="C108" s="42"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="31"/>
-      <c r="S108" s="32"/>
+      <c r="E108" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="F108" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="G108" s="31">
+        <v>9521.5679999999993</v>
+      </c>
+      <c r="H108" s="31">
+        <v>12769.879199999899</v>
+      </c>
+      <c r="I108" s="32">
+        <v>16299.1023999999</v>
+      </c>
+      <c r="J108" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="K108" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="L108" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="M108" s="31">
+        <v>8658.7952000000096</v>
+      </c>
+      <c r="N108" s="32">
+        <v>10661.754800000001</v>
+      </c>
+      <c r="O108" s="31">
+        <v>1233.0303999999901</v>
+      </c>
+      <c r="P108" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="Q108" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="R108" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="S108" s="32">
+        <v>5531.63039999999</v>
+      </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
-      <c r="C109" s="43" t="s">
-        <v>0</v>
+      <c r="C109" s="38" t="s">
+        <v>1</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>7</v>
@@ -3692,7 +3539,7 @@
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
-      <c r="C110" s="42"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="30" t="s">
         <v>3</v>
       </c>
@@ -3715,458 +3562,815 @@
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
+      <c r="C111" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="E111" s="26"/>
       <c r="F111" s="26"/>
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
+      <c r="I111" s="27"/>
       <c r="J111" s="26"/>
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
       <c r="M111" s="26"/>
-      <c r="N111" s="26"/>
+      <c r="N111" s="27"/>
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
       <c r="Q111" s="26"/>
       <c r="R111" s="26"/>
-      <c r="S111" s="26"/>
+      <c r="S111" s="27"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="26"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="26"/>
-      <c r="Q112" s="26"/>
-      <c r="R112" s="26"/>
-      <c r="S112" s="26"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="26"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="26"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="26"/>
-    </row>
-    <row r="114" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="26"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="26"/>
-      <c r="R115" s="26"/>
-      <c r="S115" s="26"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C112" s="37"/>
+      <c r="D112" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="31"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="31"/>
+      <c r="P112" s="31"/>
+      <c r="Q112" s="31"/>
+      <c r="R112" s="31"/>
+      <c r="S112" s="32"/>
+    </row>
+    <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
-      <c r="C116" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="K116" s="37"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="37"/>
-      <c r="O116" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="P116" s="37"/>
-      <c r="Q116" s="37"/>
-      <c r="R116" s="37"/>
-      <c r="S116" s="38"/>
+      <c r="C116" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="26"/>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+      <c r="S116" s="26"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="C117" s="28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117" s="29"/>
-      <c r="E117" s="2">
-        <v>40</v>
-      </c>
-      <c r="F117" s="1">
-        <v>80</v>
-      </c>
-      <c r="G117" s="1">
-        <v>120</v>
-      </c>
-      <c r="H117" s="1">
-        <v>160</v>
-      </c>
-      <c r="I117" s="1">
-        <v>200</v>
-      </c>
-      <c r="J117" s="2">
-        <v>40</v>
-      </c>
-      <c r="K117" s="1">
-        <v>80</v>
-      </c>
-      <c r="L117" s="1">
-        <v>120</v>
-      </c>
-      <c r="M117" s="1">
-        <v>160</v>
-      </c>
-      <c r="N117" s="1">
-        <v>200</v>
-      </c>
-      <c r="O117" s="2">
-        <v>40</v>
-      </c>
-      <c r="P117" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>120</v>
-      </c>
-      <c r="R117" s="1">
-        <v>160</v>
-      </c>
-      <c r="S117" s="3">
-        <v>200</v>
-      </c>
+      <c r="E117" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="43"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="33">
-        <v>8309.4827365512901</v>
-      </c>
-      <c r="F118" s="34">
-        <v>18309.460179659502</v>
-      </c>
-      <c r="G118" s="34">
-        <v>21872.617224341298</v>
-      </c>
-      <c r="H118" s="34">
-        <v>32452.9395555183</v>
-      </c>
-      <c r="I118" s="35">
-        <v>38867.732854154099</v>
-      </c>
-      <c r="J118" s="34">
-        <v>126733.833030382</v>
-      </c>
-      <c r="K118" s="34">
-        <v>224562.59279277499</v>
-      </c>
-      <c r="L118" s="34">
-        <v>346939.52750349097</v>
-      </c>
-      <c r="M118" s="34">
-        <v>451637.610293495</v>
-      </c>
-      <c r="N118" s="35">
-        <v>572390.75287562795</v>
-      </c>
-      <c r="O118" s="34">
-        <v>253066.82967576201</v>
-      </c>
-      <c r="P118" s="34">
-        <v>548032.43226926203</v>
-      </c>
-      <c r="Q118" s="34">
-        <v>811938.32492453698</v>
-      </c>
-      <c r="R118" s="34">
-        <v>1047351.05200452</v>
-      </c>
-      <c r="S118" s="35">
-        <v>1333817.65249353</v>
+      <c r="C118" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="29"/>
+      <c r="E118" s="2">
+        <v>40</v>
+      </c>
+      <c r="F118" s="1">
+        <v>80</v>
+      </c>
+      <c r="G118" s="1">
+        <v>120</v>
+      </c>
+      <c r="H118" s="1">
+        <v>160</v>
+      </c>
+      <c r="I118" s="1">
+        <v>200</v>
+      </c>
+      <c r="J118" s="2">
+        <v>40</v>
+      </c>
+      <c r="K118" s="1">
+        <v>80</v>
+      </c>
+      <c r="L118" s="1">
+        <v>120</v>
+      </c>
+      <c r="M118" s="1">
+        <v>160</v>
+      </c>
+      <c r="N118" s="1">
+        <v>200</v>
+      </c>
+      <c r="O118" s="2">
+        <v>40</v>
+      </c>
+      <c r="P118" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>120</v>
+      </c>
+      <c r="R118" s="1">
+        <v>160</v>
+      </c>
+      <c r="S118" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
-      <c r="C119" s="42"/>
+      <c r="C119" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="D119" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="12">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="F119" s="13">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="G119" s="13">
-        <v>102131.99</v>
-      </c>
-      <c r="H119" s="13">
-        <v>137569.13560000001</v>
-      </c>
-      <c r="I119" s="14">
-        <v>176320.868399998</v>
-      </c>
-      <c r="J119" s="13">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="K119" s="13">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="L119" s="13">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="M119" s="13">
-        <v>92826.499199999598</v>
-      </c>
-      <c r="N119" s="14">
-        <v>114702.02319999901</v>
-      </c>
-      <c r="O119" s="13">
-        <v>13110.2808</v>
-      </c>
-      <c r="P119" s="13">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="Q119" s="13">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="R119" s="13">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="S119" s="14">
-        <v>59244.1231999999</v>
+        <v>7</v>
+      </c>
+      <c r="E119" s="26">
+        <v>-3315.38080000019</v>
+      </c>
+      <c r="F119" s="26">
+        <v>-5195.7693600005296</v>
+      </c>
+      <c r="G119" s="26">
+        <v>-11663.930479999801</v>
+      </c>
+      <c r="H119" s="26">
+        <v>-13281.257359999199</v>
+      </c>
+      <c r="I119" s="27">
+        <v>-17121.577679998001</v>
+      </c>
+      <c r="J119" s="26">
+        <v>-5195.7693600005296</v>
+      </c>
+      <c r="K119" s="26">
+        <v>-13281.257359999199</v>
+      </c>
+      <c r="L119" s="26">
+        <v>-20221.211839997799</v>
+      </c>
+      <c r="M119" s="26">
+        <v>-29335.600559996401</v>
+      </c>
+      <c r="N119" s="27">
+        <v>-35733.0486399941</v>
+      </c>
+      <c r="O119" s="26">
+        <v>-11663.930479999801</v>
+      </c>
+      <c r="P119" s="26">
+        <v>-20221.211839997799</v>
+      </c>
+      <c r="Q119" s="26">
+        <v>-31584.904559995699</v>
+      </c>
+      <c r="R119" s="26">
+        <v>-42706.9446399917</v>
+      </c>
+      <c r="S119" s="27">
+        <v>-51327.505919993098</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
-      <c r="C120" s="43" t="s">
-        <v>1</v>
-      </c>
+      <c r="C120" s="37"/>
       <c r="D120" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
-      <c r="M120" s="26"/>
-      <c r="N120" s="27"/>
-      <c r="O120" s="26"/>
-      <c r="P120" s="26"/>
-      <c r="Q120" s="26"/>
-      <c r="R120" s="26"/>
-      <c r="S120" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="E120" s="31">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F120" s="31">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G120" s="31">
+        <v>102131.99</v>
+      </c>
+      <c r="H120" s="31">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I120" s="32">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J120" s="31">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K120" s="31">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L120" s="31">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M120" s="31">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N120" s="32">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O120" s="31">
+        <v>13110.2808</v>
+      </c>
+      <c r="P120" s="31">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q120" s="31">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R120" s="31">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S120" s="32">
+        <v>59244.1231999999</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
-      <c r="C121" s="42"/>
+      <c r="C121" s="38" t="s">
+        <v>1</v>
+      </c>
       <c r="D121" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="31"/>
-      <c r="P121" s="31"/>
-      <c r="Q121" s="31"/>
-      <c r="R121" s="31"/>
-      <c r="S121" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
+      <c r="Q121" s="26"/>
+      <c r="R121" s="26"/>
+      <c r="S121" s="27"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="43" t="s">
-        <v>0</v>
-      </c>
+      <c r="C122" s="37"/>
       <c r="D122" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
-      <c r="L122" s="26"/>
-      <c r="M122" s="26"/>
-      <c r="N122" s="27"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
-      <c r="Q122" s="26"/>
-      <c r="R122" s="26"/>
-      <c r="S122" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="31"/>
+      <c r="P122" s="31"/>
+      <c r="Q122" s="31"/>
+      <c r="R122" s="31"/>
+      <c r="S122" s="32"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
-      <c r="C123" s="42"/>
+      <c r="C123" s="38" t="s">
+        <v>0</v>
+      </c>
       <c r="D123" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="27"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="31"/>
-      <c r="N123" s="32"/>
-      <c r="O123" s="31"/>
-      <c r="P123" s="31"/>
-      <c r="Q123" s="31"/>
-      <c r="R123" s="31"/>
-      <c r="S123" s="32"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="31"/>
+      <c r="P124" s="31"/>
+      <c r="Q124" s="31"/>
+      <c r="R124" s="31"/>
+      <c r="S124" s="32"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="26"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="26"/>
+      <c r="Q125" s="26"/>
+      <c r="R125" s="26"/>
+      <c r="S125" s="26"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+      <c r="P126" s="26"/>
+      <c r="Q126" s="26"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="26"/>
+      <c r="P127" s="26"/>
+      <c r="Q127" s="26"/>
+      <c r="R127" s="26"/>
+      <c r="S127" s="26"/>
+    </row>
+    <row r="128" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="26"/>
+      <c r="P128" s="26"/>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="26"/>
+      <c r="S128" s="26"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="26"/>
+      <c r="Q129" s="26"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="26"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="29"/>
+      <c r="E130" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="42"/>
+      <c r="O130" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="P130" s="42"/>
+      <c r="Q130" s="42"/>
+      <c r="R130" s="42"/>
+      <c r="S130" s="43"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="29"/>
+      <c r="E131" s="2">
+        <v>40</v>
+      </c>
+      <c r="F131" s="1">
+        <v>80</v>
+      </c>
+      <c r="G131" s="1">
+        <v>120</v>
+      </c>
+      <c r="H131" s="1">
+        <v>160</v>
+      </c>
+      <c r="I131" s="1">
+        <v>200</v>
+      </c>
+      <c r="J131" s="2">
+        <v>40</v>
+      </c>
+      <c r="K131" s="1">
+        <v>80</v>
+      </c>
+      <c r="L131" s="1">
+        <v>120</v>
+      </c>
+      <c r="M131" s="1">
+        <v>160</v>
+      </c>
+      <c r="N131" s="1">
+        <v>200</v>
+      </c>
+      <c r="O131" s="2">
+        <v>40</v>
+      </c>
+      <c r="P131" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>120</v>
+      </c>
+      <c r="R131" s="1">
+        <v>160</v>
+      </c>
+      <c r="S131" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="33">
+        <v>8309.4827365512901</v>
+      </c>
+      <c r="F132" s="34">
+        <v>18309.460179659502</v>
+      </c>
+      <c r="G132" s="34">
+        <v>21872.617224341298</v>
+      </c>
+      <c r="H132" s="34">
+        <v>32452.9395555183</v>
+      </c>
+      <c r="I132" s="35">
+        <v>38867.732854154099</v>
+      </c>
+      <c r="J132" s="34">
+        <v>126733.833030382</v>
+      </c>
+      <c r="K132" s="34">
+        <v>224562.59279277499</v>
+      </c>
+      <c r="L132" s="34">
+        <v>346939.52750349097</v>
+      </c>
+      <c r="M132" s="34">
+        <v>451637.610293495</v>
+      </c>
+      <c r="N132" s="35">
+        <v>572390.75287562795</v>
+      </c>
+      <c r="O132" s="34">
+        <v>253066.82967576201</v>
+      </c>
+      <c r="P132" s="34">
+        <v>548032.43226926203</v>
+      </c>
+      <c r="Q132" s="34">
+        <v>811938.32492453698</v>
+      </c>
+      <c r="R132" s="34">
+        <v>1047351.05200452</v>
+      </c>
+      <c r="S132" s="35">
+        <v>1333817.65249353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="12">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F133" s="13">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G133" s="13">
+        <v>102131.99</v>
+      </c>
+      <c r="H133" s="13">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I133" s="14">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J133" s="13">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K133" s="13">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L133" s="13">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M133" s="13">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N133" s="14">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O133" s="13">
+        <v>13110.2808</v>
+      </c>
+      <c r="P133" s="13">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q133" s="13">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R133" s="13">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S133" s="14">
+        <v>59244.1231999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26"/>
+      <c r="M134" s="26"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="26"/>
+      <c r="P134" s="26"/>
+      <c r="Q134" s="26"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="27"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="31"/>
+      <c r="M135" s="31"/>
+      <c r="N135" s="32"/>
+      <c r="O135" s="31"/>
+      <c r="P135" s="31"/>
+      <c r="Q135" s="31"/>
+      <c r="R135" s="31"/>
+      <c r="S135" s="32"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="26"/>
+      <c r="P136" s="26"/>
+      <c r="Q136" s="26"/>
+      <c r="R136" s="26"/>
+      <c r="S136" s="27"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="31"/>
+      <c r="M137" s="31"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="31"/>
+      <c r="P137" s="31"/>
+      <c r="Q137" s="31"/>
+      <c r="R137" s="31"/>
+      <c r="S137" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E117:I117"/>
+    <mergeCell ref="J117:N117"/>
+    <mergeCell ref="O117:S117"/>
+    <mergeCell ref="E130:I130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:S92"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="O105:S105"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="O80:S80"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="O54:S54"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="O3:S3"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="O53:S53"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="O66:S66"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="O78:S78"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:S91"/>
-    <mergeCell ref="E103:I103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="O103:S103"/>
-    <mergeCell ref="E116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="O116:S116"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4177,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209:R223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4203,37 +4407,37 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="36">
+      <c r="C4" s="47"/>
+      <c r="D4" s="41">
         <v>0.25</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="41">
         <v>0.5</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="36">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41">
         <v>0.75</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -4449,10 +4653,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -4553,7 +4757,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -4907,37 +5111,37 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="36">
+      <c r="C22" s="47"/>
+      <c r="D22" s="41">
         <v>0.25</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="36">
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41">
         <v>0.5</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="36">
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="41">
         <v>0.75</v>
       </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -5153,10 +5357,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -5257,7 +5461,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
@@ -5723,37 +5927,37 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="36">
+      <c r="C41" s="47"/>
+      <c r="D41" s="41">
         <v>0.25</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="36">
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="41">
         <v>0.5</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="36">
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="41">
         <v>0.75</v>
       </c>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="38"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -5905,10 +6109,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="47"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -6009,7 +6213,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
@@ -6595,37 +6799,37 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="36">
+      <c r="C61" s="47"/>
+      <c r="D61" s="41">
         <v>0.25</v>
       </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="36">
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="41">
         <v>0.5</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="36">
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="41">
         <v>0.75</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="38"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="43"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -6841,10 +7045,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="47"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -6945,7 +7149,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
@@ -7295,37 +7499,37 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="36">
+      <c r="C78" s="47"/>
+      <c r="D78" s="41">
         <v>0.25</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="36">
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="41">
         <v>0.5</v>
       </c>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="36">
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="41">
         <v>0.75</v>
       </c>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="38"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="43"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="45"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -7541,10 +7745,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="47"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -7645,7 +7849,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="49"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="11" t="s">
         <v>22</v>
       </c>
@@ -8227,37 +8431,37 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="36">
+      <c r="C99" s="47"/>
+      <c r="D99" s="41">
         <v>0.25</v>
       </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="36">
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="41">
         <v>0.5</v>
       </c>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="36">
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="41">
         <v>0.75</v>
       </c>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="38"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="43"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="45"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -8473,10 +8677,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="47"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -8577,7 +8781,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -8927,37 +9131,37 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="36">
+      <c r="C116" s="47"/>
+      <c r="D116" s="41">
         <v>0.25</v>
       </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="36">
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="41">
         <v>0.5</v>
       </c>
-      <c r="J116" s="37"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="36">
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="41">
         <v>0.75</v>
       </c>
-      <c r="O116" s="37"/>
-      <c r="P116" s="37"/>
-      <c r="Q116" s="37"/>
-      <c r="R116" s="38"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="42"/>
+      <c r="R116" s="43"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="45"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -9173,10 +9377,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="47"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -9277,7 +9481,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="49"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="11" t="s">
         <v>22</v>
       </c>
@@ -9860,37 +10064,37 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="44" t="s">
+      <c r="B136" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="48"/>
-      <c r="D136" s="36">
+      <c r="C136" s="47"/>
+      <c r="D136" s="41">
         <v>0.25</v>
       </c>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="36">
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="41">
         <v>0.5</v>
       </c>
-      <c r="J136" s="37"/>
-      <c r="K136" s="37"/>
-      <c r="L136" s="37"/>
-      <c r="M136" s="37"/>
-      <c r="N136" s="36">
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="41">
         <v>0.75</v>
       </c>
-      <c r="O136" s="37"/>
-      <c r="P136" s="37"/>
-      <c r="Q136" s="37"/>
-      <c r="R136" s="38"/>
+      <c r="O136" s="42"/>
+      <c r="P136" s="42"/>
+      <c r="Q136" s="42"/>
+      <c r="R136" s="43"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="44" t="s">
+      <c r="B137" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="45"/>
+      <c r="C137" s="46"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -10106,10 +10310,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="47"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -10210,7 +10414,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="49"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="11" t="s">
         <v>22</v>
       </c>
@@ -10560,37 +10764,37 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="44" t="s">
+      <c r="B153" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="48"/>
-      <c r="D153" s="36">
+      <c r="C153" s="47"/>
+      <c r="D153" s="41">
         <v>0.25</v>
       </c>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="36">
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="41">
         <v>0.5</v>
       </c>
-      <c r="J153" s="37"/>
-      <c r="K153" s="37"/>
-      <c r="L153" s="37"/>
-      <c r="M153" s="37"/>
-      <c r="N153" s="36">
+      <c r="J153" s="42"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="41">
         <v>0.75</v>
       </c>
-      <c r="O153" s="37"/>
-      <c r="P153" s="37"/>
-      <c r="Q153" s="37"/>
-      <c r="R153" s="38"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="43"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="44" t="s">
+      <c r="B154" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="45"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -10806,10 +11010,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="47"/>
+      <c r="C158" s="49"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -10910,7 +11114,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="49"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="11" t="s">
         <v>22</v>
       </c>
@@ -11377,37 +11581,37 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="44" t="s">
+      <c r="B171" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="48"/>
-      <c r="D171" s="36">
+      <c r="C171" s="47"/>
+      <c r="D171" s="41">
         <v>0.25</v>
       </c>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="36">
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="41">
         <v>0.5</v>
       </c>
-      <c r="J171" s="37"/>
-      <c r="K171" s="37"/>
-      <c r="L171" s="37"/>
-      <c r="M171" s="37"/>
-      <c r="N171" s="36">
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="41">
         <v>0.75</v>
       </c>
-      <c r="O171" s="37"/>
-      <c r="P171" s="37"/>
-      <c r="Q171" s="37"/>
-      <c r="R171" s="38"/>
+      <c r="O171" s="42"/>
+      <c r="P171" s="42"/>
+      <c r="Q171" s="42"/>
+      <c r="R171" s="43"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="44" t="s">
+      <c r="B172" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="45"/>
+      <c r="C172" s="46"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -11623,10 +11827,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="47"/>
+      <c r="C176" s="49"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -11727,7 +11931,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="49"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="11" t="s">
         <v>22</v>
       </c>
@@ -12307,37 +12511,37 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="44" t="s">
+      <c r="B192" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="48"/>
-      <c r="D192" s="36">
+      <c r="C192" s="47"/>
+      <c r="D192" s="41">
         <v>0.25</v>
       </c>
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
-      <c r="I192" s="36">
+      <c r="E192" s="42"/>
+      <c r="F192" s="42"/>
+      <c r="G192" s="42"/>
+      <c r="H192" s="42"/>
+      <c r="I192" s="41">
         <v>0.5</v>
       </c>
-      <c r="J192" s="37"/>
-      <c r="K192" s="37"/>
-      <c r="L192" s="37"/>
-      <c r="M192" s="37"/>
-      <c r="N192" s="36">
+      <c r="J192" s="42"/>
+      <c r="K192" s="42"/>
+      <c r="L192" s="42"/>
+      <c r="M192" s="42"/>
+      <c r="N192" s="41">
         <v>0.75</v>
       </c>
-      <c r="O192" s="37"/>
-      <c r="P192" s="37"/>
-      <c r="Q192" s="37"/>
-      <c r="R192" s="38"/>
+      <c r="O192" s="42"/>
+      <c r="P192" s="42"/>
+      <c r="Q192" s="42"/>
+      <c r="R192" s="43"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="44" t="s">
+      <c r="B193" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="45"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -12553,10 +12757,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="47"/>
+      <c r="C197" s="49"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -12657,7 +12861,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="49"/>
+      <c r="B199" s="44"/>
       <c r="C199" s="11" t="s">
         <v>22</v>
       </c>
@@ -13008,37 +13212,37 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="44" t="s">
+      <c r="B209" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="48"/>
-      <c r="D209" s="36">
+      <c r="C209" s="47"/>
+      <c r="D209" s="41">
         <v>0.25</v>
       </c>
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
-      <c r="G209" s="37"/>
-      <c r="H209" s="37"/>
-      <c r="I209" s="36">
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
+      <c r="G209" s="42"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="41">
         <v>0.5</v>
       </c>
-      <c r="J209" s="37"/>
-      <c r="K209" s="37"/>
-      <c r="L209" s="37"/>
-      <c r="M209" s="37"/>
-      <c r="N209" s="36">
+      <c r="J209" s="42"/>
+      <c r="K209" s="42"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="42"/>
+      <c r="N209" s="41">
         <v>0.75</v>
       </c>
-      <c r="O209" s="37"/>
-      <c r="P209" s="37"/>
-      <c r="Q209" s="37"/>
-      <c r="R209" s="38"/>
+      <c r="O209" s="42"/>
+      <c r="P209" s="42"/>
+      <c r="Q209" s="42"/>
+      <c r="R209" s="43"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="44" t="s">
+      <c r="B210" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="45"/>
+      <c r="C210" s="46"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -13254,10 +13458,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="46" t="s">
+      <c r="B214" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="47"/>
+      <c r="C214" s="49"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -13358,7 +13562,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="49"/>
+      <c r="B216" s="44"/>
       <c r="C216" s="11" t="s">
         <v>22</v>
       </c>
@@ -13811,6 +14015,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="N192:R192"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="I153:M153"/>
+    <mergeCell ref="N153:R153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="I192:M192"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="I171:M171"/>
+    <mergeCell ref="N171:R171"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="N136:R136"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="B5:C5"/>
@@ -13835,92 +14123,2030 @@
     <mergeCell ref="N41:R41"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="N192:R192"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="I153:M153"/>
-    <mergeCell ref="N153:R153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="I192:M192"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="I171:M171"/>
-    <mergeCell ref="N171:R171"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="N136:R136"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877D1057-9F50-4D44-B00A-A3548CCD163C}">
+  <dimension ref="B3:R56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1">
+        <v>160</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1">
+        <v>120</v>
+      </c>
+      <c r="L4" s="1">
+        <v>160</v>
+      </c>
+      <c r="M4" s="1">
+        <v>200</v>
+      </c>
+      <c r="N4" s="2">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1">
+        <v>80</v>
+      </c>
+      <c r="P4" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>160</v>
+      </c>
+      <c r="R4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E5" s="6">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="F5" s="6">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G5" s="6">
+        <v>159138.987787872</v>
+      </c>
+      <c r="H5" s="7">
+        <v>199051.54997373</v>
+      </c>
+      <c r="I5" s="5">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="J5" s="6">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K5" s="6">
+        <v>143445.815290161</v>
+      </c>
+      <c r="L5" s="6">
+        <v>187520.878512628</v>
+      </c>
+      <c r="M5" s="7">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="N5" s="5">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="O5" s="6">
+        <v>55318.520663591</v>
+      </c>
+      <c r="P5" s="6">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>118353.559455394</v>
+      </c>
+      <c r="R5" s="7">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="E6" s="13">
+        <v>93980.541241744097</v>
+      </c>
+      <c r="F6" s="13">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="G6" s="13">
+        <v>184783.85121212801</v>
+      </c>
+      <c r="H6" s="13">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="I6" s="12">
+        <v>9044.2498304456894</v>
+      </c>
+      <c r="J6" s="13">
+        <v>23261.579067807001</v>
+      </c>
+      <c r="K6" s="13">
+        <v>32554.6037098382</v>
+      </c>
+      <c r="L6" s="13">
+        <v>44545.369487370503</v>
+      </c>
+      <c r="M6" s="13">
+        <v>54329.548304848198</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1036.6022184242499</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1059.7243364088899</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1734.74411289472</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>3834.6045446057501</v>
+      </c>
+      <c r="R6" s="14">
+        <v>4272.9784387647796</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12">
+        <f>SUM(D5:D6)</f>
+        <v>82420.451000000205</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:R7" si="0">SUM(E5:E6)</f>
+        <v>176000.4189999993</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>255329.97499999902</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>343922.83900000004</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>440802.170999997</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>56378.244999999886</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>122188.1639999997</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>176000.41899999921</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
+        <v>232066.24799999851</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="0"/>
+        <v>286755.0579999992</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="0"/>
+        <v>32775.702000000048</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="0"/>
+        <v>56378.244999999893</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="0"/>
+        <v>82420.451000000219</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="0"/>
+        <v>122188.16399999976</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="0"/>
+        <v>148110.30799999979</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="15">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="E8" s="16">
+        <v>49.067053734061901</v>
+      </c>
+      <c r="F8" s="16">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="G8" s="16">
+        <v>48.129269125683003</v>
+      </c>
+      <c r="H8" s="17">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="I8" s="15">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="J8" s="16">
+        <v>76.719319216757697</v>
+      </c>
+      <c r="K8" s="16">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="L8" s="16">
+        <v>76.813524590163894</v>
+      </c>
+      <c r="M8" s="17">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="N8" s="15">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="O8" s="16">
+        <v>90.818533697632006</v>
+      </c>
+      <c r="P8" s="16">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>89.9584471766848</v>
+      </c>
+      <c r="R8" s="17">
+        <v>90.570582877959893</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E9" s="4">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="F9" s="4">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G9" s="4">
+        <v>159138.987787872</v>
+      </c>
+      <c r="H9" s="4">
+        <v>199051.54997373</v>
+      </c>
+      <c r="I9" s="4">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="J9" s="4">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K9" s="4">
+        <v>143445.815290161</v>
+      </c>
+      <c r="L9" s="4">
+        <v>187520.878512628</v>
+      </c>
+      <c r="M9" s="4">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="N9" s="4">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="O9" s="4">
+        <v>55318.520663591</v>
+      </c>
+      <c r="P9" s="4">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>118353.559455394</v>
+      </c>
+      <c r="R9" s="4">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="E10" s="6">
+        <v>145.95272218341199</v>
+      </c>
+      <c r="F10" s="6">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="G10" s="6">
+        <v>365.55366372404802</v>
+      </c>
+      <c r="H10" s="7">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="I10" s="5">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="J10" s="6">
+        <v>35410.964109768698</v>
+      </c>
+      <c r="K10" s="6">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="L10" s="6">
+        <v>71190.607977963198</v>
+      </c>
+      <c r="M10" s="7">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="N10" s="5">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="O10" s="6">
+        <v>124618.650763413</v>
+      </c>
+      <c r="P10" s="6">
+        <v>183089.578469145</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>231445.718093773</v>
+      </c>
+      <c r="R10" s="7">
+        <v>297307.87253847002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="E11" s="6">
+        <v>22024.3470000009</v>
+      </c>
+      <c r="F11" s="6">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="G11" s="6">
+        <v>47122.450000001103</v>
+      </c>
+      <c r="H11" s="7">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="I11" s="5">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="J11" s="6">
+        <v>75261.816999999995</v>
+      </c>
+      <c r="K11" s="6">
+        <v>115578.017999987</v>
+      </c>
+      <c r="L11" s="6">
+        <v>160742.17299998301</v>
+      </c>
+      <c r="M11" s="7">
+        <v>200654.74799998</v>
+      </c>
+      <c r="N11" s="5">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="O11" s="6">
+        <v>137069.411999982</v>
+      </c>
+      <c r="P11" s="6">
+        <v>211967.487999982</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>284437.64699999098</v>
+      </c>
+      <c r="R11" s="7">
+        <v>352606.74000000802</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2241.3779357984899</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3460.6345195614399</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7339.5509822314998</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8594.5365484032409</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10703.107607055899</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2013.8119190336699</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5579.4778598323801</v>
+      </c>
+      <c r="K12" s="6">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="L12" s="6">
+        <v>10875.388361207801</v>
+      </c>
+      <c r="M12" s="7">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3520.0906782329498</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4945.7284306758802</v>
+      </c>
+      <c r="P12" s="6">
+        <v>7318.7465706147595</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>9816.8252104458206</v>
+      </c>
+      <c r="R12" s="7">
+        <v>11229.1503665984</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12">
+        <v>13422.005064201699</v>
+      </c>
+      <c r="E13" s="13">
+        <v>24420.3874804394</v>
+      </c>
+      <c r="F13" s="13">
+        <v>44355.147017769501</v>
+      </c>
+      <c r="G13" s="13">
+        <v>54600.642451596599</v>
+      </c>
+      <c r="H13" s="13">
+        <v>69483.700392940998</v>
+      </c>
+      <c r="I13" s="12">
+        <v>11147.0110809664</v>
+      </c>
+      <c r="J13" s="13">
+        <v>29476.334140168201</v>
+      </c>
+      <c r="K13" s="13">
+        <v>42372.623106654697</v>
+      </c>
+      <c r="L13" s="13">
+        <v>58804.504638791797</v>
+      </c>
+      <c r="M13" s="13">
+        <v>70942.959742109495</v>
+      </c>
+      <c r="N13" s="12">
+        <v>16020.7393217671</v>
+      </c>
+      <c r="O13" s="13">
+        <v>23707.5195693239</v>
+      </c>
+      <c r="P13" s="13">
+        <v>34506.974429385104</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>46598.020789553899</v>
+      </c>
+      <c r="R13" s="14">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(D11:D13)</f>
+        <v>28166.36900000029</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:R14" si="1">SUM(E11:E13)</f>
+        <v>49905.369000001738</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>89295.082000002803</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>110317.62900000095</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>139053.40099999722</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>49905.369000001578</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>110317.62900000057</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>165722.65999998664</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>230422.06599998259</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="1"/>
+        <v>284644.95199997781</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>89295.081999998161</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>165722.65999998176</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="1"/>
+        <v>253793.20899998184</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="1"/>
+        <v>340852.49299999065</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="1"/>
+        <v>417357.04600000754</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM(D9:D12)</f>
+        <v>53896.036999999924</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:R15" si="2">SUM(E9:E12)</f>
+        <v>107650.81200000095</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>161412.37900000071</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>215221.52800000037</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>268974.2800000002</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>107576.36819693037</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>215178.84390179373</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>322635.04441643908</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>430329.047851782</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>537783.48860609171</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>161064.63432268746</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>321952.31185766187</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="2"/>
+        <v>483061.51992684719</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="2"/>
+        <v>644053.74975960376</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="2"/>
+        <v>804981.09246631141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>74.443803070971001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>42.684098206008699</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46.895583547958999</v>
+      </c>
+      <c r="L16" s="4">
+        <v>53.171148199699502</v>
+      </c>
+      <c r="M16" s="4">
+        <v>76.267393886573899</v>
+      </c>
+      <c r="N16" s="4">
+        <v>347.74467731095001</v>
+      </c>
+      <c r="O16" s="4">
+        <v>729.62814231772802</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1059.6700731337501</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1334.91924038811</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1722.1295336955</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM(D15:D16)</f>
+        <v>53896.036999999924</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17:R17" si="3">SUM(E15:E16)</f>
+        <v>107650.81200000095</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>161412.37900000071</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>215221.52800000037</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>268974.2800000002</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
+        <v>107650.81200000134</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>215221.52799999973</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="3"/>
+        <v>322681.93999998702</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="3"/>
+        <v>430382.21899998171</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="3"/>
+        <v>537859.75599997828</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="3"/>
+        <v>161412.37899999841</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="3"/>
+        <v>322681.93999997963</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="3"/>
+        <v>484121.18999998097</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="3"/>
+        <v>645388.66899999185</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="3"/>
+        <v>806703.22200000694</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="G22">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="H22">
+        <v>82420.451000000205</v>
+      </c>
+      <c r="I22">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="J22">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="K22">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="L22">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="M22">
+        <v>2241.3779357984899</v>
+      </c>
+      <c r="N22">
+        <v>13422.005064201699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="G23">
+        <v>93980.541241744097</v>
+      </c>
+      <c r="H23">
+        <v>176000.4189999993</v>
+      </c>
+      <c r="I23">
+        <v>49.067053734061901</v>
+      </c>
+      <c r="J23">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="K23">
+        <v>145.95272218341199</v>
+      </c>
+      <c r="L23">
+        <v>22024.3470000009</v>
+      </c>
+      <c r="M23">
+        <v>3460.6345195614399</v>
+      </c>
+      <c r="N23">
+        <v>24420.3874804394</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="51"/>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G24">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="H24">
+        <v>255329.97499999902</v>
+      </c>
+      <c r="I24">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="J24">
+        <v>116218.580895627</v>
+      </c>
+      <c r="K24">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="L24">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="M24">
+        <v>7339.5509822314998</v>
+      </c>
+      <c r="N24">
+        <v>44355.147017769501</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="51"/>
+      <c r="E25">
+        <v>160</v>
+      </c>
+      <c r="F25">
+        <v>159138.987787872</v>
+      </c>
+      <c r="G25">
+        <v>184783.85121212801</v>
+      </c>
+      <c r="H25">
+        <v>343922.83900000004</v>
+      </c>
+      <c r="I25">
+        <v>48.129269125683003</v>
+      </c>
+      <c r="J25">
+        <v>159138.987787872</v>
+      </c>
+      <c r="K25">
+        <v>365.55366372404802</v>
+      </c>
+      <c r="L25">
+        <v>47122.450000001103</v>
+      </c>
+      <c r="M25">
+        <v>8594.5365484032409</v>
+      </c>
+      <c r="N25">
+        <v>54600.642451596599</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>199051.54997373</v>
+      </c>
+      <c r="G26">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="H26">
+        <v>440802.170999997</v>
+      </c>
+      <c r="I26">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="J26">
+        <v>199051.54997373</v>
+      </c>
+      <c r="K26">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="L26">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="M26">
+        <v>10703.107607055899</v>
+      </c>
+      <c r="N26">
+        <v>69483.700392940998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D27" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="G27">
+        <v>9044.2498304456894</v>
+      </c>
+      <c r="H27">
+        <v>56378.244999999886</v>
+      </c>
+      <c r="I27">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="J27">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="K27">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="L27">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="M27">
+        <v>2013.8119190336699</v>
+      </c>
+      <c r="N27">
+        <v>11147.0110809664</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="51">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="G28">
+        <v>23261.579067807001</v>
+      </c>
+      <c r="H28">
+        <v>122188.1639999997</v>
+      </c>
+      <c r="I28">
+        <v>76.719319216757697</v>
+      </c>
+      <c r="J28">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K28">
+        <v>35410.964109768698</v>
+      </c>
+      <c r="L28">
+        <v>75261.816999999995</v>
+      </c>
+      <c r="M28">
+        <v>5579.4778598323801</v>
+      </c>
+      <c r="N28">
+        <v>29476.334140168201</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D29" s="51">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>143445.815290161</v>
+      </c>
+      <c r="G29">
+        <v>32554.6037098382</v>
+      </c>
+      <c r="H29">
+        <v>176000.41899999921</v>
+      </c>
+      <c r="I29">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="J29">
+        <v>143445.815290161</v>
+      </c>
+      <c r="K29">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="L29">
+        <v>115578.017999987</v>
+      </c>
+      <c r="M29">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="N29">
+        <v>42372.623106654697</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="51">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>160</v>
+      </c>
+      <c r="F30">
+        <v>187520.878512628</v>
+      </c>
+      <c r="G30">
+        <v>44545.369487370503</v>
+      </c>
+      <c r="H30">
+        <v>232066.24799999851</v>
+      </c>
+      <c r="I30">
+        <v>76.813524590163894</v>
+      </c>
+      <c r="J30">
+        <v>187520.878512628</v>
+      </c>
+      <c r="K30">
+        <v>71190.607977963198</v>
+      </c>
+      <c r="L30">
+        <v>160742.17299998301</v>
+      </c>
+      <c r="M30">
+        <v>10875.388361207801</v>
+      </c>
+      <c r="N30">
+        <v>58804.504638791797</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="51">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="G31">
+        <v>54329.548304848198</v>
+      </c>
+      <c r="H31">
+        <v>286755.0579999992</v>
+      </c>
+      <c r="I31">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="J31">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="K31">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="L31">
+        <v>200654.74799998</v>
+      </c>
+      <c r="M31">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="N31">
+        <v>70942.959742109495</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="G32">
+        <v>1036.6022184242499</v>
+      </c>
+      <c r="H32">
+        <v>32775.702000000048</v>
+      </c>
+      <c r="I32">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="J32">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="K32">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="L32">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="M32">
+        <v>3520.0906782329498</v>
+      </c>
+      <c r="N32">
+        <v>16020.7393217671</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="51">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>55318.520663591</v>
+      </c>
+      <c r="G33">
+        <v>1059.7243364088899</v>
+      </c>
+      <c r="H33">
+        <v>56378.244999999893</v>
+      </c>
+      <c r="I33">
+        <v>90.818533697632006</v>
+      </c>
+      <c r="J33">
+        <v>55318.520663591</v>
+      </c>
+      <c r="K33">
+        <v>124618.650763413</v>
+      </c>
+      <c r="L33">
+        <v>137069.411999982</v>
+      </c>
+      <c r="M33">
+        <v>4945.7284306758802</v>
+      </c>
+      <c r="N33">
+        <v>23707.5195693239</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="51">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>120</v>
+      </c>
+      <c r="F34">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="G34">
+        <v>1734.74411289472</v>
+      </c>
+      <c r="H34">
+        <v>82420.451000000219</v>
+      </c>
+      <c r="I34">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="J34">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="K34">
+        <v>183089.578469145</v>
+      </c>
+      <c r="L34">
+        <v>211967.487999982</v>
+      </c>
+      <c r="M34">
+        <v>7318.7465706147595</v>
+      </c>
+      <c r="N34">
+        <v>34506.974429385104</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="51">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>160</v>
+      </c>
+      <c r="F35">
+        <v>118353.559455394</v>
+      </c>
+      <c r="G35">
+        <v>3834.6045446057501</v>
+      </c>
+      <c r="H35">
+        <v>122188.16399999976</v>
+      </c>
+      <c r="I35">
+        <v>89.9584471766848</v>
+      </c>
+      <c r="J35">
+        <v>118353.559455394</v>
+      </c>
+      <c r="K35">
+        <v>231445.718093773</v>
+      </c>
+      <c r="L35">
+        <v>284437.64699999098</v>
+      </c>
+      <c r="M35">
+        <v>9816.8252104458206</v>
+      </c>
+      <c r="N35">
+        <v>46598.020789553899</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="51">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>143837.329561235</v>
+      </c>
+      <c r="G36">
+        <v>4272.9784387647796</v>
+      </c>
+      <c r="H36">
+        <v>148110.30799999979</v>
+      </c>
+      <c r="I36">
+        <v>90.570582877959893</v>
+      </c>
+      <c r="J36">
+        <v>143837.329561235</v>
+      </c>
+      <c r="K36">
+        <v>297307.87253847002</v>
+      </c>
+      <c r="L36">
+        <v>352606.74000000802</v>
+      </c>
+      <c r="M36">
+        <v>11229.1503665984</v>
+      </c>
+      <c r="N36">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="str" cm="1">
+        <f t="array" ref="D40:N56">TRANSPOSE(B3:R13)</f>
+        <v>Ratio of Sellers</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Number of Users</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Buyer</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Sellers % Ratio in Prosumers</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Sellers</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Cons.</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Total from P2P</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Total from supp.</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Total to P2P</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Total to grid.</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Total self con.</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Total from self gen.</v>
+      </c>
+      <c r="N41" t="str">
+        <v>Total from supp.</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0.25</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="G42">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="H42">
+        <v>82420.451000000205</v>
+      </c>
+      <c r="I42">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="J42">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="K42">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="L42">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="M42">
+        <v>2241.3779357984899</v>
+      </c>
+      <c r="N42">
+        <v>13422.005064201699</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>80</v>
+      </c>
+      <c r="F43">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="G43">
+        <v>93980.541241744097</v>
+      </c>
+      <c r="H43">
+        <v>176000.4189999993</v>
+      </c>
+      <c r="I43">
+        <v>49.067053734061901</v>
+      </c>
+      <c r="J43">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="K43">
+        <v>145.95272218341199</v>
+      </c>
+      <c r="L43">
+        <v>22024.3470000009</v>
+      </c>
+      <c r="M43">
+        <v>3460.6345195614399</v>
+      </c>
+      <c r="N43">
+        <v>24420.3874804394</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G44">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="H44">
+        <v>255329.97499999902</v>
+      </c>
+      <c r="I44">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="J44">
+        <v>116218.580895627</v>
+      </c>
+      <c r="K44">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="L44">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="M44">
+        <v>7339.5509822314998</v>
+      </c>
+      <c r="N44">
+        <v>44355.147017769501</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>160</v>
+      </c>
+      <c r="F45">
+        <v>159138.987787872</v>
+      </c>
+      <c r="G45">
+        <v>184783.85121212801</v>
+      </c>
+      <c r="H45">
+        <v>343922.83900000004</v>
+      </c>
+      <c r="I45">
+        <v>48.129269125683003</v>
+      </c>
+      <c r="J45">
+        <v>159138.987787872</v>
+      </c>
+      <c r="K45">
+        <v>365.55366372404802</v>
+      </c>
+      <c r="L45">
+        <v>47122.450000001103</v>
+      </c>
+      <c r="M45">
+        <v>8594.5365484032409</v>
+      </c>
+      <c r="N45">
+        <v>54600.642451596599</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>200</v>
+      </c>
+      <c r="F46">
+        <v>199051.54997373</v>
+      </c>
+      <c r="G46">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="H46">
+        <v>440802.170999997</v>
+      </c>
+      <c r="I46">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="J46">
+        <v>199051.54997373</v>
+      </c>
+      <c r="K46">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="L46">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="M46">
+        <v>10703.107607055899</v>
+      </c>
+      <c r="N46">
+        <v>69483.700392940998</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0.5</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="G47">
+        <v>9044.2498304456894</v>
+      </c>
+      <c r="H47">
+        <v>56378.244999999886</v>
+      </c>
+      <c r="I47">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="J47">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="K47">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="L47">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="M47">
+        <v>2013.8119190336699</v>
+      </c>
+      <c r="N47">
+        <v>11147.0110809664</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="G48">
+        <v>23261.579067807001</v>
+      </c>
+      <c r="H48">
+        <v>122188.1639999997</v>
+      </c>
+      <c r="I48">
+        <v>76.719319216757697</v>
+      </c>
+      <c r="J48">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K48">
+        <v>35410.964109768698</v>
+      </c>
+      <c r="L48">
+        <v>75261.816999999995</v>
+      </c>
+      <c r="M48">
+        <v>5579.4778598323801</v>
+      </c>
+      <c r="N48">
+        <v>29476.334140168201</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49">
+        <v>143445.815290161</v>
+      </c>
+      <c r="G49">
+        <v>32554.6037098382</v>
+      </c>
+      <c r="H49">
+        <v>176000.41899999921</v>
+      </c>
+      <c r="I49">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="J49">
+        <v>143445.815290161</v>
+      </c>
+      <c r="K49">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="L49">
+        <v>115578.017999987</v>
+      </c>
+      <c r="M49">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="N49">
+        <v>42372.623106654697</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>160</v>
+      </c>
+      <c r="F50">
+        <v>187520.878512628</v>
+      </c>
+      <c r="G50">
+        <v>44545.369487370503</v>
+      </c>
+      <c r="H50">
+        <v>232066.24799999851</v>
+      </c>
+      <c r="I50">
+        <v>76.813524590163894</v>
+      </c>
+      <c r="J50">
+        <v>187520.878512628</v>
+      </c>
+      <c r="K50">
+        <v>71190.607977963198</v>
+      </c>
+      <c r="L50">
+        <v>160742.17299998301</v>
+      </c>
+      <c r="M50">
+        <v>10875.388361207801</v>
+      </c>
+      <c r="N50">
+        <v>58804.504638791797</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="G51">
+        <v>54329.548304848198</v>
+      </c>
+      <c r="H51">
+        <v>286755.0579999992</v>
+      </c>
+      <c r="I51">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="J51">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="K51">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="L51">
+        <v>200654.74799998</v>
+      </c>
+      <c r="M51">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="N51">
+        <v>70942.959742109495</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0.75</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="G52">
+        <v>1036.6022184242499</v>
+      </c>
+      <c r="H52">
+        <v>32775.702000000048</v>
+      </c>
+      <c r="I52">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="J52">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="K52">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="L52">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="M52">
+        <v>3520.0906782329498</v>
+      </c>
+      <c r="N52">
+        <v>16020.7393217671</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>80</v>
+      </c>
+      <c r="F53">
+        <v>55318.520663591</v>
+      </c>
+      <c r="G53">
+        <v>1059.7243364088899</v>
+      </c>
+      <c r="H53">
+        <v>56378.244999999893</v>
+      </c>
+      <c r="I53">
+        <v>90.818533697632006</v>
+      </c>
+      <c r="J53">
+        <v>55318.520663591</v>
+      </c>
+      <c r="K53">
+        <v>124618.650763413</v>
+      </c>
+      <c r="L53">
+        <v>137069.411999982</v>
+      </c>
+      <c r="M53">
+        <v>4945.7284306758802</v>
+      </c>
+      <c r="N53">
+        <v>23707.5195693239</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="G54">
+        <v>1734.74411289472</v>
+      </c>
+      <c r="H54">
+        <v>82420.451000000219</v>
+      </c>
+      <c r="I54">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="J54">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="K54">
+        <v>183089.578469145</v>
+      </c>
+      <c r="L54">
+        <v>211967.487999982</v>
+      </c>
+      <c r="M54">
+        <v>7318.7465706147595</v>
+      </c>
+      <c r="N54">
+        <v>34506.974429385104</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>160</v>
+      </c>
+      <c r="F55">
+        <v>118353.559455394</v>
+      </c>
+      <c r="G55">
+        <v>3834.6045446057501</v>
+      </c>
+      <c r="H55">
+        <v>122188.16399999976</v>
+      </c>
+      <c r="I55">
+        <v>89.9584471766848</v>
+      </c>
+      <c r="J55">
+        <v>118353.559455394</v>
+      </c>
+      <c r="K55">
+        <v>231445.718093773</v>
+      </c>
+      <c r="L55">
+        <v>284437.64699999098</v>
+      </c>
+      <c r="M55">
+        <v>9816.8252104458206</v>
+      </c>
+      <c r="N55">
+        <v>46598.020789553899</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>143837.329561235</v>
+      </c>
+      <c r="G56">
+        <v>4272.9784387647796</v>
+      </c>
+      <c r="H56">
+        <v>148110.30799999979</v>
+      </c>
+      <c r="I56">
+        <v>90.570582877959893</v>
+      </c>
+      <c r="J56">
+        <v>143837.329561235</v>
+      </c>
+      <c r="K56">
+        <v>297307.87253847002</v>
+      </c>
+      <c r="L56">
+        <v>352606.74000000802</v>
+      </c>
+      <c r="M56">
+        <v>11229.1503665984</v>
+      </c>
+      <c r="N56">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B13CDCF-7C5A-43EB-9C8C-74DE12799128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453A6B3-8D97-432D-B1A0-5400B4B592B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="60">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -180,13 +180,7 @@
     <t>Prosumers Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">Prosumers Profits </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prosumers Costs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyers Costs </t>
   </si>
   <si>
     <t>Buyers Costs (P2P)</t>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>Profits within the P2P market in 2016, when users are equipped battery - Zero init values</t>
+  </si>
+  <si>
+    <t>Prosumer Balance</t>
+  </si>
+  <si>
+    <t>Prosumers Costs (Supp)</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +305,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,21 +594,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,21 +605,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -625,8 +623,60 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
-  <dimension ref="A2:AK137"/>
+  <dimension ref="A2:AL139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -955,40 +1005,92 @@
     <col min="5" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:38" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="55"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C3" s="36"/>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>0.25</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="41">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="38">
         <v>0.5</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="41">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38">
         <v>0.75</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-    </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="56"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="U3" s="4">
+        <v>21.230319999999999</v>
+      </c>
+      <c r="W3" s="4" cm="1">
+        <f t="array" ref="W3:AL3">TRANSPOSE(U3:U18)</f>
+        <v>21.230319999999999</v>
+      </c>
+      <c r="X3" s="4">
+        <v>43.512160000000002</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>63.7107999999999</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>84.554639999999907</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>105.90479999999999</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>43.512160000000002</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>84.554639999999907</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>127.390639999999</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>168.5616</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>211.2808</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>63.7107999999999</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>127.390639999999</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>190.24744000000001</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>254.55936</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>320.82015999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C4" s="37"/>
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1037,710 +1139,924 @@
       <c r="S4" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="U4" s="4">
+        <v>43.512160000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="53"/>
-      <c r="D6" s="11" t="s">
+      <c r="E5" s="64">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="F5" s="65">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="G5" s="65">
+        <v>186.85999999999899</v>
+      </c>
+      <c r="H5" s="65">
+        <v>251.23320000000001</v>
+      </c>
+      <c r="I5" s="66">
+        <v>327.44159999999999</v>
+      </c>
+      <c r="J5" s="64">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="K5" s="65">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="L5" s="65">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="M5" s="65">
+        <v>172.738799999999</v>
+      </c>
+      <c r="N5" s="66">
+        <v>203.89079999999899</v>
+      </c>
+      <c r="O5" s="64">
+        <v>26.415599999999898</v>
+      </c>
+      <c r="P5" s="65">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="Q5" s="65">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="R5" s="65">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="S5" s="66">
+        <v>112.9804</v>
+      </c>
+      <c r="U5" s="4">
+        <v>63.7107999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C6" s="45"/>
+      <c r="D6" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="79">
+        <v>9.2276000000000007</v>
+      </c>
+      <c r="F6" s="80">
+        <v>15.272</v>
+      </c>
+      <c r="G6" s="80">
+        <v>28.0044</v>
+      </c>
+      <c r="H6" s="80">
+        <v>40.825200000000002</v>
+      </c>
+      <c r="I6" s="81">
+        <v>52.861999999999902</v>
+      </c>
+      <c r="J6" s="79">
+        <v>15.272</v>
+      </c>
+      <c r="K6" s="80">
+        <v>40.825200000000002</v>
+      </c>
+      <c r="L6" s="80">
+        <v>60.845999999999997</v>
+      </c>
+      <c r="M6" s="80">
+        <v>84.105999999999995</v>
+      </c>
+      <c r="N6" s="81">
+        <v>105.3164</v>
+      </c>
+      <c r="O6" s="79">
+        <v>28.0044</v>
+      </c>
+      <c r="P6" s="80">
+        <v>60.845999999999997</v>
+      </c>
+      <c r="Q6" s="80">
+        <v>92.436000000000007</v>
+      </c>
+      <c r="R6" s="80">
+        <v>125.4744</v>
+      </c>
+      <c r="S6" s="81">
+        <v>152.19</v>
+      </c>
+      <c r="U6" s="4">
+        <v>84.554639999999907</v>
+      </c>
+    </row>
+    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C7" s="45"/>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57">
+        <v>21.230319999999999</v>
+      </c>
+      <c r="F7" s="77">
+        <v>43.512160000000002</v>
+      </c>
+      <c r="G7" s="77">
+        <v>63.7107999999999</v>
+      </c>
+      <c r="H7" s="77">
+        <v>84.554639999999907</v>
+      </c>
+      <c r="I7" s="59">
+        <v>105.90479999999999</v>
+      </c>
+      <c r="J7" s="57">
+        <v>43.512160000000002</v>
+      </c>
+      <c r="K7" s="77">
+        <v>84.554639999999907</v>
+      </c>
+      <c r="L7" s="77">
+        <v>127.390639999999</v>
+      </c>
+      <c r="M7" s="77">
+        <v>168.5616</v>
+      </c>
+      <c r="N7" s="59">
+        <v>211.2808</v>
+      </c>
+      <c r="O7" s="57">
+        <v>63.7107999999999</v>
+      </c>
+      <c r="P7" s="77">
+        <v>127.390639999999</v>
+      </c>
+      <c r="Q7" s="77">
+        <v>190.24744000000001</v>
+      </c>
+      <c r="R7" s="77">
+        <v>254.55936</v>
+      </c>
+      <c r="S7" s="59">
+        <v>320.82015999999999</v>
+      </c>
+      <c r="U7" s="4">
+        <v>105.90479999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C8" s="45"/>
+      <c r="D8" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="57">
+        <f>E7-E6</f>
+        <v>12.002719999999998</v>
+      </c>
+      <c r="F8" s="77">
+        <f t="shared" ref="F8:S8" si="0">F7-F6</f>
+        <v>28.240160000000003</v>
+      </c>
+      <c r="G8" s="77">
+        <f t="shared" si="0"/>
+        <v>35.706399999999903</v>
+      </c>
+      <c r="H8" s="77">
+        <f t="shared" si="0"/>
+        <v>43.729439999999904</v>
+      </c>
+      <c r="I8" s="77">
+        <f t="shared" si="0"/>
+        <v>53.042800000000092</v>
+      </c>
+      <c r="J8" s="57">
+        <f t="shared" si="0"/>
+        <v>28.240160000000003</v>
+      </c>
+      <c r="K8" s="77">
+        <f t="shared" si="0"/>
+        <v>43.729439999999904</v>
+      </c>
+      <c r="L8" s="77">
+        <f t="shared" si="0"/>
+        <v>66.544639999998992</v>
+      </c>
+      <c r="M8" s="77">
+        <f t="shared" si="0"/>
+        <v>84.455600000000004</v>
+      </c>
+      <c r="N8" s="77">
+        <f t="shared" si="0"/>
+        <v>105.9644</v>
+      </c>
+      <c r="O8" s="57">
+        <f t="shared" si="0"/>
+        <v>35.706399999999903</v>
+      </c>
+      <c r="P8" s="77">
+        <f t="shared" si="0"/>
+        <v>66.544639999998992</v>
+      </c>
+      <c r="Q8" s="77">
+        <f t="shared" si="0"/>
+        <v>97.811440000000005</v>
+      </c>
+      <c r="R8" s="77">
+        <f t="shared" si="0"/>
+        <v>129.08496</v>
+      </c>
+      <c r="S8" s="59">
+        <f t="shared" si="0"/>
+        <v>168.63015999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C9" s="45"/>
+      <c r="D9" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="82">
+        <f>E8-E5</f>
+        <v>-52.025680000000008</v>
+      </c>
+      <c r="F9" s="83">
+        <f t="shared" ref="F9:S9" si="1">F8-F5</f>
+        <v>-112.826639999999</v>
+      </c>
+      <c r="G9" s="83">
+        <f t="shared" si="1"/>
+        <v>-151.15359999999907</v>
+      </c>
+      <c r="H9" s="83">
+        <f t="shared" si="1"/>
+        <v>-207.50376000000011</v>
+      </c>
+      <c r="I9" s="83">
+        <f t="shared" si="1"/>
+        <v>-274.39879999999988</v>
+      </c>
+      <c r="J9" s="82">
+        <f t="shared" si="1"/>
+        <v>-18.835039999999999</v>
+      </c>
+      <c r="K9" s="83">
+        <f t="shared" si="1"/>
+        <v>-48.235360000000092</v>
+      </c>
+      <c r="L9" s="83">
+        <f t="shared" si="1"/>
+        <v>-74.522160000000014</v>
+      </c>
+      <c r="M9" s="83">
+        <f t="shared" si="1"/>
+        <v>-88.283199999998999</v>
+      </c>
+      <c r="N9" s="83">
+        <f t="shared" si="1"/>
+        <v>-97.926399999998992</v>
+      </c>
+      <c r="O9" s="82">
+        <f t="shared" si="1"/>
+        <v>9.2908000000000044</v>
+      </c>
+      <c r="P9" s="83">
+        <f t="shared" si="1"/>
+        <v>19.46943999999899</v>
+      </c>
+      <c r="Q9" s="83">
+        <f t="shared" si="1"/>
+        <v>33.78304</v>
+      </c>
+      <c r="R9" s="83">
+        <f t="shared" si="1"/>
+        <v>37.120159999999998</v>
+      </c>
+      <c r="S9" s="84">
+        <f t="shared" si="1"/>
+        <v>55.649759999999986</v>
+      </c>
+      <c r="U9" s="4">
+        <v>43.512160000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="53"/>
-      <c r="D7" s="11" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="69"/>
+      <c r="U10" s="4">
+        <v>84.554639999999907</v>
+      </c>
+    </row>
+    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C11" s="45"/>
+      <c r="D11" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="69"/>
+      <c r="U11" s="4">
+        <v>127.390639999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="45"/>
+      <c r="D12" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="87"/>
+      <c r="U12" s="4">
+        <v>168.5616</v>
+      </c>
+    </row>
+    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C13" s="45"/>
+      <c r="D13" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="19"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
+      <c r="U13" s="4">
+        <v>211.2808</v>
+      </c>
+    </row>
+    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="45"/>
+      <c r="D14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
+      <c r="U14" s="4">
+        <v>63.7107999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="45"/>
+      <c r="D15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="59"/>
+      <c r="U15" s="4">
+        <v>127.390639999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="45"/>
+      <c r="D16" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="U16" s="4">
+        <v>190.24744000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C17" s="45"/>
+      <c r="D17" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="U17" s="4">
+        <v>254.55936</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="66"/>
+      <c r="U18" s="4">
+        <v>320.82015999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C19" s="45"/>
+      <c r="D19" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="69"/>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C20" s="45"/>
+      <c r="D20" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="53"/>
-      <c r="D9" s="11" t="s">
+      <c r="E20" s="88"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="87"/>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C21" s="45"/>
+      <c r="D21" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="59"/>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C22" s="45"/>
+      <c r="D22" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="53"/>
-      <c r="D10" s="11" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="59"/>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C23" s="45"/>
+      <c r="D23" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="19"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="53"/>
-      <c r="D11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="19"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="53"/>
-      <c r="D12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="53"/>
-      <c r="D13" s="11" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="59"/>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C24" s="45"/>
+      <c r="D24" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C25" s="46"/>
+      <c r="D25" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="19"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="53"/>
-      <c r="D14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="53"/>
-      <c r="D15" s="11" t="s">
+      <c r="E25" s="74"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="76"/>
+    </row>
+    <row r="29" spans="3:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="19"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="D17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C18" s="53"/>
-      <c r="D18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C19" s="53"/>
-      <c r="D19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C20" s="53"/>
-      <c r="D20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C21" s="53"/>
-      <c r="D21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="19"/>
-    </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C23" s="54"/>
-      <c r="D23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="27" spans="3:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+    </row>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="41">
+      <c r="D31" s="10"/>
+      <c r="E31" s="38">
         <v>0.25</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="41">
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="38">
         <v>0.5</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="38">
         <v>0.75</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="43"/>
-      <c r="U29" s="4">
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="40"/>
+      <c r="U31" s="4">
         <v>19.9031494405743</v>
       </c>
-      <c r="W29" s="4" cm="1">
-        <f t="array" ref="W29:AK29">TRANSPOSE(U29:U43)</f>
+      <c r="W31" s="4" cm="1">
+        <f t="array" ref="W31:AK31">TRANSPOSE(U31:U45)</f>
         <v>19.9031494405743</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X31" s="4">
         <v>46.439450326183</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Y31" s="4">
         <v>60.432492848047303</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="Z31" s="4">
         <v>77.024386887912101</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AA31" s="4">
         <v>95.749359427952399</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AB31" s="4">
         <v>35.089276890691799</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AC31" s="4">
         <v>57.337500523445001</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD31" s="4">
         <v>87.461851631575996</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE31" s="4">
         <v>110.576998467123</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AF31" s="4">
         <v>136.800016920974</v>
       </c>
-      <c r="AG29" s="4">
+      <c r="AG31" s="4">
         <v>40.905893508044798</v>
       </c>
-      <c r="AH29" s="4">
+      <c r="AH31" s="4">
         <v>75.286865310576005</v>
       </c>
-      <c r="AI29" s="4">
+      <c r="AI31" s="4">
         <v>109.102090852781</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AJ31" s="4">
         <v>145.221882917588</v>
       </c>
-      <c r="AK29" s="4">
+      <c r="AK31" s="4">
         <v>189.311366370169</v>
       </c>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="2">
+      <c r="D32" s="24"/>
+      <c r="E32" s="2">
         <v>40</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F32" s="1">
         <v>80</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G32" s="1">
         <v>120</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H32" s="1">
         <v>160</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I32" s="1">
         <v>200</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J32" s="2">
         <v>40</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K32" s="1">
         <v>80</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L32" s="1">
         <v>120</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M32" s="1">
         <v>160</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N32" s="1">
         <v>200</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O32" s="2">
         <v>40</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P32" s="1">
         <v>80</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q32" s="1">
         <v>120</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R32" s="1">
         <v>160</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U32" s="4">
         <v>46.439450326183</v>
       </c>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C31" s="39" t="s">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="41" t="s">
         <v>6</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5">
-        <v>213.979399882552</v>
-      </c>
-      <c r="F31" s="6">
-        <v>467.24764750055198</v>
-      </c>
-      <c r="G31" s="6">
-        <v>694.50676269174403</v>
-      </c>
-      <c r="H31" s="6">
-        <v>947.15376239309001</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1137.0875268699399</v>
-      </c>
-      <c r="J31" s="5">
-        <v>690.845741729427</v>
-      </c>
-      <c r="K31" s="6">
-        <v>1337.02888996774</v>
-      </c>
-      <c r="L31" s="6">
-        <v>2035.15682670263</v>
-      </c>
-      <c r="M31" s="6">
-        <v>2722.2423740374002</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3423.3155817535799</v>
-      </c>
-      <c r="O31" s="5">
-        <v>1076.05001851051</v>
-      </c>
-      <c r="P31" s="6">
-        <v>2182.2545383342199</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>3276.3411864923301</v>
-      </c>
-      <c r="R31" s="6">
-        <v>4353.8029712139996</v>
-      </c>
-      <c r="S31" s="7">
-        <v>5477.8931966463097</v>
-      </c>
-      <c r="U31" s="4">
-        <v>60.432492848047303</v>
-      </c>
-    </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
-      <c r="D32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="12">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="F32" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="G32" s="13">
-        <v>186.85999999999899</v>
-      </c>
-      <c r="H32" s="13">
-        <v>251.23320000000001</v>
-      </c>
-      <c r="I32" s="14">
-        <v>327.44159999999999</v>
-      </c>
-      <c r="J32" s="12">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="K32" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="L32" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="M32" s="13">
-        <v>172.738799999999</v>
-      </c>
-      <c r="N32" s="14">
-        <v>203.89079999999899</v>
-      </c>
-      <c r="O32" s="12">
-        <v>26.415599999999898</v>
-      </c>
-      <c r="P32" s="13">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="R32" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="S32" s="14">
-        <v>112.9804</v>
-      </c>
-      <c r="U32" s="4">
-        <v>77.024386887912101</v>
-      </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="39" t="s">
-        <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="7"/>
+      <c r="E33" s="5">
+        <v>213.979399882552</v>
+      </c>
+      <c r="F33" s="6">
+        <v>467.24764750055198</v>
+      </c>
+      <c r="G33" s="6">
+        <v>694.50676269174403</v>
+      </c>
+      <c r="H33" s="6">
+        <v>947.15376239309001</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1137.0875268699399</v>
+      </c>
+      <c r="J33" s="5">
+        <v>690.845741729427</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1337.02888996774</v>
+      </c>
+      <c r="L33" s="6">
+        <v>2035.15682670263</v>
+      </c>
+      <c r="M33" s="6">
+        <v>2722.2423740374002</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3423.3155817535799</v>
+      </c>
+      <c r="O33" s="5">
+        <v>1076.05001851051</v>
+      </c>
+      <c r="P33" s="6">
+        <v>2182.2545383342199</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>3276.3411864923301</v>
+      </c>
+      <c r="R33" s="6">
+        <v>4353.8029712139996</v>
+      </c>
+      <c r="S33" s="7">
+        <v>5477.8931966463097</v>
+      </c>
       <c r="U33" s="4">
-        <v>95.749359427952399</v>
+        <v>60.432492848047303</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="40"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="14"/>
+      <c r="E34" s="12">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="F34" s="13">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="G34" s="13">
+        <v>186.85999999999899</v>
+      </c>
+      <c r="H34" s="13">
+        <v>251.23320000000001</v>
+      </c>
+      <c r="I34" s="14">
+        <v>327.44159999999999</v>
+      </c>
+      <c r="J34" s="12">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="K34" s="13">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="L34" s="13">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="M34" s="13">
+        <v>172.738799999999</v>
+      </c>
+      <c r="N34" s="14">
+        <v>203.89079999999899</v>
+      </c>
+      <c r="O34" s="12">
+        <v>26.415599999999898</v>
+      </c>
+      <c r="P34" s="13">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="R34" s="13">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="S34" s="14">
+        <v>112.9804</v>
+      </c>
       <c r="U34" s="4">
-        <v>35.089276890691799</v>
+        <v>77.024386887912101</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="39" t="s">
-        <v>0</v>
+      <c r="C35" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -1761,11 +2077,11 @@
       <c r="R35" s="6"/>
       <c r="S35" s="7"/>
       <c r="U35" s="4">
-        <v>57.337500523445001</v>
+        <v>95.749359427952399</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="40"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
@@ -1785,271 +2101,277 @@
       <c r="R36" s="13"/>
       <c r="S36" s="14"/>
       <c r="U36" s="4">
+        <v>35.089276890691799</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="7"/>
+      <c r="U37" s="4">
+        <v>57.337500523445001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="42"/>
+      <c r="D38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="14"/>
+      <c r="U38" s="4">
         <v>87.461851631575996</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U37" s="4">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U39" s="4">
         <v>110.576998467123</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U38" s="4">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U40" s="4">
         <v>136.800016920974</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="21"/>
-      <c r="U39" s="4">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="21"/>
+      <c r="U41" s="4">
         <v>40.905893508044798</v>
       </c>
     </row>
-    <row r="40" spans="3:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="C40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" s="4">
+    <row r="42" spans="3:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="C42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U42" s="4">
         <v>75.286865310576005</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="41">
+      <c r="D43" s="10"/>
+      <c r="E43" s="38">
         <v>0.25</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="41">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="38">
         <v>0.5</v>
       </c>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="41">
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="38">
         <v>0.75</v>
       </c>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="43"/>
-      <c r="U41" s="4">
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="40"/>
+      <c r="U43" s="4">
         <v>109.102090852781</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="2">
+      <c r="D44" s="24"/>
+      <c r="E44" s="2">
         <v>40</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F44" s="1">
         <v>80</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G44" s="1">
         <v>120</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H44" s="1">
         <v>160</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I44" s="1">
         <v>200</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J44" s="2">
         <v>40</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K44" s="1">
         <v>80</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L44" s="1">
         <v>120</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M44" s="1">
         <v>160</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N44" s="1">
         <v>200</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O44" s="2">
         <v>40</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P44" s="1">
         <v>80</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q44" s="1">
         <v>120</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R44" s="1">
         <v>160</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="U42" s="4">
+      <c r="U44" s="4">
         <v>145.221882917588</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="39" t="s">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="41" t="s">
         <v>6</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-39.501679999999901</v>
-      </c>
-      <c r="F43" s="6">
-        <v>-67.047039999999996</v>
-      </c>
-      <c r="G43" s="6">
-        <v>-116.94687999999999</v>
-      </c>
-      <c r="H43" s="6">
-        <v>-138.19551999999999</v>
-      </c>
-      <c r="I43" s="7">
-        <v>-171.47631999999999</v>
-      </c>
-      <c r="J43" s="5">
-        <v>-67.047039999999996</v>
-      </c>
-      <c r="K43" s="6">
-        <v>-138.19551999999999</v>
-      </c>
-      <c r="L43" s="6">
-        <v>-205.56048000000001</v>
-      </c>
-      <c r="M43" s="6">
-        <v>-288.45175999999901</v>
-      </c>
-      <c r="N43" s="7">
-        <v>-359.64199999999897</v>
-      </c>
-      <c r="O43" s="5">
-        <v>-116.94687999999999</v>
-      </c>
-      <c r="P43" s="6">
-        <v>-205.56048000000001</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>-318.34607999999901</v>
-      </c>
-      <c r="R43" s="6">
-        <v>-424.31671999999799</v>
-      </c>
-      <c r="S43" s="7">
-        <v>-527.28583999999796</v>
-      </c>
-      <c r="U43" s="4">
-        <v>189.311366370169</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="40"/>
-      <c r="D44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="12">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="F44" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="G44" s="13">
-        <v>303.19439999999997</v>
-      </c>
-      <c r="H44" s="13">
-        <v>405.10919999999999</v>
-      </c>
-      <c r="I44" s="14">
-        <v>538.44199999999898</v>
-      </c>
-      <c r="J44" s="12">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="K44" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="L44" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="M44" s="13">
-        <v>277.55759999999901</v>
-      </c>
-      <c r="N44" s="14">
-        <v>338.86160000000001</v>
-      </c>
-      <c r="O44" s="12">
-        <v>37.567999999999998</v>
-      </c>
-      <c r="P44" s="13">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="Q44" s="13">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="R44" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="S44" s="14">
-        <v>178.93799999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="39" t="s">
-        <v>1</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="7"/>
+      <c r="E45" s="5">
+        <v>-39.501679999999901</v>
+      </c>
+      <c r="F45" s="6">
+        <v>-67.047039999999996</v>
+      </c>
+      <c r="G45" s="6">
+        <v>-116.94687999999999</v>
+      </c>
+      <c r="H45" s="6">
+        <v>-138.19551999999999</v>
+      </c>
+      <c r="I45" s="7">
+        <v>-171.47631999999999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>-67.047039999999996</v>
+      </c>
+      <c r="K45" s="6">
+        <v>-138.19551999999999</v>
+      </c>
+      <c r="L45" s="6">
+        <v>-205.56048000000001</v>
+      </c>
+      <c r="M45" s="6">
+        <v>-288.45175999999901</v>
+      </c>
+      <c r="N45" s="7">
+        <v>-359.64199999999897</v>
+      </c>
+      <c r="O45" s="5">
+        <v>-116.94687999999999</v>
+      </c>
+      <c r="P45" s="6">
+        <v>-205.56048000000001</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>-318.34607999999901</v>
+      </c>
+      <c r="R45" s="6">
+        <v>-424.31671999999799</v>
+      </c>
+      <c r="S45" s="7">
+        <v>-527.28583999999796</v>
+      </c>
+      <c r="U45" s="4">
+        <v>189.311366370169</v>
+      </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="40"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="14"/>
+      <c r="E46" s="12">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="F46" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="G46" s="13">
+        <v>303.19439999999997</v>
+      </c>
+      <c r="H46" s="13">
+        <v>405.10919999999999</v>
+      </c>
+      <c r="I46" s="14">
+        <v>538.44199999999898</v>
+      </c>
+      <c r="J46" s="12">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="K46" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="L46" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="M46" s="13">
+        <v>277.55759999999901</v>
+      </c>
+      <c r="N46" s="14">
+        <v>338.86160000000001</v>
+      </c>
+      <c r="O46" s="12">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="P46" s="13">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="R46" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="S46" s="14">
+        <v>178.93799999999999</v>
+      </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="39" t="s">
-        <v>0</v>
+      <c r="C47" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -2071,7 +2393,7 @@
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="40"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="11" t="s">
         <v>3</v>
       </c>
@@ -2091,229 +2413,220 @@
       <c r="R48" s="13"/>
       <c r="S48" s="14"/>
     </row>
-    <row r="52" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C52" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C49" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C50" s="42"/>
+      <c r="D50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="54" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="41">
+      <c r="D56" s="10"/>
+      <c r="E56" s="38">
         <v>0.25</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="41">
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="38">
         <v>0.5</v>
       </c>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="41">
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="38">
         <v>0.75</v>
       </c>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="43"/>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="40"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="2">
+      <c r="D57" s="24"/>
+      <c r="E57" s="2">
         <v>40</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F57" s="1">
         <v>80</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G57" s="1">
         <v>120</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H57" s="1">
         <v>160</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I57" s="1">
         <v>200</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J57" s="2">
         <v>40</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K57" s="1">
         <v>80</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L57" s="1">
         <v>120</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M57" s="1">
         <v>160</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N57" s="1">
         <v>200</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O57" s="2">
         <v>40</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P57" s="1">
         <v>80</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q57" s="1">
         <v>120</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R57" s="1">
         <v>160</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="39" t="s">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C58" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="7"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="44"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="19"/>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="40"/>
-      <c r="D58" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="F58" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="G58" s="13">
-        <v>303.19439999999997</v>
-      </c>
-      <c r="H58" s="13">
-        <v>405.10919999999999</v>
-      </c>
-      <c r="I58" s="14">
-        <v>538.44199999999898</v>
-      </c>
-      <c r="J58" s="12">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="K58" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="L58" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="M58" s="13">
-        <v>277.55759999999901</v>
-      </c>
-      <c r="N58" s="14">
-        <v>338.86160000000001</v>
-      </c>
-      <c r="O58" s="12">
-        <v>37.567999999999998</v>
-      </c>
-      <c r="P58" s="13">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="Q58" s="13">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="R58" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="S58" s="14">
-        <v>178.93799999999999</v>
-      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="7"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="7"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="18"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="18"/>
+      <c r="S59" s="19"/>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="40"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="14"/>
+      <c r="E60" s="12">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="F60" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="G60" s="13">
+        <v>303.19439999999997</v>
+      </c>
+      <c r="H60" s="13">
+        <v>405.10919999999999</v>
+      </c>
+      <c r="I60" s="14">
+        <v>538.44199999999898</v>
+      </c>
+      <c r="J60" s="12">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="K60" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="L60" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="M60" s="13">
+        <v>277.55759999999901</v>
+      </c>
+      <c r="N60" s="14">
+        <v>338.86160000000001</v>
+      </c>
+      <c r="O60" s="12">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="P60" s="13">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="R60" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="S60" s="14">
+        <v>178.93799999999999</v>
+      </c>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="39" t="s">
-        <v>0</v>
+      <c r="C61" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>7</v>
@@ -2335,7 +2648,7 @@
       <c r="S61" s="7"/>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C62" s="40"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="11" t="s">
         <v>3</v>
       </c>
@@ -2355,240 +2668,240 @@
       <c r="R62" s="13"/>
       <c r="S62" s="14"/>
     </row>
-    <row r="66" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C66" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C63" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C64" s="42"/>
+      <c r="D64" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="14"/>
+    </row>
+    <row r="68" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C68" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C69" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="41">
+      <c r="D69" s="10"/>
+      <c r="E69" s="38">
         <v>0.25</v>
       </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="41">
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="38">
         <v>0.5</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="41">
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="38">
         <v>0.75</v>
       </c>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="43"/>
-    </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="40"/>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="2">
+      <c r="D70" s="24"/>
+      <c r="E70" s="2">
         <v>40</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F70" s="1">
         <v>80</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G70" s="1">
         <v>120</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H70" s="1">
         <v>160</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I70" s="1">
         <v>200</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J70" s="2">
         <v>40</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K70" s="1">
         <v>80</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L70" s="1">
         <v>120</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M70" s="1">
         <v>160</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N70" s="1">
         <v>200</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O70" s="2">
         <v>40</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P70" s="1">
         <v>80</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q70" s="1">
         <v>120</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R70" s="1">
         <v>160</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S70" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C69" s="39" t="s">
+    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C71" s="41" t="s">
         <v>6</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="5">
-        <v>-20.469600000001002</v>
-      </c>
-      <c r="F69" s="6">
-        <v>11.778479999997799</v>
-      </c>
-      <c r="G69" s="6">
-        <v>-246.65439999999199</v>
-      </c>
-      <c r="H69" s="6">
-        <v>-146.98735999999599</v>
-      </c>
-      <c r="I69" s="7">
-        <v>-176.28743999998801</v>
-      </c>
-      <c r="J69" s="5">
-        <v>11.778479999997799</v>
-      </c>
-      <c r="K69" s="6">
-        <v>-146.98735999999599</v>
-      </c>
-      <c r="L69" s="6">
-        <v>-183.594879999977</v>
-      </c>
-      <c r="M69" s="6">
-        <v>-364.49639999999602</v>
-      </c>
-      <c r="N69" s="7">
-        <v>-451.898960000047</v>
-      </c>
-      <c r="O69" s="5">
-        <v>-246.65439999999199</v>
-      </c>
-      <c r="P69" s="6">
-        <v>-183.594879999977</v>
-      </c>
-      <c r="Q69" s="6">
-        <v>-332.499760000008</v>
-      </c>
-      <c r="R69" s="6">
-        <v>-597.73664000006102</v>
-      </c>
-      <c r="S69" s="7">
-        <v>-533.14304000011998</v>
-      </c>
-    </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C70" s="40"/>
-      <c r="D70" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="12">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="F70" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="G70" s="13">
-        <v>8190.7740000000003</v>
-      </c>
-      <c r="H70" s="13">
-        <v>11052.956399999999</v>
-      </c>
-      <c r="I70" s="14">
-        <v>14117.1923999999</v>
-      </c>
-      <c r="J70" s="12">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="K70" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="L70" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="M70" s="13">
-        <v>7542.5716000000002</v>
-      </c>
-      <c r="N70" s="14">
-        <v>9186.0111999999899</v>
-      </c>
-      <c r="O70" s="12">
-        <v>1056.5555999999999</v>
-      </c>
-      <c r="P70" s="13">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="Q70" s="13">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="R70" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="S70" s="14">
-        <v>4828.1167999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C71" s="39" t="s">
-        <v>1</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="7"/>
+      <c r="E71" s="5">
+        <v>-20.469600000001002</v>
+      </c>
+      <c r="F71" s="6">
+        <v>11.778479999997799</v>
+      </c>
+      <c r="G71" s="6">
+        <v>-246.65439999999199</v>
+      </c>
+      <c r="H71" s="6">
+        <v>-146.98735999999599</v>
+      </c>
+      <c r="I71" s="7">
+        <v>-176.28743999998801</v>
+      </c>
+      <c r="J71" s="5">
+        <v>11.778479999997799</v>
+      </c>
+      <c r="K71" s="6">
+        <v>-146.98735999999599</v>
+      </c>
+      <c r="L71" s="6">
+        <v>-183.594879999977</v>
+      </c>
+      <c r="M71" s="6">
+        <v>-364.49639999999602</v>
+      </c>
+      <c r="N71" s="7">
+        <v>-451.898960000047</v>
+      </c>
+      <c r="O71" s="5">
+        <v>-246.65439999999199</v>
+      </c>
+      <c r="P71" s="6">
+        <v>-183.594879999977</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>-332.499760000008</v>
+      </c>
+      <c r="R71" s="6">
+        <v>-597.73664000006102</v>
+      </c>
+      <c r="S71" s="7">
+        <v>-533.14304000011998</v>
+      </c>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C72" s="40"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="14"/>
+      <c r="E72" s="12">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="F72" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="G72" s="13">
+        <v>8190.7740000000003</v>
+      </c>
+      <c r="H72" s="13">
+        <v>11052.956399999999</v>
+      </c>
+      <c r="I72" s="14">
+        <v>14117.1923999999</v>
+      </c>
+      <c r="J72" s="12">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="K72" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="L72" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="M72" s="13">
+        <v>7542.5716000000002</v>
+      </c>
+      <c r="N72" s="14">
+        <v>9186.0111999999899</v>
+      </c>
+      <c r="O72" s="12">
+        <v>1056.5555999999999</v>
+      </c>
+      <c r="P72" s="13">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="R72" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="S72" s="14">
+        <v>4828.1167999999998</v>
+      </c>
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C73" s="39" t="s">
-        <v>0</v>
+      <c r="C73" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>7</v>
@@ -2610,7 +2923,7 @@
       <c r="S73" s="7"/>
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C74" s="40"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="11" t="s">
         <v>3</v>
       </c>
@@ -2630,240 +2943,240 @@
       <c r="R74" s="13"/>
       <c r="S74" s="14"/>
     </row>
-    <row r="78" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C78" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C80" s="9" t="s">
+    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C75" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="7"/>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C76" s="42"/>
+      <c r="D76" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="14"/>
+    </row>
+    <row r="80" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C80" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C82" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="41">
+      <c r="D82" s="10"/>
+      <c r="E82" s="38">
         <v>0.25</v>
       </c>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="41">
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="38">
         <v>0.5</v>
       </c>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="41">
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="38">
         <v>0.75</v>
       </c>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="43"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C81" s="9" t="s">
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="40"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C83" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="2">
+      <c r="D83" s="24"/>
+      <c r="E83" s="2">
         <v>40</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F83" s="1">
         <v>80</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G83" s="1">
         <v>120</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H83" s="1">
         <v>160</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I83" s="1">
         <v>200</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J83" s="2">
         <v>40</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K83" s="1">
         <v>80</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L83" s="1">
         <v>120</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M83" s="1">
         <v>160</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N83" s="1">
         <v>200</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O83" s="2">
         <v>40</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P83" s="1">
         <v>80</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q83" s="1">
         <v>120</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R83" s="1">
         <v>160</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C82" s="39" t="s">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C84" s="41" t="s">
         <v>6</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1347.0157639399199</v>
-      </c>
-      <c r="F82" s="6">
-        <v>2889.10194178645</v>
-      </c>
-      <c r="G82" s="6">
-        <v>3897.6967613308302</v>
-      </c>
-      <c r="H82" s="6">
-        <v>5528.5760184048704</v>
-      </c>
-      <c r="I82" s="7">
-        <v>6926.8878754609204</v>
-      </c>
-      <c r="J82" s="5">
-        <v>17875.025137457</v>
-      </c>
-      <c r="K82" s="6">
-        <v>32998.851611536702</v>
-      </c>
-      <c r="L82" s="6">
-        <v>51425.252160948097</v>
-      </c>
-      <c r="M82" s="6">
-        <v>67865.1635257491</v>
-      </c>
-      <c r="N82" s="7">
-        <v>85879.339286614006</v>
-      </c>
-      <c r="O82" s="5">
-        <v>29398.7842612811</v>
-      </c>
-      <c r="P82" s="6">
-        <v>61568.4171596714</v>
-      </c>
-      <c r="Q82" s="6">
-        <v>92239.787022626595</v>
-      </c>
-      <c r="R82" s="6">
-        <v>122128.22478471301</v>
-      </c>
-      <c r="S82" s="7">
-        <v>154244.014362132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C83" s="40"/>
-      <c r="D83" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="12">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="F83" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="G83" s="13">
-        <v>8190.7740000000003</v>
-      </c>
-      <c r="H83" s="13">
-        <v>11052.956399999999</v>
-      </c>
-      <c r="I83" s="14">
-        <v>14117.1923999999</v>
-      </c>
-      <c r="J83" s="12">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="K83" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="L83" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="M83" s="13">
-        <v>7542.5716000000002</v>
-      </c>
-      <c r="N83" s="14">
-        <v>9186.0111999999899</v>
-      </c>
-      <c r="O83" s="12">
-        <v>1056.5555999999999</v>
-      </c>
-      <c r="P83" s="13">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="Q83" s="13">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="R83" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="S83" s="14">
-        <v>4828.1167999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C84" s="39" t="s">
-        <v>1</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="7"/>
+      <c r="E84" s="5">
+        <v>1347.0157639399199</v>
+      </c>
+      <c r="F84" s="6">
+        <v>2889.10194178645</v>
+      </c>
+      <c r="G84" s="6">
+        <v>3897.6967613308302</v>
+      </c>
+      <c r="H84" s="6">
+        <v>5528.5760184048704</v>
+      </c>
+      <c r="I84" s="7">
+        <v>6926.8878754609204</v>
+      </c>
+      <c r="J84" s="5">
+        <v>17875.025137457</v>
+      </c>
+      <c r="K84" s="6">
+        <v>32998.851611536702</v>
+      </c>
+      <c r="L84" s="6">
+        <v>51425.252160948097</v>
+      </c>
+      <c r="M84" s="6">
+        <v>67865.1635257491</v>
+      </c>
+      <c r="N84" s="7">
+        <v>85879.339286614006</v>
+      </c>
+      <c r="O84" s="5">
+        <v>29398.7842612811</v>
+      </c>
+      <c r="P84" s="6">
+        <v>61568.4171596714</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>92239.787022626595</v>
+      </c>
+      <c r="R84" s="6">
+        <v>122128.22478471301</v>
+      </c>
+      <c r="S84" s="7">
+        <v>154244.014362132</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C85" s="40"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="14"/>
+      <c r="E85" s="12">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="F85" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="G85" s="13">
+        <v>8190.7740000000003</v>
+      </c>
+      <c r="H85" s="13">
+        <v>11052.956399999999</v>
+      </c>
+      <c r="I85" s="14">
+        <v>14117.1923999999</v>
+      </c>
+      <c r="J85" s="12">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="K85" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="L85" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="M85" s="13">
+        <v>7542.5716000000002</v>
+      </c>
+      <c r="N85" s="14">
+        <v>9186.0111999999899</v>
+      </c>
+      <c r="O85" s="12">
+        <v>1056.5555999999999</v>
+      </c>
+      <c r="P85" s="13">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="R85" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="S85" s="14">
+        <v>4828.1167999999998</v>
+      </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
-        <v>0</v>
+      <c r="C86" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>7</v>
@@ -2885,7 +3198,7 @@
       <c r="S86" s="7"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C87" s="40"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="11" t="s">
         <v>3</v>
       </c>
@@ -2905,272 +3218,268 @@
       <c r="R87" s="13"/>
       <c r="S87" s="14"/>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="26"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="P92" s="42"/>
-      <c r="Q92" s="42"/>
-      <c r="R92" s="42"/>
-      <c r="S92" s="43"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C88" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C89" s="42"/>
+      <c r="D89" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
-      <c r="C93" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="2">
-        <v>40</v>
-      </c>
-      <c r="F93" s="1">
-        <v>80</v>
-      </c>
-      <c r="G93" s="1">
-        <v>120</v>
-      </c>
-      <c r="H93" s="1">
-        <v>160</v>
-      </c>
-      <c r="I93" s="1">
-        <v>200</v>
-      </c>
-      <c r="J93" s="2">
-        <v>40</v>
-      </c>
-      <c r="K93" s="1">
-        <v>80</v>
-      </c>
-      <c r="L93" s="1">
-        <v>120</v>
-      </c>
-      <c r="M93" s="1">
-        <v>160</v>
-      </c>
-      <c r="N93" s="1">
-        <v>200</v>
-      </c>
-      <c r="O93" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>120</v>
-      </c>
-      <c r="R93" s="1">
-        <v>160</v>
-      </c>
-      <c r="S93" s="3">
-        <v>200</v>
-      </c>
+      <c r="C93" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="26">
-        <v>-653.95656000000201</v>
-      </c>
-      <c r="F94" s="26">
-        <v>-1117.1593599999901</v>
-      </c>
-      <c r="G94" s="26">
-        <v>-2115.90112</v>
-      </c>
-      <c r="H94" s="26">
-        <v>-2568.8923999999902</v>
-      </c>
-      <c r="I94" s="27">
-        <v>-3267.6420800000001</v>
-      </c>
-      <c r="J94" s="26">
-        <v>-1117.1593599999901</v>
-      </c>
-      <c r="K94" s="26">
-        <v>-2568.8923999999902</v>
-      </c>
-      <c r="L94" s="26">
-        <v>-3895.7800000000102</v>
-      </c>
-      <c r="M94" s="26">
-        <v>-5451.1823199999999</v>
-      </c>
-      <c r="N94" s="27">
-        <v>-6711.9140800000096</v>
-      </c>
-      <c r="O94" s="26">
-        <v>-2115.90112</v>
-      </c>
-      <c r="P94" s="26">
-        <v>-3895.7800000000102</v>
-      </c>
-      <c r="Q94" s="26">
-        <v>-5954.1264000000501</v>
-      </c>
-      <c r="R94" s="26">
-        <v>-8022.38544000006</v>
-      </c>
-      <c r="S94" s="27">
-        <v>-9782.0400800000098</v>
-      </c>
+      <c r="C94" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="40"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="F95" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="G95" s="31">
-        <v>9521.5679999999993</v>
-      </c>
-      <c r="H95" s="31">
-        <v>12769.879199999899</v>
-      </c>
-      <c r="I95" s="32">
-        <v>16299.1023999999</v>
-      </c>
-      <c r="J95" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="K95" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="L95" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="M95" s="31">
-        <v>8658.7952000000096</v>
-      </c>
-      <c r="N95" s="32">
-        <v>10661.754800000001</v>
-      </c>
-      <c r="O95" s="31">
-        <v>1233.0303999999901</v>
-      </c>
-      <c r="P95" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="Q95" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="R95" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="S95" s="32">
-        <v>5531.63039999999</v>
+      <c r="C95" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="2">
+        <v>40</v>
+      </c>
+      <c r="F95" s="1">
+        <v>80</v>
+      </c>
+      <c r="G95" s="1">
+        <v>120</v>
+      </c>
+      <c r="H95" s="1">
+        <v>160</v>
+      </c>
+      <c r="I95" s="1">
+        <v>200</v>
+      </c>
+      <c r="J95" s="2">
+        <v>40</v>
+      </c>
+      <c r="K95" s="1">
+        <v>80</v>
+      </c>
+      <c r="L95" s="1">
+        <v>120</v>
+      </c>
+      <c r="M95" s="1">
+        <v>160</v>
+      </c>
+      <c r="N95" s="1">
+        <v>200</v>
+      </c>
+      <c r="O95" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>120</v>
+      </c>
+      <c r="R95" s="1">
+        <v>160</v>
+      </c>
+      <c r="S95" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="38" t="s">
-        <v>1</v>
+      <c r="C96" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="D96" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="27"/>
+      <c r="E96" s="26">
+        <v>-653.95656000000201</v>
+      </c>
+      <c r="F96" s="26">
+        <v>-1117.1593599999901</v>
+      </c>
+      <c r="G96" s="26">
+        <v>-2115.90112</v>
+      </c>
+      <c r="H96" s="26">
+        <v>-2568.8923999999902</v>
+      </c>
+      <c r="I96" s="27">
+        <v>-3267.6420800000001</v>
+      </c>
+      <c r="J96" s="26">
+        <v>-1117.1593599999901</v>
+      </c>
+      <c r="K96" s="26">
+        <v>-2568.8923999999902</v>
+      </c>
+      <c r="L96" s="26">
+        <v>-3895.7800000000102</v>
+      </c>
+      <c r="M96" s="26">
+        <v>-5451.1823199999999</v>
+      </c>
+      <c r="N96" s="27">
+        <v>-6711.9140800000096</v>
+      </c>
+      <c r="O96" s="26">
+        <v>-2115.90112</v>
+      </c>
+      <c r="P96" s="26">
+        <v>-3895.7800000000102</v>
+      </c>
+      <c r="Q96" s="26">
+        <v>-5954.1264000000501</v>
+      </c>
+      <c r="R96" s="26">
+        <v>-8022.38544000006</v>
+      </c>
+      <c r="S96" s="27">
+        <v>-9782.0400800000098</v>
+      </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="37"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="32"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="32"/>
+      <c r="E97" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="F97" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="G97" s="31">
+        <v>9521.5679999999993</v>
+      </c>
+      <c r="H97" s="31">
+        <v>12769.879199999899</v>
+      </c>
+      <c r="I97" s="32">
+        <v>16299.1023999999</v>
+      </c>
+      <c r="J97" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="K97" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="L97" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="M97" s="31">
+        <v>8658.7952000000096</v>
+      </c>
+      <c r="N97" s="32">
+        <v>10661.754800000001</v>
+      </c>
+      <c r="O97" s="31">
+        <v>1233.0303999999901</v>
+      </c>
+      <c r="P97" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="Q97" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="R97" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="S97" s="32">
+        <v>5531.63039999999</v>
+      </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
-      <c r="C98" s="38" t="s">
-        <v>0</v>
+      <c r="C98" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>7</v>
@@ -3194,7 +3503,7 @@
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
-      <c r="C99" s="37"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="30" t="s">
         <v>3</v>
       </c>
@@ -3217,44 +3526,50 @@
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
+      <c r="I100" s="27"/>
       <c r="J100" s="26"/>
       <c r="K100" s="26"/>
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
+      <c r="N100" s="27"/>
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
-      <c r="S100" s="26"/>
+      <c r="S100" s="27"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="26"/>
-      <c r="S101" s="26"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="32"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
@@ -3277,23 +3592,21 @@
       <c r="R102" s="26"/>
       <c r="S102" s="26"/>
     </row>
-    <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
-      <c r="C103" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="Q103" s="26"/>
@@ -3321,249 +3634,245 @@
       <c r="R104" s="26"/>
       <c r="S104" s="26"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
-      <c r="C105" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="42"/>
-      <c r="N105" s="42"/>
-      <c r="O105" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="42"/>
-      <c r="S105" s="43"/>
+      <c r="C105" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
-      <c r="C106" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="2">
-        <v>40</v>
-      </c>
-      <c r="F106" s="1">
-        <v>80</v>
-      </c>
-      <c r="G106" s="1">
-        <v>120</v>
-      </c>
-      <c r="H106" s="1">
-        <v>160</v>
-      </c>
-      <c r="I106" s="1">
-        <v>200</v>
-      </c>
-      <c r="J106" s="2">
-        <v>40</v>
-      </c>
-      <c r="K106" s="1">
-        <v>80</v>
-      </c>
-      <c r="L106" s="1">
-        <v>120</v>
-      </c>
-      <c r="M106" s="1">
-        <v>160</v>
-      </c>
-      <c r="N106" s="1">
-        <v>200</v>
-      </c>
-      <c r="O106" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>120</v>
-      </c>
-      <c r="R106" s="1">
-        <v>160</v>
-      </c>
-      <c r="S106" s="3">
-        <v>200</v>
-      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
-      <c r="C107" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="26">
-        <v>-373.84705097330402</v>
-      </c>
-      <c r="F107" s="26">
-        <v>-562.76674347951405</v>
-      </c>
-      <c r="G107" s="26">
-        <v>-1368.46561727485</v>
-      </c>
-      <c r="H107" s="26">
-        <v>-1528.4107611506499</v>
-      </c>
-      <c r="I107" s="27">
-        <v>-1916.8771993197799</v>
-      </c>
-      <c r="J107" s="26">
-        <v>1230.35450639943</v>
-      </c>
-      <c r="K107" s="26">
-        <v>1338.09816531294</v>
-      </c>
-      <c r="L107" s="26">
-        <v>2253.84716969797</v>
-      </c>
-      <c r="M107" s="26">
-        <v>2500.2228688598598</v>
-      </c>
-      <c r="N107" s="27">
-        <v>3446.3220905510798</v>
-      </c>
-      <c r="O107" s="26">
-        <v>6457.5991530648398</v>
-      </c>
-      <c r="P107" s="26">
-        <v>16848.4663466688</v>
-      </c>
-      <c r="Q107" s="26">
-        <v>23944.069107949999</v>
-      </c>
-      <c r="R107" s="26">
-        <v>27564.393379085799</v>
-      </c>
-      <c r="S107" s="27">
-        <v>37206.593962543498</v>
-      </c>
+      <c r="C107" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="40"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="F108" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="G108" s="31">
-        <v>9521.5679999999993</v>
-      </c>
-      <c r="H108" s="31">
-        <v>12769.879199999899</v>
-      </c>
-      <c r="I108" s="32">
-        <v>16299.1023999999</v>
-      </c>
-      <c r="J108" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="K108" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="L108" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="M108" s="31">
-        <v>8658.7952000000096</v>
-      </c>
-      <c r="N108" s="32">
-        <v>10661.754800000001</v>
-      </c>
-      <c r="O108" s="31">
-        <v>1233.0303999999901</v>
-      </c>
-      <c r="P108" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="Q108" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="R108" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="S108" s="32">
-        <v>5531.63039999999</v>
+      <c r="C108" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="29"/>
+      <c r="E108" s="2">
+        <v>40</v>
+      </c>
+      <c r="F108" s="1">
+        <v>80</v>
+      </c>
+      <c r="G108" s="1">
+        <v>120</v>
+      </c>
+      <c r="H108" s="1">
+        <v>160</v>
+      </c>
+      <c r="I108" s="1">
+        <v>200</v>
+      </c>
+      <c r="J108" s="2">
+        <v>40</v>
+      </c>
+      <c r="K108" s="1">
+        <v>80</v>
+      </c>
+      <c r="L108" s="1">
+        <v>120</v>
+      </c>
+      <c r="M108" s="1">
+        <v>160</v>
+      </c>
+      <c r="N108" s="1">
+        <v>200</v>
+      </c>
+      <c r="O108" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>120</v>
+      </c>
+      <c r="R108" s="1">
+        <v>160</v>
+      </c>
+      <c r="S108" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
-      <c r="C109" s="38" t="s">
-        <v>1</v>
+      <c r="C109" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="27"/>
+      <c r="E109" s="26">
+        <v>-373.84705097330402</v>
+      </c>
+      <c r="F109" s="26">
+        <v>-562.76674347951405</v>
+      </c>
+      <c r="G109" s="26">
+        <v>-1368.46561727485</v>
+      </c>
+      <c r="H109" s="26">
+        <v>-1528.4107611506499</v>
+      </c>
+      <c r="I109" s="27">
+        <v>-1916.8771993197799</v>
+      </c>
+      <c r="J109" s="26">
+        <v>1230.35450639943</v>
+      </c>
+      <c r="K109" s="26">
+        <v>1338.09816531294</v>
+      </c>
+      <c r="L109" s="26">
+        <v>2253.84716969797</v>
+      </c>
+      <c r="M109" s="26">
+        <v>2500.2228688598598</v>
+      </c>
+      <c r="N109" s="27">
+        <v>3446.3220905510798</v>
+      </c>
+      <c r="O109" s="26">
+        <v>6457.5991530648398</v>
+      </c>
+      <c r="P109" s="26">
+        <v>16848.4663466688</v>
+      </c>
+      <c r="Q109" s="26">
+        <v>23944.069107949999</v>
+      </c>
+      <c r="R109" s="26">
+        <v>27564.393379085799</v>
+      </c>
+      <c r="S109" s="27">
+        <v>37206.593962543498</v>
+      </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
-      <c r="C110" s="37"/>
+      <c r="C110" s="48"/>
       <c r="D110" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="31"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="31"/>
-      <c r="R110" s="31"/>
-      <c r="S110" s="32"/>
+      <c r="E110" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="F110" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="G110" s="31">
+        <v>9521.5679999999993</v>
+      </c>
+      <c r="H110" s="31">
+        <v>12769.879199999899</v>
+      </c>
+      <c r="I110" s="32">
+        <v>16299.1023999999</v>
+      </c>
+      <c r="J110" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="K110" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="L110" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="M110" s="31">
+        <v>8658.7952000000096</v>
+      </c>
+      <c r="N110" s="32">
+        <v>10661.754800000001</v>
+      </c>
+      <c r="O110" s="31">
+        <v>1233.0303999999901</v>
+      </c>
+      <c r="P110" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="Q110" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="R110" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="S110" s="32">
+        <v>5531.63039999999</v>
+      </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
-      <c r="C111" s="38" t="s">
-        <v>0</v>
+      <c r="C111" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>7</v>
@@ -3587,7 +3896,7 @@
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
-      <c r="C112" s="37"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="30" t="s">
         <v>3</v>
       </c>
@@ -3607,272 +3916,272 @@
       <c r="R112" s="31"/>
       <c r="S112" s="32"/>
     </row>
-    <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="26"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="26"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="29"/>
-      <c r="E117" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="K117" s="42"/>
-      <c r="L117" s="42"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="P117" s="42"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="43"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="26"/>
+      <c r="S113" s="27"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="31"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="31"/>
+      <c r="R114" s="31"/>
+      <c r="S114" s="32"/>
+    </row>
+    <row r="118" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="29"/>
-      <c r="E118" s="2">
-        <v>40</v>
-      </c>
-      <c r="F118" s="1">
-        <v>80</v>
-      </c>
-      <c r="G118" s="1">
-        <v>120</v>
-      </c>
-      <c r="H118" s="1">
-        <v>160</v>
-      </c>
-      <c r="I118" s="1">
-        <v>200</v>
-      </c>
-      <c r="J118" s="2">
-        <v>40</v>
-      </c>
-      <c r="K118" s="1">
-        <v>80</v>
-      </c>
-      <c r="L118" s="1">
-        <v>120</v>
-      </c>
-      <c r="M118" s="1">
-        <v>160</v>
-      </c>
-      <c r="N118" s="1">
-        <v>200</v>
-      </c>
-      <c r="O118" s="2">
-        <v>40</v>
-      </c>
-      <c r="P118" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q118" s="1">
-        <v>120</v>
-      </c>
-      <c r="R118" s="1">
-        <v>160</v>
-      </c>
-      <c r="S118" s="3">
-        <v>200</v>
-      </c>
+      <c r="C118" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="26"/>
+      <c r="S118" s="26"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
-      <c r="C119" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="26">
-        <v>-3315.38080000019</v>
-      </c>
-      <c r="F119" s="26">
-        <v>-5195.7693600005296</v>
-      </c>
-      <c r="G119" s="26">
-        <v>-11663.930479999801</v>
-      </c>
-      <c r="H119" s="26">
-        <v>-13281.257359999199</v>
-      </c>
-      <c r="I119" s="27">
-        <v>-17121.577679998001</v>
-      </c>
-      <c r="J119" s="26">
-        <v>-5195.7693600005296</v>
-      </c>
-      <c r="K119" s="26">
-        <v>-13281.257359999199</v>
-      </c>
-      <c r="L119" s="26">
-        <v>-20221.211839997799</v>
-      </c>
-      <c r="M119" s="26">
-        <v>-29335.600559996401</v>
-      </c>
-      <c r="N119" s="27">
-        <v>-35733.0486399941</v>
-      </c>
-      <c r="O119" s="26">
-        <v>-11663.930479999801</v>
-      </c>
-      <c r="P119" s="26">
-        <v>-20221.211839997799</v>
-      </c>
-      <c r="Q119" s="26">
-        <v>-31584.904559995699</v>
-      </c>
-      <c r="R119" s="26">
-        <v>-42706.9446399917</v>
-      </c>
-      <c r="S119" s="27">
-        <v>-51327.505919993098</v>
-      </c>
+      <c r="C119" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="29"/>
+      <c r="E119" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39"/>
+      <c r="R119" s="39"/>
+      <c r="S119" s="40"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="31">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="F120" s="31">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="G120" s="31">
-        <v>102131.99</v>
-      </c>
-      <c r="H120" s="31">
-        <v>137569.13560000001</v>
-      </c>
-      <c r="I120" s="32">
-        <v>176320.868399998</v>
-      </c>
-      <c r="J120" s="31">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="K120" s="31">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="L120" s="31">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="M120" s="31">
-        <v>92826.499199999598</v>
-      </c>
-      <c r="N120" s="32">
-        <v>114702.02319999901</v>
-      </c>
-      <c r="O120" s="31">
-        <v>13110.2808</v>
-      </c>
-      <c r="P120" s="31">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="Q120" s="31">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="R120" s="31">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="S120" s="32">
-        <v>59244.1231999999</v>
+      <c r="C120" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="2">
+        <v>40</v>
+      </c>
+      <c r="F120" s="1">
+        <v>80</v>
+      </c>
+      <c r="G120" s="1">
+        <v>120</v>
+      </c>
+      <c r="H120" s="1">
+        <v>160</v>
+      </c>
+      <c r="I120" s="1">
+        <v>200</v>
+      </c>
+      <c r="J120" s="2">
+        <v>40</v>
+      </c>
+      <c r="K120" s="1">
+        <v>80</v>
+      </c>
+      <c r="L120" s="1">
+        <v>120</v>
+      </c>
+      <c r="M120" s="1">
+        <v>160</v>
+      </c>
+      <c r="N120" s="1">
+        <v>200</v>
+      </c>
+      <c r="O120" s="2">
+        <v>40</v>
+      </c>
+      <c r="P120" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>120</v>
+      </c>
+      <c r="R120" s="1">
+        <v>160</v>
+      </c>
+      <c r="S120" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
-      <c r="C121" s="38" t="s">
-        <v>1</v>
+      <c r="C121" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="D121" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="26"/>
-      <c r="L121" s="26"/>
-      <c r="M121" s="26"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
-      <c r="Q121" s="26"/>
-      <c r="R121" s="26"/>
-      <c r="S121" s="27"/>
+      <c r="E121" s="26">
+        <v>-3315.38080000019</v>
+      </c>
+      <c r="F121" s="26">
+        <v>-5195.7693600005296</v>
+      </c>
+      <c r="G121" s="26">
+        <v>-11663.930479999801</v>
+      </c>
+      <c r="H121" s="26">
+        <v>-13281.257359999199</v>
+      </c>
+      <c r="I121" s="27">
+        <v>-17121.577679998001</v>
+      </c>
+      <c r="J121" s="26">
+        <v>-5195.7693600005296</v>
+      </c>
+      <c r="K121" s="26">
+        <v>-13281.257359999199</v>
+      </c>
+      <c r="L121" s="26">
+        <v>-20221.211839997799</v>
+      </c>
+      <c r="M121" s="26">
+        <v>-29335.600559996401</v>
+      </c>
+      <c r="N121" s="27">
+        <v>-35733.0486399941</v>
+      </c>
+      <c r="O121" s="26">
+        <v>-11663.930479999801</v>
+      </c>
+      <c r="P121" s="26">
+        <v>-20221.211839997799</v>
+      </c>
+      <c r="Q121" s="26">
+        <v>-31584.904559995699</v>
+      </c>
+      <c r="R121" s="26">
+        <v>-42706.9446399917</v>
+      </c>
+      <c r="S121" s="27">
+        <v>-51327.505919993098</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="37"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="32"/>
-      <c r="O122" s="31"/>
-      <c r="P122" s="31"/>
-      <c r="Q122" s="31"/>
-      <c r="R122" s="31"/>
-      <c r="S122" s="32"/>
+      <c r="E122" s="31">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F122" s="31">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G122" s="31">
+        <v>102131.99</v>
+      </c>
+      <c r="H122" s="31">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I122" s="32">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J122" s="31">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K122" s="31">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L122" s="31">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M122" s="31">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N122" s="32">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O122" s="31">
+        <v>13110.2808</v>
+      </c>
+      <c r="P122" s="31">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q122" s="31">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R122" s="31">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S122" s="32">
+        <v>59244.1231999999</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
-      <c r="C123" s="38" t="s">
-        <v>0</v>
+      <c r="C123" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="D123" s="30" t="s">
         <v>7</v>
@@ -3896,7 +4205,7 @@
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
-      <c r="C124" s="37"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="30" t="s">
         <v>3</v>
       </c>
@@ -3919,44 +4228,50 @@
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
+      <c r="C125" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="E125" s="26"/>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
+      <c r="I125" s="27"/>
       <c r="J125" s="26"/>
       <c r="K125" s="26"/>
       <c r="L125" s="26"/>
       <c r="M125" s="26"/>
-      <c r="N125" s="26"/>
+      <c r="N125" s="27"/>
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
       <c r="Q125" s="26"/>
       <c r="R125" s="26"/>
-      <c r="S125" s="26"/>
+      <c r="S125" s="27"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
-      <c r="P126" s="26"/>
-      <c r="Q126" s="26"/>
-      <c r="R126" s="26"/>
-      <c r="S126" s="26"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="31"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="31"/>
+      <c r="R126" s="31"/>
+      <c r="S126" s="32"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
@@ -3979,23 +4294,21 @@
       <c r="R127" s="26"/>
       <c r="S127" s="26"/>
     </row>
-    <row r="128" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
-      <c r="C128" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
+      <c r="N128" s="26"/>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="Q128" s="26"/>
@@ -4023,249 +4336,245 @@
       <c r="R129" s="26"/>
       <c r="S129" s="26"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
-      <c r="C130" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="29"/>
-      <c r="E130" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="F130" s="42"/>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="K130" s="42"/>
-      <c r="L130" s="42"/>
-      <c r="M130" s="42"/>
-      <c r="N130" s="42"/>
-      <c r="O130" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="P130" s="42"/>
-      <c r="Q130" s="42"/>
-      <c r="R130" s="42"/>
-      <c r="S130" s="43"/>
+      <c r="C130" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="26"/>
+      <c r="P130" s="26"/>
+      <c r="Q130" s="26"/>
+      <c r="R130" s="26"/>
+      <c r="S130" s="26"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
-      <c r="C131" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="2">
-        <v>40</v>
-      </c>
-      <c r="F131" s="1">
-        <v>80</v>
-      </c>
-      <c r="G131" s="1">
-        <v>120</v>
-      </c>
-      <c r="H131" s="1">
-        <v>160</v>
-      </c>
-      <c r="I131" s="1">
-        <v>200</v>
-      </c>
-      <c r="J131" s="2">
-        <v>40</v>
-      </c>
-      <c r="K131" s="1">
-        <v>80</v>
-      </c>
-      <c r="L131" s="1">
-        <v>120</v>
-      </c>
-      <c r="M131" s="1">
-        <v>160</v>
-      </c>
-      <c r="N131" s="1">
-        <v>200</v>
-      </c>
-      <c r="O131" s="2">
-        <v>40</v>
-      </c>
-      <c r="P131" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q131" s="1">
-        <v>120</v>
-      </c>
-      <c r="R131" s="1">
-        <v>160</v>
-      </c>
-      <c r="S131" s="3">
-        <v>200</v>
-      </c>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="26"/>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="26"/>
-      <c r="C132" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="33">
-        <v>8309.4827365512901</v>
-      </c>
-      <c r="F132" s="34">
-        <v>18309.460179659502</v>
-      </c>
-      <c r="G132" s="34">
-        <v>21872.617224341298</v>
-      </c>
-      <c r="H132" s="34">
-        <v>32452.9395555183</v>
-      </c>
-      <c r="I132" s="35">
-        <v>38867.732854154099</v>
-      </c>
-      <c r="J132" s="34">
-        <v>126733.833030382</v>
-      </c>
-      <c r="K132" s="34">
-        <v>224562.59279277499</v>
-      </c>
-      <c r="L132" s="34">
-        <v>346939.52750349097</v>
-      </c>
-      <c r="M132" s="34">
-        <v>451637.610293495</v>
-      </c>
-      <c r="N132" s="35">
-        <v>572390.75287562795</v>
-      </c>
-      <c r="O132" s="34">
-        <v>253066.82967576201</v>
-      </c>
-      <c r="P132" s="34">
-        <v>548032.43226926203</v>
-      </c>
-      <c r="Q132" s="34">
-        <v>811938.32492453698</v>
-      </c>
-      <c r="R132" s="34">
-        <v>1047351.05200452</v>
-      </c>
-      <c r="S132" s="35">
-        <v>1333817.65249353</v>
-      </c>
+      <c r="C132" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="29"/>
+      <c r="E132" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="39"/>
+      <c r="O132" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="P132" s="39"/>
+      <c r="Q132" s="39"/>
+      <c r="R132" s="39"/>
+      <c r="S132" s="40"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="26"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="12">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="F133" s="13">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="G133" s="13">
-        <v>102131.99</v>
-      </c>
-      <c r="H133" s="13">
-        <v>137569.13560000001</v>
-      </c>
-      <c r="I133" s="14">
-        <v>176320.868399998</v>
-      </c>
-      <c r="J133" s="13">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="K133" s="13">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="L133" s="13">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="M133" s="13">
-        <v>92826.499199999598</v>
-      </c>
-      <c r="N133" s="14">
-        <v>114702.02319999901</v>
-      </c>
-      <c r="O133" s="13">
-        <v>13110.2808</v>
-      </c>
-      <c r="P133" s="13">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="Q133" s="13">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="R133" s="13">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="S133" s="14">
-        <v>59244.1231999999</v>
+      <c r="C133" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="29"/>
+      <c r="E133" s="2">
+        <v>40</v>
+      </c>
+      <c r="F133" s="1">
+        <v>80</v>
+      </c>
+      <c r="G133" s="1">
+        <v>120</v>
+      </c>
+      <c r="H133" s="1">
+        <v>160</v>
+      </c>
+      <c r="I133" s="1">
+        <v>200</v>
+      </c>
+      <c r="J133" s="2">
+        <v>40</v>
+      </c>
+      <c r="K133" s="1">
+        <v>80</v>
+      </c>
+      <c r="L133" s="1">
+        <v>120</v>
+      </c>
+      <c r="M133" s="1">
+        <v>160</v>
+      </c>
+      <c r="N133" s="1">
+        <v>200</v>
+      </c>
+      <c r="O133" s="2">
+        <v>40</v>
+      </c>
+      <c r="P133" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>120</v>
+      </c>
+      <c r="R133" s="1">
+        <v>160</v>
+      </c>
+      <c r="S133" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
-      <c r="C134" s="38" t="s">
-        <v>1</v>
+      <c r="C134" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="D134" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="26"/>
-      <c r="P134" s="26"/>
-      <c r="Q134" s="26"/>
-      <c r="R134" s="26"/>
-      <c r="S134" s="27"/>
+      <c r="E134" s="33">
+        <v>8309.4827365512901</v>
+      </c>
+      <c r="F134" s="34">
+        <v>18309.460179659502</v>
+      </c>
+      <c r="G134" s="34">
+        <v>21872.617224341298</v>
+      </c>
+      <c r="H134" s="34">
+        <v>32452.9395555183</v>
+      </c>
+      <c r="I134" s="35">
+        <v>38867.732854154099</v>
+      </c>
+      <c r="J134" s="34">
+        <v>126733.833030382</v>
+      </c>
+      <c r="K134" s="34">
+        <v>224562.59279277499</v>
+      </c>
+      <c r="L134" s="34">
+        <v>346939.52750349097</v>
+      </c>
+      <c r="M134" s="34">
+        <v>451637.610293495</v>
+      </c>
+      <c r="N134" s="35">
+        <v>572390.75287562795</v>
+      </c>
+      <c r="O134" s="34">
+        <v>253066.82967576201</v>
+      </c>
+      <c r="P134" s="34">
+        <v>548032.43226926203</v>
+      </c>
+      <c r="Q134" s="34">
+        <v>811938.32492453698</v>
+      </c>
+      <c r="R134" s="34">
+        <v>1047351.05200452</v>
+      </c>
+      <c r="S134" s="35">
+        <v>1333817.65249353</v>
+      </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
-      <c r="C135" s="37"/>
+      <c r="C135" s="48"/>
       <c r="D135" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="31"/>
-      <c r="N135" s="32"/>
-      <c r="O135" s="31"/>
-      <c r="P135" s="31"/>
-      <c r="Q135" s="31"/>
-      <c r="R135" s="31"/>
-      <c r="S135" s="32"/>
+      <c r="E135" s="12">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F135" s="13">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G135" s="13">
+        <v>102131.99</v>
+      </c>
+      <c r="H135" s="13">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I135" s="14">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J135" s="13">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K135" s="13">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L135" s="13">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M135" s="13">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N135" s="14">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O135" s="13">
+        <v>13110.2808</v>
+      </c>
+      <c r="P135" s="13">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R135" s="13">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S135" s="14">
+        <v>59244.1231999999</v>
+      </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
-      <c r="C136" s="38" t="s">
-        <v>0</v>
+      <c r="C136" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="D136" s="30" t="s">
         <v>7</v>
@@ -4289,7 +4598,7 @@
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
-      <c r="C137" s="37"/>
+      <c r="C137" s="48"/>
       <c r="D137" s="30" t="s">
         <v>3</v>
       </c>
@@ -4309,68 +4618,116 @@
       <c r="R137" s="31"/>
       <c r="S137" s="32"/>
     </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="26"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="26"/>
+      <c r="P138" s="26"/>
+      <c r="Q138" s="26"/>
+      <c r="R138" s="26"/>
+      <c r="S138" s="27"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="31"/>
+      <c r="L139" s="31"/>
+      <c r="M139" s="31"/>
+      <c r="N139" s="32"/>
+      <c r="O139" s="31"/>
+      <c r="P139" s="31"/>
+      <c r="Q139" s="31"/>
+      <c r="R139" s="31"/>
+      <c r="S139" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E117:I117"/>
-    <mergeCell ref="J117:N117"/>
-    <mergeCell ref="O117:S117"/>
-    <mergeCell ref="E130:I130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="E92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:S92"/>
-    <mergeCell ref="E105:I105"/>
-    <mergeCell ref="J105:N105"/>
-    <mergeCell ref="O105:S105"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="O80:S80"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="O3:S3"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="O82:S82"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="O94:S94"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="O107:S107"/>
+    <mergeCell ref="E119:I119"/>
+    <mergeCell ref="J119:N119"/>
+    <mergeCell ref="O119:S119"/>
+    <mergeCell ref="E132:I132"/>
+    <mergeCell ref="J132:N132"/>
+    <mergeCell ref="O132:S132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4381,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B209" sqref="B209:R223"/>
     </sheetView>
   </sheetViews>
@@ -4407,37 +4764,37 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="41">
+      <c r="C4" s="54"/>
+      <c r="D4" s="38">
         <v>0.25</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="41">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="38">
         <v>0.5</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="41">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="38">
         <v>0.75</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -4485,7 +4842,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4538,7 +4895,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
@@ -4653,10 +5010,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -4704,7 +5061,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -4757,7 +5114,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -4808,7 +5165,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
@@ -4859,7 +5216,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4912,7 +5269,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
@@ -5111,37 +5468,37 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="41">
+      <c r="C22" s="54"/>
+      <c r="D22" s="38">
         <v>0.25</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="38">
         <v>0.5</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="41">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="38">
         <v>0.75</v>
       </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="43"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -5189,7 +5546,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -5242,7 +5599,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="11" t="s">
         <v>8</v>
       </c>
@@ -5357,10 +5714,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -5408,7 +5765,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -5461,7 +5818,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
@@ -5512,7 +5869,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
@@ -5563,7 +5920,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -5616,7 +5973,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
@@ -5927,37 +6284,37 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="41">
+      <c r="C41" s="54"/>
+      <c r="D41" s="38">
         <v>0.25</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="41">
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="38">
         <v>0.5</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="41">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="38">
         <v>0.75</v>
       </c>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="43"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="40"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="46"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -6005,7 +6362,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6058,7 +6415,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="11" t="s">
         <v>8</v>
       </c>
@@ -6109,10 +6466,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -6160,7 +6517,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -6213,7 +6570,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="44"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
@@ -6264,7 +6621,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="11" t="s">
         <v>25</v>
       </c>
@@ -6315,7 +6672,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -6368,7 +6725,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="9" t="s">
         <v>8</v>
       </c>
@@ -6799,37 +7156,37 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="41">
+      <c r="C61" s="54"/>
+      <c r="D61" s="38">
         <v>0.25</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="41">
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="38">
         <v>0.5</v>
       </c>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="41">
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="38">
         <v>0.75</v>
       </c>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="43"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="40"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="46"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -6877,7 +7234,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -6930,7 +7287,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
@@ -7045,10 +7402,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -7096,7 +7453,7 @@
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -7149,7 +7506,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="44"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
@@ -7200,7 +7557,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="40"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="11" t="s">
         <v>25</v>
       </c>
@@ -7251,7 +7608,7 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -7304,7 +7661,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="40"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="9" t="s">
         <v>8</v>
       </c>
@@ -7499,37 +7856,37 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="41">
+      <c r="C78" s="54"/>
+      <c r="D78" s="38">
         <v>0.25</v>
       </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="41">
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="38">
         <v>0.5</v>
       </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="41">
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="38">
         <v>0.75</v>
       </c>
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="43"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="40"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="46"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -7577,7 +7934,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -7630,7 +7987,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="11" t="s">
         <v>8</v>
       </c>
@@ -7745,10 +8102,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="49"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -7796,7 +8153,7 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -7849,7 +8206,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="44"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="11" t="s">
         <v>22</v>
       </c>
@@ -7900,7 +8257,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="40"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="11" t="s">
         <v>25</v>
       </c>
@@ -7951,7 +8308,7 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -8004,7 +8361,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="9" t="s">
         <v>8</v>
       </c>
@@ -8431,37 +8788,37 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="41">
+      <c r="C99" s="54"/>
+      <c r="D99" s="38">
         <v>0.25</v>
       </c>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="41">
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="38">
         <v>0.5</v>
       </c>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="42"/>
-      <c r="N99" s="41">
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="38">
         <v>0.75</v>
       </c>
-      <c r="O99" s="42"/>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="43"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="40"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="46"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -8509,7 +8866,7 @@
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -8562,7 +8919,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="40"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="11" t="s">
         <v>8</v>
       </c>
@@ -8677,10 +9034,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="49"/>
+      <c r="C104" s="53"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -8728,7 +9085,7 @@
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -8781,7 +9138,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="44"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -8832,7 +9189,7 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="40"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="11" t="s">
         <v>25</v>
       </c>
@@ -8883,7 +9240,7 @@
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -8936,7 +9293,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="40"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="9" t="s">
         <v>8</v>
       </c>
@@ -9131,37 +9488,37 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="41">
+      <c r="C116" s="54"/>
+      <c r="D116" s="38">
         <v>0.25</v>
       </c>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="41">
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="38">
         <v>0.5</v>
       </c>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="41">
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="39"/>
+      <c r="N116" s="38">
         <v>0.75</v>
       </c>
-      <c r="O116" s="42"/>
-      <c r="P116" s="42"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="43"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="39"/>
+      <c r="R116" s="40"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="46"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -9209,7 +9566,7 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -9262,7 +9619,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="40"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="11" t="s">
         <v>8</v>
       </c>
@@ -9377,10 +9734,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="49"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -9428,7 +9785,7 @@
       </c>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -9481,7 +9838,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="44"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="11" t="s">
         <v>22</v>
       </c>
@@ -9532,7 +9889,7 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="40"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="11" t="s">
         <v>25</v>
       </c>
@@ -9583,7 +9940,7 @@
       </c>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B125" s="39" t="s">
+      <c r="B125" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="11" t="s">
@@ -9636,7 +9993,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="40"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="9" t="s">
         <v>8</v>
       </c>
@@ -10064,37 +10421,37 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="47"/>
-      <c r="D136" s="41">
+      <c r="C136" s="54"/>
+      <c r="D136" s="38">
         <v>0.25</v>
       </c>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="41">
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="38">
         <v>0.5</v>
       </c>
-      <c r="J136" s="42"/>
-      <c r="K136" s="42"/>
-      <c r="L136" s="42"/>
-      <c r="M136" s="42"/>
-      <c r="N136" s="41">
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39"/>
+      <c r="M136" s="39"/>
+      <c r="N136" s="38">
         <v>0.75</v>
       </c>
-      <c r="O136" s="42"/>
-      <c r="P136" s="42"/>
-      <c r="Q136" s="42"/>
-      <c r="R136" s="43"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="39"/>
+      <c r="Q136" s="39"/>
+      <c r="R136" s="40"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="45" t="s">
+      <c r="B137" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="46"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -10142,7 +10499,7 @@
       </c>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -10195,7 +10552,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="40"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="11" t="s">
         <v>8</v>
       </c>
@@ -10310,10 +10667,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="49"/>
+      <c r="C141" s="53"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -10361,7 +10718,7 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -10414,7 +10771,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="44"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="11" t="s">
         <v>22</v>
       </c>
@@ -10465,7 +10822,7 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="40"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="11" t="s">
         <v>25</v>
       </c>
@@ -10516,7 +10873,7 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="11" t="s">
@@ -10569,7 +10926,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="40"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="9" t="s">
         <v>8</v>
       </c>
@@ -10764,37 +11121,37 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="47"/>
-      <c r="D153" s="41">
+      <c r="C153" s="54"/>
+      <c r="D153" s="38">
         <v>0.25</v>
       </c>
-      <c r="E153" s="42"/>
-      <c r="F153" s="42"/>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="41">
+      <c r="E153" s="39"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="38">
         <v>0.5</v>
       </c>
-      <c r="J153" s="42"/>
-      <c r="K153" s="42"/>
-      <c r="L153" s="42"/>
-      <c r="M153" s="42"/>
-      <c r="N153" s="41">
+      <c r="J153" s="39"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="39"/>
+      <c r="M153" s="39"/>
+      <c r="N153" s="38">
         <v>0.75</v>
       </c>
-      <c r="O153" s="42"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="43"/>
+      <c r="O153" s="39"/>
+      <c r="P153" s="39"/>
+      <c r="Q153" s="39"/>
+      <c r="R153" s="40"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="45" t="s">
+      <c r="B154" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="46"/>
+      <c r="C154" s="51"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -10842,7 +11199,7 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="11" t="s">
@@ -10895,7 +11252,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="40"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="11" t="s">
         <v>8</v>
       </c>
@@ -11010,10 +11367,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="49"/>
+      <c r="C158" s="53"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -11061,7 +11418,7 @@
       </c>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C159" s="11" t="s">
@@ -11114,7 +11471,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="44"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="11" t="s">
         <v>22</v>
       </c>
@@ -11165,7 +11522,7 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="40"/>
+      <c r="B161" s="42"/>
       <c r="C161" s="11" t="s">
         <v>25</v>
       </c>
@@ -11216,7 +11573,7 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B162" s="39" t="s">
+      <c r="B162" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -11269,7 +11626,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="40"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="9" t="s">
         <v>8</v>
       </c>
@@ -11581,37 +11938,37 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="47"/>
-      <c r="D171" s="41">
+      <c r="C171" s="54"/>
+      <c r="D171" s="38">
         <v>0.25</v>
       </c>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="42"/>
-      <c r="I171" s="41">
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="38">
         <v>0.5</v>
       </c>
-      <c r="J171" s="42"/>
-      <c r="K171" s="42"/>
-      <c r="L171" s="42"/>
-      <c r="M171" s="42"/>
-      <c r="N171" s="41">
+      <c r="J171" s="39"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="39"/>
+      <c r="M171" s="39"/>
+      <c r="N171" s="38">
         <v>0.75</v>
       </c>
-      <c r="O171" s="42"/>
-      <c r="P171" s="42"/>
-      <c r="Q171" s="42"/>
-      <c r="R171" s="43"/>
+      <c r="O171" s="39"/>
+      <c r="P171" s="39"/>
+      <c r="Q171" s="39"/>
+      <c r="R171" s="40"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="46"/>
+      <c r="C172" s="51"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -11659,7 +12016,7 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B173" s="39" t="s">
+      <c r="B173" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -11712,7 +12069,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="40"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="11" t="s">
         <v>8</v>
       </c>
@@ -11827,10 +12184,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="48" t="s">
+      <c r="B176" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="49"/>
+      <c r="C176" s="53"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -11878,7 +12235,7 @@
       </c>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B177" s="39" t="s">
+      <c r="B177" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="11" t="s">
@@ -11931,7 +12288,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="44"/>
+      <c r="B178" s="43"/>
       <c r="C178" s="11" t="s">
         <v>22</v>
       </c>
@@ -11982,7 +12339,7 @@
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="40"/>
+      <c r="B179" s="42"/>
       <c r="C179" s="11" t="s">
         <v>25</v>
       </c>
@@ -12033,7 +12390,7 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -12086,7 +12443,7 @@
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="40"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="9" t="s">
         <v>8</v>
       </c>
@@ -12511,37 +12868,37 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="45" t="s">
+      <c r="B192" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="47"/>
-      <c r="D192" s="41">
+      <c r="C192" s="54"/>
+      <c r="D192" s="38">
         <v>0.25</v>
       </c>
-      <c r="E192" s="42"/>
-      <c r="F192" s="42"/>
-      <c r="G192" s="42"/>
-      <c r="H192" s="42"/>
-      <c r="I192" s="41">
+      <c r="E192" s="39"/>
+      <c r="F192" s="39"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="39"/>
+      <c r="I192" s="38">
         <v>0.5</v>
       </c>
-      <c r="J192" s="42"/>
-      <c r="K192" s="42"/>
-      <c r="L192" s="42"/>
-      <c r="M192" s="42"/>
-      <c r="N192" s="41">
+      <c r="J192" s="39"/>
+      <c r="K192" s="39"/>
+      <c r="L192" s="39"/>
+      <c r="M192" s="39"/>
+      <c r="N192" s="38">
         <v>0.75</v>
       </c>
-      <c r="O192" s="42"/>
-      <c r="P192" s="42"/>
-      <c r="Q192" s="42"/>
-      <c r="R192" s="43"/>
+      <c r="O192" s="39"/>
+      <c r="P192" s="39"/>
+      <c r="Q192" s="39"/>
+      <c r="R192" s="40"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="45" t="s">
+      <c r="B193" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="46"/>
+      <c r="C193" s="51"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -12589,7 +12946,7 @@
       </c>
     </row>
     <row r="194" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B194" s="39" t="s">
+      <c r="B194" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="11" t="s">
@@ -12642,7 +12999,7 @@
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="40"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="11" t="s">
         <v>8</v>
       </c>
@@ -12757,10 +13114,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="48" t="s">
+      <c r="B197" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="49"/>
+      <c r="C197" s="53"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -12808,7 +13165,7 @@
       </c>
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -12861,7 +13218,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="44"/>
+      <c r="B199" s="43"/>
       <c r="C199" s="11" t="s">
         <v>22</v>
       </c>
@@ -12912,7 +13269,7 @@
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="40"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="11" t="s">
         <v>25</v>
       </c>
@@ -12963,7 +13320,7 @@
       </c>
     </row>
     <row r="201" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B201" s="39" t="s">
+      <c r="B201" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -13016,7 +13373,7 @@
       </c>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="40"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="9" t="s">
         <v>8</v>
       </c>
@@ -13212,37 +13569,37 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="45" t="s">
+      <c r="B209" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="47"/>
-      <c r="D209" s="41">
+      <c r="C209" s="54"/>
+      <c r="D209" s="38">
         <v>0.25</v>
       </c>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="42"/>
-      <c r="I209" s="41">
+      <c r="E209" s="39"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="39"/>
+      <c r="H209" s="39"/>
+      <c r="I209" s="38">
         <v>0.5</v>
       </c>
-      <c r="J209" s="42"/>
-      <c r="K209" s="42"/>
-      <c r="L209" s="42"/>
-      <c r="M209" s="42"/>
-      <c r="N209" s="41">
+      <c r="J209" s="39"/>
+      <c r="K209" s="39"/>
+      <c r="L209" s="39"/>
+      <c r="M209" s="39"/>
+      <c r="N209" s="38">
         <v>0.75</v>
       </c>
-      <c r="O209" s="42"/>
-      <c r="P209" s="42"/>
-      <c r="Q209" s="42"/>
-      <c r="R209" s="43"/>
+      <c r="O209" s="39"/>
+      <c r="P209" s="39"/>
+      <c r="Q209" s="39"/>
+      <c r="R209" s="40"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="45" t="s">
+      <c r="B210" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="46"/>
+      <c r="C210" s="51"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -13290,7 +13647,7 @@
       </c>
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C211" s="11" t="s">
@@ -13343,7 +13700,7 @@
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="40"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="11" t="s">
         <v>8</v>
       </c>
@@ -13458,10 +13815,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="48" t="s">
+      <c r="B214" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="49"/>
+      <c r="C214" s="53"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -13509,7 +13866,7 @@
       </c>
     </row>
     <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -13562,7 +13919,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="44"/>
+      <c r="B216" s="43"/>
       <c r="C216" s="11" t="s">
         <v>22</v>
       </c>
@@ -13613,7 +13970,7 @@
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="40"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="11" t="s">
         <v>25</v>
       </c>
@@ -13664,7 +14021,7 @@
       </c>
     </row>
     <row r="218" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B218" s="39" t="s">
+      <c r="B218" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="11" t="s">
@@ -13717,7 +14074,7 @@
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="40"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="9" t="s">
         <v>8</v>
       </c>
@@ -14015,20 +14372,76 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:C117"/>
@@ -14053,76 +14466,20 @@
     <mergeCell ref="N136:R136"/>
     <mergeCell ref="B155:B156"/>
     <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14145,37 +14502,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="41">
+      <c r="C3" s="54"/>
+      <c r="D3" s="38">
         <v>0.25</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="38">
         <v>0.5</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="41">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="38">
         <v>0.75</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2">
         <v>40</v>
       </c>
@@ -14223,7 +14580,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -14276,7 +14633,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
@@ -14391,10 +14748,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -14442,7 +14799,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -14495,7 +14852,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
@@ -14546,7 +14903,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -14597,7 +14954,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -14650,7 +15007,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
@@ -15020,7 +15377,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="51">
+      <c r="D22" s="55">
         <v>0.25</v>
       </c>
       <c r="E22">
@@ -15055,7 +15412,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D23" s="51"/>
+      <c r="D23" s="55"/>
       <c r="E23">
         <v>80</v>
       </c>
@@ -15088,7 +15445,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D24" s="51"/>
+      <c r="D24" s="55"/>
       <c r="E24">
         <v>120</v>
       </c>
@@ -15121,7 +15478,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D25" s="51"/>
+      <c r="D25" s="55"/>
       <c r="E25">
         <v>160</v>
       </c>
@@ -15154,7 +15511,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D26" s="51"/>
+      <c r="D26" s="55"/>
       <c r="E26">
         <v>200</v>
       </c>
@@ -15187,7 +15544,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D27" s="51">
+      <c r="D27" s="55">
         <v>0.5</v>
       </c>
       <c r="E27">
@@ -15222,7 +15579,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D28" s="51">
+      <c r="D28" s="55">
         <v>0</v>
       </c>
       <c r="E28">
@@ -15257,7 +15614,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D29" s="51">
+      <c r="D29" s="55">
         <v>0</v>
       </c>
       <c r="E29">
@@ -15292,7 +15649,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="51">
+      <c r="D30" s="55">
         <v>0</v>
       </c>
       <c r="E30">
@@ -15327,7 +15684,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="51">
+      <c r="D31" s="55">
         <v>0</v>
       </c>
       <c r="E31">
@@ -15362,7 +15719,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="51">
+      <c r="D32" s="55">
         <v>0.75</v>
       </c>
       <c r="E32">
@@ -15397,7 +15754,7 @@
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="51">
+      <c r="D33" s="55">
         <v>0</v>
       </c>
       <c r="E33">
@@ -15432,7 +15789,7 @@
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="51">
+      <c r="D34" s="55">
         <v>0</v>
       </c>
       <c r="E34">
@@ -15467,7 +15824,7 @@
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="51">
+      <c r="D35" s="55">
         <v>0</v>
       </c>
       <c r="E35">
@@ -15502,7 +15859,7 @@
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="51">
+      <c r="D36" s="55">
         <v>0</v>
       </c>
       <c r="E36">
@@ -16134,18 +16491,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453A6B3-8D97-432D-B1A0-5400B4B592B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435F824-FA0A-4D95-B7C7-68E40BE3373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="6900" yWindow="60" windowWidth="21585" windowHeight="15015" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="profits_costs" sheetId="2" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,22 +596,44 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,60 +645,33 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,105 +986,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
-  <dimension ref="A2:AL139"/>
+  <dimension ref="A2:AK139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="4"/>
     <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C3" s="36"/>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="72">
         <v>0.25</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="38">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="72">
         <v>0.5</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="72">
         <v>0.75</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="74"/>
       <c r="U3" s="4">
-        <v>21.230319999999999</v>
+        <v>15.62936</v>
       </c>
       <c r="W3" s="4" cm="1">
-        <f t="array" ref="W3:AL3">TRANSPOSE(U3:U18)</f>
-        <v>21.230319999999999</v>
+        <f t="array" ref="W3:AK3">TRANSPOSE(U3:U17)</f>
+        <v>15.62936</v>
       </c>
       <c r="X3" s="4">
-        <v>43.512160000000002</v>
+        <v>30.492319999999999</v>
       </c>
       <c r="Y3" s="4">
-        <v>63.7107999999999</v>
+        <v>46.382959999999997</v>
       </c>
       <c r="Z3" s="4">
-        <v>84.554639999999907</v>
+        <v>60.983919999999898</v>
       </c>
       <c r="AA3" s="4">
-        <v>105.90479999999999</v>
+        <v>75.603039999999993</v>
       </c>
       <c r="AB3" s="4">
-        <v>0</v>
+        <v>38.830959999999997</v>
       </c>
       <c r="AC3" s="4">
-        <v>43.512160000000002</v>
+        <v>75.609519999999904</v>
       </c>
       <c r="AD3" s="4">
-        <v>84.554639999999907</v>
+        <v>113.36031999999901</v>
       </c>
       <c r="AE3" s="4">
-        <v>127.390639999999</v>
+        <v>151.37464</v>
       </c>
       <c r="AF3" s="4">
-        <v>168.5616</v>
+        <v>190.79535999999999</v>
       </c>
       <c r="AG3" s="4">
-        <v>211.2808</v>
+        <v>60.949759999999898</v>
       </c>
       <c r="AH3" s="4">
-        <v>63.7107999999999</v>
+        <v>122.58591999999901</v>
       </c>
       <c r="AI3" s="4">
-        <v>127.390639999999</v>
+        <v>183.9872</v>
       </c>
       <c r="AJ3" s="4">
-        <v>190.24744000000001</v>
+        <v>245.44408000000001</v>
       </c>
       <c r="AK3" s="4">
-        <v>254.55936</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>320.82015999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+        <v>309.37247999999897</v>
+      </c>
+    </row>
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -1140,674 +1132,959 @@
         <v>200</v>
       </c>
       <c r="U4" s="4">
+        <v>30.492319999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C5" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="43">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="F5" s="44">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="G5" s="44">
+        <v>186.85999999999899</v>
+      </c>
+      <c r="H5" s="44">
+        <v>251.23320000000001</v>
+      </c>
+      <c r="I5" s="45">
+        <v>327.44159999999999</v>
+      </c>
+      <c r="J5" s="43">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="K5" s="44">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="L5" s="44">
+        <v>141.06679999999901</v>
+      </c>
+      <c r="M5" s="44">
+        <v>172.738799999999</v>
+      </c>
+      <c r="N5" s="45">
+        <v>203.89079999999899</v>
+      </c>
+      <c r="O5" s="43">
+        <v>26.415599999999898</v>
+      </c>
+      <c r="P5" s="44">
+        <v>47.075200000000002</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>64.028400000000005</v>
+      </c>
+      <c r="R5" s="44">
+        <v>91.964799999999997</v>
+      </c>
+      <c r="S5" s="45">
+        <v>112.9804</v>
+      </c>
+      <c r="U5" s="4">
+        <v>46.382959999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C6" s="69"/>
+      <c r="D6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="54">
+        <v>9.2276000000000007</v>
+      </c>
+      <c r="F6" s="55">
+        <v>15.272</v>
+      </c>
+      <c r="G6" s="55">
+        <v>28.0044</v>
+      </c>
+      <c r="H6" s="55">
+        <v>40.825200000000002</v>
+      </c>
+      <c r="I6" s="56">
+        <v>52.861999999999902</v>
+      </c>
+      <c r="J6" s="54">
+        <v>15.272</v>
+      </c>
+      <c r="K6" s="55">
+        <v>40.825200000000002</v>
+      </c>
+      <c r="L6" s="55">
+        <v>60.845999999999997</v>
+      </c>
+      <c r="M6" s="55">
+        <v>84.105999999999995</v>
+      </c>
+      <c r="N6" s="56">
+        <v>105.3164</v>
+      </c>
+      <c r="O6" s="54">
+        <v>28.0044</v>
+      </c>
+      <c r="P6" s="55">
+        <v>60.845999999999997</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>92.436000000000007</v>
+      </c>
+      <c r="R6" s="55">
+        <v>125.4744</v>
+      </c>
+      <c r="S6" s="56">
+        <v>152.19</v>
+      </c>
+      <c r="U6" s="4">
+        <v>60.983919999999898</v>
+      </c>
+    </row>
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C7" s="69"/>
+      <c r="D7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="39">
+        <v>21.230319999999999</v>
+      </c>
+      <c r="F7" s="40">
         <v>43.512160000000002</v>
       </c>
-    </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C5" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="64">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="F5" s="65">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="G5" s="65">
-        <v>186.85999999999899</v>
-      </c>
-      <c r="H5" s="65">
-        <v>251.23320000000001</v>
-      </c>
-      <c r="I5" s="66">
-        <v>327.44159999999999</v>
-      </c>
-      <c r="J5" s="64">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="K5" s="65">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="L5" s="65">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="M5" s="65">
-        <v>172.738799999999</v>
-      </c>
-      <c r="N5" s="66">
-        <v>203.89079999999899</v>
-      </c>
-      <c r="O5" s="64">
-        <v>26.415599999999898</v>
-      </c>
-      <c r="P5" s="65">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="Q5" s="65">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="R5" s="65">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="S5" s="66">
-        <v>112.9804</v>
-      </c>
-      <c r="U5" s="4">
+      <c r="G7" s="40">
         <v>63.7107999999999</v>
       </c>
-    </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C6" s="45"/>
-      <c r="D6" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="79">
-        <v>9.2276000000000007</v>
-      </c>
-      <c r="F6" s="80">
-        <v>15.272</v>
-      </c>
-      <c r="G6" s="80">
-        <v>28.0044</v>
-      </c>
-      <c r="H6" s="80">
-        <v>40.825200000000002</v>
-      </c>
-      <c r="I6" s="81">
-        <v>52.861999999999902</v>
-      </c>
-      <c r="J6" s="79">
-        <v>15.272</v>
-      </c>
-      <c r="K6" s="80">
-        <v>40.825200000000002</v>
-      </c>
-      <c r="L6" s="80">
-        <v>60.845999999999997</v>
-      </c>
-      <c r="M6" s="80">
-        <v>84.105999999999995</v>
-      </c>
-      <c r="N6" s="81">
-        <v>105.3164</v>
-      </c>
-      <c r="O6" s="79">
-        <v>28.0044</v>
-      </c>
-      <c r="P6" s="80">
-        <v>60.845999999999997</v>
-      </c>
-      <c r="Q6" s="80">
-        <v>92.436000000000007</v>
-      </c>
-      <c r="R6" s="80">
-        <v>125.4744</v>
-      </c>
-      <c r="S6" s="81">
-        <v>152.19</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="H7" s="40">
         <v>84.554639999999907</v>
       </c>
-    </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C7" s="45"/>
-      <c r="D7" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="57">
-        <v>21.230319999999999</v>
-      </c>
-      <c r="F7" s="77">
+      <c r="I7" s="41">
+        <v>105.90479999999999</v>
+      </c>
+      <c r="J7" s="39">
         <v>43.512160000000002</v>
       </c>
-      <c r="G7" s="77">
+      <c r="K7" s="40">
+        <v>84.554639999999907</v>
+      </c>
+      <c r="L7" s="40">
+        <v>127.390639999999</v>
+      </c>
+      <c r="M7" s="40">
+        <v>168.5616</v>
+      </c>
+      <c r="N7" s="41">
+        <v>211.2808</v>
+      </c>
+      <c r="O7" s="39">
         <v>63.7107999999999</v>
       </c>
-      <c r="H7" s="77">
-        <v>84.554639999999907</v>
-      </c>
-      <c r="I7" s="59">
-        <v>105.90479999999999</v>
-      </c>
-      <c r="J7" s="57">
-        <v>43.512160000000002</v>
-      </c>
-      <c r="K7" s="77">
-        <v>84.554639999999907</v>
-      </c>
-      <c r="L7" s="77">
+      <c r="P7" s="40">
         <v>127.390639999999</v>
       </c>
-      <c r="M7" s="77">
-        <v>168.5616</v>
-      </c>
-      <c r="N7" s="59">
-        <v>211.2808</v>
-      </c>
-      <c r="O7" s="57">
-        <v>63.7107999999999</v>
-      </c>
-      <c r="P7" s="77">
-        <v>127.390639999999</v>
-      </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="40">
         <v>190.24744000000001</v>
       </c>
-      <c r="R7" s="77">
+      <c r="R7" s="40">
         <v>254.55936</v>
       </c>
-      <c r="S7" s="59">
+      <c r="S7" s="41">
         <v>320.82015999999999</v>
       </c>
       <c r="U7" s="4">
-        <v>105.90479999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C8" s="45"/>
-      <c r="D8" s="78" t="s">
+        <v>75.603039999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C8" s="69"/>
+      <c r="D8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="39">
         <f>E7-E6</f>
         <v>12.002719999999998</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="40">
         <f t="shared" ref="F8:S8" si="0">F7-F6</f>
         <v>28.240160000000003</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="40">
         <f t="shared" si="0"/>
         <v>35.706399999999903</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="40">
         <f t="shared" si="0"/>
         <v>43.729439999999904</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="40">
         <f t="shared" si="0"/>
         <v>53.042800000000092</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="39">
         <f t="shared" si="0"/>
         <v>28.240160000000003</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="40">
         <f t="shared" si="0"/>
         <v>43.729439999999904</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="40">
         <f t="shared" si="0"/>
         <v>66.544639999998992</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="40">
         <f t="shared" si="0"/>
         <v>84.455600000000004</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="40">
         <f t="shared" si="0"/>
         <v>105.9644</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="39">
         <f t="shared" si="0"/>
         <v>35.706399999999903</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="40">
         <f t="shared" si="0"/>
         <v>66.544639999998992</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="40">
         <f t="shared" si="0"/>
         <v>97.811440000000005</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="40">
         <f t="shared" si="0"/>
         <v>129.08496</v>
       </c>
-      <c r="S8" s="59">
+      <c r="S8" s="41">
         <f t="shared" si="0"/>
         <v>168.63015999999999</v>
       </c>
-    </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C9" s="45"/>
-      <c r="D9" s="70" t="s">
+      <c r="U8" s="4">
+        <v>38.830959999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C9" s="69"/>
+      <c r="D9" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="57">
         <f>E8-E5</f>
         <v>-52.025680000000008</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="58">
         <f t="shared" ref="F9:S9" si="1">F8-F5</f>
         <v>-112.826639999999</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="58">
         <f t="shared" si="1"/>
         <v>-151.15359999999907</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="58">
         <f t="shared" si="1"/>
         <v>-207.50376000000011</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="58">
         <f t="shared" si="1"/>
         <v>-274.39879999999988</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="57">
         <f t="shared" si="1"/>
         <v>-18.835039999999999</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="58">
         <f t="shared" si="1"/>
         <v>-48.235360000000092</v>
       </c>
-      <c r="L9" s="83">
+      <c r="L9" s="58">
         <f t="shared" si="1"/>
         <v>-74.522160000000014</v>
       </c>
-      <c r="M9" s="83">
+      <c r="M9" s="58">
         <f t="shared" si="1"/>
         <v>-88.283199999998999</v>
       </c>
-      <c r="N9" s="83">
+      <c r="N9" s="58">
         <f t="shared" si="1"/>
         <v>-97.926399999998992</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="57">
         <f t="shared" si="1"/>
         <v>9.2908000000000044</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="58">
         <f t="shared" si="1"/>
         <v>19.46943999999899</v>
       </c>
-      <c r="Q9" s="83">
+      <c r="Q9" s="58">
         <f t="shared" si="1"/>
         <v>33.78304</v>
       </c>
-      <c r="R9" s="83">
+      <c r="R9" s="58">
         <f t="shared" si="1"/>
         <v>37.120159999999998</v>
       </c>
-      <c r="S9" s="84">
+      <c r="S9" s="59">
         <f t="shared" si="1"/>
         <v>55.649759999999986</v>
       </c>
       <c r="U9" s="4">
-        <v>43.512160000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C10" s="44" t="s">
+        <v>75.609519999999904</v>
+      </c>
+    </row>
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="69"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
       <c r="U10" s="4">
-        <v>84.554639999999907</v>
-      </c>
-    </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C11" s="45"/>
-      <c r="D11" s="63" t="s">
+        <v>113.36031999999901</v>
+      </c>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C11" s="69"/>
+      <c r="D11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="48"/>
       <c r="U11" s="4">
-        <v>127.390639999999</v>
-      </c>
-    </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C12" s="45"/>
-      <c r="D12" s="63" t="s">
+        <v>151.37464</v>
+      </c>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C12" s="69"/>
+      <c r="D12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="87"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="62"/>
       <c r="U12" s="4">
-        <v>168.5616</v>
-      </c>
-    </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C13" s="45"/>
-      <c r="D13" s="85" t="s">
+        <v>190.79535999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C13" s="69"/>
+      <c r="D13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
       <c r="U13" s="4">
-        <v>211.2808</v>
-      </c>
-    </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C14" s="45"/>
-      <c r="D14" s="56" t="s">
+        <v>60.949759999999898</v>
+      </c>
+    </row>
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C14" s="69"/>
+      <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
       <c r="U14" s="4">
-        <v>63.7107999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="45"/>
-      <c r="D15" s="56" t="s">
+        <v>122.58591999999901</v>
+      </c>
+    </row>
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C15" s="69"/>
+      <c r="D15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
       <c r="U15" s="4">
-        <v>127.390639999999</v>
-      </c>
-    </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C16" s="45"/>
-      <c r="D16" s="56" t="s">
+        <v>183.9872</v>
+      </c>
+    </row>
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C16" s="69"/>
+      <c r="D16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
       <c r="U16" s="4">
-        <v>190.24744000000001</v>
+        <v>245.44408000000001</v>
       </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C17" s="45"/>
-      <c r="D17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="72"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
       <c r="U17" s="4">
-        <v>254.55936</v>
+        <v>309.37247999999897</v>
       </c>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="63" t="s">
+      <c r="C18" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="66"/>
-      <c r="U18" s="4">
-        <v>320.82015999999999</v>
+      <c r="E18" s="46">
+        <v>19.8182169236206</v>
+      </c>
+      <c r="F18" s="47">
+        <v>44.798302520644398</v>
+      </c>
+      <c r="G18" s="47">
+        <v>57.5840726951375</v>
+      </c>
+      <c r="H18" s="47">
+        <v>74.476214545191496</v>
+      </c>
+      <c r="I18" s="48">
+        <v>94.312016626769505</v>
+      </c>
+      <c r="J18" s="46">
+        <v>16.116722760872801</v>
+      </c>
+      <c r="K18" s="47">
+        <v>28.248184602280102</v>
+      </c>
+      <c r="L18" s="47">
+        <v>42.420283845068099</v>
+      </c>
+      <c r="M18" s="47">
+        <v>51.952424011454099</v>
+      </c>
+      <c r="N18" s="48">
+        <v>60.347907095322697</v>
+      </c>
+      <c r="O18" s="46">
+        <v>9.1629079402572504</v>
+      </c>
+      <c r="P18" s="47">
+        <v>14.590239634923201</v>
+      </c>
+      <c r="Q18" s="47">
+        <v>18.746561408599302</v>
+      </c>
+      <c r="R18" s="47">
+        <v>26.658866322169199</v>
+      </c>
+      <c r="S18" s="48">
+        <v>32.747108756480401</v>
       </c>
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C19" s="45"/>
-      <c r="D19" s="63" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="69"/>
+      <c r="E19" s="47">
+        <v>36.023600000000002</v>
+      </c>
+      <c r="F19" s="47">
+        <v>75.967599999999905</v>
+      </c>
+      <c r="G19" s="47">
+        <v>100.220799999999</v>
+      </c>
+      <c r="H19" s="47">
+        <v>133.37959999999899</v>
+      </c>
+      <c r="I19" s="48">
+        <v>175.93279999999999</v>
+      </c>
+      <c r="J19" s="46">
+        <v>23.6692</v>
+      </c>
+      <c r="K19" s="47">
+        <v>47.239199999999897</v>
+      </c>
+      <c r="L19" s="47">
+        <v>70.915199999999899</v>
+      </c>
+      <c r="M19" s="47">
+        <v>86.803999999999903</v>
+      </c>
+      <c r="N19" s="48">
+        <v>101.463599999999</v>
+      </c>
+      <c r="O19" s="46">
+        <v>12.610399999999901</v>
+      </c>
+      <c r="P19" s="47">
+        <v>23.051600000000001</v>
+      </c>
+      <c r="Q19" s="47">
+        <v>32.727200000000003</v>
+      </c>
+      <c r="R19" s="47">
+        <v>46.388399999999898</v>
+      </c>
+      <c r="S19" s="48">
+        <v>55.741999999999997</v>
+      </c>
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C20" s="45"/>
-      <c r="D20" s="63" t="s">
+      <c r="C20" s="69"/>
+      <c r="D20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="87"/>
+      <c r="E20" s="61">
+        <f>SUM(E18:E19)</f>
+        <v>55.841816923620598</v>
+      </c>
+      <c r="F20" s="61">
+        <f t="shared" ref="F20" si="2">SUM(F18:F19)</f>
+        <v>120.7659025206443</v>
+      </c>
+      <c r="G20" s="61">
+        <f t="shared" ref="G20" si="3">SUM(G18:G19)</f>
+        <v>157.80487269513651</v>
+      </c>
+      <c r="H20" s="61">
+        <f t="shared" ref="H20" si="4">SUM(H18:H19)</f>
+        <v>207.85581454519047</v>
+      </c>
+      <c r="I20" s="62">
+        <f t="shared" ref="I20" si="5">SUM(I18:I19)</f>
+        <v>270.24481662676948</v>
+      </c>
+      <c r="J20" s="61">
+        <f t="shared" ref="J20" si="6">SUM(J18:J19)</f>
+        <v>39.785922760872801</v>
+      </c>
+      <c r="K20" s="61">
+        <f t="shared" ref="K20" si="7">SUM(K18:K19)</f>
+        <v>75.487384602280002</v>
+      </c>
+      <c r="L20" s="61">
+        <f t="shared" ref="L20" si="8">SUM(L18:L19)</f>
+        <v>113.335483845068</v>
+      </c>
+      <c r="M20" s="61">
+        <f t="shared" ref="M20" si="9">SUM(M18:M19)</f>
+        <v>138.75642401145399</v>
+      </c>
+      <c r="N20" s="62">
+        <f t="shared" ref="N20" si="10">SUM(N18:N19)</f>
+        <v>161.8115070953217</v>
+      </c>
+      <c r="O20" s="61">
+        <f t="shared" ref="O20" si="11">SUM(O18:O19)</f>
+        <v>21.773307940257151</v>
+      </c>
+      <c r="P20" s="61">
+        <f t="shared" ref="P20" si="12">SUM(P18:P19)</f>
+        <v>37.641839634923201</v>
+      </c>
+      <c r="Q20" s="61">
+        <f t="shared" ref="Q20" si="13">SUM(Q18:Q19)</f>
+        <v>51.473761408599302</v>
+      </c>
+      <c r="R20" s="61">
+        <f t="shared" ref="R20" si="14">SUM(R18:R19)</f>
+        <v>73.047266322169094</v>
+      </c>
+      <c r="S20" s="62">
+        <f t="shared" ref="S20" si="15">SUM(S18:S19)</f>
+        <v>88.489108756480391</v>
+      </c>
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C21" s="45"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="69"/>
+      <c r="D21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="59"/>
+      <c r="E21" s="39">
+        <v>9.2276000000000007</v>
+      </c>
+      <c r="F21" s="40">
+        <v>15.272</v>
+      </c>
+      <c r="G21" s="40">
+        <v>28.0044</v>
+      </c>
+      <c r="H21" s="40">
+        <v>40.825200000000002</v>
+      </c>
+      <c r="I21" s="41">
+        <v>52.861999999999902</v>
+      </c>
+      <c r="J21" s="39">
+        <v>15.272</v>
+      </c>
+      <c r="K21" s="40">
+        <v>40.825200000000002</v>
+      </c>
+      <c r="L21" s="40">
+        <v>60.845999999999997</v>
+      </c>
+      <c r="M21" s="40">
+        <v>84.105999999999995</v>
+      </c>
+      <c r="N21" s="41">
+        <v>105.3164</v>
+      </c>
+      <c r="O21" s="39">
+        <v>28.0044</v>
+      </c>
+      <c r="P21" s="40">
+        <v>60.845999999999997</v>
+      </c>
+      <c r="Q21" s="40">
+        <v>92.436000000000007</v>
+      </c>
+      <c r="R21" s="40">
+        <v>125.4744</v>
+      </c>
+      <c r="S21" s="41">
+        <v>152.19</v>
+      </c>
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C22" s="45"/>
-      <c r="D22" s="56" t="s">
+      <c r="C22" s="69"/>
+      <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="59"/>
+      <c r="E22" s="39">
+        <v>19.8182169236206</v>
+      </c>
+      <c r="F22" s="40">
+        <v>44.798302520644398</v>
+      </c>
+      <c r="G22" s="40">
+        <v>57.5840726951375</v>
+      </c>
+      <c r="H22" s="40">
+        <v>74.476214545191496</v>
+      </c>
+      <c r="I22" s="41">
+        <v>94.312016626769505</v>
+      </c>
+      <c r="J22" s="39">
+        <v>16.116722760872801</v>
+      </c>
+      <c r="K22" s="40">
+        <v>28.248184602280102</v>
+      </c>
+      <c r="L22" s="40">
+        <v>42.420283845068099</v>
+      </c>
+      <c r="M22" s="40">
+        <v>51.952424011454099</v>
+      </c>
+      <c r="N22" s="41">
+        <v>60.347907095322697</v>
+      </c>
+      <c r="O22" s="39">
+        <v>9.1629079402572504</v>
+      </c>
+      <c r="P22" s="40">
+        <v>14.590239634923201</v>
+      </c>
+      <c r="Q22" s="40">
+        <v>18.746561408599302</v>
+      </c>
+      <c r="R22" s="40">
+        <v>26.658866322169199</v>
+      </c>
+      <c r="S22" s="41">
+        <v>32.747108756480401</v>
+      </c>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C23" s="45"/>
-      <c r="D23" s="56" t="s">
+      <c r="C23" s="69"/>
+      <c r="D23" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="59"/>
+      <c r="E23" s="39">
+        <v>15.62936</v>
+      </c>
+      <c r="F23" s="40">
+        <v>30.492319999999999</v>
+      </c>
+      <c r="G23" s="40">
+        <v>46.382959999999997</v>
+      </c>
+      <c r="H23" s="40">
+        <v>60.983919999999898</v>
+      </c>
+      <c r="I23" s="41">
+        <v>75.603039999999993</v>
+      </c>
+      <c r="J23" s="39">
+        <v>38.830959999999997</v>
+      </c>
+      <c r="K23" s="40">
+        <v>75.609519999999904</v>
+      </c>
+      <c r="L23" s="40">
+        <v>113.36031999999901</v>
+      </c>
+      <c r="M23" s="40">
+        <v>151.37464</v>
+      </c>
+      <c r="N23" s="41">
+        <v>190.79535999999999</v>
+      </c>
+      <c r="O23" s="39">
+        <v>60.949759999999898</v>
+      </c>
+      <c r="P23" s="40">
+        <v>122.58591999999901</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>183.9872</v>
+      </c>
+      <c r="R23" s="40">
+        <v>245.44408000000001</v>
+      </c>
+      <c r="S23" s="41">
+        <v>309.37247999999897</v>
+      </c>
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C24" s="45"/>
-      <c r="D24" s="56" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="62"/>
+      <c r="E24" s="39">
+        <f>E23+E22-E21</f>
+        <v>26.2199769236206</v>
+      </c>
+      <c r="F24" s="82">
+        <f t="shared" ref="F24:S24" si="16">F23+F22-F21</f>
+        <v>60.018622520644406</v>
+      </c>
+      <c r="G24" s="82">
+        <f t="shared" si="16"/>
+        <v>75.962632695137501</v>
+      </c>
+      <c r="H24" s="82">
+        <f t="shared" si="16"/>
+        <v>94.634934545191413</v>
+      </c>
+      <c r="I24" s="82">
+        <f t="shared" si="16"/>
+        <v>117.0530566267696</v>
+      </c>
+      <c r="J24" s="39">
+        <f t="shared" si="16"/>
+        <v>39.675682760872796</v>
+      </c>
+      <c r="K24" s="82">
+        <f t="shared" si="16"/>
+        <v>63.032504602280007</v>
+      </c>
+      <c r="L24" s="82">
+        <f t="shared" si="16"/>
+        <v>94.934603845067102</v>
+      </c>
+      <c r="M24" s="82">
+        <f t="shared" si="16"/>
+        <v>119.2210640114541</v>
+      </c>
+      <c r="N24" s="41">
+        <f t="shared" si="16"/>
+        <v>145.82686709532271</v>
+      </c>
+      <c r="O24" s="82">
+        <f t="shared" si="16"/>
+        <v>42.10826794025715</v>
+      </c>
+      <c r="P24" s="82">
+        <f t="shared" si="16"/>
+        <v>76.330159634922211</v>
+      </c>
+      <c r="Q24" s="82">
+        <f t="shared" si="16"/>
+        <v>110.29776140859929</v>
+      </c>
+      <c r="R24" s="82">
+        <f t="shared" si="16"/>
+        <v>146.6285463221692</v>
+      </c>
+      <c r="S24" s="41">
+        <f t="shared" si="16"/>
+        <v>189.9295887564794</v>
+      </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C25" s="46"/>
-      <c r="D25" s="70" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="76"/>
+      <c r="E25" s="57">
+        <f>E24-E20</f>
+        <v>-29.621839999999999</v>
+      </c>
+      <c r="F25" s="58">
+        <f t="shared" ref="F25:S25" si="17">F24-F20</f>
+        <v>-60.747279999999897</v>
+      </c>
+      <c r="G25" s="58">
+        <f t="shared" si="17"/>
+        <v>-81.842239999999009</v>
+      </c>
+      <c r="H25" s="58">
+        <f t="shared" si="17"/>
+        <v>-113.22087999999906</v>
+      </c>
+      <c r="I25" s="59">
+        <f t="shared" si="17"/>
+        <v>-153.19175999999987</v>
+      </c>
+      <c r="J25" s="58">
+        <f t="shared" si="17"/>
+        <v>-0.11024000000000456</v>
+      </c>
+      <c r="K25" s="58">
+        <f t="shared" si="17"/>
+        <v>-12.454879999999996</v>
+      </c>
+      <c r="L25" s="58">
+        <f t="shared" si="17"/>
+        <v>-18.400880000000896</v>
+      </c>
+      <c r="M25" s="58">
+        <f t="shared" si="17"/>
+        <v>-19.535359999999883</v>
+      </c>
+      <c r="N25" s="59">
+        <f t="shared" si="17"/>
+        <v>-15.98463999999899</v>
+      </c>
+      <c r="O25" s="58">
+        <f t="shared" si="17"/>
+        <v>20.334959999999999</v>
+      </c>
+      <c r="P25" s="58">
+        <f t="shared" si="17"/>
+        <v>38.68831999999901</v>
+      </c>
+      <c r="Q25" s="58">
+        <f t="shared" si="17"/>
+        <v>58.823999999999984</v>
+      </c>
+      <c r="R25" s="58">
+        <f t="shared" si="17"/>
+        <v>73.581280000000106</v>
+      </c>
+      <c r="S25" s="59">
+        <f t="shared" si="17"/>
+        <v>101.44047999999901</v>
+      </c>
     </row>
     <row r="29" spans="3:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
@@ -1819,27 +2096,27 @@
         <v>4</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="38">
+      <c r="E31" s="72">
         <v>0.25</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="38">
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="72">
         <v>0.5</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="38">
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="72">
         <v>0.75</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="40"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="74"/>
       <c r="U31" s="4">
         <v>19.9031494405743</v>
       </c>
@@ -1945,7 +2222,7 @@
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2001,7 +2278,7 @@
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="42"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="11" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2332,7 @@
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -2081,7 +2358,7 @@
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="42"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2382,7 @@
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -2131,7 +2408,7 @@
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="42"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="11" t="s">
         <v>3</v>
       </c>
@@ -2183,27 +2460,27 @@
         <v>4</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="38">
+      <c r="E43" s="72">
         <v>0.25</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="38">
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="72">
         <v>0.5</v>
       </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="38">
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="72">
         <v>0.75</v>
       </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="40"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="74"/>
       <c r="U43" s="4">
         <v>109.102090852781</v>
       </c>
@@ -2263,7 +2540,7 @@
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2319,7 +2596,7 @@
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="42"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="11" t="s">
         <v>3</v>
       </c>
@@ -2370,7 +2647,7 @@
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -2393,7 +2670,7 @@
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="42"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="11" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2691,7 @@
       <c r="S48" s="14"/>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -2437,7 +2714,7 @@
       <c r="S49" s="7"/>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="42"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="11" t="s">
         <v>3</v>
       </c>
@@ -2467,27 +2744,27 @@
         <v>4</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="38">
+      <c r="E56" s="72">
         <v>0.25</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="38">
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="72">
         <v>0.5</v>
       </c>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="38">
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="72">
         <v>0.75</v>
       </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="40"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="74"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
@@ -2541,7 +2818,7 @@
       </c>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -2564,7 +2841,7 @@
       <c r="S58" s="7"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="43"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="11"/>
       <c r="E59" s="18"/>
       <c r="I59" s="19"/>
@@ -2574,7 +2851,7 @@
       <c r="S59" s="19"/>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="42"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="11" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2902,7 @@
       </c>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -2648,7 +2925,7 @@
       <c r="S61" s="7"/>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C62" s="42"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="11" t="s">
         <v>3</v>
       </c>
@@ -2669,7 +2946,7 @@
       <c r="S62" s="14"/>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -2692,7 +2969,7 @@
       <c r="S63" s="7"/>
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C64" s="42"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="11" t="s">
         <v>3</v>
       </c>
@@ -2722,27 +2999,27 @@
         <v>4</v>
       </c>
       <c r="D69" s="10"/>
-      <c r="E69" s="38">
+      <c r="E69" s="72">
         <v>0.25</v>
       </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="38">
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="72">
         <v>0.5</v>
       </c>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="38">
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="72">
         <v>0.75</v>
       </c>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="40"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="74"/>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
@@ -2796,7 +3073,7 @@
       </c>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -2849,7 +3126,7 @@
       </c>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C72" s="42"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="11" t="s">
         <v>3</v>
       </c>
@@ -2900,7 +3177,7 @@
       </c>
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -2923,7 +3200,7 @@
       <c r="S73" s="7"/>
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C74" s="42"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="11" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +3221,7 @@
       <c r="S74" s="14"/>
     </row>
     <row r="75" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -2967,7 +3244,7 @@
       <c r="S75" s="7"/>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C76" s="42"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="11" t="s">
         <v>3</v>
       </c>
@@ -2997,27 +3274,27 @@
         <v>4</v>
       </c>
       <c r="D82" s="10"/>
-      <c r="E82" s="38">
+      <c r="E82" s="72">
         <v>0.25</v>
       </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="38">
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="72">
         <v>0.5</v>
       </c>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="38">
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="72">
         <v>0.75</v>
       </c>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="40"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="74"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C83" s="9" t="s">
@@ -3071,7 +3348,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
@@ -3124,7 +3401,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C85" s="42"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="11" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3452,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -3198,7 +3475,7 @@
       <c r="S86" s="7"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C87" s="42"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="11" t="s">
         <v>3</v>
       </c>
@@ -3219,7 +3496,7 @@
       <c r="S87" s="14"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="11" t="s">
@@ -3242,7 +3519,7 @@
       <c r="S88" s="7"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C89" s="42"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="11" t="s">
         <v>3</v>
       </c>
@@ -3292,27 +3569,27 @@
         <v>4</v>
       </c>
       <c r="D94" s="29"/>
-      <c r="E94" s="38">
+      <c r="E94" s="72">
         <v>0.25</v>
       </c>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="38">
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="72">
         <v>0.5</v>
       </c>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="38">
+      <c r="K94" s="73"/>
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
+      <c r="N94" s="73"/>
+      <c r="O94" s="72">
         <v>0.75</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="40"/>
+      <c r="P94" s="73"/>
+      <c r="Q94" s="73"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="74"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
@@ -3370,7 +3647,7 @@
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="30" t="s">
@@ -3425,7 +3702,7 @@
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="48"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="30" t="s">
         <v>3</v>
       </c>
@@ -3478,7 +3755,7 @@
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="65" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -3503,7 +3780,7 @@
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
-      <c r="C99" s="48"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="30" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +3803,7 @@
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="30" t="s">
@@ -3551,7 +3828,7 @@
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
-      <c r="C101" s="48"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="30" t="s">
         <v>3</v>
       </c>
@@ -3685,27 +3962,27 @@
         <v>4</v>
       </c>
       <c r="D107" s="29"/>
-      <c r="E107" s="38">
+      <c r="E107" s="72">
         <v>0.25</v>
       </c>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="38">
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="72">
         <v>0.5</v>
       </c>
-      <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
-      <c r="N107" s="39"/>
-      <c r="O107" s="38">
+      <c r="K107" s="73"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="73"/>
+      <c r="N107" s="73"/>
+      <c r="O107" s="72">
         <v>0.75</v>
       </c>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="40"/>
+      <c r="P107" s="73"/>
+      <c r="Q107" s="73"/>
+      <c r="R107" s="73"/>
+      <c r="S107" s="74"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
@@ -3763,7 +4040,7 @@
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
-      <c r="C109" s="47" t="s">
+      <c r="C109" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="30" t="s">
@@ -3818,7 +4095,7 @@
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
-      <c r="C110" s="48"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="30" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +4148,7 @@
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="65" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="30" t="s">
@@ -3896,7 +4173,7 @@
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
-      <c r="C112" s="48"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="30" t="s">
         <v>3</v>
       </c>
@@ -3919,7 +4196,7 @@
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D113" s="30" t="s">
@@ -3944,7 +4221,7 @@
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
-      <c r="C114" s="48"/>
+      <c r="C114" s="64"/>
       <c r="D114" s="30" t="s">
         <v>3</v>
       </c>
@@ -3994,27 +4271,27 @@
         <v>4</v>
       </c>
       <c r="D119" s="29"/>
-      <c r="E119" s="38">
+      <c r="E119" s="72">
         <v>0.25</v>
       </c>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="38">
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="72">
         <v>0.5</v>
       </c>
-      <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
-      <c r="N119" s="39"/>
-      <c r="O119" s="38">
+      <c r="K119" s="73"/>
+      <c r="L119" s="73"/>
+      <c r="M119" s="73"/>
+      <c r="N119" s="73"/>
+      <c r="O119" s="72">
         <v>0.75</v>
       </c>
-      <c r="P119" s="39"/>
-      <c r="Q119" s="39"/>
-      <c r="R119" s="39"/>
-      <c r="S119" s="40"/>
+      <c r="P119" s="73"/>
+      <c r="Q119" s="73"/>
+      <c r="R119" s="73"/>
+      <c r="S119" s="74"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
@@ -4072,7 +4349,7 @@
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
-      <c r="C121" s="47" t="s">
+      <c r="C121" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="30" t="s">
@@ -4127,7 +4404,7 @@
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="48"/>
+      <c r="C122" s="64"/>
       <c r="D122" s="30" t="s">
         <v>3</v>
       </c>
@@ -4180,7 +4457,7 @@
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="65" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="30" t="s">
@@ -4205,7 +4482,7 @@
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
-      <c r="C124" s="48"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="30" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4505,7 @@
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D125" s="30" t="s">
@@ -4253,7 +4530,7 @@
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
-      <c r="C126" s="48"/>
+      <c r="C126" s="64"/>
       <c r="D126" s="30" t="s">
         <v>3</v>
       </c>
@@ -4387,27 +4664,27 @@
         <v>4</v>
       </c>
       <c r="D132" s="29"/>
-      <c r="E132" s="38">
+      <c r="E132" s="72">
         <v>0.25</v>
       </c>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="38">
+      <c r="F132" s="73"/>
+      <c r="G132" s="73"/>
+      <c r="H132" s="73"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="72">
         <v>0.5</v>
       </c>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="39"/>
-      <c r="O132" s="38">
+      <c r="K132" s="73"/>
+      <c r="L132" s="73"/>
+      <c r="M132" s="73"/>
+      <c r="N132" s="73"/>
+      <c r="O132" s="72">
         <v>0.75</v>
       </c>
-      <c r="P132" s="39"/>
-      <c r="Q132" s="39"/>
-      <c r="R132" s="39"/>
-      <c r="S132" s="40"/>
+      <c r="P132" s="73"/>
+      <c r="Q132" s="73"/>
+      <c r="R132" s="73"/>
+      <c r="S132" s="74"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
@@ -4465,7 +4742,7 @@
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
-      <c r="C134" s="47" t="s">
+      <c r="C134" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="30" t="s">
@@ -4520,7 +4797,7 @@
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
-      <c r="C135" s="48"/>
+      <c r="C135" s="64"/>
       <c r="D135" s="30" t="s">
         <v>3</v>
       </c>
@@ -4573,7 +4850,7 @@
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
-      <c r="C136" s="49" t="s">
+      <c r="C136" s="65" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="30" t="s">
@@ -4598,7 +4875,7 @@
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
-      <c r="C137" s="48"/>
+      <c r="C137" s="64"/>
       <c r="D137" s="30" t="s">
         <v>3</v>
       </c>
@@ -4621,7 +4898,7 @@
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
-      <c r="C138" s="49" t="s">
+      <c r="C138" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="30" t="s">
@@ -4646,7 +4923,7 @@
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
-      <c r="C139" s="48"/>
+      <c r="C139" s="64"/>
       <c r="D139" s="30" t="s">
         <v>3</v>
       </c>
@@ -4668,6 +4945,58 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="E119:I119"/>
+    <mergeCell ref="J119:N119"/>
+    <mergeCell ref="O119:S119"/>
+    <mergeCell ref="E132:I132"/>
+    <mergeCell ref="J132:N132"/>
+    <mergeCell ref="O132:S132"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="O94:S94"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="O107:S107"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="O82:S82"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C109:C110"/>
     <mergeCell ref="C134:C135"/>
     <mergeCell ref="C136:C137"/>
     <mergeCell ref="C138:C139"/>
@@ -4676,58 +5005,6 @@
     <mergeCell ref="C121:C122"/>
     <mergeCell ref="C123:C124"/>
     <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="O56:S56"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="E82:I82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="O82:S82"/>
-    <mergeCell ref="E94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="O107:S107"/>
-    <mergeCell ref="E119:I119"/>
-    <mergeCell ref="J119:N119"/>
-    <mergeCell ref="O119:S119"/>
-    <mergeCell ref="E132:I132"/>
-    <mergeCell ref="J132:N132"/>
-    <mergeCell ref="O132:S132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4738,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B209" sqref="B209:R223"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4764,37 +5041,37 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="38">
+      <c r="C4" s="77"/>
+      <c r="D4" s="72">
         <v>0.25</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="72">
         <v>0.5</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="38">
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="72">
         <v>0.75</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -4842,7 +5119,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4895,7 +5172,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
@@ -5010,10 +5287,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -5061,7 +5338,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -5114,7 +5391,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5442,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
@@ -5216,7 +5493,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5269,7 +5546,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
@@ -5468,37 +5745,37 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="38">
+      <c r="C22" s="77"/>
+      <c r="D22" s="72">
         <v>0.25</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38">
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="72">
         <v>0.5</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="38">
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="72">
         <v>0.75</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="74"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -5546,7 +5823,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -5599,7 +5876,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="11" t="s">
         <v>8</v>
       </c>
@@ -5714,10 +5991,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -5765,7 +6042,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -5818,7 +6095,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
@@ -5869,7 +6146,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="42"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
@@ -5920,7 +6197,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -5973,7 +6250,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
@@ -6284,37 +6561,37 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="38">
+      <c r="C41" s="77"/>
+      <c r="D41" s="72">
         <v>0.25</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="38">
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="72">
         <v>0.5</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="38">
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="72">
         <v>0.75</v>
       </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="74"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -6362,7 +6639,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6415,7 +6692,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="11" t="s">
         <v>8</v>
       </c>
@@ -6466,10 +6743,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -6517,7 +6794,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -6570,7 +6847,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
@@ -6621,7 +6898,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="11" t="s">
         <v>25</v>
       </c>
@@ -6672,7 +6949,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -6725,7 +7002,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="9" t="s">
         <v>8</v>
       </c>
@@ -7156,37 +7433,37 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="38">
+      <c r="C61" s="77"/>
+      <c r="D61" s="72">
         <v>0.25</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="38">
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="72">
         <v>0.5</v>
       </c>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="38">
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="72">
         <v>0.75</v>
       </c>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="40"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="74"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -7234,7 +7511,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -7287,7 +7564,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
@@ -7402,10 +7679,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="53"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -7453,7 +7730,7 @@
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -7506,7 +7783,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
@@ -7557,7 +7834,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="11" t="s">
         <v>25</v>
       </c>
@@ -7608,7 +7885,7 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -7661,7 +7938,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="42"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="9" t="s">
         <v>8</v>
       </c>
@@ -7856,37 +8133,37 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="38">
+      <c r="C78" s="77"/>
+      <c r="D78" s="72">
         <v>0.25</v>
       </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="38">
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="72">
         <v>0.5</v>
       </c>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="38">
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="72">
         <v>0.75</v>
       </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="40"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="74"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="51"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -7934,7 +8211,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -7987,7 +8264,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="11" t="s">
         <v>8</v>
       </c>
@@ -8102,10 +8379,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="53"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -8153,7 +8430,7 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -8206,7 +8483,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="43"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="11" t="s">
         <v>22</v>
       </c>
@@ -8257,7 +8534,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="42"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="11" t="s">
         <v>25</v>
       </c>
@@ -8308,7 +8585,7 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -8361,7 +8638,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="9" t="s">
         <v>8</v>
       </c>
@@ -8788,37 +9065,37 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="38">
+      <c r="C99" s="77"/>
+      <c r="D99" s="72">
         <v>0.25</v>
       </c>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="38">
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="72">
         <v>0.5</v>
       </c>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="38">
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="72">
         <v>0.75</v>
       </c>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="40"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="74"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="51"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -8866,7 +9143,7 @@
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -8919,7 +9196,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="42"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="11" t="s">
         <v>8</v>
       </c>
@@ -9034,10 +9311,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="52" t="s">
+      <c r="B104" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="53"/>
+      <c r="C104" s="79"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -9085,7 +9362,7 @@
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -9138,7 +9415,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="43"/>
+      <c r="B106" s="71"/>
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -9189,7 +9466,7 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="42"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="11" t="s">
         <v>25</v>
       </c>
@@ -9240,7 +9517,7 @@
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -9293,7 +9570,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="42"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="9" t="s">
         <v>8</v>
       </c>
@@ -9488,37 +9765,37 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="38">
+      <c r="C116" s="77"/>
+      <c r="D116" s="72">
         <v>0.25</v>
       </c>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="38">
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="72">
         <v>0.5</v>
       </c>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="38">
+      <c r="J116" s="73"/>
+      <c r="K116" s="73"/>
+      <c r="L116" s="73"/>
+      <c r="M116" s="73"/>
+      <c r="N116" s="72">
         <v>0.75</v>
       </c>
-      <c r="O116" s="39"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="40"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="73"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="74"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="51"/>
+      <c r="C117" s="76"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -9566,7 +9843,7 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -9619,7 +9896,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="42"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="11" t="s">
         <v>8</v>
       </c>
@@ -9734,10 +10011,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="53"/>
+      <c r="C121" s="79"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -9785,7 +10062,7 @@
       </c>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -9838,7 +10115,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="43"/>
+      <c r="B123" s="71"/>
       <c r="C123" s="11" t="s">
         <v>22</v>
       </c>
@@ -9889,7 +10166,7 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="42"/>
+      <c r="B124" s="67"/>
       <c r="C124" s="11" t="s">
         <v>25</v>
       </c>
@@ -9940,7 +10217,7 @@
       </c>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="11" t="s">
@@ -9993,7 +10270,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="42"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="9" t="s">
         <v>8</v>
       </c>
@@ -10421,37 +10698,37 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="50" t="s">
+      <c r="B136" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="54"/>
-      <c r="D136" s="38">
+      <c r="C136" s="77"/>
+      <c r="D136" s="72">
         <v>0.25</v>
       </c>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="38">
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="72">
         <v>0.5</v>
       </c>
-      <c r="J136" s="39"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
-      <c r="N136" s="38">
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
+      <c r="L136" s="73"/>
+      <c r="M136" s="73"/>
+      <c r="N136" s="72">
         <v>0.75</v>
       </c>
-      <c r="O136" s="39"/>
-      <c r="P136" s="39"/>
-      <c r="Q136" s="39"/>
-      <c r="R136" s="40"/>
+      <c r="O136" s="73"/>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="74"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="51"/>
+      <c r="C137" s="76"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -10499,7 +10776,7 @@
       </c>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -10552,7 +10829,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="42"/>
+      <c r="B139" s="67"/>
       <c r="C139" s="11" t="s">
         <v>8</v>
       </c>
@@ -10667,10 +10944,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="52" t="s">
+      <c r="B141" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="53"/>
+      <c r="C141" s="79"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -10718,7 +10995,7 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B142" s="41" t="s">
+      <c r="B142" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -10771,7 +11048,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="43"/>
+      <c r="B143" s="71"/>
       <c r="C143" s="11" t="s">
         <v>22</v>
       </c>
@@ -10822,7 +11099,7 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="42"/>
+      <c r="B144" s="67"/>
       <c r="C144" s="11" t="s">
         <v>25</v>
       </c>
@@ -10873,7 +11150,7 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B145" s="41" t="s">
+      <c r="B145" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="11" t="s">
@@ -10926,7 +11203,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="42"/>
+      <c r="B146" s="67"/>
       <c r="C146" s="9" t="s">
         <v>8</v>
       </c>
@@ -11121,37 +11398,37 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="50" t="s">
+      <c r="B153" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="54"/>
-      <c r="D153" s="38">
+      <c r="C153" s="77"/>
+      <c r="D153" s="72">
         <v>0.25</v>
       </c>
-      <c r="E153" s="39"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="38">
+      <c r="E153" s="73"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="73"/>
+      <c r="H153" s="73"/>
+      <c r="I153" s="72">
         <v>0.5</v>
       </c>
-      <c r="J153" s="39"/>
-      <c r="K153" s="39"/>
-      <c r="L153" s="39"/>
-      <c r="M153" s="39"/>
-      <c r="N153" s="38">
+      <c r="J153" s="73"/>
+      <c r="K153" s="73"/>
+      <c r="L153" s="73"/>
+      <c r="M153" s="73"/>
+      <c r="N153" s="72">
         <v>0.75</v>
       </c>
-      <c r="O153" s="39"/>
-      <c r="P153" s="39"/>
-      <c r="Q153" s="39"/>
-      <c r="R153" s="40"/>
+      <c r="O153" s="73"/>
+      <c r="P153" s="73"/>
+      <c r="Q153" s="73"/>
+      <c r="R153" s="74"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="51"/>
+      <c r="C154" s="76"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -11199,7 +11476,7 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B155" s="41" t="s">
+      <c r="B155" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="11" t="s">
@@ -11252,7 +11529,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="42"/>
+      <c r="B156" s="67"/>
       <c r="C156" s="11" t="s">
         <v>8</v>
       </c>
@@ -11367,10 +11644,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="52" t="s">
+      <c r="B158" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="53"/>
+      <c r="C158" s="79"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -11418,7 +11695,7 @@
       </c>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C159" s="11" t="s">
@@ -11471,7 +11748,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="43"/>
+      <c r="B160" s="71"/>
       <c r="C160" s="11" t="s">
         <v>22</v>
       </c>
@@ -11522,7 +11799,7 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="42"/>
+      <c r="B161" s="67"/>
       <c r="C161" s="11" t="s">
         <v>25</v>
       </c>
@@ -11573,7 +11850,7 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B162" s="41" t="s">
+      <c r="B162" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -11626,7 +11903,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="42"/>
+      <c r="B163" s="67"/>
       <c r="C163" s="9" t="s">
         <v>8</v>
       </c>
@@ -11938,37 +12215,37 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="50" t="s">
+      <c r="B171" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="54"/>
-      <c r="D171" s="38">
+      <c r="C171" s="77"/>
+      <c r="D171" s="72">
         <v>0.25</v>
       </c>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="39"/>
-      <c r="H171" s="39"/>
-      <c r="I171" s="38">
+      <c r="E171" s="73"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="73"/>
+      <c r="H171" s="73"/>
+      <c r="I171" s="72">
         <v>0.5</v>
       </c>
-      <c r="J171" s="39"/>
-      <c r="K171" s="39"/>
-      <c r="L171" s="39"/>
-      <c r="M171" s="39"/>
-      <c r="N171" s="38">
+      <c r="J171" s="73"/>
+      <c r="K171" s="73"/>
+      <c r="L171" s="73"/>
+      <c r="M171" s="73"/>
+      <c r="N171" s="72">
         <v>0.75</v>
       </c>
-      <c r="O171" s="39"/>
-      <c r="P171" s="39"/>
-      <c r="Q171" s="39"/>
-      <c r="R171" s="40"/>
+      <c r="O171" s="73"/>
+      <c r="P171" s="73"/>
+      <c r="Q171" s="73"/>
+      <c r="R171" s="74"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="50" t="s">
+      <c r="B172" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="51"/>
+      <c r="C172" s="76"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -12016,7 +12293,7 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -12069,7 +12346,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="42"/>
+      <c r="B174" s="67"/>
       <c r="C174" s="11" t="s">
         <v>8</v>
       </c>
@@ -12184,10 +12461,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="52" t="s">
+      <c r="B176" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="53"/>
+      <c r="C176" s="79"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -12235,7 +12512,7 @@
       </c>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B177" s="41" t="s">
+      <c r="B177" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="11" t="s">
@@ -12288,7 +12565,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="43"/>
+      <c r="B178" s="71"/>
       <c r="C178" s="11" t="s">
         <v>22</v>
       </c>
@@ -12339,7 +12616,7 @@
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="42"/>
+      <c r="B179" s="67"/>
       <c r="C179" s="11" t="s">
         <v>25</v>
       </c>
@@ -12390,7 +12667,7 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B180" s="41" t="s">
+      <c r="B180" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -12443,7 +12720,7 @@
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="42"/>
+      <c r="B181" s="67"/>
       <c r="C181" s="9" t="s">
         <v>8</v>
       </c>
@@ -12868,37 +13145,37 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="50" t="s">
+      <c r="B192" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="54"/>
-      <c r="D192" s="38">
+      <c r="C192" s="77"/>
+      <c r="D192" s="72">
         <v>0.25</v>
       </c>
-      <c r="E192" s="39"/>
-      <c r="F192" s="39"/>
-      <c r="G192" s="39"/>
-      <c r="H192" s="39"/>
-      <c r="I192" s="38">
+      <c r="E192" s="73"/>
+      <c r="F192" s="73"/>
+      <c r="G192" s="73"/>
+      <c r="H192" s="73"/>
+      <c r="I192" s="72">
         <v>0.5</v>
       </c>
-      <c r="J192" s="39"/>
-      <c r="K192" s="39"/>
-      <c r="L192" s="39"/>
-      <c r="M192" s="39"/>
-      <c r="N192" s="38">
+      <c r="J192" s="73"/>
+      <c r="K192" s="73"/>
+      <c r="L192" s="73"/>
+      <c r="M192" s="73"/>
+      <c r="N192" s="72">
         <v>0.75</v>
       </c>
-      <c r="O192" s="39"/>
-      <c r="P192" s="39"/>
-      <c r="Q192" s="39"/>
-      <c r="R192" s="40"/>
+      <c r="O192" s="73"/>
+      <c r="P192" s="73"/>
+      <c r="Q192" s="73"/>
+      <c r="R192" s="74"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="50" t="s">
+      <c r="B193" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="51"/>
+      <c r="C193" s="76"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -12946,7 +13223,7 @@
       </c>
     </row>
     <row r="194" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B194" s="41" t="s">
+      <c r="B194" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="11" t="s">
@@ -12999,7 +13276,7 @@
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="42"/>
+      <c r="B195" s="67"/>
       <c r="C195" s="11" t="s">
         <v>8</v>
       </c>
@@ -13114,10 +13391,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="52" t="s">
+      <c r="B197" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="53"/>
+      <c r="C197" s="79"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -13165,7 +13442,7 @@
       </c>
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B198" s="41" t="s">
+      <c r="B198" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -13218,7 +13495,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="43"/>
+      <c r="B199" s="71"/>
       <c r="C199" s="11" t="s">
         <v>22</v>
       </c>
@@ -13269,7 +13546,7 @@
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="42"/>
+      <c r="B200" s="67"/>
       <c r="C200" s="11" t="s">
         <v>25</v>
       </c>
@@ -13320,7 +13597,7 @@
       </c>
     </row>
     <row r="201" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B201" s="41" t="s">
+      <c r="B201" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -13373,7 +13650,7 @@
       </c>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="42"/>
+      <c r="B202" s="67"/>
       <c r="C202" s="9" t="s">
         <v>8</v>
       </c>
@@ -13569,37 +13846,37 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="50" t="s">
+      <c r="B209" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="54"/>
-      <c r="D209" s="38">
+      <c r="C209" s="77"/>
+      <c r="D209" s="72">
         <v>0.25</v>
       </c>
-      <c r="E209" s="39"/>
-      <c r="F209" s="39"/>
-      <c r="G209" s="39"/>
-      <c r="H209" s="39"/>
-      <c r="I209" s="38">
+      <c r="E209" s="73"/>
+      <c r="F209" s="73"/>
+      <c r="G209" s="73"/>
+      <c r="H209" s="73"/>
+      <c r="I209" s="72">
         <v>0.5</v>
       </c>
-      <c r="J209" s="39"/>
-      <c r="K209" s="39"/>
-      <c r="L209" s="39"/>
-      <c r="M209" s="39"/>
-      <c r="N209" s="38">
+      <c r="J209" s="73"/>
+      <c r="K209" s="73"/>
+      <c r="L209" s="73"/>
+      <c r="M209" s="73"/>
+      <c r="N209" s="72">
         <v>0.75</v>
       </c>
-      <c r="O209" s="39"/>
-      <c r="P209" s="39"/>
-      <c r="Q209" s="39"/>
-      <c r="R209" s="40"/>
+      <c r="O209" s="73"/>
+      <c r="P209" s="73"/>
+      <c r="Q209" s="73"/>
+      <c r="R209" s="74"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="50" t="s">
+      <c r="B210" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="51"/>
+      <c r="C210" s="76"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -13647,7 +13924,7 @@
       </c>
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B211" s="41" t="s">
+      <c r="B211" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C211" s="11" t="s">
@@ -13700,7 +13977,7 @@
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="42"/>
+      <c r="B212" s="67"/>
       <c r="C212" s="11" t="s">
         <v>8</v>
       </c>
@@ -13815,10 +14092,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="52" t="s">
+      <c r="B214" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="53"/>
+      <c r="C214" s="79"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -13866,7 +14143,7 @@
       </c>
     </row>
     <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="41" t="s">
+      <c r="B215" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -13919,7 +14196,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="43"/>
+      <c r="B216" s="71"/>
       <c r="C216" s="11" t="s">
         <v>22</v>
       </c>
@@ -13970,7 +14247,7 @@
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="42"/>
+      <c r="B217" s="67"/>
       <c r="C217" s="11" t="s">
         <v>25</v>
       </c>
@@ -14021,7 +14298,7 @@
       </c>
     </row>
     <row r="218" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B218" s="41" t="s">
+      <c r="B218" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="11" t="s">
@@ -14074,7 +14351,7 @@
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="42"/>
+      <c r="B219" s="67"/>
       <c r="C219" s="9" t="s">
         <v>8</v>
       </c>
@@ -14372,6 +14649,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="N192:R192"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="I153:M153"/>
+    <mergeCell ref="N153:R153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="I192:M192"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="I171:M171"/>
+    <mergeCell ref="N171:R171"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="N136:R136"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="B5:C5"/>
@@ -14396,90 +14757,6 @@
     <mergeCell ref="N41:R41"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="N192:R192"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="I153:M153"/>
-    <mergeCell ref="N153:R153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="I192:M192"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="I171:M171"/>
-    <mergeCell ref="N171:R171"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="N136:R136"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14502,37 +14779,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="38">
+      <c r="C3" s="77"/>
+      <c r="D3" s="72">
         <v>0.25</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="72">
         <v>0.5</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="38">
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="72">
         <v>0.75</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="2">
         <v>40</v>
       </c>
@@ -14580,7 +14857,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -14633,7 +14910,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
@@ -14748,10 +15025,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -14799,7 +15076,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -14852,7 +15129,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
@@ -14903,7 +15180,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -14954,7 +15231,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -15007,7 +15284,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
@@ -15377,7 +15654,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="55">
+      <c r="D22" s="80">
         <v>0.25</v>
       </c>
       <c r="E22">
@@ -15412,7 +15689,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D23" s="55"/>
+      <c r="D23" s="80"/>
       <c r="E23">
         <v>80</v>
       </c>
@@ -15445,7 +15722,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D24" s="55"/>
+      <c r="D24" s="80"/>
       <c r="E24">
         <v>120</v>
       </c>
@@ -15478,7 +15755,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D25" s="55"/>
+      <c r="D25" s="80"/>
       <c r="E25">
         <v>160</v>
       </c>
@@ -15511,7 +15788,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D26" s="55"/>
+      <c r="D26" s="80"/>
       <c r="E26">
         <v>200</v>
       </c>
@@ -15544,7 +15821,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D27" s="55">
+      <c r="D27" s="80">
         <v>0.5</v>
       </c>
       <c r="E27">
@@ -15579,7 +15856,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D28" s="55">
+      <c r="D28" s="80">
         <v>0</v>
       </c>
       <c r="E28">
@@ -15614,7 +15891,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D29" s="55">
+      <c r="D29" s="80">
         <v>0</v>
       </c>
       <c r="E29">
@@ -15649,7 +15926,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="55">
+      <c r="D30" s="80">
         <v>0</v>
       </c>
       <c r="E30">
@@ -15684,7 +15961,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="55">
+      <c r="D31" s="80">
         <v>0</v>
       </c>
       <c r="E31">
@@ -15719,7 +15996,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="55">
+      <c r="D32" s="80">
         <v>0.75</v>
       </c>
       <c r="E32">
@@ -15754,7 +16031,7 @@
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="55">
+      <c r="D33" s="80">
         <v>0</v>
       </c>
       <c r="E33">
@@ -15789,7 +16066,7 @@
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="55">
+      <c r="D34" s="80">
         <v>0</v>
       </c>
       <c r="E34">
@@ -15824,7 +16101,7 @@
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="55">
+      <c r="D35" s="80">
         <v>0</v>
       </c>
       <c r="E35">
@@ -15859,7 +16136,7 @@
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="55">
+      <c r="D36" s="80">
         <v>0</v>
       </c>
       <c r="E36">
@@ -16491,18 +16768,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435F824-FA0A-4D95-B7C7-68E40BE3373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956032B7-D9FC-4E16-808A-D22282BA3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="60" windowWidth="21585" windowHeight="15015" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="285" yWindow="60" windowWidth="28200" windowHeight="15015" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="profits_costs" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="60">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,19 +621,24 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,33 +650,27 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
-  <dimension ref="A2:AK139"/>
+  <dimension ref="A2:AK156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1005,470 +1004,449 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C3" s="36"/>
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="3:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C4" s="36"/>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E4" s="65">
         <v>0.25</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="72">
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="65">
         <v>0.5</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="72">
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="65">
         <v>0.75</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="74"/>
-      <c r="U3" s="4">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="67"/>
+      <c r="U4" s="4">
         <v>15.62936</v>
       </c>
-      <c r="W3" s="4" cm="1">
-        <f t="array" ref="W3:AK3">TRANSPOSE(U3:U17)</f>
+      <c r="W4" s="4" cm="1">
+        <f t="array" ref="W4:AK4">TRANSPOSE(U4:U18)</f>
         <v>15.62936</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X4" s="4">
         <v>30.492319999999999</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y4" s="4">
         <v>46.382959999999997</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z4" s="4">
         <v>60.983919999999898</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA4" s="4">
         <v>75.603039999999993</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB4" s="4">
         <v>38.830959999999997</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC4" s="4">
         <v>75.609519999999904</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD4" s="4">
         <v>113.36031999999901</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE4" s="4">
         <v>151.37464</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF4" s="4">
         <v>190.79535999999999</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG4" s="4">
         <v>60.949759999999898</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH4" s="4">
         <v>122.58591999999901</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI4" s="4">
         <v>183.9872</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ4" s="4">
         <v>245.44408000000001</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK4" s="4">
         <v>309.37247999999897</v>
       </c>
     </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C4" s="37"/>
-      <c r="D4" s="9" t="s">
+    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C5" s="37"/>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>80</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>120</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="1">
         <v>160</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <v>200</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>40</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K5" s="1">
         <v>80</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L5" s="1">
         <v>120</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M5" s="1">
         <v>160</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N5" s="1">
         <v>200</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O5" s="2">
         <v>40</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P5" s="1">
         <v>80</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q5" s="1">
         <v>120</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R5" s="1">
         <v>160</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S5" s="3">
         <v>200</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U5" s="4">
         <v>30.492319999999999</v>
       </c>
     </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C5" s="68" t="s">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C6" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E6" s="43">
         <v>64.028400000000005</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F6" s="44">
         <v>141.06679999999901</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G6" s="44">
         <v>186.85999999999899</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H6" s="44">
         <v>251.23320000000001</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I6" s="45">
         <v>327.44159999999999</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J6" s="43">
         <v>47.075200000000002</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K6" s="44">
         <v>91.964799999999997</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L6" s="44">
         <v>141.06679999999901</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M6" s="44">
         <v>172.738799999999</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N6" s="45">
         <v>203.89079999999899</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O6" s="43">
         <v>26.415599999999898</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P6" s="44">
         <v>47.075200000000002</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q6" s="44">
         <v>64.028400000000005</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R6" s="44">
         <v>91.964799999999997</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S6" s="45">
         <v>112.9804</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U6" s="4">
         <v>46.382959999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C6" s="69"/>
-      <c r="D6" s="38" t="s">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C7" s="72"/>
+      <c r="D7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E7" s="54">
         <v>9.2276000000000007</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F7" s="55">
         <v>15.272</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G7" s="55">
         <v>28.0044</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H7" s="55">
         <v>40.825200000000002</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I7" s="56">
         <v>52.861999999999902</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J7" s="54">
         <v>15.272</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K7" s="55">
         <v>40.825200000000002</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L7" s="55">
         <v>60.845999999999997</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M7" s="55">
         <v>84.105999999999995</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N7" s="56">
         <v>105.3164</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O7" s="54">
         <v>28.0044</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P7" s="55">
         <v>60.845999999999997</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q7" s="55">
         <v>92.436000000000007</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R7" s="55">
         <v>125.4744</v>
       </c>
-      <c r="S6" s="56">
+      <c r="S7" s="56">
         <v>152.19</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U7" s="4">
         <v>60.983919999999898</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C7" s="69"/>
-      <c r="D7" s="38" t="s">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C8" s="72"/>
+      <c r="D8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E8" s="39">
         <v>21.230319999999999</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F8" s="40">
         <v>43.512160000000002</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G8" s="40">
         <v>63.7107999999999</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H8" s="40">
         <v>84.554639999999907</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I8" s="41">
         <v>105.90479999999999</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J8" s="39">
         <v>43.512160000000002</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K8" s="40">
         <v>84.554639999999907</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L8" s="40">
         <v>127.390639999999</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M8" s="40">
         <v>168.5616</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N8" s="41">
         <v>211.2808</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O8" s="39">
         <v>63.7107999999999</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P8" s="40">
         <v>127.390639999999</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q8" s="40">
         <v>190.24744000000001</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R8" s="40">
         <v>254.55936</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S8" s="41">
         <v>320.82015999999999</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U8" s="4">
         <v>75.603039999999993</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C8" s="69"/>
-      <c r="D8" s="53" t="s">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C9" s="72"/>
+      <c r="D9" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="39">
-        <f>E7-E6</f>
+      <c r="E9" s="39">
+        <f>E8-E7</f>
         <v>12.002719999999998</v>
       </c>
-      <c r="F8" s="40">
-        <f t="shared" ref="F8:S8" si="0">F7-F6</f>
+      <c r="F9" s="40">
+        <f t="shared" ref="F9:S9" si="0">F8-F7</f>
         <v>28.240160000000003</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G9" s="40">
         <f t="shared" si="0"/>
         <v>35.706399999999903</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H9" s="40">
         <f t="shared" si="0"/>
         <v>43.729439999999904</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I9" s="40">
         <f t="shared" si="0"/>
         <v>53.042800000000092</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J9" s="39">
         <f t="shared" si="0"/>
         <v>28.240160000000003</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K9" s="40">
         <f t="shared" si="0"/>
         <v>43.729439999999904</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L9" s="40">
         <f t="shared" si="0"/>
         <v>66.544639999998992</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M9" s="40">
         <f t="shared" si="0"/>
         <v>84.455600000000004</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N9" s="40">
         <f t="shared" si="0"/>
         <v>105.9644</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O9" s="39">
         <f t="shared" si="0"/>
         <v>35.706399999999903</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P9" s="40">
         <f t="shared" si="0"/>
         <v>66.544639999998992</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q9" s="40">
         <f t="shared" si="0"/>
         <v>97.811440000000005</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R9" s="40">
         <f t="shared" si="0"/>
         <v>129.08496</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S9" s="41">
         <f t="shared" si="0"/>
         <v>168.63015999999999</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="4">
         <v>38.830959999999997</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C9" s="69"/>
-      <c r="D9" s="49" t="s">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C10" s="72"/>
+      <c r="D10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="57">
-        <f>E8-E5</f>
+      <c r="E10" s="57">
+        <f>E9-E6</f>
         <v>-52.025680000000008</v>
       </c>
-      <c r="F9" s="58">
-        <f t="shared" ref="F9:S9" si="1">F8-F5</f>
+      <c r="F10" s="58">
+        <f t="shared" ref="F10:S10" si="1">F9-F6</f>
         <v>-112.826639999999</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G10" s="58">
         <f t="shared" si="1"/>
         <v>-151.15359999999907</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H10" s="58">
         <f t="shared" si="1"/>
         <v>-207.50376000000011</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I10" s="58">
         <f t="shared" si="1"/>
         <v>-274.39879999999988</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J10" s="57">
         <f t="shared" si="1"/>
         <v>-18.835039999999999</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K10" s="58">
         <f t="shared" si="1"/>
         <v>-48.235360000000092</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L10" s="58">
         <f t="shared" si="1"/>
         <v>-74.522160000000014</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M10" s="58">
         <f t="shared" si="1"/>
         <v>-88.283199999998999</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N10" s="58">
         <f t="shared" si="1"/>
         <v>-97.926399999998992</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O10" s="57">
         <f t="shared" si="1"/>
         <v>9.2908000000000044</v>
       </c>
-      <c r="P9" s="58">
+      <c r="P10" s="58">
         <f t="shared" si="1"/>
         <v>19.46943999999899</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q10" s="58">
         <f t="shared" si="1"/>
         <v>33.78304</v>
       </c>
-      <c r="R9" s="58">
+      <c r="R10" s="58">
         <f t="shared" si="1"/>
         <v>37.120159999999998</v>
       </c>
-      <c r="S9" s="59">
+      <c r="S10" s="59">
         <f t="shared" si="1"/>
         <v>55.649759999999986</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U10" s="4">
         <v>75.609519999999904</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C10" s="68" t="s">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C11" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="48"/>
-      <c r="U10" s="4">
-        <v>113.36031999999901</v>
-      </c>
-    </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C11" s="69"/>
-      <c r="D11" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -1484,61 +1462,61 @@
       <c r="R11" s="47"/>
       <c r="S11" s="48"/>
       <c r="U11" s="4">
+        <v>113.36031999999901</v>
+      </c>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C12" s="72"/>
+      <c r="D12" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="48"/>
+      <c r="U12" s="4">
         <v>151.37464</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C12" s="69"/>
-      <c r="D12" s="42" t="s">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C13" s="72"/>
+      <c r="D13" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="U12" s="4">
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
+      <c r="U13" s="4">
         <v>190.79535999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C13" s="69"/>
-      <c r="D13" s="60" t="s">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C14" s="72"/>
+      <c r="D14" s="60" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-      <c r="U13" s="4">
-        <v>60.949759999999898</v>
-      </c>
-    </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C14" s="69"/>
-      <c r="D14" s="38" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -1556,13 +1534,13 @@
       <c r="R14" s="40"/>
       <c r="S14" s="41"/>
       <c r="U14" s="4">
-        <v>122.58591999999901</v>
+        <v>60.949759999999898</v>
       </c>
     </row>
     <row r="15" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -1580,13 +1558,13 @@
       <c r="R15" s="40"/>
       <c r="S15" s="41"/>
       <c r="U15" s="4">
-        <v>183.9872</v>
+        <v>122.58591999999901</v>
       </c>
     </row>
     <row r="16" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C16" s="69"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -1604,1625 +1582,1525 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
       <c r="U16" s="4">
+        <v>183.9872</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C17" s="72"/>
+      <c r="D17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
+      <c r="U17" s="4">
         <v>245.44408000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C17" s="69"/>
-      <c r="D17" s="49" t="s">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C18" s="72"/>
+      <c r="D18" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="51"/>
-      <c r="U17" s="4">
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
+      <c r="U18" s="4">
         <v>309.37247999999897</v>
       </c>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C18" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="42" t="s">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C19" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E19" s="46">
         <v>19.8182169236206</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F19" s="47">
         <v>44.798302520644398</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G19" s="47">
         <v>57.5840726951375</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H19" s="47">
         <v>74.476214545191496</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I19" s="48">
         <v>94.312016626769505</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J19" s="46">
         <v>16.116722760872801</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K19" s="47">
         <v>28.248184602280102</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L19" s="47">
         <v>42.420283845068099</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M19" s="47">
         <v>51.952424011454099</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N19" s="48">
         <v>60.347907095322697</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O19" s="46">
         <v>9.1629079402572504</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P19" s="47">
         <v>14.590239634923201</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q19" s="47">
         <v>18.746561408599302</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R19" s="47">
         <v>26.658866322169199</v>
       </c>
-      <c r="S18" s="48">
+      <c r="S19" s="48">
         <v>32.747108756480401</v>
       </c>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C19" s="69"/>
-      <c r="D19" s="42" t="s">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C20" s="72"/>
+      <c r="D20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E20" s="47">
         <v>36.023600000000002</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F20" s="47">
         <v>75.967599999999905</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G20" s="47">
         <v>100.220799999999</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H20" s="47">
         <v>133.37959999999899</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I20" s="48">
         <v>175.93279999999999</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J20" s="46">
         <v>23.6692</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K20" s="47">
         <v>47.239199999999897</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L20" s="47">
         <v>70.915199999999899</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M20" s="47">
         <v>86.803999999999903</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N20" s="48">
         <v>101.463599999999</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O20" s="46">
         <v>12.610399999999901</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P20" s="47">
         <v>23.051600000000001</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q20" s="47">
         <v>32.727200000000003</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R20" s="47">
         <v>46.388399999999898</v>
       </c>
-      <c r="S19" s="48">
+      <c r="S20" s="48">
         <v>55.741999999999997</v>
       </c>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C20" s="69"/>
-      <c r="D20" s="42" t="s">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C21" s="72"/>
+      <c r="D21" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="61">
-        <f>SUM(E18:E19)</f>
+      <c r="E21" s="61">
+        <f>SUM(E19:E20)</f>
         <v>55.841816923620598</v>
       </c>
-      <c r="F20" s="61">
-        <f t="shared" ref="F20" si="2">SUM(F18:F19)</f>
+      <c r="F21" s="61">
+        <f t="shared" ref="F21" si="2">SUM(F19:F20)</f>
         <v>120.7659025206443</v>
       </c>
-      <c r="G20" s="61">
-        <f t="shared" ref="G20" si="3">SUM(G18:G19)</f>
+      <c r="G21" s="61">
+        <f t="shared" ref="G21" si="3">SUM(G19:G20)</f>
         <v>157.80487269513651</v>
       </c>
-      <c r="H20" s="61">
-        <f t="shared" ref="H20" si="4">SUM(H18:H19)</f>
+      <c r="H21" s="61">
+        <f t="shared" ref="H21" si="4">SUM(H19:H20)</f>
         <v>207.85581454519047</v>
       </c>
-      <c r="I20" s="62">
-        <f t="shared" ref="I20" si="5">SUM(I18:I19)</f>
+      <c r="I21" s="62">
+        <f t="shared" ref="I21" si="5">SUM(I19:I20)</f>
         <v>270.24481662676948</v>
       </c>
-      <c r="J20" s="61">
-        <f t="shared" ref="J20" si="6">SUM(J18:J19)</f>
+      <c r="J21" s="61">
+        <f t="shared" ref="J21" si="6">SUM(J19:J20)</f>
         <v>39.785922760872801</v>
       </c>
-      <c r="K20" s="61">
-        <f t="shared" ref="K20" si="7">SUM(K18:K19)</f>
+      <c r="K21" s="61">
+        <f t="shared" ref="K21" si="7">SUM(K19:K20)</f>
         <v>75.487384602280002</v>
       </c>
-      <c r="L20" s="61">
-        <f t="shared" ref="L20" si="8">SUM(L18:L19)</f>
+      <c r="L21" s="61">
+        <f t="shared" ref="L21" si="8">SUM(L19:L20)</f>
         <v>113.335483845068</v>
       </c>
-      <c r="M20" s="61">
-        <f t="shared" ref="M20" si="9">SUM(M18:M19)</f>
+      <c r="M21" s="61">
+        <f t="shared" ref="M21" si="9">SUM(M19:M20)</f>
         <v>138.75642401145399</v>
       </c>
-      <c r="N20" s="62">
-        <f t="shared" ref="N20" si="10">SUM(N18:N19)</f>
+      <c r="N21" s="62">
+        <f t="shared" ref="N21" si="10">SUM(N19:N20)</f>
         <v>161.8115070953217</v>
       </c>
-      <c r="O20" s="61">
-        <f t="shared" ref="O20" si="11">SUM(O18:O19)</f>
+      <c r="O21" s="61">
+        <f t="shared" ref="O21" si="11">SUM(O19:O20)</f>
         <v>21.773307940257151</v>
       </c>
-      <c r="P20" s="61">
-        <f t="shared" ref="P20" si="12">SUM(P18:P19)</f>
+      <c r="P21" s="61">
+        <f t="shared" ref="P21" si="12">SUM(P19:P20)</f>
         <v>37.641839634923201</v>
       </c>
-      <c r="Q20" s="61">
-        <f t="shared" ref="Q20" si="13">SUM(Q18:Q19)</f>
+      <c r="Q21" s="61">
+        <f t="shared" ref="Q21" si="13">SUM(Q19:Q20)</f>
         <v>51.473761408599302</v>
       </c>
-      <c r="R20" s="61">
-        <f t="shared" ref="R20" si="14">SUM(R18:R19)</f>
+      <c r="R21" s="61">
+        <f t="shared" ref="R21" si="14">SUM(R19:R20)</f>
         <v>73.047266322169094</v>
       </c>
-      <c r="S20" s="62">
-        <f t="shared" ref="S20" si="15">SUM(S18:S19)</f>
+      <c r="S21" s="62">
+        <f t="shared" ref="S21" si="15">SUM(S19:S20)</f>
         <v>88.489108756480391</v>
       </c>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C21" s="69"/>
-      <c r="D21" s="38" t="s">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C22" s="72"/>
+      <c r="D22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E22" s="39">
         <v>9.2276000000000007</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F22" s="40">
         <v>15.272</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G22" s="40">
         <v>28.0044</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H22" s="40">
         <v>40.825200000000002</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I22" s="41">
         <v>52.861999999999902</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J22" s="39">
         <v>15.272</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K22" s="40">
         <v>40.825200000000002</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L22" s="40">
         <v>60.845999999999997</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M22" s="40">
         <v>84.105999999999995</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N22" s="41">
         <v>105.3164</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O22" s="39">
         <v>28.0044</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P22" s="40">
         <v>60.845999999999997</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q22" s="40">
         <v>92.436000000000007</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R22" s="40">
         <v>125.4744</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S22" s="41">
         <v>152.19</v>
       </c>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C22" s="69"/>
-      <c r="D22" s="38" t="s">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C23" s="72"/>
+      <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E23" s="39">
         <v>19.8182169236206</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F23" s="40">
         <v>44.798302520644398</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G23" s="40">
         <v>57.5840726951375</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H23" s="40">
         <v>74.476214545191496</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I23" s="41">
         <v>94.312016626769505</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J23" s="39">
         <v>16.116722760872801</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K23" s="40">
         <v>28.248184602280102</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L23" s="40">
         <v>42.420283845068099</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M23" s="40">
         <v>51.952424011454099</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N23" s="41">
         <v>60.347907095322697</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O23" s="39">
         <v>9.1629079402572504</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P23" s="40">
         <v>14.590239634923201</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q23" s="40">
         <v>18.746561408599302</v>
       </c>
-      <c r="R22" s="40">
+      <c r="R23" s="40">
         <v>26.658866322169199</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S23" s="41">
         <v>32.747108756480401</v>
       </c>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C23" s="69"/>
-      <c r="D23" s="38" t="s">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C24" s="72"/>
+      <c r="D24" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E24" s="39">
         <v>15.62936</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F24" s="40">
         <v>30.492319999999999</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G24" s="40">
         <v>46.382959999999997</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H24" s="40">
         <v>60.983919999999898</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I24" s="41">
         <v>75.603039999999993</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J24" s="39">
         <v>38.830959999999997</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K24" s="40">
         <v>75.609519999999904</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L24" s="40">
         <v>113.36031999999901</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M24" s="40">
         <v>151.37464</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N24" s="41">
         <v>190.79535999999999</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O24" s="39">
         <v>60.949759999999898</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P24" s="40">
         <v>122.58591999999901</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q24" s="40">
         <v>183.9872</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R24" s="40">
         <v>245.44408000000001</v>
       </c>
-      <c r="S23" s="41">
+      <c r="S24" s="41">
         <v>309.37247999999897</v>
       </c>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C24" s="69"/>
-      <c r="D24" s="81" t="s">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C25" s="72"/>
+      <c r="D25" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="39">
-        <f>E23+E22-E21</f>
+      <c r="E25" s="39">
+        <f>E24+E23-E22</f>
         <v>26.2199769236206</v>
       </c>
-      <c r="F24" s="82">
-        <f t="shared" ref="F24:S24" si="16">F23+F22-F21</f>
+      <c r="F25" s="40">
+        <f t="shared" ref="F25:S25" si="16">F24+F23-F22</f>
         <v>60.018622520644406</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G25" s="40">
         <f t="shared" si="16"/>
         <v>75.962632695137501</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H25" s="40">
         <f t="shared" si="16"/>
         <v>94.634934545191413</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I25" s="40">
         <f t="shared" si="16"/>
         <v>117.0530566267696</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J25" s="39">
         <f t="shared" si="16"/>
         <v>39.675682760872796</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K25" s="40">
         <f t="shared" si="16"/>
         <v>63.032504602280007</v>
       </c>
-      <c r="L24" s="82">
+      <c r="L25" s="40">
         <f t="shared" si="16"/>
         <v>94.934603845067102</v>
       </c>
-      <c r="M24" s="82">
+      <c r="M25" s="40">
         <f t="shared" si="16"/>
         <v>119.2210640114541</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N25" s="41">
         <f t="shared" si="16"/>
         <v>145.82686709532271</v>
       </c>
-      <c r="O24" s="82">
+      <c r="O25" s="40">
         <f t="shared" si="16"/>
         <v>42.10826794025715</v>
       </c>
-      <c r="P24" s="82">
+      <c r="P25" s="40">
         <f t="shared" si="16"/>
         <v>76.330159634922211</v>
       </c>
-      <c r="Q24" s="82">
+      <c r="Q25" s="40">
         <f t="shared" si="16"/>
         <v>110.29776140859929</v>
       </c>
-      <c r="R24" s="82">
+      <c r="R25" s="40">
         <f t="shared" si="16"/>
         <v>146.6285463221692</v>
       </c>
-      <c r="S24" s="41">
+      <c r="S25" s="41">
         <f t="shared" si="16"/>
         <v>189.9295887564794</v>
       </c>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C25" s="70"/>
-      <c r="D25" s="83" t="s">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C26" s="73"/>
+      <c r="D26" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="57">
-        <f>E24-E20</f>
+      <c r="E26" s="57">
+        <f>E25-E21</f>
         <v>-29.621839999999999</v>
       </c>
-      <c r="F25" s="58">
-        <f t="shared" ref="F25:S25" si="17">F24-F20</f>
+      <c r="F26" s="58">
+        <f t="shared" ref="F26:S26" si="17">F25-F21</f>
         <v>-60.747279999999897</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G26" s="58">
         <f t="shared" si="17"/>
         <v>-81.842239999999009</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H26" s="58">
         <f t="shared" si="17"/>
         <v>-113.22087999999906</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I26" s="59">
         <f t="shared" si="17"/>
         <v>-153.19175999999987</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J26" s="58">
         <f t="shared" si="17"/>
         <v>-0.11024000000000456</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K26" s="58">
         <f t="shared" si="17"/>
         <v>-12.454879999999996</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L26" s="58">
         <f t="shared" si="17"/>
         <v>-18.400880000000896</v>
       </c>
-      <c r="M25" s="58">
+      <c r="M26" s="58">
         <f t="shared" si="17"/>
         <v>-19.535359999999883</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N26" s="59">
         <f t="shared" si="17"/>
         <v>-15.98463999999899</v>
       </c>
-      <c r="O25" s="58">
+      <c r="O26" s="58">
         <f t="shared" si="17"/>
         <v>20.334959999999999</v>
       </c>
-      <c r="P25" s="58">
+      <c r="P26" s="58">
         <f t="shared" si="17"/>
         <v>38.68831999999901</v>
       </c>
-      <c r="Q25" s="58">
+      <c r="Q26" s="58">
         <f t="shared" si="17"/>
         <v>58.823999999999984</v>
       </c>
-      <c r="R25" s="58">
+      <c r="R26" s="58">
         <f t="shared" si="17"/>
         <v>73.581280000000106</v>
       </c>
-      <c r="S25" s="59">
+      <c r="S26" s="59">
         <f t="shared" si="17"/>
         <v>101.44047999999901</v>
       </c>
     </row>
-    <row r="29" spans="3:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+    <row r="30" spans="3:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C32" s="36"/>
+      <c r="D32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="72">
+      <c r="E32" s="65">
         <v>0.25</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="72">
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="65">
         <v>0.5</v>
       </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="72">
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="65">
         <v>0.75</v>
       </c>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="74"/>
-      <c r="U31" s="4">
-        <v>19.9031494405743</v>
-      </c>
-      <c r="W31" s="4" cm="1">
-        <f t="array" ref="W31:AK31">TRANSPOSE(U31:U45)</f>
-        <v>19.9031494405743</v>
-      </c>
-      <c r="X31" s="4">
-        <v>46.439450326183</v>
-      </c>
-      <c r="Y31" s="4">
-        <v>60.432492848047303</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>77.024386887912101</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>95.749359427952399</v>
-      </c>
-      <c r="AB31" s="4">
-        <v>35.089276890691799</v>
-      </c>
-      <c r="AC31" s="4">
-        <v>57.337500523445001</v>
-      </c>
-      <c r="AD31" s="4">
-        <v>87.461851631575996</v>
-      </c>
-      <c r="AE31" s="4">
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="67"/>
+      <c r="U32" s="4">
+        <v>15.62936</v>
+      </c>
+      <c r="W32" s="4" cm="1">
+        <f t="array" ref="W32:AK32">TRANSPOSE(U32:U46)</f>
+        <v>15.62936</v>
+      </c>
+      <c r="X32" s="4">
+        <v>30.492319999999999</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>46.382959999999997</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>60.983919999999898</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>75.603039999999993</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>38.830959999999997</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>75.609519999999904</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>113.36031999999901</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>151.37464</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>190.79535999999999</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>60.949759999999898</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>122.58591999999901</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>183.9872</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>245.44408000000001</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>309.37247999999897</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="37"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1">
+        <v>80</v>
+      </c>
+      <c r="G33" s="1">
+        <v>120</v>
+      </c>
+      <c r="H33" s="1">
+        <v>160</v>
+      </c>
+      <c r="I33" s="1">
+        <v>200</v>
+      </c>
+      <c r="J33" s="2">
+        <v>40</v>
+      </c>
+      <c r="K33" s="1">
+        <v>80</v>
+      </c>
+      <c r="L33" s="1">
+        <v>120</v>
+      </c>
+      <c r="M33" s="1">
+        <v>160</v>
+      </c>
+      <c r="N33" s="1">
+        <v>200</v>
+      </c>
+      <c r="O33" s="2">
+        <v>40</v>
+      </c>
+      <c r="P33" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>120</v>
+      </c>
+      <c r="R33" s="1">
+        <v>160</v>
+      </c>
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="4">
+        <v>30.492319999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="45"/>
+      <c r="U34" s="4">
+        <v>46.382959999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="72"/>
+      <c r="D35" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
+      <c r="U35" s="4">
+        <v>60.983919999999898</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="72"/>
+      <c r="D36" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="41"/>
+      <c r="U36" s="4">
+        <v>75.603039999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="72"/>
+      <c r="D37" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="41"/>
+      <c r="U37" s="4">
+        <v>38.830959999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="72"/>
+      <c r="D38" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="59"/>
+      <c r="U38" s="4">
+        <v>75.609519999999904</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="U39" s="4">
+        <v>113.36031999999901</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="72"/>
+      <c r="D40" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="48"/>
+      <c r="U40" s="4">
+        <v>151.37464</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="72"/>
+      <c r="D41" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="62"/>
+      <c r="U41" s="4">
+        <v>190.79535999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="72"/>
+      <c r="D42" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="41"/>
+      <c r="U42" s="4">
+        <v>60.949759999999898</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="72"/>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="41"/>
+      <c r="U43" s="4">
+        <v>122.58591999999901</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="72"/>
+      <c r="D44" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="41"/>
+      <c r="U44" s="4">
+        <v>183.9872</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="72"/>
+      <c r="D45" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="41"/>
+      <c r="U45" s="4">
+        <v>245.44408000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="72"/>
+      <c r="D46" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="51"/>
+      <c r="U46" s="4">
+        <v>309.37247999999897</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="48"/>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="72"/>
+      <c r="D48" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C49" s="72"/>
+      <c r="D49" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="62"/>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C50" s="72"/>
+      <c r="D50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="41"/>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C51" s="72"/>
+      <c r="D51" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="41"/>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C52" s="72"/>
+      <c r="D52" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="41"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C53" s="72"/>
+      <c r="D53" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="41"/>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C54" s="73"/>
+      <c r="D54" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58"/>
+      <c r="S54" s="59"/>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U55" s="4">
         <v>110.576998467123</v>
       </c>
-      <c r="AF31" s="4">
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U56" s="4">
         <v>136.800016920974</v>
       </c>
-      <c r="AG31" s="4">
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C57" s="21"/>
+      <c r="U57" s="4">
         <v>40.905893508044798</v>
       </c>
-      <c r="AH31" s="4">
+    </row>
+    <row r="58" spans="3:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U58" s="4">
         <v>75.286865310576005</v>
       </c>
-      <c r="AI31" s="4">
+    </row>
+    <row r="59" spans="3:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="67"/>
+      <c r="U60" s="4">
         <v>109.102090852781</v>
       </c>
-      <c r="AJ31" s="4">
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="2">
+        <v>40</v>
+      </c>
+      <c r="F61" s="1">
+        <v>80</v>
+      </c>
+      <c r="G61" s="1">
+        <v>120</v>
+      </c>
+      <c r="H61" s="1">
+        <v>160</v>
+      </c>
+      <c r="I61" s="1">
+        <v>200</v>
+      </c>
+      <c r="J61" s="2">
+        <v>40</v>
+      </c>
+      <c r="K61" s="1">
+        <v>80</v>
+      </c>
+      <c r="L61" s="1">
+        <v>120</v>
+      </c>
+      <c r="M61" s="1">
+        <v>160</v>
+      </c>
+      <c r="N61" s="1">
+        <v>200</v>
+      </c>
+      <c r="O61" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>120</v>
+      </c>
+      <c r="R61" s="1">
+        <v>160</v>
+      </c>
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="4">
         <v>145.221882917588</v>
       </c>
-      <c r="AK31" s="4">
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C62" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-39.501679999999901</v>
+      </c>
+      <c r="F62" s="6">
+        <v>-67.047039999999996</v>
+      </c>
+      <c r="G62" s="6">
+        <v>-116.94687999999999</v>
+      </c>
+      <c r="H62" s="6">
+        <v>-138.19551999999999</v>
+      </c>
+      <c r="I62" s="7">
+        <v>-171.47631999999999</v>
+      </c>
+      <c r="J62" s="5">
+        <v>-67.047039999999996</v>
+      </c>
+      <c r="K62" s="6">
+        <v>-138.19551999999999</v>
+      </c>
+      <c r="L62" s="6">
+        <v>-205.56048000000001</v>
+      </c>
+      <c r="M62" s="6">
+        <v>-288.45175999999901</v>
+      </c>
+      <c r="N62" s="7">
+        <v>-359.64199999999897</v>
+      </c>
+      <c r="O62" s="5">
+        <v>-116.94687999999999</v>
+      </c>
+      <c r="P62" s="6">
+        <v>-205.56048000000001</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>-318.34607999999901</v>
+      </c>
+      <c r="R62" s="6">
+        <v>-424.31671999999799</v>
+      </c>
+      <c r="S62" s="7">
+        <v>-527.28583999999796</v>
+      </c>
+      <c r="U62" s="4">
         <v>189.311366370169</v>
       </c>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C32" s="9" t="s">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C63" s="69"/>
+      <c r="D63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="12">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="F63" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="G63" s="13">
+        <v>303.19439999999997</v>
+      </c>
+      <c r="H63" s="13">
+        <v>405.10919999999999</v>
+      </c>
+      <c r="I63" s="14">
+        <v>538.44199999999898</v>
+      </c>
+      <c r="J63" s="12">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="K63" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="L63" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="M63" s="13">
+        <v>277.55759999999901</v>
+      </c>
+      <c r="N63" s="14">
+        <v>338.86160000000001</v>
+      </c>
+      <c r="O63" s="12">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="P63" s="13">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="R63" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="S63" s="14">
+        <v>178.93799999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C64" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C65" s="69"/>
+      <c r="D65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="14"/>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C66" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="7"/>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C67" s="69"/>
+      <c r="D67" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="14"/>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C71" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C73" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="67"/>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C74" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="2">
+      <c r="D74" s="24"/>
+      <c r="E74" s="2">
         <v>40</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F74" s="1">
         <v>80</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G74" s="1">
         <v>120</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H74" s="1">
         <v>160</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I74" s="1">
         <v>200</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J74" s="2">
         <v>40</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K74" s="1">
         <v>80</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L74" s="1">
         <v>120</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M74" s="1">
         <v>160</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N74" s="1">
         <v>200</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O74" s="2">
         <v>40</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P74" s="1">
         <v>80</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q74" s="1">
         <v>120</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R74" s="1">
         <v>160</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S74" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="4">
-        <v>46.439450326183</v>
-      </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="66" t="s">
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C75" s="68" t="s">
         <v>6</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5">
-        <v>213.979399882552</v>
-      </c>
-      <c r="F33" s="6">
-        <v>467.24764750055198</v>
-      </c>
-      <c r="G33" s="6">
-        <v>694.50676269174403</v>
-      </c>
-      <c r="H33" s="6">
-        <v>947.15376239309001</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1137.0875268699399</v>
-      </c>
-      <c r="J33" s="5">
-        <v>690.845741729427</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1337.02888996774</v>
-      </c>
-      <c r="L33" s="6">
-        <v>2035.15682670263</v>
-      </c>
-      <c r="M33" s="6">
-        <v>2722.2423740374002</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3423.3155817535799</v>
-      </c>
-      <c r="O33" s="5">
-        <v>1076.05001851051</v>
-      </c>
-      <c r="P33" s="6">
-        <v>2182.2545383342199</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>3276.3411864923301</v>
-      </c>
-      <c r="R33" s="6">
-        <v>4353.8029712139996</v>
-      </c>
-      <c r="S33" s="7">
-        <v>5477.8931966463097</v>
-      </c>
-      <c r="U33" s="4">
-        <v>60.432492848047303</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="67"/>
-      <c r="D34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="12">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="F34" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="G34" s="13">
-        <v>186.85999999999899</v>
-      </c>
-      <c r="H34" s="13">
-        <v>251.23320000000001</v>
-      </c>
-      <c r="I34" s="14">
-        <v>327.44159999999999</v>
-      </c>
-      <c r="J34" s="12">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="K34" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="L34" s="13">
-        <v>141.06679999999901</v>
-      </c>
-      <c r="M34" s="13">
-        <v>172.738799999999</v>
-      </c>
-      <c r="N34" s="14">
-        <v>203.89079999999899</v>
-      </c>
-      <c r="O34" s="12">
-        <v>26.415599999999898</v>
-      </c>
-      <c r="P34" s="13">
-        <v>47.075200000000002</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>64.028400000000005</v>
-      </c>
-      <c r="R34" s="13">
-        <v>91.964799999999997</v>
-      </c>
-      <c r="S34" s="14">
-        <v>112.9804</v>
-      </c>
-      <c r="U34" s="4">
-        <v>77.024386887912101</v>
-      </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="7"/>
-      <c r="U35" s="4">
-        <v>95.749359427952399</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="67"/>
-      <c r="D36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="14"/>
-      <c r="U36" s="4">
-        <v>35.089276890691799</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="7"/>
-      <c r="U37" s="4">
-        <v>57.337500523445001</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="67"/>
-      <c r="D38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="14"/>
-      <c r="U38" s="4">
-        <v>87.461851631575996</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U39" s="4">
-        <v>110.576998467123</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U40" s="4">
-        <v>136.800016920974</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="21"/>
-      <c r="U41" s="4">
-        <v>40.905893508044798</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="C42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U42" s="4">
-        <v>75.286865310576005</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="74"/>
-      <c r="U43" s="4">
-        <v>109.102090852781</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="2">
-        <v>40</v>
-      </c>
-      <c r="F44" s="1">
-        <v>80</v>
-      </c>
-      <c r="G44" s="1">
-        <v>120</v>
-      </c>
-      <c r="H44" s="1">
-        <v>160</v>
-      </c>
-      <c r="I44" s="1">
-        <v>200</v>
-      </c>
-      <c r="J44" s="2">
-        <v>40</v>
-      </c>
-      <c r="K44" s="1">
-        <v>80</v>
-      </c>
-      <c r="L44" s="1">
-        <v>120</v>
-      </c>
-      <c r="M44" s="1">
-        <v>160</v>
-      </c>
-      <c r="N44" s="1">
-        <v>200</v>
-      </c>
-      <c r="O44" s="2">
-        <v>40</v>
-      </c>
-      <c r="P44" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>120</v>
-      </c>
-      <c r="R44" s="1">
-        <v>160</v>
-      </c>
-      <c r="S44" s="3">
-        <v>200</v>
-      </c>
-      <c r="U44" s="4">
-        <v>145.221882917588</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5">
-        <v>-39.501679999999901</v>
-      </c>
-      <c r="F45" s="6">
-        <v>-67.047039999999996</v>
-      </c>
-      <c r="G45" s="6">
-        <v>-116.94687999999999</v>
-      </c>
-      <c r="H45" s="6">
-        <v>-138.19551999999999</v>
-      </c>
-      <c r="I45" s="7">
-        <v>-171.47631999999999</v>
-      </c>
-      <c r="J45" s="5">
-        <v>-67.047039999999996</v>
-      </c>
-      <c r="K45" s="6">
-        <v>-138.19551999999999</v>
-      </c>
-      <c r="L45" s="6">
-        <v>-205.56048000000001</v>
-      </c>
-      <c r="M45" s="6">
-        <v>-288.45175999999901</v>
-      </c>
-      <c r="N45" s="7">
-        <v>-359.64199999999897</v>
-      </c>
-      <c r="O45" s="5">
-        <v>-116.94687999999999</v>
-      </c>
-      <c r="P45" s="6">
-        <v>-205.56048000000001</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>-318.34607999999901</v>
-      </c>
-      <c r="R45" s="6">
-        <v>-424.31671999999799</v>
-      </c>
-      <c r="S45" s="7">
-        <v>-527.28583999999796</v>
-      </c>
-      <c r="U45" s="4">
-        <v>189.311366370169</v>
-      </c>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="67"/>
-      <c r="D46" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="12">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="F46" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="G46" s="13">
-        <v>303.19439999999997</v>
-      </c>
-      <c r="H46" s="13">
-        <v>405.10919999999999</v>
-      </c>
-      <c r="I46" s="14">
-        <v>538.44199999999898</v>
-      </c>
-      <c r="J46" s="12">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="K46" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="L46" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="M46" s="13">
-        <v>277.55759999999901</v>
-      </c>
-      <c r="N46" s="14">
-        <v>338.86160000000001</v>
-      </c>
-      <c r="O46" s="12">
-        <v>37.567999999999998</v>
-      </c>
-      <c r="P46" s="13">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="Q46" s="13">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="R46" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="S46" s="14">
-        <v>178.93799999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="7"/>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="67"/>
-      <c r="D48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="14"/>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C49" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="67"/>
-      <c r="D50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="14"/>
-    </row>
-    <row r="54" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="74"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="2">
-        <v>40</v>
-      </c>
-      <c r="F57" s="1">
-        <v>80</v>
-      </c>
-      <c r="G57" s="1">
-        <v>120</v>
-      </c>
-      <c r="H57" s="1">
-        <v>160</v>
-      </c>
-      <c r="I57" s="1">
-        <v>200</v>
-      </c>
-      <c r="J57" s="2">
-        <v>40</v>
-      </c>
-      <c r="K57" s="1">
-        <v>80</v>
-      </c>
-      <c r="L57" s="1">
-        <v>120</v>
-      </c>
-      <c r="M57" s="1">
-        <v>160</v>
-      </c>
-      <c r="N57" s="1">
-        <v>200</v>
-      </c>
-      <c r="O57" s="2">
-        <v>40</v>
-      </c>
-      <c r="P57" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>120</v>
-      </c>
-      <c r="R57" s="1">
-        <v>160</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="7"/>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="71"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="18"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="18"/>
-      <c r="S59" s="19"/>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="67"/>
-      <c r="D60" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="12">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="F60" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="G60" s="13">
-        <v>303.19439999999997</v>
-      </c>
-      <c r="H60" s="13">
-        <v>405.10919999999999</v>
-      </c>
-      <c r="I60" s="14">
-        <v>538.44199999999898</v>
-      </c>
-      <c r="J60" s="12">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="K60" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="L60" s="13">
-        <v>207.85679999999999</v>
-      </c>
-      <c r="M60" s="13">
-        <v>277.55759999999901</v>
-      </c>
-      <c r="N60" s="14">
-        <v>338.86160000000001</v>
-      </c>
-      <c r="O60" s="12">
-        <v>37.567999999999998</v>
-      </c>
-      <c r="P60" s="13">
-        <v>65.854799999999997</v>
-      </c>
-      <c r="Q60" s="13">
-        <v>89.393199999999993</v>
-      </c>
-      <c r="R60" s="13">
-        <v>153.0984</v>
-      </c>
-      <c r="S60" s="14">
-        <v>178.93799999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="7"/>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C62" s="67"/>
-      <c r="D62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="14"/>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C63" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="7"/>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C64" s="67"/>
-      <c r="D64" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="14"/>
-    </row>
-    <row r="68" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C68" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="74"/>
-    </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" s="1">
-        <v>80</v>
-      </c>
-      <c r="G70" s="1">
-        <v>120</v>
-      </c>
-      <c r="H70" s="1">
-        <v>160</v>
-      </c>
-      <c r="I70" s="1">
-        <v>200</v>
-      </c>
-      <c r="J70" s="2">
-        <v>40</v>
-      </c>
-      <c r="K70" s="1">
-        <v>80</v>
-      </c>
-      <c r="L70" s="1">
-        <v>120</v>
-      </c>
-      <c r="M70" s="1">
-        <v>160</v>
-      </c>
-      <c r="N70" s="1">
-        <v>200</v>
-      </c>
-      <c r="O70" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>120</v>
-      </c>
-      <c r="R70" s="1">
-        <v>160</v>
-      </c>
-      <c r="S70" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C71" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="5">
-        <v>-20.469600000001002</v>
-      </c>
-      <c r="F71" s="6">
-        <v>11.778479999997799</v>
-      </c>
-      <c r="G71" s="6">
-        <v>-246.65439999999199</v>
-      </c>
-      <c r="H71" s="6">
-        <v>-146.98735999999599</v>
-      </c>
-      <c r="I71" s="7">
-        <v>-176.28743999998801</v>
-      </c>
-      <c r="J71" s="5">
-        <v>11.778479999997799</v>
-      </c>
-      <c r="K71" s="6">
-        <v>-146.98735999999599</v>
-      </c>
-      <c r="L71" s="6">
-        <v>-183.594879999977</v>
-      </c>
-      <c r="M71" s="6">
-        <v>-364.49639999999602</v>
-      </c>
-      <c r="N71" s="7">
-        <v>-451.898960000047</v>
-      </c>
-      <c r="O71" s="5">
-        <v>-246.65439999999199</v>
-      </c>
-      <c r="P71" s="6">
-        <v>-183.594879999977</v>
-      </c>
-      <c r="Q71" s="6">
-        <v>-332.499760000008</v>
-      </c>
-      <c r="R71" s="6">
-        <v>-597.73664000006102</v>
-      </c>
-      <c r="S71" s="7">
-        <v>-533.14304000011998</v>
-      </c>
-    </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C72" s="67"/>
-      <c r="D72" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="12">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="F72" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="G72" s="13">
-        <v>8190.7740000000003</v>
-      </c>
-      <c r="H72" s="13">
-        <v>11052.956399999999</v>
-      </c>
-      <c r="I72" s="14">
-        <v>14117.1923999999</v>
-      </c>
-      <c r="J72" s="12">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="K72" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="L72" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="M72" s="13">
-        <v>7542.5716000000002</v>
-      </c>
-      <c r="N72" s="14">
-        <v>9186.0111999999899</v>
-      </c>
-      <c r="O72" s="12">
-        <v>1056.5555999999999</v>
-      </c>
-      <c r="P72" s="13">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="Q72" s="13">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="R72" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="S72" s="14">
-        <v>4828.1167999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C73" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="7"/>
-    </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C74" s="67"/>
-      <c r="D74" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="14"/>
-    </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C75" s="66" t="s">
-        <v>0</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>7</v>
@@ -3244,1767 +3122,2170 @@
       <c r="S75" s="7"/>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C76" s="67"/>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="70"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="18"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="18"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="18"/>
+      <c r="S76" s="19"/>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C77" s="69"/>
+      <c r="D77" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="14"/>
-    </row>
-    <row r="80" spans="3:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="C80" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C82" s="9" t="s">
+      <c r="E77" s="12">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="F77" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="G77" s="13">
+        <v>303.19439999999997</v>
+      </c>
+      <c r="H77" s="13">
+        <v>405.10919999999999</v>
+      </c>
+      <c r="I77" s="14">
+        <v>538.44199999999898</v>
+      </c>
+      <c r="J77" s="12">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="K77" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="L77" s="13">
+        <v>207.85679999999999</v>
+      </c>
+      <c r="M77" s="13">
+        <v>277.55759999999901</v>
+      </c>
+      <c r="N77" s="14">
+        <v>338.86160000000001</v>
+      </c>
+      <c r="O77" s="12">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="P77" s="13">
+        <v>65.854799999999997</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>89.393199999999993</v>
+      </c>
+      <c r="R77" s="13">
+        <v>153.0984</v>
+      </c>
+      <c r="S77" s="14">
+        <v>178.93799999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C78" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="7"/>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C79" s="69"/>
+      <c r="D79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="14"/>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C80" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="7"/>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C81" s="69"/>
+      <c r="D81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="14"/>
+    </row>
+    <row r="85" spans="3:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C85" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="72">
+      <c r="D86" s="10"/>
+      <c r="E86" s="65">
         <v>0.25</v>
       </c>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="72">
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="65">
         <v>0.5</v>
       </c>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
-      <c r="M82" s="73"/>
-      <c r="N82" s="73"/>
-      <c r="O82" s="72">
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="65">
         <v>0.75</v>
       </c>
-      <c r="P82" s="73"/>
-      <c r="Q82" s="73"/>
-      <c r="R82" s="73"/>
-      <c r="S82" s="74"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
+      <c r="P86" s="66"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="66"/>
+      <c r="S86" s="67"/>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="2">
+      <c r="D87" s="24"/>
+      <c r="E87" s="2">
         <v>40</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F87" s="1">
         <v>80</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G87" s="1">
         <v>120</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H87" s="1">
         <v>160</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I87" s="1">
         <v>200</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J87" s="2">
         <v>40</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K87" s="1">
         <v>80</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L87" s="1">
         <v>120</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M87" s="1">
         <v>160</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N87" s="1">
         <v>200</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O87" s="2">
         <v>40</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P87" s="1">
         <v>80</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q87" s="1">
         <v>120</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R87" s="1">
         <v>160</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S87" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C84" s="66" t="s">
+    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C88" s="68" t="s">
         <v>6</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1347.0157639399199</v>
-      </c>
-      <c r="F84" s="6">
-        <v>2889.10194178645</v>
-      </c>
-      <c r="G84" s="6">
-        <v>3897.6967613308302</v>
-      </c>
-      <c r="H84" s="6">
-        <v>5528.5760184048704</v>
-      </c>
-      <c r="I84" s="7">
-        <v>6926.8878754609204</v>
-      </c>
-      <c r="J84" s="5">
-        <v>17875.025137457</v>
-      </c>
-      <c r="K84" s="6">
-        <v>32998.851611536702</v>
-      </c>
-      <c r="L84" s="6">
-        <v>51425.252160948097</v>
-      </c>
-      <c r="M84" s="6">
-        <v>67865.1635257491</v>
-      </c>
-      <c r="N84" s="7">
-        <v>85879.339286614006</v>
-      </c>
-      <c r="O84" s="5">
-        <v>29398.7842612811</v>
-      </c>
-      <c r="P84" s="6">
-        <v>61568.4171596714</v>
-      </c>
-      <c r="Q84" s="6">
-        <v>92239.787022626595</v>
-      </c>
-      <c r="R84" s="6">
-        <v>122128.22478471301</v>
-      </c>
-      <c r="S84" s="7">
-        <v>154244.014362132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C85" s="67"/>
-      <c r="D85" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="12">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="F85" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="G85" s="13">
-        <v>8190.7740000000003</v>
-      </c>
-      <c r="H85" s="13">
-        <v>11052.956399999999</v>
-      </c>
-      <c r="I85" s="14">
-        <v>14117.1923999999</v>
-      </c>
-      <c r="J85" s="12">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="K85" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="L85" s="13">
-        <v>5697.0415999999896</v>
-      </c>
-      <c r="M85" s="13">
-        <v>7542.5716000000002</v>
-      </c>
-      <c r="N85" s="14">
-        <v>9186.0111999999899</v>
-      </c>
-      <c r="O85" s="12">
-        <v>1056.5555999999999</v>
-      </c>
-      <c r="P85" s="13">
-        <v>1883.42479999999</v>
-      </c>
-      <c r="Q85" s="13">
-        <v>2786.5972000000002</v>
-      </c>
-      <c r="R85" s="13">
-        <v>3972.1223999999902</v>
-      </c>
-      <c r="S85" s="14">
-        <v>4828.1167999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C86" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="7"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C87" s="67"/>
-      <c r="D87" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="14"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C88" s="66" t="s">
-        <v>0</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="7"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C89" s="67"/>
+      <c r="E88" s="5">
+        <v>-20.469600000001002</v>
+      </c>
+      <c r="F88" s="6">
+        <v>11.778479999997799</v>
+      </c>
+      <c r="G88" s="6">
+        <v>-246.65439999999199</v>
+      </c>
+      <c r="H88" s="6">
+        <v>-146.98735999999599</v>
+      </c>
+      <c r="I88" s="7">
+        <v>-176.28743999998801</v>
+      </c>
+      <c r="J88" s="5">
+        <v>11.778479999997799</v>
+      </c>
+      <c r="K88" s="6">
+        <v>-146.98735999999599</v>
+      </c>
+      <c r="L88" s="6">
+        <v>-183.594879999977</v>
+      </c>
+      <c r="M88" s="6">
+        <v>-364.49639999999602</v>
+      </c>
+      <c r="N88" s="7">
+        <v>-451.898960000047</v>
+      </c>
+      <c r="O88" s="5">
+        <v>-246.65439999999199</v>
+      </c>
+      <c r="P88" s="6">
+        <v>-183.594879999977</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>-332.499760000008</v>
+      </c>
+      <c r="R88" s="6">
+        <v>-597.73664000006102</v>
+      </c>
+      <c r="S88" s="7">
+        <v>-533.14304000011998</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C89" s="69"/>
       <c r="D89" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="14"/>
-    </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="28" t="s">
+      <c r="E89" s="12">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="F89" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="G89" s="13">
+        <v>8190.7740000000003</v>
+      </c>
+      <c r="H89" s="13">
+        <v>11052.956399999999</v>
+      </c>
+      <c r="I89" s="14">
+        <v>14117.1923999999</v>
+      </c>
+      <c r="J89" s="12">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="K89" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="L89" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="M89" s="13">
+        <v>7542.5716000000002</v>
+      </c>
+      <c r="N89" s="14">
+        <v>9186.0111999999899</v>
+      </c>
+      <c r="O89" s="12">
+        <v>1056.5555999999999</v>
+      </c>
+      <c r="P89" s="13">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="R89" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="S89" s="14">
+        <v>4828.1167999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C90" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C91" s="69"/>
+      <c r="D91" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="14"/>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C92" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="7"/>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C93" s="69"/>
+      <c r="D93" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="14"/>
+    </row>
+    <row r="97" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C97" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C99" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="72">
+      <c r="D99" s="10"/>
+      <c r="E99" s="65">
         <v>0.25</v>
       </c>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
-      <c r="J94" s="72">
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="65">
         <v>0.5</v>
       </c>
-      <c r="K94" s="73"/>
-      <c r="L94" s="73"/>
-      <c r="M94" s="73"/>
-      <c r="N94" s="73"/>
-      <c r="O94" s="72">
+      <c r="K99" s="66"/>
+      <c r="L99" s="66"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="65">
         <v>0.75</v>
       </c>
-      <c r="P94" s="73"/>
-      <c r="Q94" s="73"/>
-      <c r="R94" s="73"/>
-      <c r="S94" s="74"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="28" t="s">
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="67"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C100" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="2">
+      <c r="D100" s="24"/>
+      <c r="E100" s="2">
         <v>40</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F100" s="1">
         <v>80</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G100" s="1">
         <v>120</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H100" s="1">
         <v>160</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I100" s="1">
         <v>200</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J100" s="2">
         <v>40</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K100" s="1">
         <v>80</v>
       </c>
-      <c r="L95" s="1">
+      <c r="L100" s="1">
         <v>120</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M100" s="1">
         <v>160</v>
       </c>
-      <c r="N95" s="1">
+      <c r="N100" s="1">
         <v>200</v>
       </c>
-      <c r="O95" s="2">
+      <c r="O100" s="2">
         <v>40</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P100" s="1">
         <v>80</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="Q100" s="1">
         <v>120</v>
       </c>
-      <c r="R95" s="1">
+      <c r="R100" s="1">
         <v>160</v>
       </c>
-      <c r="S95" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="63" t="s">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C101" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D101" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="26">
-        <v>-653.95656000000201</v>
-      </c>
-      <c r="F96" s="26">
-        <v>-1117.1593599999901</v>
-      </c>
-      <c r="G96" s="26">
-        <v>-2115.90112</v>
-      </c>
-      <c r="H96" s="26">
-        <v>-2568.8923999999902</v>
-      </c>
-      <c r="I96" s="27">
-        <v>-3267.6420800000001</v>
-      </c>
-      <c r="J96" s="26">
-        <v>-1117.1593599999901</v>
-      </c>
-      <c r="K96" s="26">
-        <v>-2568.8923999999902</v>
-      </c>
-      <c r="L96" s="26">
-        <v>-3895.7800000000102</v>
-      </c>
-      <c r="M96" s="26">
-        <v>-5451.1823199999999</v>
-      </c>
-      <c r="N96" s="27">
-        <v>-6711.9140800000096</v>
-      </c>
-      <c r="O96" s="26">
-        <v>-2115.90112</v>
-      </c>
-      <c r="P96" s="26">
-        <v>-3895.7800000000102</v>
-      </c>
-      <c r="Q96" s="26">
-        <v>-5954.1264000000501</v>
-      </c>
-      <c r="R96" s="26">
-        <v>-8022.38544000006</v>
-      </c>
-      <c r="S96" s="27">
-        <v>-9782.0400800000098</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="30" t="s">
+      <c r="E101" s="5">
+        <v>1347.0157639399199</v>
+      </c>
+      <c r="F101" s="6">
+        <v>2889.10194178645</v>
+      </c>
+      <c r="G101" s="6">
+        <v>3897.6967613308302</v>
+      </c>
+      <c r="H101" s="6">
+        <v>5528.5760184048704</v>
+      </c>
+      <c r="I101" s="7">
+        <v>6926.8878754609204</v>
+      </c>
+      <c r="J101" s="5">
+        <v>17875.025137457</v>
+      </c>
+      <c r="K101" s="6">
+        <v>32998.851611536702</v>
+      </c>
+      <c r="L101" s="6">
+        <v>51425.252160948097</v>
+      </c>
+      <c r="M101" s="6">
+        <v>67865.1635257491</v>
+      </c>
+      <c r="N101" s="7">
+        <v>85879.339286614006</v>
+      </c>
+      <c r="O101" s="5">
+        <v>29398.7842612811</v>
+      </c>
+      <c r="P101" s="6">
+        <v>61568.4171596714</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>92239.787022626595</v>
+      </c>
+      <c r="R101" s="6">
+        <v>122128.22478471301</v>
+      </c>
+      <c r="S101" s="7">
+        <v>154244.014362132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C102" s="69"/>
+      <c r="D102" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="F97" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="G97" s="31">
-        <v>9521.5679999999993</v>
-      </c>
-      <c r="H97" s="31">
-        <v>12769.879199999899</v>
-      </c>
-      <c r="I97" s="32">
-        <v>16299.1023999999</v>
-      </c>
-      <c r="J97" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="K97" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="L97" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="M97" s="31">
-        <v>8658.7952000000096</v>
-      </c>
-      <c r="N97" s="32">
-        <v>10661.754800000001</v>
-      </c>
-      <c r="O97" s="31">
-        <v>1233.0303999999901</v>
-      </c>
-      <c r="P97" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="Q97" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="R97" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="S97" s="32">
-        <v>5531.63039999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="65" t="s">
+      <c r="E102" s="12">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="F102" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="G102" s="13">
+        <v>8190.7740000000003</v>
+      </c>
+      <c r="H102" s="13">
+        <v>11052.956399999999</v>
+      </c>
+      <c r="I102" s="14">
+        <v>14117.1923999999</v>
+      </c>
+      <c r="J102" s="12">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="K102" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="L102" s="13">
+        <v>5697.0415999999896</v>
+      </c>
+      <c r="M102" s="13">
+        <v>7542.5716000000002</v>
+      </c>
+      <c r="N102" s="14">
+        <v>9186.0111999999899</v>
+      </c>
+      <c r="O102" s="12">
+        <v>1056.5555999999999</v>
+      </c>
+      <c r="P102" s="13">
+        <v>1883.42479999999</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>2786.5972000000002</v>
+      </c>
+      <c r="R102" s="13">
+        <v>3972.1223999999902</v>
+      </c>
+      <c r="S102" s="14">
+        <v>4828.1167999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C103" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D103" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="27"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="30" t="s">
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="7"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C104" s="69"/>
+      <c r="D104" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="31"/>
-      <c r="R99" s="31"/>
-      <c r="S99" s="32"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="30" t="s">
+      <c r="E104" s="12"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="14"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C105" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="26"/>
-      <c r="S100" s="27"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="30" t="s">
+      <c r="E105" s="5"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="7"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C106" s="69"/>
+      <c r="D106" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="32"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="26"/>
-      <c r="S102" s="26"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="26"/>
-      <c r="S103" s="26"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="26"/>
-    </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="25"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="26"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="K107" s="73"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="73"/>
-      <c r="N107" s="73"/>
-      <c r="O107" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="P107" s="73"/>
-      <c r="Q107" s="73"/>
-      <c r="R107" s="73"/>
-      <c r="S107" s="74"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="2">
-        <v>40</v>
-      </c>
-      <c r="F108" s="1">
-        <v>80</v>
-      </c>
-      <c r="G108" s="1">
-        <v>120</v>
-      </c>
-      <c r="H108" s="1">
-        <v>160</v>
-      </c>
-      <c r="I108" s="1">
-        <v>200</v>
-      </c>
-      <c r="J108" s="2">
-        <v>40</v>
-      </c>
-      <c r="K108" s="1">
-        <v>80</v>
-      </c>
-      <c r="L108" s="1">
-        <v>120</v>
-      </c>
-      <c r="M108" s="1">
-        <v>160</v>
-      </c>
-      <c r="N108" s="1">
-        <v>200</v>
-      </c>
-      <c r="O108" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q108" s="1">
-        <v>120</v>
-      </c>
-      <c r="R108" s="1">
-        <v>160</v>
-      </c>
-      <c r="S108" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="26">
-        <v>-373.84705097330402</v>
-      </c>
-      <c r="F109" s="26">
-        <v>-562.76674347951405</v>
-      </c>
-      <c r="G109" s="26">
-        <v>-1368.46561727485</v>
-      </c>
-      <c r="H109" s="26">
-        <v>-1528.4107611506499</v>
-      </c>
-      <c r="I109" s="27">
-        <v>-1916.8771993197799</v>
-      </c>
-      <c r="J109" s="26">
-        <v>1230.35450639943</v>
-      </c>
-      <c r="K109" s="26">
-        <v>1338.09816531294</v>
-      </c>
-      <c r="L109" s="26">
-        <v>2253.84716969797</v>
-      </c>
-      <c r="M109" s="26">
-        <v>2500.2228688598598</v>
-      </c>
-      <c r="N109" s="27">
-        <v>3446.3220905510798</v>
-      </c>
-      <c r="O109" s="26">
-        <v>6457.5991530648398</v>
-      </c>
-      <c r="P109" s="26">
-        <v>16848.4663466688</v>
-      </c>
-      <c r="Q109" s="26">
-        <v>23944.069107949999</v>
-      </c>
-      <c r="R109" s="26">
-        <v>27564.393379085799</v>
-      </c>
-      <c r="S109" s="27">
-        <v>37206.593962543498</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="14"/>
+    </row>
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="F110" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="G110" s="31">
-        <v>9521.5679999999993</v>
-      </c>
-      <c r="H110" s="31">
-        <v>12769.879199999899</v>
-      </c>
-      <c r="I110" s="32">
-        <v>16299.1023999999</v>
-      </c>
-      <c r="J110" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="K110" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="L110" s="31">
-        <v>6555.2380000000003</v>
-      </c>
-      <c r="M110" s="31">
-        <v>8658.7952000000096</v>
-      </c>
-      <c r="N110" s="32">
-        <v>10661.754800000001</v>
-      </c>
-      <c r="O110" s="31">
-        <v>1233.0303999999901</v>
-      </c>
-      <c r="P110" s="31">
-        <v>2088.1932000000002</v>
-      </c>
-      <c r="Q110" s="31">
-        <v>3026.4124000000002</v>
-      </c>
-      <c r="R110" s="31">
-        <v>4560.5032000000001</v>
-      </c>
-      <c r="S110" s="32">
-        <v>5531.63039999999</v>
-      </c>
+      <c r="C110" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
-      <c r="C111" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="26"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-      <c r="Q111" s="26"/>
-      <c r="R111" s="26"/>
-      <c r="S111" s="27"/>
+      <c r="C111" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="29"/>
+      <c r="E111" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K111" s="66"/>
+      <c r="L111" s="66"/>
+      <c r="M111" s="66"/>
+      <c r="N111" s="66"/>
+      <c r="O111" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="P111" s="66"/>
+      <c r="Q111" s="66"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="67"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="31"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="31"/>
-      <c r="P112" s="31"/>
-      <c r="Q112" s="31"/>
-      <c r="R112" s="31"/>
-      <c r="S112" s="32"/>
+      <c r="C112" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="29"/>
+      <c r="E112" s="2">
+        <v>40</v>
+      </c>
+      <c r="F112" s="1">
+        <v>80</v>
+      </c>
+      <c r="G112" s="1">
+        <v>120</v>
+      </c>
+      <c r="H112" s="1">
+        <v>160</v>
+      </c>
+      <c r="I112" s="1">
+        <v>200</v>
+      </c>
+      <c r="J112" s="2">
+        <v>40</v>
+      </c>
+      <c r="K112" s="1">
+        <v>80</v>
+      </c>
+      <c r="L112" s="1">
+        <v>120</v>
+      </c>
+      <c r="M112" s="1">
+        <v>160</v>
+      </c>
+      <c r="N112" s="1">
+        <v>200</v>
+      </c>
+      <c r="O112" s="2">
+        <v>40</v>
+      </c>
+      <c r="P112" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>120</v>
+      </c>
+      <c r="R112" s="1">
+        <v>160</v>
+      </c>
+      <c r="S112" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
-      <c r="C113" s="65" t="s">
-        <v>0</v>
+      <c r="C113" s="74" t="s">
+        <v>6</v>
       </c>
       <c r="D113" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="26"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="26"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="27"/>
+      <c r="E113" s="26">
+        <v>-653.95656000000201</v>
+      </c>
+      <c r="F113" s="26">
+        <v>-1117.1593599999901</v>
+      </c>
+      <c r="G113" s="26">
+        <v>-2115.90112</v>
+      </c>
+      <c r="H113" s="26">
+        <v>-2568.8923999999902</v>
+      </c>
+      <c r="I113" s="27">
+        <v>-3267.6420800000001</v>
+      </c>
+      <c r="J113" s="26">
+        <v>-1117.1593599999901</v>
+      </c>
+      <c r="K113" s="26">
+        <v>-2568.8923999999902</v>
+      </c>
+      <c r="L113" s="26">
+        <v>-3895.7800000000102</v>
+      </c>
+      <c r="M113" s="26">
+        <v>-5451.1823199999999</v>
+      </c>
+      <c r="N113" s="27">
+        <v>-6711.9140800000096</v>
+      </c>
+      <c r="O113" s="26">
+        <v>-2115.90112</v>
+      </c>
+      <c r="P113" s="26">
+        <v>-3895.7800000000102</v>
+      </c>
+      <c r="Q113" s="26">
+        <v>-5954.1264000000501</v>
+      </c>
+      <c r="R113" s="26">
+        <v>-8022.38544000006</v>
+      </c>
+      <c r="S113" s="27">
+        <v>-9782.0400800000098</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
-      <c r="C114" s="64"/>
+      <c r="C114" s="75"/>
       <c r="D114" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="31"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="31"/>
-      <c r="Q114" s="31"/>
-      <c r="R114" s="31"/>
-      <c r="S114" s="32"/>
-    </row>
-    <row r="118" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="E114" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="F114" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="G114" s="31">
+        <v>9521.5679999999993</v>
+      </c>
+      <c r="H114" s="31">
+        <v>12769.879199999899</v>
+      </c>
+      <c r="I114" s="32">
+        <v>16299.1023999999</v>
+      </c>
+      <c r="J114" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="K114" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="L114" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="M114" s="31">
+        <v>8658.7952000000096</v>
+      </c>
+      <c r="N114" s="32">
+        <v>10661.754800000001</v>
+      </c>
+      <c r="O114" s="31">
+        <v>1233.0303999999901</v>
+      </c>
+      <c r="P114" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="Q114" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="R114" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="S114" s="32">
+        <v>5531.63039999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="27"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="75"/>
+      <c r="D116" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="31"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="31"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="31"/>
+      <c r="R116" s="31"/>
+      <c r="S116" s="32"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="27"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="26"/>
-      <c r="S118" s="26"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="31"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="31"/>
+      <c r="P118" s="31"/>
+      <c r="Q118" s="31"/>
+      <c r="R118" s="31"/>
+      <c r="S118" s="32"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
-      <c r="C119" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="29"/>
-      <c r="E119" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="K119" s="73"/>
-      <c r="L119" s="73"/>
-      <c r="M119" s="73"/>
-      <c r="N119" s="73"/>
-      <c r="O119" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="P119" s="73"/>
-      <c r="Q119" s="73"/>
-      <c r="R119" s="73"/>
-      <c r="S119" s="74"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="26"/>
+      <c r="Q119" s="26"/>
+      <c r="R119" s="26"/>
+      <c r="S119" s="26"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
-      <c r="C120" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="2">
-        <v>40</v>
-      </c>
-      <c r="F120" s="1">
-        <v>80</v>
-      </c>
-      <c r="G120" s="1">
-        <v>120</v>
-      </c>
-      <c r="H120" s="1">
-        <v>160</v>
-      </c>
-      <c r="I120" s="1">
-        <v>200</v>
-      </c>
-      <c r="J120" s="2">
-        <v>40</v>
-      </c>
-      <c r="K120" s="1">
-        <v>80</v>
-      </c>
-      <c r="L120" s="1">
-        <v>120</v>
-      </c>
-      <c r="M120" s="1">
-        <v>160</v>
-      </c>
-      <c r="N120" s="1">
-        <v>200</v>
-      </c>
-      <c r="O120" s="2">
-        <v>40</v>
-      </c>
-      <c r="P120" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>120</v>
-      </c>
-      <c r="R120" s="1">
-        <v>160</v>
-      </c>
-      <c r="S120" s="3">
-        <v>200</v>
-      </c>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
-      <c r="C121" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="26">
-        <v>-3315.38080000019</v>
-      </c>
-      <c r="F121" s="26">
-        <v>-5195.7693600005296</v>
-      </c>
-      <c r="G121" s="26">
-        <v>-11663.930479999801</v>
-      </c>
-      <c r="H121" s="26">
-        <v>-13281.257359999199</v>
-      </c>
-      <c r="I121" s="27">
-        <v>-17121.577679998001</v>
-      </c>
-      <c r="J121" s="26">
-        <v>-5195.7693600005296</v>
-      </c>
-      <c r="K121" s="26">
-        <v>-13281.257359999199</v>
-      </c>
-      <c r="L121" s="26">
-        <v>-20221.211839997799</v>
-      </c>
-      <c r="M121" s="26">
-        <v>-29335.600559996401</v>
-      </c>
-      <c r="N121" s="27">
-        <v>-35733.0486399941</v>
-      </c>
-      <c r="O121" s="26">
-        <v>-11663.930479999801</v>
-      </c>
-      <c r="P121" s="26">
-        <v>-20221.211839997799</v>
-      </c>
-      <c r="Q121" s="26">
-        <v>-31584.904559995699</v>
-      </c>
-      <c r="R121" s="26">
-        <v>-42706.9446399917</v>
-      </c>
-      <c r="S121" s="27">
-        <v>-51327.505919993098</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
+      <c r="Q121" s="26"/>
+      <c r="R121" s="26"/>
+      <c r="S121" s="26"/>
+    </row>
+    <row r="122" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="31">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="F122" s="31">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="G122" s="31">
-        <v>102131.99</v>
-      </c>
-      <c r="H122" s="31">
-        <v>137569.13560000001</v>
-      </c>
-      <c r="I122" s="32">
-        <v>176320.868399998</v>
-      </c>
-      <c r="J122" s="31">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="K122" s="31">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="L122" s="31">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="M122" s="31">
-        <v>92826.499199999598</v>
-      </c>
-      <c r="N122" s="32">
-        <v>114702.02319999901</v>
-      </c>
-      <c r="O122" s="31">
-        <v>13110.2808</v>
-      </c>
-      <c r="P122" s="31">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="Q122" s="31">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="R122" s="31">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="S122" s="32">
-        <v>59244.1231999999</v>
-      </c>
+      <c r="C122" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="26"/>
+      <c r="P122" s="26"/>
+      <c r="Q122" s="26"/>
+      <c r="R122" s="26"/>
+      <c r="S122" s="26"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
-      <c r="C123" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>7</v>
-      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="26"/>
       <c r="F123" s="26"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
-      <c r="I123" s="27"/>
+      <c r="I123" s="26"/>
       <c r="J123" s="26"/>
       <c r="K123" s="26"/>
       <c r="L123" s="26"/>
       <c r="M123" s="26"/>
-      <c r="N123" s="27"/>
+      <c r="N123" s="26"/>
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
       <c r="Q123" s="26"/>
       <c r="R123" s="26"/>
-      <c r="S123" s="27"/>
+      <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="31"/>
-      <c r="N124" s="32"/>
-      <c r="O124" s="31"/>
-      <c r="P124" s="31"/>
-      <c r="Q124" s="31"/>
-      <c r="R124" s="31"/>
-      <c r="S124" s="32"/>
+      <c r="C124" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K124" s="66"/>
+      <c r="L124" s="66"/>
+      <c r="M124" s="66"/>
+      <c r="N124" s="66"/>
+      <c r="O124" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="P124" s="66"/>
+      <c r="Q124" s="66"/>
+      <c r="R124" s="66"/>
+      <c r="S124" s="67"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
-      <c r="C125" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="26"/>
-      <c r="M125" s="26"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="26"/>
-      <c r="P125" s="26"/>
-      <c r="Q125" s="26"/>
-      <c r="R125" s="26"/>
-      <c r="S125" s="27"/>
+      <c r="C125" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="2">
+        <v>40</v>
+      </c>
+      <c r="F125" s="1">
+        <v>80</v>
+      </c>
+      <c r="G125" s="1">
+        <v>120</v>
+      </c>
+      <c r="H125" s="1">
+        <v>160</v>
+      </c>
+      <c r="I125" s="1">
+        <v>200</v>
+      </c>
+      <c r="J125" s="2">
+        <v>40</v>
+      </c>
+      <c r="K125" s="1">
+        <v>80</v>
+      </c>
+      <c r="L125" s="1">
+        <v>120</v>
+      </c>
+      <c r="M125" s="1">
+        <v>160</v>
+      </c>
+      <c r="N125" s="1">
+        <v>200</v>
+      </c>
+      <c r="O125" s="2">
+        <v>40</v>
+      </c>
+      <c r="P125" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>120</v>
+      </c>
+      <c r="R125" s="1">
+        <v>160</v>
+      </c>
+      <c r="S125" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
-      <c r="C126" s="64"/>
+      <c r="C126" s="74" t="s">
+        <v>6</v>
+      </c>
       <c r="D126" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="31"/>
-      <c r="N126" s="32"/>
-      <c r="O126" s="31"/>
-      <c r="P126" s="31"/>
-      <c r="Q126" s="31"/>
-      <c r="R126" s="31"/>
-      <c r="S126" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="E126" s="26">
+        <v>-373.84705097330402</v>
+      </c>
+      <c r="F126" s="26">
+        <v>-562.76674347951405</v>
+      </c>
+      <c r="G126" s="26">
+        <v>-1368.46561727485</v>
+      </c>
+      <c r="H126" s="26">
+        <v>-1528.4107611506499</v>
+      </c>
+      <c r="I126" s="27">
+        <v>-1916.8771993197799</v>
+      </c>
+      <c r="J126" s="26">
+        <v>1230.35450639943</v>
+      </c>
+      <c r="K126" s="26">
+        <v>1338.09816531294</v>
+      </c>
+      <c r="L126" s="26">
+        <v>2253.84716969797</v>
+      </c>
+      <c r="M126" s="26">
+        <v>2500.2228688598598</v>
+      </c>
+      <c r="N126" s="27">
+        <v>3446.3220905510798</v>
+      </c>
+      <c r="O126" s="26">
+        <v>6457.5991530648398</v>
+      </c>
+      <c r="P126" s="26">
+        <v>16848.4663466688</v>
+      </c>
+      <c r="Q126" s="26">
+        <v>23944.069107949999</v>
+      </c>
+      <c r="R126" s="26">
+        <v>27564.393379085799</v>
+      </c>
+      <c r="S126" s="27">
+        <v>37206.593962543498</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
-      <c r="P127" s="26"/>
-      <c r="Q127" s="26"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="26"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="F127" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="G127" s="31">
+        <v>9521.5679999999993</v>
+      </c>
+      <c r="H127" s="31">
+        <v>12769.879199999899</v>
+      </c>
+      <c r="I127" s="32">
+        <v>16299.1023999999</v>
+      </c>
+      <c r="J127" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="K127" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="L127" s="31">
+        <v>6555.2380000000003</v>
+      </c>
+      <c r="M127" s="31">
+        <v>8658.7952000000096</v>
+      </c>
+      <c r="N127" s="32">
+        <v>10661.754800000001</v>
+      </c>
+      <c r="O127" s="31">
+        <v>1233.0303999999901</v>
+      </c>
+      <c r="P127" s="31">
+        <v>2088.1932000000002</v>
+      </c>
+      <c r="Q127" s="31">
+        <v>3026.4124000000002</v>
+      </c>
+      <c r="R127" s="31">
+        <v>4560.5032000000001</v>
+      </c>
+      <c r="S127" s="32">
+        <v>5531.63039999999</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="C128" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
+      <c r="I128" s="27"/>
       <c r="J128" s="26"/>
       <c r="K128" s="26"/>
       <c r="L128" s="26"/>
       <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
+      <c r="N128" s="27"/>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="Q128" s="26"/>
       <c r="R128" s="26"/>
-      <c r="S128" s="26"/>
+      <c r="S128" s="27"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
-      <c r="P129" s="26"/>
-      <c r="Q129" s="26"/>
-      <c r="R129" s="26"/>
-      <c r="S129" s="26"/>
-    </row>
-    <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="C129" s="75"/>
+      <c r="D129" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="31"/>
+      <c r="M129" s="31"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="31"/>
+      <c r="P129" s="31"/>
+      <c r="Q129" s="31"/>
+      <c r="R129" s="31"/>
+      <c r="S129" s="32"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
-      <c r="C130" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
-      <c r="M130" s="25"/>
-      <c r="N130" s="25"/>
+      <c r="C130" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="26"/>
+      <c r="N130" s="27"/>
       <c r="O130" s="26"/>
       <c r="P130" s="26"/>
       <c r="Q130" s="26"/>
       <c r="R130" s="26"/>
-      <c r="S130" s="26"/>
+      <c r="S130" s="27"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26"/>
-      <c r="P131" s="26"/>
-      <c r="Q131" s="26"/>
-      <c r="R131" s="26"/>
-      <c r="S131" s="26"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="F132" s="73"/>
-      <c r="G132" s="73"/>
-      <c r="H132" s="73"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="K132" s="73"/>
-      <c r="L132" s="73"/>
-      <c r="M132" s="73"/>
-      <c r="N132" s="73"/>
-      <c r="O132" s="72">
-        <v>0.75</v>
-      </c>
-      <c r="P132" s="73"/>
-      <c r="Q132" s="73"/>
-      <c r="R132" s="73"/>
-      <c r="S132" s="74"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="29"/>
-      <c r="E133" s="2">
-        <v>40</v>
-      </c>
-      <c r="F133" s="1">
-        <v>80</v>
-      </c>
-      <c r="G133" s="1">
-        <v>120</v>
-      </c>
-      <c r="H133" s="1">
-        <v>160</v>
-      </c>
-      <c r="I133" s="1">
-        <v>200</v>
-      </c>
-      <c r="J133" s="2">
-        <v>40</v>
-      </c>
-      <c r="K133" s="1">
-        <v>80</v>
-      </c>
-      <c r="L133" s="1">
-        <v>120</v>
-      </c>
-      <c r="M133" s="1">
-        <v>160</v>
-      </c>
-      <c r="N133" s="1">
-        <v>200</v>
-      </c>
-      <c r="O133" s="2">
-        <v>40</v>
-      </c>
-      <c r="P133" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q133" s="1">
-        <v>120</v>
-      </c>
-      <c r="R133" s="1">
-        <v>160</v>
-      </c>
-      <c r="S133" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="33">
-        <v>8309.4827365512901</v>
-      </c>
-      <c r="F134" s="34">
-        <v>18309.460179659502</v>
-      </c>
-      <c r="G134" s="34">
-        <v>21872.617224341298</v>
-      </c>
-      <c r="H134" s="34">
-        <v>32452.9395555183</v>
-      </c>
-      <c r="I134" s="35">
-        <v>38867.732854154099</v>
-      </c>
-      <c r="J134" s="34">
-        <v>126733.833030382</v>
-      </c>
-      <c r="K134" s="34">
-        <v>224562.59279277499</v>
-      </c>
-      <c r="L134" s="34">
-        <v>346939.52750349097</v>
-      </c>
-      <c r="M134" s="34">
-        <v>451637.610293495</v>
-      </c>
-      <c r="N134" s="35">
-        <v>572390.75287562795</v>
-      </c>
-      <c r="O134" s="34">
-        <v>253066.82967576201</v>
-      </c>
-      <c r="P134" s="34">
-        <v>548032.43226926203</v>
-      </c>
-      <c r="Q134" s="34">
-        <v>811938.32492453698</v>
-      </c>
-      <c r="R134" s="34">
-        <v>1047351.05200452</v>
-      </c>
-      <c r="S134" s="35">
-        <v>1333817.65249353</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C131" s="75"/>
+      <c r="D131" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="31"/>
+      <c r="M131" s="31"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="31"/>
+      <c r="P131" s="31"/>
+      <c r="Q131" s="31"/>
+      <c r="R131" s="31"/>
+      <c r="S131" s="32"/>
+    </row>
+    <row r="135" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="12">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="F135" s="13">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="G135" s="13">
-        <v>102131.99</v>
-      </c>
-      <c r="H135" s="13">
-        <v>137569.13560000001</v>
-      </c>
-      <c r="I135" s="14">
-        <v>176320.868399998</v>
-      </c>
-      <c r="J135" s="13">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="K135" s="13">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="L135" s="13">
-        <v>70400.167599999695</v>
-      </c>
-      <c r="M135" s="13">
-        <v>92826.499199999598</v>
-      </c>
-      <c r="N135" s="14">
-        <v>114702.02319999901</v>
-      </c>
-      <c r="O135" s="13">
-        <v>13110.2808</v>
-      </c>
-      <c r="P135" s="13">
-        <v>22551.297999999901</v>
-      </c>
-      <c r="Q135" s="13">
-        <v>32968.180400000099</v>
-      </c>
-      <c r="R135" s="13">
-        <v>48875.265599999897</v>
-      </c>
-      <c r="S135" s="14">
-        <v>59244.1231999999</v>
-      </c>
+      <c r="C135" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="26"/>
+      <c r="M135" s="26"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="26"/>
+      <c r="P135" s="26"/>
+      <c r="Q135" s="26"/>
+      <c r="R135" s="26"/>
+      <c r="S135" s="26"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
-      <c r="C136" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="26"/>
-      <c r="L136" s="26"/>
-      <c r="M136" s="26"/>
-      <c r="N136" s="27"/>
-      <c r="O136" s="26"/>
-      <c r="P136" s="26"/>
-      <c r="Q136" s="26"/>
-      <c r="R136" s="26"/>
-      <c r="S136" s="27"/>
+      <c r="C136" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="29"/>
+      <c r="E136" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K136" s="66"/>
+      <c r="L136" s="66"/>
+      <c r="M136" s="66"/>
+      <c r="N136" s="66"/>
+      <c r="O136" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="P136" s="66"/>
+      <c r="Q136" s="66"/>
+      <c r="R136" s="66"/>
+      <c r="S136" s="67"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="31"/>
-      <c r="N137" s="32"/>
-      <c r="O137" s="31"/>
-      <c r="P137" s="31"/>
-      <c r="Q137" s="31"/>
-      <c r="R137" s="31"/>
-      <c r="S137" s="32"/>
+      <c r="C137" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="29"/>
+      <c r="E137" s="2">
+        <v>40</v>
+      </c>
+      <c r="F137" s="1">
+        <v>80</v>
+      </c>
+      <c r="G137" s="1">
+        <v>120</v>
+      </c>
+      <c r="H137" s="1">
+        <v>160</v>
+      </c>
+      <c r="I137" s="1">
+        <v>200</v>
+      </c>
+      <c r="J137" s="2">
+        <v>40</v>
+      </c>
+      <c r="K137" s="1">
+        <v>80</v>
+      </c>
+      <c r="L137" s="1">
+        <v>120</v>
+      </c>
+      <c r="M137" s="1">
+        <v>160</v>
+      </c>
+      <c r="N137" s="1">
+        <v>200</v>
+      </c>
+      <c r="O137" s="2">
+        <v>40</v>
+      </c>
+      <c r="P137" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>120</v>
+      </c>
+      <c r="R137" s="1">
+        <v>160</v>
+      </c>
+      <c r="S137" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
-      <c r="C138" s="65" t="s">
-        <v>0</v>
+      <c r="C138" s="74" t="s">
+        <v>6</v>
       </c>
       <c r="D138" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="26"/>
-      <c r="N138" s="27"/>
-      <c r="O138" s="26"/>
-      <c r="P138" s="26"/>
-      <c r="Q138" s="26"/>
-      <c r="R138" s="26"/>
-      <c r="S138" s="27"/>
+      <c r="E138" s="26">
+        <v>-3315.38080000019</v>
+      </c>
+      <c r="F138" s="26">
+        <v>-5195.7693600005296</v>
+      </c>
+      <c r="G138" s="26">
+        <v>-11663.930479999801</v>
+      </c>
+      <c r="H138" s="26">
+        <v>-13281.257359999199</v>
+      </c>
+      <c r="I138" s="27">
+        <v>-17121.577679998001</v>
+      </c>
+      <c r="J138" s="26">
+        <v>-5195.7693600005296</v>
+      </c>
+      <c r="K138" s="26">
+        <v>-13281.257359999199</v>
+      </c>
+      <c r="L138" s="26">
+        <v>-20221.211839997799</v>
+      </c>
+      <c r="M138" s="26">
+        <v>-29335.600559996401</v>
+      </c>
+      <c r="N138" s="27">
+        <v>-35733.0486399941</v>
+      </c>
+      <c r="O138" s="26">
+        <v>-11663.930479999801</v>
+      </c>
+      <c r="P138" s="26">
+        <v>-20221.211839997799</v>
+      </c>
+      <c r="Q138" s="26">
+        <v>-31584.904559995699</v>
+      </c>
+      <c r="R138" s="26">
+        <v>-42706.9446399917</v>
+      </c>
+      <c r="S138" s="27">
+        <v>-51327.505919993098</v>
+      </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
-      <c r="C139" s="64"/>
+      <c r="C139" s="75"/>
       <c r="D139" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="31"/>
-      <c r="L139" s="31"/>
-      <c r="M139" s="31"/>
-      <c r="N139" s="32"/>
-      <c r="O139" s="31"/>
-      <c r="P139" s="31"/>
-      <c r="Q139" s="31"/>
-      <c r="R139" s="31"/>
-      <c r="S139" s="32"/>
+      <c r="E139" s="31">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F139" s="31">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G139" s="31">
+        <v>102131.99</v>
+      </c>
+      <c r="H139" s="31">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I139" s="32">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J139" s="31">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K139" s="31">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L139" s="31">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M139" s="31">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N139" s="32">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O139" s="31">
+        <v>13110.2808</v>
+      </c>
+      <c r="P139" s="31">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q139" s="31">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R139" s="31">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S139" s="32">
+        <v>59244.1231999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="26"/>
+      <c r="P140" s="26"/>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="26"/>
+      <c r="S140" s="27"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="32"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
+      <c r="Q141" s="31"/>
+      <c r="R141" s="31"/>
+      <c r="S141" s="32"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="26"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="26"/>
+      <c r="P142" s="26"/>
+      <c r="Q142" s="26"/>
+      <c r="R142" s="26"/>
+      <c r="S142" s="27"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="75"/>
+      <c r="D143" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="31"/>
+      <c r="M143" s="31"/>
+      <c r="N143" s="32"/>
+      <c r="O143" s="31"/>
+      <c r="P143" s="31"/>
+      <c r="Q143" s="31"/>
+      <c r="R143" s="31"/>
+      <c r="S143" s="32"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="26"/>
+      <c r="P144" s="26"/>
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26"/>
+      <c r="S144" s="26"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
+      <c r="P145" s="26"/>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="26"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
+      <c r="M146" s="26"/>
+      <c r="N146" s="26"/>
+      <c r="O146" s="26"/>
+      <c r="P146" s="26"/>
+      <c r="Q146" s="26"/>
+      <c r="R146" s="26"/>
+      <c r="S146" s="26"/>
+    </row>
+    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="26"/>
+      <c r="P147" s="26"/>
+      <c r="Q147" s="26"/>
+      <c r="R147" s="26"/>
+      <c r="S147" s="26"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="26"/>
+      <c r="N148" s="26"/>
+      <c r="O148" s="26"/>
+      <c r="P148" s="26"/>
+      <c r="Q148" s="26"/>
+      <c r="R148" s="26"/>
+      <c r="S148" s="26"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="29"/>
+      <c r="E149" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="F149" s="66"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K149" s="66"/>
+      <c r="L149" s="66"/>
+      <c r="M149" s="66"/>
+      <c r="N149" s="66"/>
+      <c r="O149" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="P149" s="66"/>
+      <c r="Q149" s="66"/>
+      <c r="R149" s="66"/>
+      <c r="S149" s="67"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="29"/>
+      <c r="E150" s="2">
+        <v>40</v>
+      </c>
+      <c r="F150" s="1">
+        <v>80</v>
+      </c>
+      <c r="G150" s="1">
+        <v>120</v>
+      </c>
+      <c r="H150" s="1">
+        <v>160</v>
+      </c>
+      <c r="I150" s="1">
+        <v>200</v>
+      </c>
+      <c r="J150" s="2">
+        <v>40</v>
+      </c>
+      <c r="K150" s="1">
+        <v>80</v>
+      </c>
+      <c r="L150" s="1">
+        <v>120</v>
+      </c>
+      <c r="M150" s="1">
+        <v>160</v>
+      </c>
+      <c r="N150" s="1">
+        <v>200</v>
+      </c>
+      <c r="O150" s="2">
+        <v>40</v>
+      </c>
+      <c r="P150" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>120</v>
+      </c>
+      <c r="R150" s="1">
+        <v>160</v>
+      </c>
+      <c r="S150" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="33">
+        <v>8309.4827365512901</v>
+      </c>
+      <c r="F151" s="34">
+        <v>18309.460179659502</v>
+      </c>
+      <c r="G151" s="34">
+        <v>21872.617224341298</v>
+      </c>
+      <c r="H151" s="34">
+        <v>32452.9395555183</v>
+      </c>
+      <c r="I151" s="35">
+        <v>38867.732854154099</v>
+      </c>
+      <c r="J151" s="34">
+        <v>126733.833030382</v>
+      </c>
+      <c r="K151" s="34">
+        <v>224562.59279277499</v>
+      </c>
+      <c r="L151" s="34">
+        <v>346939.52750349097</v>
+      </c>
+      <c r="M151" s="34">
+        <v>451637.610293495</v>
+      </c>
+      <c r="N151" s="35">
+        <v>572390.75287562795</v>
+      </c>
+      <c r="O151" s="34">
+        <v>253066.82967576201</v>
+      </c>
+      <c r="P151" s="34">
+        <v>548032.43226926203</v>
+      </c>
+      <c r="Q151" s="34">
+        <v>811938.32492453698</v>
+      </c>
+      <c r="R151" s="34">
+        <v>1047351.05200452</v>
+      </c>
+      <c r="S151" s="35">
+        <v>1333817.65249353</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="12">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="F152" s="13">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="G152" s="13">
+        <v>102131.99</v>
+      </c>
+      <c r="H152" s="13">
+        <v>137569.13560000001</v>
+      </c>
+      <c r="I152" s="14">
+        <v>176320.868399998</v>
+      </c>
+      <c r="J152" s="13">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="K152" s="13">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="L152" s="13">
+        <v>70400.167599999695</v>
+      </c>
+      <c r="M152" s="13">
+        <v>92826.499199999598</v>
+      </c>
+      <c r="N152" s="14">
+        <v>114702.02319999901</v>
+      </c>
+      <c r="O152" s="13">
+        <v>13110.2808</v>
+      </c>
+      <c r="P152" s="13">
+        <v>22551.297999999901</v>
+      </c>
+      <c r="Q152" s="13">
+        <v>32968.180400000099</v>
+      </c>
+      <c r="R152" s="13">
+        <v>48875.265599999897</v>
+      </c>
+      <c r="S152" s="14">
+        <v>59244.1231999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="26"/>
+      <c r="N153" s="27"/>
+      <c r="O153" s="26"/>
+      <c r="P153" s="26"/>
+      <c r="Q153" s="26"/>
+      <c r="R153" s="26"/>
+      <c r="S153" s="27"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="75"/>
+      <c r="D154" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
+      <c r="L154" s="31"/>
+      <c r="M154" s="31"/>
+      <c r="N154" s="32"/>
+      <c r="O154" s="31"/>
+      <c r="P154" s="31"/>
+      <c r="Q154" s="31"/>
+      <c r="R154" s="31"/>
+      <c r="S154" s="32"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="26"/>
+      <c r="M155" s="26"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="26"/>
+      <c r="P155" s="26"/>
+      <c r="Q155" s="26"/>
+      <c r="R155" s="26"/>
+      <c r="S155" s="27"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="75"/>
+      <c r="D156" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="32"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="32"/>
+      <c r="O156" s="31"/>
+      <c r="P156" s="31"/>
+      <c r="Q156" s="31"/>
+      <c r="R156" s="31"/>
+      <c r="S156" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E119:I119"/>
-    <mergeCell ref="J119:N119"/>
-    <mergeCell ref="O119:S119"/>
-    <mergeCell ref="E132:I132"/>
-    <mergeCell ref="J132:N132"/>
-    <mergeCell ref="O132:S132"/>
-    <mergeCell ref="E94:I94"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="O107:S107"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="E82:I82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="O82:S82"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="O56:S56"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C126:C127"/>
     <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="E86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:S86"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="O99:S99"/>
+    <mergeCell ref="E111:I111"/>
+    <mergeCell ref="J111:N111"/>
+    <mergeCell ref="O111:S111"/>
+    <mergeCell ref="E124:I124"/>
+    <mergeCell ref="J124:N124"/>
+    <mergeCell ref="O124:S124"/>
+    <mergeCell ref="E136:I136"/>
+    <mergeCell ref="J136:N136"/>
+    <mergeCell ref="O136:S136"/>
+    <mergeCell ref="E149:I149"/>
+    <mergeCell ref="J149:N149"/>
+    <mergeCell ref="O149:S149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5015,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5041,37 +5322,37 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="72">
+      <c r="C4" s="81"/>
+      <c r="D4" s="65">
         <v>0.25</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="72">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="65">
         <v>0.5</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="72">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="65">
         <v>0.75</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="74"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -5119,7 +5400,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -5172,7 +5453,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
@@ -5287,10 +5568,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -5338,7 +5619,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -5391,7 +5672,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -5442,7 +5723,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
@@ -5493,7 +5774,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5546,7 +5827,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
@@ -5745,37 +6026,37 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="72">
+      <c r="C22" s="81"/>
+      <c r="D22" s="65">
         <v>0.25</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="72">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65">
         <v>0.5</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="72">
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="65">
         <v>0.75</v>
       </c>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="74"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -5823,7 +6104,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -5876,7 +6157,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="11" t="s">
         <v>8</v>
       </c>
@@ -5991,10 +6272,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -6042,7 +6323,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -6095,7 +6376,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
@@ -6146,7 +6427,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
@@ -6197,7 +6478,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -6250,7 +6531,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="67"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
@@ -6561,37 +6842,37 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="72">
+      <c r="C41" s="81"/>
+      <c r="D41" s="65">
         <v>0.25</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="72">
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="65">
         <v>0.5</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="72">
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="65">
         <v>0.75</v>
       </c>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="74"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="67"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -6639,7 +6920,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6692,7 +6973,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="67"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="11" t="s">
         <v>8</v>
       </c>
@@ -6743,10 +7024,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="79"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -6794,7 +7075,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -6847,7 +7128,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="71"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
@@ -6898,7 +7179,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="67"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="11" t="s">
         <v>25</v>
       </c>
@@ -6949,7 +7230,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -7002,7 +7283,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="67"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="9" t="s">
         <v>8</v>
       </c>
@@ -7433,37 +7714,37 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="72">
+      <c r="C61" s="81"/>
+      <c r="D61" s="65">
         <v>0.25</v>
       </c>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="72">
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="65">
         <v>0.5</v>
       </c>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="72">
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="65">
         <v>0.75</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="74"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="67"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -7511,7 +7792,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -7564,7 +7845,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="67"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
@@ -7679,10 +7960,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="79"/>
+      <c r="C66" s="80"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -7730,7 +8011,7 @@
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -7783,7 +8064,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="71"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
@@ -7834,7 +8115,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="67"/>
+      <c r="B69" s="69"/>
       <c r="C69" s="11" t="s">
         <v>25</v>
       </c>
@@ -7885,7 +8166,7 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -7938,7 +8219,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="67"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="9" t="s">
         <v>8</v>
       </c>
@@ -8133,37 +8414,37 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="72">
+      <c r="C78" s="81"/>
+      <c r="D78" s="65">
         <v>0.25</v>
       </c>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="72">
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="65">
         <v>0.5</v>
       </c>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="72">
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="65">
         <v>0.75</v>
       </c>
-      <c r="O78" s="73"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="73"/>
-      <c r="R78" s="74"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="67"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="76"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -8211,7 +8492,7 @@
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -8264,7 +8545,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="67"/>
+      <c r="B81" s="69"/>
       <c r="C81" s="11" t="s">
         <v>8</v>
       </c>
@@ -8379,10 +8660,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="79"/>
+      <c r="C83" s="80"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -8430,7 +8711,7 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -8483,7 +8764,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="71"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="11" t="s">
         <v>22</v>
       </c>
@@ -8534,7 +8815,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="67"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="11" t="s">
         <v>25</v>
       </c>
@@ -8585,7 +8866,7 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -8638,7 +8919,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="67"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="9" t="s">
         <v>8</v>
       </c>
@@ -9065,37 +9346,37 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="77"/>
-      <c r="D99" s="72">
+      <c r="C99" s="81"/>
+      <c r="D99" s="65">
         <v>0.25</v>
       </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="72">
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="65">
         <v>0.5</v>
       </c>
-      <c r="J99" s="73"/>
-      <c r="K99" s="73"/>
-      <c r="L99" s="73"/>
-      <c r="M99" s="73"/>
-      <c r="N99" s="72">
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="66"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="65">
         <v>0.75</v>
       </c>
-      <c r="O99" s="73"/>
-      <c r="P99" s="73"/>
-      <c r="Q99" s="73"/>
-      <c r="R99" s="74"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="67"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="75" t="s">
+      <c r="B100" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="76"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -9143,7 +9424,7 @@
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -9196,7 +9477,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="67"/>
+      <c r="B102" s="69"/>
       <c r="C102" s="11" t="s">
         <v>8</v>
       </c>
@@ -9311,10 +9592,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="78" t="s">
+      <c r="B104" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="79"/>
+      <c r="C104" s="80"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -9362,7 +9643,7 @@
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -9415,7 +9696,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="71"/>
+      <c r="B106" s="70"/>
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -9466,7 +9747,7 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="67"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="11" t="s">
         <v>25</v>
       </c>
@@ -9517,7 +9798,7 @@
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="66" t="s">
+      <c r="B108" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -9570,7 +9851,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="67"/>
+      <c r="B109" s="69"/>
       <c r="C109" s="9" t="s">
         <v>8</v>
       </c>
@@ -9765,37 +10046,37 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="75" t="s">
+      <c r="B116" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="77"/>
-      <c r="D116" s="72">
+      <c r="C116" s="81"/>
+      <c r="D116" s="65">
         <v>0.25</v>
       </c>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
-      <c r="I116" s="72">
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="65">
         <v>0.5</v>
       </c>
-      <c r="J116" s="73"/>
-      <c r="K116" s="73"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="73"/>
-      <c r="N116" s="72">
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="66"/>
+      <c r="M116" s="66"/>
+      <c r="N116" s="65">
         <v>0.75</v>
       </c>
-      <c r="O116" s="73"/>
-      <c r="P116" s="73"/>
-      <c r="Q116" s="73"/>
-      <c r="R116" s="74"/>
+      <c r="O116" s="66"/>
+      <c r="P116" s="66"/>
+      <c r="Q116" s="66"/>
+      <c r="R116" s="67"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="75" t="s">
+      <c r="B117" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="76"/>
+      <c r="C117" s="78"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -9843,7 +10124,7 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B118" s="66" t="s">
+      <c r="B118" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -9896,7 +10177,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="67"/>
+      <c r="B119" s="69"/>
       <c r="C119" s="11" t="s">
         <v>8</v>
       </c>
@@ -10011,10 +10292,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="78" t="s">
+      <c r="B121" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="79"/>
+      <c r="C121" s="80"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -10062,7 +10343,7 @@
       </c>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B122" s="66" t="s">
+      <c r="B122" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -10115,7 +10396,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="71"/>
+      <c r="B123" s="70"/>
       <c r="C123" s="11" t="s">
         <v>22</v>
       </c>
@@ -10166,7 +10447,7 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="67"/>
+      <c r="B124" s="69"/>
       <c r="C124" s="11" t="s">
         <v>25</v>
       </c>
@@ -10217,7 +10498,7 @@
       </c>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B125" s="66" t="s">
+      <c r="B125" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="11" t="s">
@@ -10270,7 +10551,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="67"/>
+      <c r="B126" s="69"/>
       <c r="C126" s="9" t="s">
         <v>8</v>
       </c>
@@ -10698,37 +10979,37 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="75" t="s">
+      <c r="B136" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="77"/>
-      <c r="D136" s="72">
+      <c r="C136" s="81"/>
+      <c r="D136" s="65">
         <v>0.25</v>
       </c>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-      <c r="I136" s="72">
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="65">
         <v>0.5</v>
       </c>
-      <c r="J136" s="73"/>
-      <c r="K136" s="73"/>
-      <c r="L136" s="73"/>
-      <c r="M136" s="73"/>
-      <c r="N136" s="72">
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="66"/>
+      <c r="M136" s="66"/>
+      <c r="N136" s="65">
         <v>0.75</v>
       </c>
-      <c r="O136" s="73"/>
-      <c r="P136" s="73"/>
-      <c r="Q136" s="73"/>
-      <c r="R136" s="74"/>
+      <c r="O136" s="66"/>
+      <c r="P136" s="66"/>
+      <c r="Q136" s="66"/>
+      <c r="R136" s="67"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="75" t="s">
+      <c r="B137" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="76"/>
+      <c r="C137" s="78"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -10776,7 +11057,7 @@
       </c>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B138" s="66" t="s">
+      <c r="B138" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -10829,7 +11110,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="67"/>
+      <c r="B139" s="69"/>
       <c r="C139" s="11" t="s">
         <v>8</v>
       </c>
@@ -10944,10 +11225,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="78" t="s">
+      <c r="B141" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="79"/>
+      <c r="C141" s="80"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -10995,7 +11276,7 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B142" s="66" t="s">
+      <c r="B142" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -11048,7 +11329,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="71"/>
+      <c r="B143" s="70"/>
       <c r="C143" s="11" t="s">
         <v>22</v>
       </c>
@@ -11099,7 +11380,7 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="67"/>
+      <c r="B144" s="69"/>
       <c r="C144" s="11" t="s">
         <v>25</v>
       </c>
@@ -11150,7 +11431,7 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B145" s="66" t="s">
+      <c r="B145" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="11" t="s">
@@ -11203,7 +11484,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="67"/>
+      <c r="B146" s="69"/>
       <c r="C146" s="9" t="s">
         <v>8</v>
       </c>
@@ -11398,37 +11679,37 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="75" t="s">
+      <c r="B153" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="77"/>
-      <c r="D153" s="72">
+      <c r="C153" s="81"/>
+      <c r="D153" s="65">
         <v>0.25</v>
       </c>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="73"/>
-      <c r="I153" s="72">
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="65">
         <v>0.5</v>
       </c>
-      <c r="J153" s="73"/>
-      <c r="K153" s="73"/>
-      <c r="L153" s="73"/>
-      <c r="M153" s="73"/>
-      <c r="N153" s="72">
+      <c r="J153" s="66"/>
+      <c r="K153" s="66"/>
+      <c r="L153" s="66"/>
+      <c r="M153" s="66"/>
+      <c r="N153" s="65">
         <v>0.75</v>
       </c>
-      <c r="O153" s="73"/>
-      <c r="P153" s="73"/>
-      <c r="Q153" s="73"/>
-      <c r="R153" s="74"/>
+      <c r="O153" s="66"/>
+      <c r="P153" s="66"/>
+      <c r="Q153" s="66"/>
+      <c r="R153" s="67"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="75" t="s">
+      <c r="B154" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="76"/>
+      <c r="C154" s="78"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -11476,7 +11757,7 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B155" s="66" t="s">
+      <c r="B155" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="11" t="s">
@@ -11529,7 +11810,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="67"/>
+      <c r="B156" s="69"/>
       <c r="C156" s="11" t="s">
         <v>8</v>
       </c>
@@ -11644,10 +11925,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="78" t="s">
+      <c r="B158" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="79"/>
+      <c r="C158" s="80"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -11695,7 +11976,7 @@
       </c>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B159" s="66" t="s">
+      <c r="B159" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C159" s="11" t="s">
@@ -11748,7 +12029,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="71"/>
+      <c r="B160" s="70"/>
       <c r="C160" s="11" t="s">
         <v>22</v>
       </c>
@@ -11799,7 +12080,7 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="67"/>
+      <c r="B161" s="69"/>
       <c r="C161" s="11" t="s">
         <v>25</v>
       </c>
@@ -11850,7 +12131,7 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B162" s="66" t="s">
+      <c r="B162" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -11903,7 +12184,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="67"/>
+      <c r="B163" s="69"/>
       <c r="C163" s="9" t="s">
         <v>8</v>
       </c>
@@ -12215,37 +12496,37 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="75" t="s">
+      <c r="B171" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="77"/>
-      <c r="D171" s="72">
+      <c r="C171" s="81"/>
+      <c r="D171" s="65">
         <v>0.25</v>
       </c>
-      <c r="E171" s="73"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="73"/>
-      <c r="H171" s="73"/>
-      <c r="I171" s="72">
+      <c r="E171" s="66"/>
+      <c r="F171" s="66"/>
+      <c r="G171" s="66"/>
+      <c r="H171" s="66"/>
+      <c r="I171" s="65">
         <v>0.5</v>
       </c>
-      <c r="J171" s="73"/>
-      <c r="K171" s="73"/>
-      <c r="L171" s="73"/>
-      <c r="M171" s="73"/>
-      <c r="N171" s="72">
+      <c r="J171" s="66"/>
+      <c r="K171" s="66"/>
+      <c r="L171" s="66"/>
+      <c r="M171" s="66"/>
+      <c r="N171" s="65">
         <v>0.75</v>
       </c>
-      <c r="O171" s="73"/>
-      <c r="P171" s="73"/>
-      <c r="Q171" s="73"/>
-      <c r="R171" s="74"/>
+      <c r="O171" s="66"/>
+      <c r="P171" s="66"/>
+      <c r="Q171" s="66"/>
+      <c r="R171" s="67"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="75" t="s">
+      <c r="B172" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="76"/>
+      <c r="C172" s="78"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -12293,7 +12574,7 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B173" s="66" t="s">
+      <c r="B173" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -12346,7 +12627,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="67"/>
+      <c r="B174" s="69"/>
       <c r="C174" s="11" t="s">
         <v>8</v>
       </c>
@@ -12461,10 +12742,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="78" t="s">
+      <c r="B176" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="79"/>
+      <c r="C176" s="80"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -12512,7 +12793,7 @@
       </c>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B177" s="66" t="s">
+      <c r="B177" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="11" t="s">
@@ -12565,7 +12846,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="71"/>
+      <c r="B178" s="70"/>
       <c r="C178" s="11" t="s">
         <v>22</v>
       </c>
@@ -12616,7 +12897,7 @@
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="67"/>
+      <c r="B179" s="69"/>
       <c r="C179" s="11" t="s">
         <v>25</v>
       </c>
@@ -12667,7 +12948,7 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B180" s="66" t="s">
+      <c r="B180" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -12720,7 +13001,7 @@
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="67"/>
+      <c r="B181" s="69"/>
       <c r="C181" s="9" t="s">
         <v>8</v>
       </c>
@@ -13145,37 +13426,37 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="75" t="s">
+      <c r="B192" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="77"/>
-      <c r="D192" s="72">
+      <c r="C192" s="81"/>
+      <c r="D192" s="65">
         <v>0.25</v>
       </c>
-      <c r="E192" s="73"/>
-      <c r="F192" s="73"/>
-      <c r="G192" s="73"/>
-      <c r="H192" s="73"/>
-      <c r="I192" s="72">
+      <c r="E192" s="66"/>
+      <c r="F192" s="66"/>
+      <c r="G192" s="66"/>
+      <c r="H192" s="66"/>
+      <c r="I192" s="65">
         <v>0.5</v>
       </c>
-      <c r="J192" s="73"/>
-      <c r="K192" s="73"/>
-      <c r="L192" s="73"/>
-      <c r="M192" s="73"/>
-      <c r="N192" s="72">
+      <c r="J192" s="66"/>
+      <c r="K192" s="66"/>
+      <c r="L192" s="66"/>
+      <c r="M192" s="66"/>
+      <c r="N192" s="65">
         <v>0.75</v>
       </c>
-      <c r="O192" s="73"/>
-      <c r="P192" s="73"/>
-      <c r="Q192" s="73"/>
-      <c r="R192" s="74"/>
+      <c r="O192" s="66"/>
+      <c r="P192" s="66"/>
+      <c r="Q192" s="66"/>
+      <c r="R192" s="67"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="75" t="s">
+      <c r="B193" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="76"/>
+      <c r="C193" s="78"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -13223,7 +13504,7 @@
       </c>
     </row>
     <row r="194" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B194" s="66" t="s">
+      <c r="B194" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="11" t="s">
@@ -13276,7 +13557,7 @@
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="67"/>
+      <c r="B195" s="69"/>
       <c r="C195" s="11" t="s">
         <v>8</v>
       </c>
@@ -13391,10 +13672,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="78" t="s">
+      <c r="B197" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="79"/>
+      <c r="C197" s="80"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -13442,7 +13723,7 @@
       </c>
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B198" s="66" t="s">
+      <c r="B198" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -13495,7 +13776,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="71"/>
+      <c r="B199" s="70"/>
       <c r="C199" s="11" t="s">
         <v>22</v>
       </c>
@@ -13546,7 +13827,7 @@
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="67"/>
+      <c r="B200" s="69"/>
       <c r="C200" s="11" t="s">
         <v>25</v>
       </c>
@@ -13597,7 +13878,7 @@
       </c>
     </row>
     <row r="201" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B201" s="66" t="s">
+      <c r="B201" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -13650,7 +13931,7 @@
       </c>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="67"/>
+      <c r="B202" s="69"/>
       <c r="C202" s="9" t="s">
         <v>8</v>
       </c>
@@ -13846,37 +14127,37 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="75" t="s">
+      <c r="B209" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="77"/>
-      <c r="D209" s="72">
+      <c r="C209" s="81"/>
+      <c r="D209" s="65">
         <v>0.25</v>
       </c>
-      <c r="E209" s="73"/>
-      <c r="F209" s="73"/>
-      <c r="G209" s="73"/>
-      <c r="H209" s="73"/>
-      <c r="I209" s="72">
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="65">
         <v>0.5</v>
       </c>
-      <c r="J209" s="73"/>
-      <c r="K209" s="73"/>
-      <c r="L209" s="73"/>
-      <c r="M209" s="73"/>
-      <c r="N209" s="72">
+      <c r="J209" s="66"/>
+      <c r="K209" s="66"/>
+      <c r="L209" s="66"/>
+      <c r="M209" s="66"/>
+      <c r="N209" s="65">
         <v>0.75</v>
       </c>
-      <c r="O209" s="73"/>
-      <c r="P209" s="73"/>
-      <c r="Q209" s="73"/>
-      <c r="R209" s="74"/>
+      <c r="O209" s="66"/>
+      <c r="P209" s="66"/>
+      <c r="Q209" s="66"/>
+      <c r="R209" s="67"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="75" t="s">
+      <c r="B210" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="76"/>
+      <c r="C210" s="78"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -13924,7 +14205,7 @@
       </c>
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B211" s="66" t="s">
+      <c r="B211" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C211" s="11" t="s">
@@ -13977,7 +14258,7 @@
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="67"/>
+      <c r="B212" s="69"/>
       <c r="C212" s="11" t="s">
         <v>8</v>
       </c>
@@ -14092,10 +14373,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="78" t="s">
+      <c r="B214" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="79"/>
+      <c r="C214" s="80"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -14143,7 +14424,7 @@
       </c>
     </row>
     <row r="215" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B215" s="66" t="s">
+      <c r="B215" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -14196,7 +14477,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="71"/>
+      <c r="B216" s="70"/>
       <c r="C216" s="11" t="s">
         <v>22</v>
       </c>
@@ -14247,7 +14528,7 @@
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="67"/>
+      <c r="B217" s="69"/>
       <c r="C217" s="11" t="s">
         <v>25</v>
       </c>
@@ -14298,7 +14579,7 @@
       </c>
     </row>
     <row r="218" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B218" s="66" t="s">
+      <c r="B218" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="11" t="s">
@@ -14351,7 +14632,7 @@
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="67"/>
+      <c r="B219" s="69"/>
       <c r="C219" s="9" t="s">
         <v>8</v>
       </c>
@@ -14649,20 +14930,76 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:C117"/>
@@ -14687,76 +15024,20 @@
     <mergeCell ref="N136:R136"/>
     <mergeCell ref="B155:B156"/>
     <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14779,37 +15060,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="72">
+      <c r="C3" s="81"/>
+      <c r="D3" s="65">
         <v>0.25</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="72">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="65">
         <v>0.5</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="72">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="65">
         <v>0.75</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="2">
         <v>40</v>
       </c>
@@ -14857,7 +15138,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -14910,7 +15191,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="67"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
@@ -15025,10 +15306,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -15076,7 +15357,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -15129,7 +15410,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
@@ -15180,7 +15461,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
@@ -15231,7 +15512,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -15284,7 +15565,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
@@ -15654,7 +15935,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="80">
+      <c r="D22" s="82">
         <v>0.25</v>
       </c>
       <c r="E22">
@@ -15689,7 +15970,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D23" s="80"/>
+      <c r="D23" s="82"/>
       <c r="E23">
         <v>80</v>
       </c>
@@ -15722,7 +16003,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D24" s="80"/>
+      <c r="D24" s="82"/>
       <c r="E24">
         <v>120</v>
       </c>
@@ -15755,7 +16036,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D25" s="80"/>
+      <c r="D25" s="82"/>
       <c r="E25">
         <v>160</v>
       </c>
@@ -15788,7 +16069,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D26" s="80"/>
+      <c r="D26" s="82"/>
       <c r="E26">
         <v>200</v>
       </c>
@@ -15821,7 +16102,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D27" s="80">
+      <c r="D27" s="82">
         <v>0.5</v>
       </c>
       <c r="E27">
@@ -15856,7 +16137,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D28" s="80">
+      <c r="D28" s="82">
         <v>0</v>
       </c>
       <c r="E28">
@@ -15891,7 +16172,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D29" s="80">
+      <c r="D29" s="82">
         <v>0</v>
       </c>
       <c r="E29">
@@ -15926,7 +16207,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="80">
+      <c r="D30" s="82">
         <v>0</v>
       </c>
       <c r="E30">
@@ -15961,7 +16242,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="80">
+      <c r="D31" s="82">
         <v>0</v>
       </c>
       <c r="E31">
@@ -15996,7 +16277,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="80">
+      <c r="D32" s="82">
         <v>0.75</v>
       </c>
       <c r="E32">
@@ -16031,7 +16312,7 @@
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="80">
+      <c r="D33" s="82">
         <v>0</v>
       </c>
       <c r="E33">
@@ -16066,7 +16347,7 @@
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="80">
+      <c r="D34" s="82">
         <v>0</v>
       </c>
       <c r="E34">
@@ -16101,7 +16382,7 @@
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="80">
+      <c r="D35" s="82">
         <v>0</v>
       </c>
       <c r="E35">
@@ -16136,7 +16417,7 @@
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="80">
+      <c r="D36" s="82">
         <v>0</v>
       </c>
       <c r="E36">
@@ -16768,18 +17049,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E734E-DF76-4F2B-8F5E-86FD48050335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D724DD-3F3D-4546-BEB9-23EFF495C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="60" windowWidth="28200" windowHeight="15015" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="600" yWindow="465" windowWidth="28200" windowHeight="15015" activeTab="3" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="profits_costs" sheetId="2" r:id="rId1"/>
     <sheet name="Distributions" sheetId="3" r:id="rId2"/>
     <sheet name="transpose" sheetId="4" r:id="rId3"/>
+    <sheet name="Distributions_copy" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="59">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -590,19 +591,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -924,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
   <dimension ref="A2:U273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
@@ -14150,37 +14151,23 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C258:C265"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="C238:C245"/>
-    <mergeCell ref="E251:I251"/>
-    <mergeCell ref="J251:N251"/>
-    <mergeCell ref="O251:S251"/>
-    <mergeCell ref="C253:C257"/>
-    <mergeCell ref="E223:I223"/>
-    <mergeCell ref="J223:N223"/>
-    <mergeCell ref="O223:S223"/>
-    <mergeCell ref="C225:C229"/>
-    <mergeCell ref="C230:C237"/>
-    <mergeCell ref="O116:S116"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="C131:C138"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="E116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="E196:I196"/>
-    <mergeCell ref="J196:N196"/>
-    <mergeCell ref="O196:S196"/>
-    <mergeCell ref="E142:I142"/>
-    <mergeCell ref="J142:N142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="E169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="O169:S169"/>
+    <mergeCell ref="C211:C218"/>
+    <mergeCell ref="C149:C156"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="C184:C191"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="C203:C210"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C183"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C74"/>
     <mergeCell ref="E88:I88"/>
     <mergeCell ref="J88:N88"/>
     <mergeCell ref="O88:S88"/>
@@ -14193,23 +14180,37 @@
     <mergeCell ref="E60:I60"/>
     <mergeCell ref="J60:N60"/>
     <mergeCell ref="O60:S60"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="C211:C218"/>
-    <mergeCell ref="C149:C156"/>
-    <mergeCell ref="C157:C164"/>
-    <mergeCell ref="C184:C191"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="C203:C210"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C183"/>
+    <mergeCell ref="E196:I196"/>
+    <mergeCell ref="J196:N196"/>
+    <mergeCell ref="O196:S196"/>
+    <mergeCell ref="E142:I142"/>
+    <mergeCell ref="J142:N142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="E169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="O169:S169"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="E116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="O116:S116"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="C131:C138"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="O251:S251"/>
+    <mergeCell ref="C253:C257"/>
+    <mergeCell ref="E223:I223"/>
+    <mergeCell ref="J223:N223"/>
+    <mergeCell ref="O223:S223"/>
+    <mergeCell ref="C225:C229"/>
+    <mergeCell ref="C230:C237"/>
+    <mergeCell ref="C258:C265"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="C238:C245"/>
+    <mergeCell ref="E251:I251"/>
+    <mergeCell ref="J251:N251"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14220,7 +14221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
@@ -14246,10 +14247,10 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="56">
         <v>0.25</v>
       </c>
@@ -14273,10 +14274,10 @@
       <c r="R4" s="58"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -14377,7 +14378,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
@@ -14492,10 +14493,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -14596,7 +14597,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
@@ -14647,7 +14648,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="61"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
@@ -14751,7 +14752,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
@@ -14950,10 +14951,10 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="56">
         <v>0.25</v>
       </c>
@@ -14977,10 +14978,10 @@
       <c r="R22" s="58"/>
     </row>
     <row r="23" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -15081,7 +15082,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
@@ -15196,10 +15197,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -15300,7 +15301,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="11" t="s">
         <v>19</v>
       </c>
@@ -15351,7 +15352,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="61"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
@@ -15455,7 +15456,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="61"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
@@ -15766,10 +15767,10 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="56">
         <v>0.25</v>
       </c>
@@ -15793,10 +15794,10 @@
       <c r="R41" s="58"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -15897,7 +15898,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="61"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="11" t="s">
         <v>5</v>
       </c>
@@ -15948,10 +15949,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -16052,7 +16053,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
@@ -16103,7 +16104,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="61"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="11" t="s">
         <v>22</v>
       </c>
@@ -16207,7 +16208,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="61"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="9" t="s">
         <v>5</v>
       </c>
@@ -16638,10 +16639,10 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="64"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="56">
         <v>0.25</v>
       </c>
@@ -16665,10 +16666,10 @@
       <c r="R61" s="58"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -16769,7 +16770,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="61"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="11" t="s">
         <v>5</v>
       </c>
@@ -16884,10 +16885,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="66"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -16988,7 +16989,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="60"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="11" t="s">
         <v>19</v>
       </c>
@@ -17039,7 +17040,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="61"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="11" t="s">
         <v>22</v>
       </c>
@@ -17143,7 +17144,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="61"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
@@ -17338,10 +17339,10 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="64"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="56">
         <v>0.25</v>
       </c>
@@ -17365,10 +17366,10 @@
       <c r="R78" s="58"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="63"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -17469,7 +17470,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="61"/>
+      <c r="B81" s="60"/>
       <c r="C81" s="11" t="s">
         <v>5</v>
       </c>
@@ -17584,10 +17585,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="66"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -17688,7 +17689,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="60"/>
+      <c r="B85" s="66"/>
       <c r="C85" s="11" t="s">
         <v>19</v>
       </c>
@@ -17739,7 +17740,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="61"/>
+      <c r="B86" s="60"/>
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
@@ -17843,7 +17844,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="61"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="9" t="s">
         <v>5</v>
       </c>
@@ -18270,10 +18271,10 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="64"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="56">
         <v>0.25</v>
       </c>
@@ -18297,10 +18298,10 @@
       <c r="R99" s="58"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="63"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -18401,7 +18402,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="61"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="11" t="s">
         <v>5</v>
       </c>
@@ -18516,10 +18517,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="66"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -18620,7 +18621,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="60"/>
+      <c r="B106" s="66"/>
       <c r="C106" s="11" t="s">
         <v>19</v>
       </c>
@@ -18671,7 +18672,7 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="61"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="11" t="s">
         <v>22</v>
       </c>
@@ -18775,7 +18776,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="61"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="9" t="s">
         <v>5</v>
       </c>
@@ -18970,10 +18971,10 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="64"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="56">
         <v>0.25</v>
       </c>
@@ -18997,10 +18998,10 @@
       <c r="R116" s="58"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="62" t="s">
+      <c r="B117" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="63"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -19101,7 +19102,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="61"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="11" t="s">
         <v>5</v>
       </c>
@@ -19216,10 +19217,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="65" t="s">
+      <c r="B121" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="66"/>
+      <c r="C121" s="64"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -19320,7 +19321,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="60"/>
+      <c r="B123" s="66"/>
       <c r="C123" s="11" t="s">
         <v>19</v>
       </c>
@@ -19371,7 +19372,7 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="61"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="11" t="s">
         <v>22</v>
       </c>
@@ -19475,7 +19476,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="61"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="9" t="s">
         <v>5</v>
       </c>
@@ -19903,10 +19904,10 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="62" t="s">
+      <c r="B136" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="64"/>
+      <c r="C136" s="65"/>
       <c r="D136" s="56">
         <v>0.25</v>
       </c>
@@ -19930,10 +19931,10 @@
       <c r="R136" s="58"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="63"/>
+      <c r="C137" s="62"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -20034,7 +20035,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="61"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="11" t="s">
         <v>5</v>
       </c>
@@ -20149,10 +20150,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="65" t="s">
+      <c r="B141" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="66"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -20253,7 +20254,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="60"/>
+      <c r="B143" s="66"/>
       <c r="C143" s="11" t="s">
         <v>19</v>
       </c>
@@ -20304,7 +20305,7 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="61"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="11" t="s">
         <v>22</v>
       </c>
@@ -20408,7 +20409,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="61"/>
+      <c r="B146" s="60"/>
       <c r="C146" s="9" t="s">
         <v>5</v>
       </c>
@@ -20603,10 +20604,10 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="62" t="s">
+      <c r="B153" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C153" s="64"/>
+      <c r="C153" s="65"/>
       <c r="D153" s="56">
         <v>0.25</v>
       </c>
@@ -20630,10 +20631,10 @@
       <c r="R153" s="58"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="62" t="s">
+      <c r="B154" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="63"/>
+      <c r="C154" s="62"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -20734,7 +20735,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="61"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="11" t="s">
         <v>5</v>
       </c>
@@ -20849,10 +20850,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="65" t="s">
+      <c r="B158" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="66"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -20953,7 +20954,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="60"/>
+      <c r="B160" s="66"/>
       <c r="C160" s="11" t="s">
         <v>19</v>
       </c>
@@ -21004,7 +21005,7 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="61"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="11" t="s">
         <v>22</v>
       </c>
@@ -21108,7 +21109,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="61"/>
+      <c r="B163" s="60"/>
       <c r="C163" s="9" t="s">
         <v>5</v>
       </c>
@@ -21420,10 +21421,10 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="62" t="s">
+      <c r="B171" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="64"/>
+      <c r="C171" s="65"/>
       <c r="D171" s="56">
         <v>0.25</v>
       </c>
@@ -21447,10 +21448,10 @@
       <c r="R171" s="58"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="62" t="s">
+      <c r="B172" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="63"/>
+      <c r="C172" s="62"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -21551,7 +21552,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="61"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="11" t="s">
         <v>5</v>
       </c>
@@ -21666,10 +21667,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="65" t="s">
+      <c r="B176" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C176" s="66"/>
+      <c r="C176" s="64"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -21770,7 +21771,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="60"/>
+      <c r="B178" s="66"/>
       <c r="C178" s="11" t="s">
         <v>19</v>
       </c>
@@ -21821,7 +21822,7 @@
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="61"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="11" t="s">
         <v>22</v>
       </c>
@@ -21925,7 +21926,7 @@
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="61"/>
+      <c r="B181" s="60"/>
       <c r="C181" s="9" t="s">
         <v>5</v>
       </c>
@@ -22350,10 +22351,10 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="64"/>
+      <c r="C192" s="65"/>
       <c r="D192" s="56">
         <v>0.25</v>
       </c>
@@ -22377,10 +22378,10 @@
       <c r="R192" s="58"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="62" t="s">
+      <c r="B193" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="63"/>
+      <c r="C193" s="62"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -22481,7 +22482,7 @@
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="61"/>
+      <c r="B195" s="60"/>
       <c r="C195" s="11" t="s">
         <v>5</v>
       </c>
@@ -22596,10 +22597,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="65" t="s">
+      <c r="B197" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="66"/>
+      <c r="C197" s="64"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -22700,7 +22701,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="60"/>
+      <c r="B199" s="66"/>
       <c r="C199" s="11" t="s">
         <v>19</v>
       </c>
@@ -22751,7 +22752,7 @@
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="61"/>
+      <c r="B200" s="60"/>
       <c r="C200" s="11" t="s">
         <v>22</v>
       </c>
@@ -22855,7 +22856,7 @@
       </c>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="61"/>
+      <c r="B202" s="60"/>
       <c r="C202" s="9" t="s">
         <v>5</v>
       </c>
@@ -23051,10 +23052,10 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="62" t="s">
+      <c r="B209" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="64"/>
+      <c r="C209" s="65"/>
       <c r="D209" s="56">
         <v>0.25</v>
       </c>
@@ -23078,10 +23079,10 @@
       <c r="R209" s="58"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="62" t="s">
+      <c r="B210" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="63"/>
+      <c r="C210" s="62"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -23182,7 +23183,7 @@
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="61"/>
+      <c r="B212" s="60"/>
       <c r="C212" s="11" t="s">
         <v>5</v>
       </c>
@@ -23297,10 +23298,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="65" t="s">
+      <c r="B214" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="66"/>
+      <c r="C214" s="64"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -23401,7 +23402,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="60"/>
+      <c r="B216" s="66"/>
       <c r="C216" s="11" t="s">
         <v>19</v>
       </c>
@@ -23452,7 +23453,7 @@
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="61"/>
+      <c r="B217" s="60"/>
       <c r="C217" s="11" t="s">
         <v>22</v>
       </c>
@@ -23556,7 +23557,7 @@
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="61"/>
+      <c r="B219" s="60"/>
       <c r="C219" s="9" t="s">
         <v>5</v>
       </c>
@@ -23854,20 +23855,76 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:C117"/>
@@ -23892,76 +23949,20 @@
     <mergeCell ref="N136:R136"/>
     <mergeCell ref="B155:B156"/>
     <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23984,10 +23985,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="56">
         <v>0.25</v>
       </c>
@@ -24011,10 +24012,10 @@
       <c r="R3" s="58"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="2">
         <v>40</v>
       </c>
@@ -24115,7 +24116,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
@@ -24230,10 +24231,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -24334,7 +24335,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
@@ -24385,7 +24386,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="61"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -24489,7 +24490,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="61"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -25973,19 +25974,4385 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94ADC68-9302-4CA0-9276-97E3AD43674E}">
+  <dimension ref="B2:L171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" style="4"/>
+    <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="11" style="4"/>
+    <col min="11" max="12" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="4"/>
+    <col min="14" max="14" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="11" style="4"/>
+    <col min="28" max="30" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1">
+        <v>120</v>
+      </c>
+      <c r="L5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="E6" s="6">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="F6" s="7">
+        <v>378.77199999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>58.515000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="J6" s="5">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="L6" s="7">
+        <v>143.09599999999901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>90.058999999999997</v>
+      </c>
+      <c r="E7" s="13">
+        <v>250.551999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>439.83199999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>59.173000000000002</v>
+      </c>
+      <c r="H7" s="13">
+        <v>177.28799999999899</v>
+      </c>
+      <c r="I7" s="13">
+        <v>253.658999999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>31.5259999999999</v>
+      </c>
+      <c r="K7" s="13">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="L7" s="14">
+        <v>139.35499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="15">
+        <v>51.249999999999901</v>
+      </c>
+      <c r="E8" s="16">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="F8" s="17">
+        <v>51</v>
+      </c>
+      <c r="G8" s="15">
+        <v>51.6666666666666</v>
+      </c>
+      <c r="H8" s="16">
+        <v>51.1805555555555</v>
+      </c>
+      <c r="I8" s="17">
+        <v>51.0833333333333</v>
+      </c>
+      <c r="J8" s="15">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="K8" s="16">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="L8" s="17">
+        <v>51.4722222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="E9" s="6">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="F9" s="7">
+        <v>378.77199999999903</v>
+      </c>
+      <c r="G9" s="5">
+        <v>58.514999999999901</v>
+      </c>
+      <c r="H9" s="6">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="J9" s="5">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="K9" s="6">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="L9" s="7">
+        <v>143.096</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="66"/>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12">
+        <v>195.36699999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>579.78699999999901</v>
+      </c>
+      <c r="F10" s="13">
+        <v>945.03800000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>485.387</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1417.0039999999899</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2384.942</v>
+      </c>
+      <c r="J10" s="12">
+        <v>761.87199999999905</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2299.84</v>
+      </c>
+      <c r="L10" s="14">
+        <v>3867.1559999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="18">
+        <v>28.1739999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>83.094999999999899</v>
+      </c>
+      <c r="F11" s="4">
+        <v>132.29</v>
+      </c>
+      <c r="G11" s="18">
+        <v>42.725999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>153.55799999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>271.62799999999999</v>
+      </c>
+      <c r="J11" s="18">
+        <v>83.094999999999899</v>
+      </c>
+      <c r="K11" s="4">
+        <v>241.18600000000001</v>
+      </c>
+      <c r="L11" s="19">
+        <v>356.85400000000101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6.5509999999999904</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.855</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7.4279999999999902</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11.442</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10.285</v>
+      </c>
+      <c r="L12" s="7">
+        <v>16.777999999999899</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="60"/>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>23.068999999999999</v>
+      </c>
+      <c r="E13" s="13">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="F13" s="13">
+        <v>132.15499999999901</v>
+      </c>
+      <c r="G13" s="12">
+        <v>38.18</v>
+      </c>
+      <c r="H13" s="13">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="I13" s="13">
+        <v>263.291</v>
+      </c>
+      <c r="J13" s="12">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="K13" s="13">
+        <v>231.09</v>
+      </c>
+      <c r="L13" s="14">
+        <v>380.47500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>120</v>
+      </c>
+      <c r="F20" s="1">
+        <v>200</v>
+      </c>
+      <c r="G20" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1">
+        <v>120</v>
+      </c>
+      <c r="I20" s="1">
+        <v>200</v>
+      </c>
+      <c r="J20" s="2">
+        <v>40</v>
+      </c>
+      <c r="K20" s="1">
+        <v>120</v>
+      </c>
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>160.071</v>
+      </c>
+      <c r="E21" s="6">
+        <v>467.14999999999901</v>
+      </c>
+      <c r="F21" s="7">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>117.688</v>
+      </c>
+      <c r="H21" s="6">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="I21" s="7">
+        <v>509.72699999999998</v>
+      </c>
+      <c r="J21" s="5">
+        <v>66.038999999999902</v>
+      </c>
+      <c r="K21" s="6">
+        <v>160.071</v>
+      </c>
+      <c r="L21" s="7">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
+      <c r="C22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12">
+        <f>SUM(D21:D22)</f>
+        <v>160.071</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" ref="E23:L23" si="0">SUM(E21:E22)</f>
+        <v>467.14999999999901</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>818.60400000000004</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
+        <v>117.688</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>352.66699999999901</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="0"/>
+        <v>509.72699999999998</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
+        <v>66.038999999999902</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="0"/>
+        <v>160.071</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="15">
+        <v>79.1666666666666</v>
+      </c>
+      <c r="E24" s="16">
+        <v>79.0277777777777</v>
+      </c>
+      <c r="F24" s="17">
+        <v>79.25</v>
+      </c>
+      <c r="G24" s="15">
+        <v>79.5833333333333</v>
+      </c>
+      <c r="H24" s="16">
+        <v>79.2361111111111</v>
+      </c>
+      <c r="I24" s="17">
+        <v>79.25</v>
+      </c>
+      <c r="J24" s="15">
+        <v>79.0277777777777</v>
+      </c>
+      <c r="K24" s="16">
+        <v>79.259259259259196</v>
+      </c>
+      <c r="L24" s="17">
+        <v>79.5555555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>148.983</v>
+      </c>
+      <c r="E25" s="6">
+        <v>434.11799999999897</v>
+      </c>
+      <c r="F25" s="7">
+        <v>763.61300000000006</v>
+      </c>
+      <c r="G25" s="5">
+        <v>110.482999999999</v>
+      </c>
+      <c r="H25" s="6">
+        <v>331.69499999999903</v>
+      </c>
+      <c r="I25" s="7">
+        <v>477.707999999999</v>
+      </c>
+      <c r="J25" s="5">
+        <v>61.884999999999998</v>
+      </c>
+      <c r="K25" s="6">
+        <v>150.564999999999</v>
+      </c>
+      <c r="L25" s="7">
+        <v>265.137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="66"/>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="12">
+        <v>5.6930980751308997</v>
+      </c>
+      <c r="E26" s="13">
+        <v>16.280567837595399</v>
+      </c>
+      <c r="F26" s="13">
+        <v>11.1597107415861</v>
+      </c>
+      <c r="G26" s="12">
+        <v>89.901988788292599</v>
+      </c>
+      <c r="H26" s="13">
+        <v>229.843559413972</v>
+      </c>
+      <c r="I26" s="13">
+        <v>403.219265151809</v>
+      </c>
+      <c r="J26" s="12">
+        <v>170.042117489568</v>
+      </c>
+      <c r="K26" s="13">
+        <v>510.84494224544801</v>
+      </c>
+      <c r="L26" s="14">
+        <v>879.75662436382902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="60"/>
+      <c r="C27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="18">
+        <v>47.372999999999898</v>
+      </c>
+      <c r="E27" s="4">
+        <v>142.66800000000001</v>
+      </c>
+      <c r="F27" s="4">
+        <v>249.46199999999999</v>
+      </c>
+      <c r="G27" s="18">
+        <v>75.120999999999995</v>
+      </c>
+      <c r="H27" s="4">
+        <v>287.911</v>
+      </c>
+      <c r="I27" s="4">
+        <v>503.792000000001</v>
+      </c>
+      <c r="J27" s="18">
+        <v>142.66800000000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>444.42700000000002</v>
+      </c>
+      <c r="L27" s="19">
+        <v>697.49099999999896</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.40499999999999903</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.194</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3.6469999999999998</v>
+      </c>
+      <c r="L28" s="7">
+        <v>5.1779999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4.1549999999999896</v>
+      </c>
+      <c r="E29" s="13">
+        <v>12.3429999999999</v>
+      </c>
+      <c r="F29" s="13">
+        <v>19.411999999999999</v>
+      </c>
+      <c r="G29" s="12">
+        <v>7.1399999999999899</v>
+      </c>
+      <c r="H29" s="13">
+        <v>22.695</v>
+      </c>
+      <c r="I29" s="13">
+        <v>38.374999999999901</v>
+      </c>
+      <c r="J29" s="12">
+        <v>12.3429999999999</v>
+      </c>
+      <c r="K29" s="13">
+        <v>34.486999999999902</v>
+      </c>
+      <c r="L29" s="14">
+        <v>51.437999999999903</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM(D27:D29)</f>
+        <v>51.932999999999886</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" ref="E30:L30" si="1">SUM(E27:E29)</f>
+        <v>156.34099999999992</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>270.99599999999998</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>82.760999999999981</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>313.101</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>546.3610000000009</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>156.34099999999992</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>482.56099999999992</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>754.10699999999883</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4">
+        <f>SUM(D25:D28)</f>
+        <v>202.45409807513082</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31:L31" si="2">SUM(E25:E28)</f>
+        <v>594.39656783759449</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>1026.3567107415863</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>276.00598878829157</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="2"/>
+        <v>851.94455941397098</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="2"/>
+        <v>1388.9132651518089</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="2"/>
+        <v>375.92511748956798</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="2"/>
+        <v>1109.483942245447</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="2"/>
+        <v>1847.5626243638283</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>91.788901924869094</v>
+      </c>
+      <c r="E32" s="4">
+        <v>288.31843216240401</v>
+      </c>
+      <c r="F32" s="4">
+        <v>436.29428925841302</v>
+      </c>
+      <c r="G32" s="4">
+        <v>312.47701121170701</v>
+      </c>
+      <c r="H32" s="4">
+        <v>901.424440586027</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1535.1667348481899</v>
+      </c>
+      <c r="J32" s="4">
+        <v>506.78988251043103</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1520.0800577545499</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2536.3213756361702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUM(D31:D32)</f>
+        <v>294.24299999999994</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33:L33" si="3">SUM(E31:E32)</f>
+        <v>882.71499999999855</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="3"/>
+        <v>1462.6509999999994</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="3"/>
+        <v>588.48299999999858</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>1753.3689999999979</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="3"/>
+        <v>2924.079999999999</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>882.71499999999901</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="3"/>
+        <v>2629.5639999999967</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="3"/>
+        <v>4383.8839999999982</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="2">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1">
+        <v>200</v>
+      </c>
+      <c r="G39" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" s="1">
+        <v>120</v>
+      </c>
+      <c r="I39" s="1">
+        <v>200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>40</v>
+      </c>
+      <c r="K39" s="1">
+        <v>120</v>
+      </c>
+      <c r="L39" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5">
+        <v>160.071</v>
+      </c>
+      <c r="E40" s="6">
+        <v>467.14999999999901</v>
+      </c>
+      <c r="F40" s="7">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="G40" s="5">
+        <v>117.688</v>
+      </c>
+      <c r="H40" s="6">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="I40" s="7">
+        <v>509.72699999999998</v>
+      </c>
+      <c r="J40" s="5">
+        <v>66.038999999999902</v>
+      </c>
+      <c r="K40" s="6">
+        <v>160.071</v>
+      </c>
+      <c r="L40" s="7">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="60"/>
+      <c r="C41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="15">
+        <v>95.4166666666666</v>
+      </c>
+      <c r="E42" s="16">
+        <v>97.2222222222222</v>
+      </c>
+      <c r="F42" s="17">
+        <v>97.75</v>
+      </c>
+      <c r="G42" s="15">
+        <v>100</v>
+      </c>
+      <c r="H42" s="16">
+        <v>100</v>
+      </c>
+      <c r="I42" s="17">
+        <v>100</v>
+      </c>
+      <c r="J42" s="15">
+        <v>100</v>
+      </c>
+      <c r="K42" s="16">
+        <v>100</v>
+      </c>
+      <c r="L42" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5">
+        <v>160.071</v>
+      </c>
+      <c r="E43" s="6">
+        <v>467.15</v>
+      </c>
+      <c r="F43" s="7">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="G43" s="5">
+        <v>117.68799999999899</v>
+      </c>
+      <c r="H43" s="6">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="I43" s="7">
+        <v>509.72699999999901</v>
+      </c>
+      <c r="J43" s="5">
+        <v>66.039000000000001</v>
+      </c>
+      <c r="K43" s="6">
+        <v>160.070999999999</v>
+      </c>
+      <c r="L43" s="7">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="12">
+        <v>24.692634216652799</v>
+      </c>
+      <c r="E44" s="13">
+        <v>112.497784911889</v>
+      </c>
+      <c r="F44" s="13">
+        <v>152.58079298933299</v>
+      </c>
+      <c r="G44" s="12">
+        <v>347.30066310632299</v>
+      </c>
+      <c r="H44" s="13">
+        <v>990.16378983971003</v>
+      </c>
+      <c r="I44" s="13">
+        <v>1698.13317421486</v>
+      </c>
+      <c r="J44" s="12">
+        <v>601.75019392147397</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1885.6015084575199</v>
+      </c>
+      <c r="L44" s="14">
+        <v>3189.9958773902399</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="60"/>
+      <c r="C45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="18">
+        <v>49.882999999999903</v>
+      </c>
+      <c r="E45" s="4">
+        <v>151.58199999999999</v>
+      </c>
+      <c r="F45" s="4">
+        <v>265.21800000000002</v>
+      </c>
+      <c r="G45" s="18">
+        <v>82.760999999999896</v>
+      </c>
+      <c r="H45" s="4">
+        <v>313.101</v>
+      </c>
+      <c r="I45" s="4">
+        <v>546.36099999999999</v>
+      </c>
+      <c r="J45" s="18">
+        <v>156.34100000000001</v>
+      </c>
+      <c r="K45" s="4">
+        <v>482.56099999999998</v>
+      </c>
+      <c r="L45" s="19">
+        <v>754.10699999999804</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1.18087423117313</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1.3646316173867901</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="60"/>
+      <c r="C47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="E47" s="13">
+        <v>3.57812576882686</v>
+      </c>
+      <c r="F47" s="13">
+        <v>4.4133683826132</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <v>0</v>
+      </c>
+      <c r="L47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="65"/>
+      <c r="D52" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="2">
+        <v>40</v>
+      </c>
+      <c r="E53" s="1">
+        <v>120</v>
+      </c>
+      <c r="F53" s="1">
+        <v>200</v>
+      </c>
+      <c r="G53" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" s="1">
+        <v>120</v>
+      </c>
+      <c r="I53" s="1">
+        <v>200</v>
+      </c>
+      <c r="J53" s="2">
+        <v>40</v>
+      </c>
+      <c r="K53" s="1">
+        <v>120</v>
+      </c>
+      <c r="L53" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E54" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="F54" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="G54" s="5">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="H54" s="6">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="I54" s="7">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="J54" s="5">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="K54" s="6">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="L54" s="7">
+        <v>30.446999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="60"/>
+      <c r="C55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="12">
+        <v>221.73400000000001</v>
+      </c>
+      <c r="E55" s="13">
+        <v>751.58199999999999</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1333.7239999999899</v>
+      </c>
+      <c r="G55" s="12">
+        <v>161.07</v>
+      </c>
+      <c r="H55" s="13">
+        <v>505.45800000000003</v>
+      </c>
+      <c r="I55" s="13">
+        <v>824.81899999999996</v>
+      </c>
+      <c r="J55" s="12">
+        <v>87.516000000000005</v>
+      </c>
+      <c r="K55" s="13">
+        <v>203.19900000000001</v>
+      </c>
+      <c r="L55" s="14">
+        <v>416.897999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="15">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="F56" s="17">
+        <v>11.25</v>
+      </c>
+      <c r="G56" s="15">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="H56" s="16">
+        <v>10.7638888888888</v>
+      </c>
+      <c r="I56" s="17">
+        <v>10.125</v>
+      </c>
+      <c r="J56" s="15">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="K56" s="16">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="L56" s="17">
+        <v>9.4722222222222197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E57" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="F57" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="G57" s="5">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="H57" s="6">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="I57" s="7">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="J57" s="5">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="K57" s="6">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="L57" s="7">
+        <v>30.446999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="18">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="60"/>
+      <c r="C59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="18">
+        <v>2.214</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="F59" s="19">
+        <v>8.1389999999999905</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4.4209999999999896</v>
+      </c>
+      <c r="H59" s="4">
+        <v>10.041</v>
+      </c>
+      <c r="I59" s="19">
+        <v>16.111999999999998</v>
+      </c>
+      <c r="J59" s="4">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="K59" s="4">
+        <v>15.157</v>
+      </c>
+      <c r="L59" s="19">
+        <v>24.221</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="18">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="E60" s="4">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="F60" s="19">
+        <v>22.358000000000001</v>
+      </c>
+      <c r="G60" s="18">
+        <v>9.0299999999999905</v>
+      </c>
+      <c r="H60" s="4">
+        <v>27.227</v>
+      </c>
+      <c r="I60" s="19">
+        <v>46.946999999999797</v>
+      </c>
+      <c r="J60" s="18">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="K60" s="4">
+        <v>41.9669999999998</v>
+      </c>
+      <c r="L60" s="19">
+        <v>73.428000000000296</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="60"/>
+      <c r="C61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="12">
+        <v>99.1039999999999</v>
+      </c>
+      <c r="E61" s="13">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="F61" s="13">
+        <v>431.16699999999997</v>
+      </c>
+      <c r="G61" s="12">
+        <v>168.33099999999999</v>
+      </c>
+      <c r="H61" s="13">
+        <v>516.73800000000006</v>
+      </c>
+      <c r="I61" s="13">
+        <v>903.57199999999705</v>
+      </c>
+      <c r="J61" s="12">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="K61" s="13">
+        <v>799.92199999999696</v>
+      </c>
+      <c r="L61" s="14">
+        <v>1324.3039999999901</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+    </row>
+    <row r="64" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="65"/>
+      <c r="D66" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K66" s="57"/>
+      <c r="L66" s="58"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="62"/>
+      <c r="D67" s="2">
+        <v>40</v>
+      </c>
+      <c r="E67" s="1">
+        <v>120</v>
+      </c>
+      <c r="F67" s="1">
+        <v>200</v>
+      </c>
+      <c r="G67" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" s="1">
+        <v>120</v>
+      </c>
+      <c r="I67" s="1">
+        <v>200</v>
+      </c>
+      <c r="J67" s="2">
+        <v>40</v>
+      </c>
+      <c r="K67" s="1">
+        <v>120</v>
+      </c>
+      <c r="L67" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E68" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="F68" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="G68" s="5">
+        <v>19.103584330537</v>
+      </c>
+      <c r="H68" s="6">
+        <v>56.964458761560202</v>
+      </c>
+      <c r="I68" s="7">
+        <v>60.226328751667999</v>
+      </c>
+      <c r="J68" s="5">
+        <v>93.92</v>
+      </c>
+      <c r="K68" s="6">
+        <v>223.483</v>
+      </c>
+      <c r="L68" s="7">
+        <v>447.344999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="60"/>
+      <c r="C69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="12">
+        <v>221.73400000000001</v>
+      </c>
+      <c r="E69" s="13">
+        <v>751.58199999999999</v>
+      </c>
+      <c r="F69" s="13">
+        <v>1333.7239999999899</v>
+      </c>
+      <c r="G69" s="12">
+        <v>145.53341566946301</v>
+      </c>
+      <c r="H69" s="13">
+        <v>462.67754123843901</v>
+      </c>
+      <c r="I69" s="13">
+        <v>786.92767124833199</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+      <c r="K69" s="13">
+        <v>0</v>
+      </c>
+      <c r="L69" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="64"/>
+      <c r="D70" s="15">
+        <v>10</v>
+      </c>
+      <c r="E70" s="16">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="F70" s="17">
+        <v>11.25</v>
+      </c>
+      <c r="G70" s="15">
+        <v>30</v>
+      </c>
+      <c r="H70" s="16">
+        <v>24.7222222222222</v>
+      </c>
+      <c r="I70" s="17">
+        <v>18.25</v>
+      </c>
+      <c r="J70" s="15">
+        <v>77.0833333333333</v>
+      </c>
+      <c r="K70" s="16">
+        <v>80.324074074074005</v>
+      </c>
+      <c r="L70" s="17">
+        <v>77.2777777777777</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E71" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="F71" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="G71" s="5">
+        <v>19.103584330537</v>
+      </c>
+      <c r="H71" s="6">
+        <v>56.964458761560202</v>
+      </c>
+      <c r="I71" s="7">
+        <v>60.226328751667999</v>
+      </c>
+      <c r="J71" s="5">
+        <v>93.92</v>
+      </c>
+      <c r="K71" s="6">
+        <v>223.483</v>
+      </c>
+      <c r="L71" s="7">
+        <v>447.344999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="66"/>
+      <c r="C72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="18">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="19">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="60"/>
+      <c r="C73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="18">
+        <v>2.214</v>
+      </c>
+      <c r="E73" s="4">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="F73" s="4">
+        <v>8.1389999999999905</v>
+      </c>
+      <c r="G73" s="18">
+        <v>15.0899999999999</v>
+      </c>
+      <c r="H73" s="4">
+        <v>25.02</v>
+      </c>
+      <c r="I73" s="4">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="J73" s="18">
+        <v>138.71100000000001</v>
+      </c>
+      <c r="K73" s="4">
+        <v>467.86599999999902</v>
+      </c>
+      <c r="L73" s="19">
+        <v>733.05399999999804</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="E74" s="6">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="F74" s="7">
+        <v>22.358000000000001</v>
+      </c>
+      <c r="G74" s="5">
+        <v>11.055183124858999</v>
+      </c>
+      <c r="H74" s="6">
+        <v>29.3174195186871</v>
+      </c>
+      <c r="I74" s="7">
+        <v>48.831667450507801</v>
+      </c>
+      <c r="J74" s="5">
+        <v>6.1973107522549196</v>
+      </c>
+      <c r="K74" s="6">
+        <v>26.725692899775598</v>
+      </c>
+      <c r="L74" s="7">
+        <v>53.317144616080597</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="60"/>
+      <c r="C75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="12">
+        <v>99.1039999999999</v>
+      </c>
+      <c r="E75" s="13">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="F75" s="13">
+        <v>431.16699999999997</v>
+      </c>
+      <c r="G75" s="12">
+        <v>155.63681687514099</v>
+      </c>
+      <c r="H75" s="13">
+        <v>499.66858048131297</v>
+      </c>
+      <c r="I75" s="13">
+        <v>889.60333254948898</v>
+      </c>
+      <c r="J75" s="12">
+        <v>167.021689247745</v>
+      </c>
+      <c r="K75" s="13">
+        <v>362.45430710022401</v>
+      </c>
+      <c r="L75" s="14">
+        <v>635.58185538391797</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C76" s="21"/>
+    </row>
+    <row r="78" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="65"/>
+      <c r="D80" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K80" s="57"/>
+      <c r="L80" s="58"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="62"/>
+      <c r="D81" s="2">
+        <v>40</v>
+      </c>
+      <c r="E81" s="1">
+        <v>120</v>
+      </c>
+      <c r="F81" s="1">
+        <v>200</v>
+      </c>
+      <c r="G81" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" s="1">
+        <v>120</v>
+      </c>
+      <c r="I81" s="1">
+        <v>200</v>
+      </c>
+      <c r="J81" s="2">
+        <v>40</v>
+      </c>
+      <c r="K81" s="1">
+        <v>120</v>
+      </c>
+      <c r="L81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="E82" s="6">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="F82" s="7">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="G82" s="5">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="H82" s="6">
+        <v>7086.0319999999901</v>
+      </c>
+      <c r="I82" s="7">
+        <v>11421.428</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1425.81699999999</v>
+      </c>
+      <c r="K82" s="6">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="L82" s="7">
+        <v>6354.0019999999904</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="60"/>
+      <c r="C83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="12">
+        <v>3962.0720000000001</v>
+      </c>
+      <c r="E83" s="13">
+        <v>11716.35</v>
+      </c>
+      <c r="F83" s="13">
+        <v>20326.177999999902</v>
+      </c>
+      <c r="G83" s="12">
+        <v>2297.0259999999898</v>
+      </c>
+      <c r="H83" s="13">
+        <v>7156.5720000000001</v>
+      </c>
+      <c r="I83" s="13">
+        <v>11543.5999999999</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1215.5719999999999</v>
+      </c>
+      <c r="K83" s="13">
+        <v>3240.2179999999998</v>
+      </c>
+      <c r="L83" s="14">
+        <v>5716.29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="64"/>
+      <c r="D84" s="15">
+        <v>45.403225806451601</v>
+      </c>
+      <c r="E84" s="16">
+        <v>44.614695340501697</v>
+      </c>
+      <c r="F84" s="17">
+        <v>45.534946236559101</v>
+      </c>
+      <c r="G84" s="15">
+        <v>45.799731182795597</v>
+      </c>
+      <c r="H84" s="16">
+        <v>45.6989247311827</v>
+      </c>
+      <c r="I84" s="17">
+        <v>45.643817204301001</v>
+      </c>
+      <c r="J84" s="15">
+        <v>44.614695340501697</v>
+      </c>
+      <c r="K84" s="16">
+        <v>45.764635603345198</v>
+      </c>
+      <c r="L84" s="17">
+        <v>45.735663082437199</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="E85" s="6">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="F85" s="7">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="G85" s="5">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="H85" s="6">
+        <v>7086.0319999999801</v>
+      </c>
+      <c r="I85" s="7">
+        <v>11421.428</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1425.817</v>
+      </c>
+      <c r="K85" s="6">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="L85" s="7">
+        <v>6354.0019999999904</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="66"/>
+      <c r="C86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="12">
+        <v>1996.89399999999</v>
+      </c>
+      <c r="E86" s="13">
+        <v>6057.6900000000096</v>
+      </c>
+      <c r="F86" s="13">
+        <v>10395.513999999999</v>
+      </c>
+      <c r="G86" s="12">
+        <v>7893.8299999999899</v>
+      </c>
+      <c r="H86" s="13">
+        <v>23387.566999999999</v>
+      </c>
+      <c r="I86" s="13">
+        <v>39006.135000000002</v>
+      </c>
+      <c r="J86" s="12">
+        <v>13392.458000000001</v>
+      </c>
+      <c r="K86" s="13">
+        <v>41847.157999999901</v>
+      </c>
+      <c r="L86" s="14">
+        <v>69848.159999999902</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="60"/>
+      <c r="C87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="18">
+        <v>923.17700000000104</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2870.2179999999898</v>
+      </c>
+      <c r="F87" s="4">
+        <v>4301.9760000000197</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1632.8589999999899</v>
+      </c>
+      <c r="H87" s="4">
+        <v>5205.1689999999999</v>
+      </c>
+      <c r="I87" s="4">
+        <v>9027.8719999999394</v>
+      </c>
+      <c r="J87" s="18">
+        <v>2870.2179999999898</v>
+      </c>
+      <c r="K87" s="4">
+        <v>7947.6309999999703</v>
+      </c>
+      <c r="L87" s="19">
+        <v>13189.684999999899</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="5">
+        <v>197.34800000000001</v>
+      </c>
+      <c r="E88" s="6">
+        <v>714.03799999999706</v>
+      </c>
+      <c r="F88" s="7">
+        <v>973.98299999999904</v>
+      </c>
+      <c r="G88" s="5">
+        <v>294.84099999999899</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1088.3499999999899</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1825.0059999999901</v>
+      </c>
+      <c r="J88" s="5">
+        <v>714.03799999999706</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1609.662</v>
+      </c>
+      <c r="L88" s="7">
+        <v>2569.5189999999502</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="60"/>
+      <c r="C89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1051.4369999999999</v>
+      </c>
+      <c r="E89" s="13">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="F89" s="13">
+        <v>5513.1819999999698</v>
+      </c>
+      <c r="G89" s="12">
+        <v>2031.627</v>
+      </c>
+      <c r="H89" s="13">
+        <v>6553.7069999999403</v>
+      </c>
+      <c r="I89" s="13">
+        <v>11215.2600000001</v>
+      </c>
+      <c r="J89" s="12">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="K89" s="13">
+        <v>9945.9360000000197</v>
+      </c>
+      <c r="L89" s="14">
+        <v>16573.290000000201</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="92" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="65"/>
+      <c r="D94" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K94" s="57"/>
+      <c r="L94" s="58"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="62"/>
+      <c r="D95" s="2">
+        <v>40</v>
+      </c>
+      <c r="E95" s="1">
+        <v>120</v>
+      </c>
+      <c r="F95" s="1">
+        <v>200</v>
+      </c>
+      <c r="G95" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" s="1">
+        <v>120</v>
+      </c>
+      <c r="I95" s="1">
+        <v>200</v>
+      </c>
+      <c r="J95" s="2">
+        <v>40</v>
+      </c>
+      <c r="K95" s="1">
+        <v>120</v>
+      </c>
+      <c r="L95" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="5">
+        <v>4631.1040494006102</v>
+      </c>
+      <c r="E96" s="6">
+        <v>13529.718920310899</v>
+      </c>
+      <c r="F96" s="7">
+        <v>23268.885594821601</v>
+      </c>
+      <c r="G96" s="5">
+        <v>4708.5619999999899</v>
+      </c>
+      <c r="H96" s="6">
+        <v>14242.603999999899</v>
+      </c>
+      <c r="I96" s="7">
+        <v>22965.0279999999</v>
+      </c>
+      <c r="J96" s="5">
+        <v>2641.3890000000001</v>
+      </c>
+      <c r="K96" s="6">
+        <v>6966.4930000000004</v>
+      </c>
+      <c r="L96" s="7">
+        <v>12070.291999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="60"/>
+      <c r="C97" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="12">
+        <v>2335.3889505993898</v>
+      </c>
+      <c r="E97" s="13">
+        <v>6947.2160796890803</v>
+      </c>
+      <c r="F97" s="13">
+        <v>12024.095405178299</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
+      <c r="I97" s="13">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
+        <v>0</v>
+      </c>
+      <c r="K97" s="13">
+        <v>0</v>
+      </c>
+      <c r="L97" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="64"/>
+      <c r="D98" s="15">
+        <v>60.2822580645161</v>
+      </c>
+      <c r="E98" s="16">
+        <v>59.641577060931901</v>
+      </c>
+      <c r="F98" s="17">
+        <v>60.577956989247298</v>
+      </c>
+      <c r="G98" s="15">
+        <v>98.481182795698899</v>
+      </c>
+      <c r="H98" s="16">
+        <v>98.008512544802798</v>
+      </c>
+      <c r="I98" s="17">
+        <v>98.087365591397798</v>
+      </c>
+      <c r="J98" s="15">
+        <v>97.853942652329707</v>
+      </c>
+      <c r="K98" s="16">
+        <v>98.912783751493393</v>
+      </c>
+      <c r="L98" s="17">
+        <v>99.202508960573397</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="5">
+        <v>4631.1040494006102</v>
+      </c>
+      <c r="E99" s="6">
+        <v>13529.718920310899</v>
+      </c>
+      <c r="F99" s="7">
+        <v>23268.885594821601</v>
+      </c>
+      <c r="G99" s="5">
+        <v>4708.5619999999899</v>
+      </c>
+      <c r="H99" s="6">
+        <v>14242.603999999899</v>
+      </c>
+      <c r="I99" s="7">
+        <v>22965.0279999999</v>
+      </c>
+      <c r="J99" s="5">
+        <v>2641.3890000000001</v>
+      </c>
+      <c r="K99" s="6">
+        <v>6966.4930000000004</v>
+      </c>
+      <c r="L99" s="7">
+        <v>12070.291999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="66"/>
+      <c r="C100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>3598.55059499456</v>
+      </c>
+      <c r="H100" s="13">
+        <v>9810.1000536523497</v>
+      </c>
+      <c r="I100" s="13">
+        <v>16337.5327318983</v>
+      </c>
+      <c r="J100" s="12">
+        <v>8824.0781863637294</v>
+      </c>
+      <c r="K100" s="13">
+        <v>28925.5832057894</v>
+      </c>
+      <c r="L100" s="14">
+        <v>47770.936721560698</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="60"/>
+      <c r="C101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="18">
+        <v>1380.2659999999901</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4470.5259999999998</v>
+      </c>
+      <c r="F101" s="4">
+        <v>6798.10700000002</v>
+      </c>
+      <c r="G101" s="18">
+        <v>3773.5929999999798</v>
+      </c>
+      <c r="H101" s="4">
+        <v>12212.977999999999</v>
+      </c>
+      <c r="I101" s="4">
+        <v>21106.5780000003</v>
+      </c>
+      <c r="J101" s="18">
+        <v>6785.66099999994</v>
+      </c>
+      <c r="K101" s="4">
+        <v>18950.976000000301</v>
+      </c>
+      <c r="L101" s="19">
+        <v>31716.034000000702</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="5">
+        <v>110.469950599383</v>
+      </c>
+      <c r="E102" s="6">
+        <v>402.28607968907801</v>
+      </c>
+      <c r="F102" s="7">
+        <v>571.28340517831998</v>
+      </c>
+      <c r="G102" s="5">
+        <v>55.043288273982697</v>
+      </c>
+      <c r="H102" s="6">
+        <v>165.84378192937999</v>
+      </c>
+      <c r="I102" s="7">
+        <v>259.526816352759</v>
+      </c>
+      <c r="J102" s="5">
+        <v>94.460290388339899</v>
+      </c>
+      <c r="K102" s="6">
+        <v>134.97928478287699</v>
+      </c>
+      <c r="L102" s="7">
+        <v>144.37940356997399</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="60"/>
+      <c r="C103" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="12">
+        <v>681.22604940061694</v>
+      </c>
+      <c r="E103" s="13">
+        <v>2291.7349203109202</v>
+      </c>
+      <c r="F103" s="13">
+        <v>3419.7505948216699</v>
+      </c>
+      <c r="G103" s="12">
+        <v>130.69071172601701</v>
+      </c>
+      <c r="H103" s="13">
+        <v>468.40421807061801</v>
+      </c>
+      <c r="I103" s="13">
+        <v>702.03318364723998</v>
+      </c>
+      <c r="J103" s="12">
+        <v>284.42570961166001</v>
+      </c>
+      <c r="K103" s="13">
+        <v>417.273715217122</v>
+      </c>
+      <c r="L103" s="14">
+        <v>472.08059643002503</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="23"/>
+    </row>
+    <row r="105" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="65"/>
+      <c r="D107" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K107" s="57"/>
+      <c r="L107" s="58"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="62"/>
+      <c r="D108" s="2">
+        <v>40</v>
+      </c>
+      <c r="E108" s="1">
+        <v>120</v>
+      </c>
+      <c r="F108" s="1">
+        <v>200</v>
+      </c>
+      <c r="G108" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" s="1">
+        <v>120</v>
+      </c>
+      <c r="I108" s="1">
+        <v>200</v>
+      </c>
+      <c r="J108" s="2">
+        <v>40</v>
+      </c>
+      <c r="K108" s="1">
+        <v>120</v>
+      </c>
+      <c r="L108" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1234.29</v>
+      </c>
+      <c r="E109" s="6">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="F109" s="7">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="G109" s="5">
+        <v>1312.32</v>
+      </c>
+      <c r="H109" s="6">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="I109" s="7">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="J109" s="5">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="K109" s="6">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="L109" s="7">
+        <v>4135.3130000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="60"/>
+      <c r="C110" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="12">
+        <v>6331.741</v>
+      </c>
+      <c r="E110" s="13">
+        <v>20042.866000000002</v>
+      </c>
+      <c r="F110" s="13">
+        <v>34377.582999999897</v>
+      </c>
+      <c r="G110" s="12">
+        <v>3908.163</v>
+      </c>
+      <c r="H110" s="13">
+        <v>12500.022000000001</v>
+      </c>
+      <c r="I110" s="13">
+        <v>20331.940999999999</v>
+      </c>
+      <c r="J110" s="12">
+        <v>2135.1309999999899</v>
+      </c>
+      <c r="K110" s="13">
+        <v>5231.0429999999997</v>
+      </c>
+      <c r="L110" s="14">
+        <v>9693.7629999999899</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="64"/>
+      <c r="D111" s="15">
+        <v>24.024226110363301</v>
+      </c>
+      <c r="E111" s="16">
+        <v>23.853746074472799</v>
+      </c>
+      <c r="F111" s="17">
+        <v>24.403768506056501</v>
+      </c>
+      <c r="G111" s="15">
+        <v>25.1884253028263</v>
+      </c>
+      <c r="H111" s="16">
+        <v>24.369672498878401</v>
+      </c>
+      <c r="I111" s="17">
+        <v>24.048452220726698</v>
+      </c>
+      <c r="J111" s="15">
+        <v>23.853746074472799</v>
+      </c>
+      <c r="K111" s="16">
+        <v>24.163301929116098</v>
+      </c>
+      <c r="L111" s="17">
+        <v>24.224315836698</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1234.29</v>
+      </c>
+      <c r="E112" s="6">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="F112" s="7">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="G112" s="5">
+        <v>1312.32</v>
+      </c>
+      <c r="H112" s="6">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="I112" s="7">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="J112" s="5">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="K112" s="6">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="L112" s="7">
+        <v>4135.3130000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="66"/>
+      <c r="C113" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="12">
+        <v>612.00800000000004</v>
+      </c>
+      <c r="E113" s="13">
+        <v>1679.9569999999901</v>
+      </c>
+      <c r="F113" s="13">
+        <v>2986.5859999999898</v>
+      </c>
+      <c r="G113" s="12">
+        <v>2584.8179999999902</v>
+      </c>
+      <c r="H113" s="13">
+        <v>7360.8819999999896</v>
+      </c>
+      <c r="I113" s="13">
+        <v>12171.7079999999</v>
+      </c>
+      <c r="J113" s="12">
+        <v>4493.5659999999898</v>
+      </c>
+      <c r="K113" s="13">
+        <v>14392.8669999999</v>
+      </c>
+      <c r="L113" s="14">
+        <v>23899.341</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="60"/>
+      <c r="C114" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="18">
+        <v>422.82100000000003</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1275.1389999999899</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1993.52799999999</v>
+      </c>
+      <c r="G114" s="18">
+        <v>754.21900000000005</v>
+      </c>
+      <c r="H114" s="4">
+        <v>2395.3109999999901</v>
+      </c>
+      <c r="I114" s="4">
+        <v>4162.0109999999804</v>
+      </c>
+      <c r="J114" s="18">
+        <v>1275.1389999999899</v>
+      </c>
+      <c r="K114" s="4">
+        <v>3719.8510000000001</v>
+      </c>
+      <c r="L114" s="19">
+        <v>6131.6579999999603</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="5">
+        <v>238.7</v>
+      </c>
+      <c r="E115" s="6">
+        <v>767.90599999999995</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1159.67299999999</v>
+      </c>
+      <c r="G115" s="5">
+        <v>361.00599999999798</v>
+      </c>
+      <c r="H115" s="6">
+        <v>1358.48099999999</v>
+      </c>
+      <c r="I115" s="7">
+        <v>2344.0509999999999</v>
+      </c>
+      <c r="J115" s="5">
+        <v>767.90599999999995</v>
+      </c>
+      <c r="K115" s="6">
+        <v>2078.826</v>
+      </c>
+      <c r="L115" s="7">
+        <v>3348.3039999999901</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="60"/>
+      <c r="C116" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="12">
+        <v>2004.1510000000001</v>
+      </c>
+      <c r="E116" s="13">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="F116" s="13">
+        <v>10040.457</v>
+      </c>
+      <c r="G116" s="12">
+        <v>3572.32599999999</v>
+      </c>
+      <c r="H116" s="13">
+        <v>11989.241</v>
+      </c>
+      <c r="I116" s="13">
+        <v>20478.616000000002</v>
+      </c>
+      <c r="J116" s="12">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="K116" s="13">
+        <v>18230.887000000101</v>
+      </c>
+      <c r="L116" s="14">
+        <v>30062.030999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
+    </row>
+    <row r="119" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="65"/>
+      <c r="D121" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K121" s="57"/>
+      <c r="L121" s="58"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="62"/>
+      <c r="D122" s="2">
+        <v>40</v>
+      </c>
+      <c r="E122" s="1">
+        <v>120</v>
+      </c>
+      <c r="F122" s="1">
+        <v>200</v>
+      </c>
+      <c r="G122" s="2">
+        <v>40</v>
+      </c>
+      <c r="H122" s="1">
+        <v>120</v>
+      </c>
+      <c r="I122" s="1">
+        <v>200</v>
+      </c>
+      <c r="J122" s="2">
+        <v>40</v>
+      </c>
+      <c r="K122" s="1">
+        <v>120</v>
+      </c>
+      <c r="L122" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="E123" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="F123" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="G123" s="5">
+        <v>2821.25515378826</v>
+      </c>
+      <c r="H123" s="6">
+        <v>8173.3360911895497</v>
+      </c>
+      <c r="I123" s="7">
+        <v>13193.9001144876</v>
+      </c>
+      <c r="J123" s="5">
+        <v>2558.0496280943398</v>
+      </c>
+      <c r="K123" s="6">
+        <v>6573.6179138121397</v>
+      </c>
+      <c r="L123" s="7">
+        <v>11653.578529516701</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="60"/>
+      <c r="C124" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="12">
+        <v>5857.4276813496799</v>
+      </c>
+      <c r="E124" s="13">
+        <v>18739.618647348299</v>
+      </c>
+      <c r="F124" s="13">
+        <v>32043.7384229729</v>
+      </c>
+      <c r="G124" s="12">
+        <v>2399.2278462117301</v>
+      </c>
+      <c r="H124" s="13">
+        <v>8214.7589088104505</v>
+      </c>
+      <c r="I124" s="13">
+        <v>13460.4868855124</v>
+      </c>
+      <c r="J124" s="12">
+        <v>524.52637190564599</v>
+      </c>
+      <c r="K124" s="13">
+        <v>992.41308618786002</v>
+      </c>
+      <c r="L124" s="14">
+        <v>2175.4974704832198</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="64"/>
+      <c r="D125" s="15">
+        <v>28.360215053763401</v>
+      </c>
+      <c r="E125" s="16">
+        <v>27.7150537634408</v>
+      </c>
+      <c r="F125" s="17">
+        <v>28.4650537634408</v>
+      </c>
+      <c r="G125" s="15">
+        <v>49.831989247311803</v>
+      </c>
+      <c r="H125" s="16">
+        <v>45.067204301075201</v>
+      </c>
+      <c r="I125" s="17">
+        <v>44.350806451612897</v>
+      </c>
+      <c r="J125" s="15">
+        <v>63.732078853046502</v>
+      </c>
+      <c r="K125" s="16">
+        <v>67.795698924731099</v>
+      </c>
+      <c r="L125" s="17">
+        <v>66.600358422938996</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="E126" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="F126" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="G126" s="5">
+        <v>2821.25515378826</v>
+      </c>
+      <c r="H126" s="6">
+        <v>8173.3360911895497</v>
+      </c>
+      <c r="I126" s="7">
+        <v>13193.9001144876</v>
+      </c>
+      <c r="J126" s="5">
+        <v>2558.0496280943398</v>
+      </c>
+      <c r="K126" s="6">
+        <v>6573.6179138121397</v>
+      </c>
+      <c r="L126" s="7">
+        <v>11653.578529516701</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="66"/>
+      <c r="C127" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0</v>
+      </c>
+      <c r="E127" s="13">
+        <v>0</v>
+      </c>
+      <c r="F127" s="13">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0</v>
+      </c>
+      <c r="H127" s="13">
+        <v>0</v>
+      </c>
+      <c r="I127" s="13">
+        <v>0</v>
+      </c>
+      <c r="J127" s="12">
+        <v>43.417289241538697</v>
+      </c>
+      <c r="K127" s="13">
+        <v>426.60206244000699</v>
+      </c>
+      <c r="L127" s="14">
+        <v>446.41410795884099</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="60"/>
+      <c r="C128" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="18">
+        <v>577.63399999999899</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1702.02699999999</v>
+      </c>
+      <c r="F128" s="4">
+        <v>2728.9609999999898</v>
+      </c>
+      <c r="G128" s="18">
+        <v>1857.0509999999999</v>
+      </c>
+      <c r="H128" s="4">
+        <v>5577.0289999999904</v>
+      </c>
+      <c r="I128" s="4">
+        <v>9635.6639999999406</v>
+      </c>
+      <c r="J128" s="18">
+        <v>4190.7120000000004</v>
+      </c>
+      <c r="K128" s="4">
+        <v>13626.851999999901</v>
+      </c>
+      <c r="L128" s="19">
+        <v>22370.7760000003</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="5">
+        <v>221.58168134968099</v>
+      </c>
+      <c r="E129" s="6">
+        <v>717.72764734836403</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1076.98142297293</v>
+      </c>
+      <c r="G129" s="5">
+        <v>334.05684621172799</v>
+      </c>
+      <c r="H129" s="6">
+        <v>1252.3819088104401</v>
+      </c>
+      <c r="I129" s="7">
+        <v>2170.65188551237</v>
+      </c>
+      <c r="J129" s="5">
+        <v>599.114154328567</v>
+      </c>
+      <c r="K129" s="6">
+        <v>1551.78792462254</v>
+      </c>
+      <c r="L129" s="7">
+        <v>2578.0878870677202</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="60"/>
+      <c r="C130" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="12">
+        <v>1866.4563186503201</v>
+      </c>
+      <c r="E130" s="13">
+        <v>6001.2453526516501</v>
+      </c>
+      <c r="F130" s="13">
+        <v>9387.7155770270601</v>
+      </c>
+      <c r="G130" s="12">
+        <v>2496.4431537882701</v>
+      </c>
+      <c r="H130" s="13">
+        <v>8913.6220911895398</v>
+      </c>
+      <c r="I130" s="13">
+        <v>15178.3621144876</v>
+      </c>
+      <c r="J130" s="12">
+        <v>3631.1738456714302</v>
+      </c>
+      <c r="K130" s="13">
+        <v>8850.9240753774102</v>
+      </c>
+      <c r="L130" s="14">
+        <v>14593.1291129323</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
+    </row>
+    <row r="132" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="65"/>
+      <c r="D134" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K134" s="57"/>
+      <c r="L134" s="58"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="62"/>
+      <c r="D135" s="2">
+        <v>40</v>
+      </c>
+      <c r="E135" s="1">
+        <v>120</v>
+      </c>
+      <c r="F135" s="1">
+        <v>200</v>
+      </c>
+      <c r="G135" s="2">
+        <v>40</v>
+      </c>
+      <c r="H135" s="1">
+        <v>120</v>
+      </c>
+      <c r="I135" s="1">
+        <v>200</v>
+      </c>
+      <c r="J135" s="2">
+        <v>40</v>
+      </c>
+      <c r="K135" s="1">
+        <v>120</v>
+      </c>
+      <c r="L135" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="E136" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="F136" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="G136" s="5">
+        <v>2867.6169973269498</v>
+      </c>
+      <c r="H136" s="6">
+        <v>8215.3330516625192</v>
+      </c>
+      <c r="I136" s="7">
+        <v>13261.6639970166</v>
+      </c>
+      <c r="J136" s="5">
+        <v>2707.0443032415001</v>
+      </c>
+      <c r="K136" s="6">
+        <v>6963.3504085897303</v>
+      </c>
+      <c r="L136" s="7">
+        <v>12326.682024571801</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="60"/>
+      <c r="C137" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="12">
+        <v>5857.4276813496799</v>
+      </c>
+      <c r="E137" s="13">
+        <v>18739.618647348299</v>
+      </c>
+      <c r="F137" s="13">
+        <v>32043.7384229729</v>
+      </c>
+      <c r="G137" s="12">
+        <v>2352.8660026730499</v>
+      </c>
+      <c r="H137" s="13">
+        <v>8172.7619483374901</v>
+      </c>
+      <c r="I137" s="13">
+        <v>13392.723002983401</v>
+      </c>
+      <c r="J137" s="12">
+        <v>375.53169675849102</v>
+      </c>
+      <c r="K137" s="13">
+        <v>602.68059141027504</v>
+      </c>
+      <c r="L137" s="14">
+        <v>1502.39397542811</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="64"/>
+      <c r="D138" s="15">
+        <v>28.360215053763401</v>
+      </c>
+      <c r="E138" s="16">
+        <v>27.7150537634408</v>
+      </c>
+      <c r="F138" s="17">
+        <v>28.4650537634408</v>
+      </c>
+      <c r="G138" s="15">
+        <v>51.068548387096698</v>
+      </c>
+      <c r="H138" s="16">
+        <v>45.575716845878098</v>
+      </c>
+      <c r="I138" s="17">
+        <v>44.872311827956899</v>
+      </c>
+      <c r="J138" s="15">
+        <v>67.903225806451601</v>
+      </c>
+      <c r="K138" s="16">
+        <v>72.119175627240097</v>
+      </c>
+      <c r="L138" s="17">
+        <v>70.579749103942603</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="E139" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="F139" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="G139" s="5">
+        <v>2867.6169973269498</v>
+      </c>
+      <c r="H139" s="6">
+        <v>8215.3330516625192</v>
+      </c>
+      <c r="I139" s="7">
+        <v>13261.6639970166</v>
+      </c>
+      <c r="J139" s="5">
+        <v>2707.0443032415001</v>
+      </c>
+      <c r="K139" s="6">
+        <v>6963.3504085897303</v>
+      </c>
+      <c r="L139" s="7">
+        <v>12326.682024571801</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="66"/>
+      <c r="C140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140" s="13">
+        <v>0</v>
+      </c>
+      <c r="F140" s="13">
+        <v>0</v>
+      </c>
+      <c r="G140" s="12">
+        <v>0</v>
+      </c>
+      <c r="H140" s="13">
+        <v>0</v>
+      </c>
+      <c r="I140" s="13">
+        <v>0</v>
+      </c>
+      <c r="J140" s="12">
+        <v>43.417289241538697</v>
+      </c>
+      <c r="K140" s="13">
+        <v>427.78766594927799</v>
+      </c>
+      <c r="L140" s="14">
+        <v>447.07390122965501</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="60"/>
+      <c r="C141" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="18">
+        <v>577.63399999999899</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1702.02699999999</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2728.9609999999898</v>
+      </c>
+      <c r="G141" s="18">
+        <v>1893.5229999999999</v>
+      </c>
+      <c r="H141" s="4">
+        <v>5595.6759999999904</v>
+      </c>
+      <c r="I141" s="4">
+        <v>9667.3959999999406</v>
+      </c>
+      <c r="J141" s="18">
+        <v>4419.4059999999899</v>
+      </c>
+      <c r="K141" s="4">
+        <v>14372.9999999999</v>
+      </c>
+      <c r="L141" s="19">
+        <v>23554.240000000202</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="5">
+        <v>221.58168134968099</v>
+      </c>
+      <c r="E142" s="6">
+        <v>717.72764734836403</v>
+      </c>
+      <c r="F142" s="7">
+        <v>1076.98142297293</v>
+      </c>
+      <c r="G142" s="5">
+        <v>331.52780574401697</v>
+      </c>
+      <c r="H142" s="6">
+        <v>1253.87827064607</v>
+      </c>
+      <c r="I142" s="7">
+        <v>2173.00688895443</v>
+      </c>
+      <c r="J142" s="5">
+        <v>575.04215649236198</v>
+      </c>
+      <c r="K142" s="6">
+        <v>1490.78389946945</v>
+      </c>
+      <c r="L142" s="7">
+        <v>2470.2381324373</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="60"/>
+      <c r="C143" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="12">
+        <v>1866.4563186503201</v>
+      </c>
+      <c r="E143" s="13">
+        <v>6001.2453526516501</v>
+      </c>
+      <c r="F143" s="13">
+        <v>9387.7155770270601</v>
+      </c>
+      <c r="G143" s="12">
+        <v>2462.5001942559702</v>
+      </c>
+      <c r="H143" s="13">
+        <v>8893.4787293539193</v>
+      </c>
+      <c r="I143" s="13">
+        <v>15144.275111045599</v>
+      </c>
+      <c r="J143" s="12">
+        <v>3426.5518435076301</v>
+      </c>
+      <c r="K143" s="13">
+        <v>8165.78010053052</v>
+      </c>
+      <c r="L143" s="14">
+        <v>13517.514867562701</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B146" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="65"/>
+      <c r="D148" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K148" s="57"/>
+      <c r="L148" s="58"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="62"/>
+      <c r="D149" s="2">
+        <v>40</v>
+      </c>
+      <c r="E149" s="1">
+        <v>120</v>
+      </c>
+      <c r="F149" s="1">
+        <v>200</v>
+      </c>
+      <c r="G149" s="2">
+        <v>40</v>
+      </c>
+      <c r="H149" s="1">
+        <v>120</v>
+      </c>
+      <c r="I149" s="1">
+        <v>200</v>
+      </c>
+      <c r="J149" s="2">
+        <v>40</v>
+      </c>
+      <c r="K149" s="1">
+        <v>120</v>
+      </c>
+      <c r="L149" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="5">
+        <v>26123.977999999901</v>
+      </c>
+      <c r="E150" s="6">
+        <v>79167.024999999907</v>
+      </c>
+      <c r="F150" s="7">
+        <v>135348.016</v>
+      </c>
+      <c r="G150" s="5">
+        <v>23267.427</v>
+      </c>
+      <c r="H150" s="6">
+        <v>69687.577000000107</v>
+      </c>
+      <c r="I150" s="7">
+        <v>113002.269</v>
+      </c>
+      <c r="J150" s="5">
+        <v>14555.466</v>
+      </c>
+      <c r="K150" s="6">
+        <v>36857.523999999801</v>
+      </c>
+      <c r="L150" s="7">
+        <v>64892.758999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="60"/>
+      <c r="C151" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="12">
+        <v>56296.473000000296</v>
+      </c>
+      <c r="E151" s="13">
+        <v>176162.95</v>
+      </c>
+      <c r="F151" s="13">
+        <v>305454.154999997</v>
+      </c>
+      <c r="G151" s="12">
+        <v>33110.817999999897</v>
+      </c>
+      <c r="H151" s="13">
+        <v>106312.841999999</v>
+      </c>
+      <c r="I151" s="13">
+        <v>173752.788999999</v>
+      </c>
+      <c r="J151" s="12">
+        <v>18220.236000000001</v>
+      </c>
+      <c r="K151" s="13">
+        <v>45562.927000000403</v>
+      </c>
+      <c r="L151" s="14">
+        <v>83217.548999999795</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="64"/>
+      <c r="D152" s="15">
+        <v>37.490892531876099</v>
+      </c>
+      <c r="E152" s="16">
+        <v>37.2962204007286</v>
+      </c>
+      <c r="F152" s="17">
+        <v>37.912568306010897</v>
+      </c>
+      <c r="G152" s="15">
+        <v>38.592896174863299</v>
+      </c>
+      <c r="H152" s="16">
+        <v>37.990475106253797</v>
+      </c>
+      <c r="I152" s="17">
+        <v>37.769239526411603</v>
+      </c>
+      <c r="J152" s="15">
+        <v>37.2962204007286</v>
+      </c>
+      <c r="K152" s="16">
+        <v>37.8433009512244</v>
+      </c>
+      <c r="L152" s="17">
+        <v>37.936247723132901</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="5">
+        <v>26123.977999999901</v>
+      </c>
+      <c r="E153" s="6">
+        <v>79167.024999999907</v>
+      </c>
+      <c r="F153" s="7">
+        <v>135348.016</v>
+      </c>
+      <c r="G153" s="5">
+        <v>23267.427</v>
+      </c>
+      <c r="H153" s="6">
+        <v>69687.577000000107</v>
+      </c>
+      <c r="I153" s="7">
+        <v>113002.269</v>
+      </c>
+      <c r="J153" s="5">
+        <v>14555.466</v>
+      </c>
+      <c r="K153" s="6">
+        <v>36857.523999999801</v>
+      </c>
+      <c r="L153" s="7">
+        <v>64892.758999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="66"/>
+      <c r="C154" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="12">
+        <v>16398.6719999999</v>
+      </c>
+      <c r="E154" s="13">
+        <v>47429.379000000103</v>
+      </c>
+      <c r="F154" s="13">
+        <v>80558.0129999989</v>
+      </c>
+      <c r="G154" s="12">
+        <v>65151.155999999901</v>
+      </c>
+      <c r="H154" s="13">
+        <v>189702.80999999901</v>
+      </c>
+      <c r="I154" s="13">
+        <v>315182.012999998</v>
+      </c>
+      <c r="J154" s="12">
+        <v>112040.93799999999</v>
+      </c>
+      <c r="K154" s="13">
+        <v>349755.27900000103</v>
+      </c>
+      <c r="L154" s="14">
+        <v>582188.41700000002</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="60"/>
+      <c r="C155" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="18">
+        <v>8534.0769999999902</v>
+      </c>
+      <c r="E155" s="4">
+        <v>25498.076000001602</v>
+      </c>
+      <c r="F155" s="4">
+        <v>39645.643000001801</v>
+      </c>
+      <c r="G155" s="18">
+        <v>15023.047000000201</v>
+      </c>
+      <c r="H155" s="4">
+        <v>47868.672000000799</v>
+      </c>
+      <c r="I155" s="4">
+        <v>83264.587999997806</v>
+      </c>
+      <c r="J155" s="18">
+        <v>25498.076000001602</v>
+      </c>
+      <c r="K155" s="4">
+        <v>74049.793999997695</v>
+      </c>
+      <c r="L155" s="19">
+        <v>122088.448999985</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="5">
+        <v>2839.3099999999899</v>
+      </c>
+      <c r="E156" s="6">
+        <v>9317.8990000001595</v>
+      </c>
+      <c r="F156" s="7">
+        <v>13422.6080000005</v>
+      </c>
+      <c r="G156" s="5">
+        <v>4209.1819999999998</v>
+      </c>
+      <c r="H156" s="6">
+        <v>15422.8810000007</v>
+      </c>
+      <c r="I156" s="7">
+        <v>26410.886000000701</v>
+      </c>
+      <c r="J156" s="5">
+        <v>9317.8990000001595</v>
+      </c>
+      <c r="K156" s="6">
+        <v>23458.593000000699</v>
+      </c>
+      <c r="L156" s="7">
+        <v>37533.597000000103</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="60"/>
+      <c r="C157" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="12">
+        <v>16792.9820000004</v>
+      </c>
+      <c r="E157" s="13">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="F157" s="13">
+        <v>85985.149999994799</v>
+      </c>
+      <c r="G157" s="12">
+        <v>30673.140000001302</v>
+      </c>
+      <c r="H157" s="13">
+        <v>102431.10699999399</v>
+      </c>
+      <c r="I157" s="13">
+        <v>174969.47799998501</v>
+      </c>
+      <c r="J157" s="12">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="K157" s="13">
+        <v>156284.82199998901</v>
+      </c>
+      <c r="L157" s="14">
+        <v>257734.99999998201</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C158" s="21"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C159" s="21"/>
+    </row>
+    <row r="160" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B161" s="8"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="65"/>
+      <c r="D162" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E162" s="57"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="K162" s="57"/>
+      <c r="L162" s="58"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="62"/>
+      <c r="D163" s="2">
+        <v>40</v>
+      </c>
+      <c r="E163" s="1">
+        <v>120</v>
+      </c>
+      <c r="F163" s="1">
+        <v>200</v>
+      </c>
+      <c r="G163" s="2">
+        <v>40</v>
+      </c>
+      <c r="H163" s="1">
+        <v>120</v>
+      </c>
+      <c r="I163" s="1">
+        <v>200</v>
+      </c>
+      <c r="J163" s="2">
+        <v>40</v>
+      </c>
+      <c r="K163" s="1">
+        <v>120</v>
+      </c>
+      <c r="L163" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="5">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E164" s="6">
+        <v>116218.580895627</v>
+      </c>
+      <c r="F164" s="7">
+        <v>199051.54997373</v>
+      </c>
+      <c r="G164" s="5">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="H164" s="6">
+        <v>143445.815290161</v>
+      </c>
+      <c r="I164" s="7">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="J164" s="5">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="K164" s="6">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="L164" s="7">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="60"/>
+      <c r="C165" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="12">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="E165" s="13">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="F165" s="13">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="G165" s="12">
+        <v>9044.2498304456894</v>
+      </c>
+      <c r="H165" s="13">
+        <v>32554.6037098382</v>
+      </c>
+      <c r="I165" s="13">
+        <v>54329.548304848198</v>
+      </c>
+      <c r="J165" s="12">
+        <v>1036.6022184242499</v>
+      </c>
+      <c r="K165" s="13">
+        <v>1734.74411289472</v>
+      </c>
+      <c r="L165" s="14">
+        <v>4272.9784387647796</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="64"/>
+      <c r="D166" s="15">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="E166" s="16">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="F166" s="17">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="G166" s="15">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="H166" s="16">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="I166" s="17">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="J166" s="15">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="K166" s="16">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="L166" s="17">
+        <v>90.570582877959893</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="4">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E167" s="4">
+        <v>116218.580895627</v>
+      </c>
+      <c r="F167" s="4">
+        <v>199051.54997373</v>
+      </c>
+      <c r="G167" s="4">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="H167" s="4">
+        <v>143445.815290161</v>
+      </c>
+      <c r="I167" s="4">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="J167" s="4">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="K167" s="4">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="L167" s="4">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="66"/>
+      <c r="C168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="5">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="E168" s="6">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="F168" s="7">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="G168" s="5">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="H168" s="6">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="I168" s="7">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="J168" s="5">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="K168" s="6">
+        <v>183089.578469145</v>
+      </c>
+      <c r="L168" s="7">
+        <v>297307.87253847002</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="60"/>
+      <c r="C169" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="5">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="E169" s="6">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="F169" s="7">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="G169" s="5">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="H169" s="6">
+        <v>115578.017999987</v>
+      </c>
+      <c r="I169" s="7">
+        <v>200654.74799998</v>
+      </c>
+      <c r="J169" s="5">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="K169" s="6">
+        <v>211967.487999982</v>
+      </c>
+      <c r="L169" s="7">
+        <v>352606.74000000802</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="5">
+        <v>2241.3779357984899</v>
+      </c>
+      <c r="E170" s="6">
+        <v>7339.5509822314998</v>
+      </c>
+      <c r="F170" s="7">
+        <v>10703.107607055899</v>
+      </c>
+      <c r="G170" s="5">
+        <v>2013.8119190336699</v>
+      </c>
+      <c r="H170" s="6">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="I170" s="7">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="J170" s="5">
+        <v>3520.0906782329498</v>
+      </c>
+      <c r="K170" s="6">
+        <v>7318.7465706147595</v>
+      </c>
+      <c r="L170" s="7">
+        <v>11229.1503665984</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="60"/>
+      <c r="C171" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="12">
+        <v>13422.005064201699</v>
+      </c>
+      <c r="E171" s="13">
+        <v>44355.147017769501</v>
+      </c>
+      <c r="F171" s="13">
+        <v>69483.700392940998</v>
+      </c>
+      <c r="G171" s="12">
+        <v>11147.0110809664</v>
+      </c>
+      <c r="H171" s="13">
+        <v>42372.623106654697</v>
+      </c>
+      <c r="I171" s="13">
+        <v>70942.959742109495</v>
+      </c>
+      <c r="J171" s="12">
+        <v>16020.7393217671</v>
+      </c>
+      <c r="K171" s="13">
+        <v>34506.974429385104</v>
+      </c>
+      <c r="L171" s="14">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="108">
+    <mergeCell ref="J162:L162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D724DD-3F3D-4546-BEB9-23EFF495C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9762FDBE-6813-4872-A9F0-DA4711703463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="465" windowWidth="28200" windowHeight="15015" activeTab="3" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,24 +591,28 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14151,23 +14155,37 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C211:C218"/>
-    <mergeCell ref="C149:C156"/>
-    <mergeCell ref="C157:C164"/>
-    <mergeCell ref="C184:C191"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="C203:C210"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C183"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="C258:C265"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="C238:C245"/>
+    <mergeCell ref="E251:I251"/>
+    <mergeCell ref="J251:N251"/>
+    <mergeCell ref="O251:S251"/>
+    <mergeCell ref="C253:C257"/>
+    <mergeCell ref="E223:I223"/>
+    <mergeCell ref="J223:N223"/>
+    <mergeCell ref="O223:S223"/>
+    <mergeCell ref="C225:C229"/>
+    <mergeCell ref="C230:C237"/>
+    <mergeCell ref="O116:S116"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="C131:C138"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="E116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="E196:I196"/>
+    <mergeCell ref="J196:N196"/>
+    <mergeCell ref="O196:S196"/>
+    <mergeCell ref="E142:I142"/>
+    <mergeCell ref="J142:N142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="E169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="O169:S169"/>
     <mergeCell ref="E88:I88"/>
     <mergeCell ref="J88:N88"/>
     <mergeCell ref="O88:S88"/>
@@ -14180,37 +14198,23 @@
     <mergeCell ref="E60:I60"/>
     <mergeCell ref="J60:N60"/>
     <mergeCell ref="O60:S60"/>
-    <mergeCell ref="E196:I196"/>
-    <mergeCell ref="J196:N196"/>
-    <mergeCell ref="O196:S196"/>
-    <mergeCell ref="E142:I142"/>
-    <mergeCell ref="J142:N142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="E169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="O169:S169"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="E116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="O116:S116"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="C131:C138"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="O251:S251"/>
-    <mergeCell ref="C253:C257"/>
-    <mergeCell ref="E223:I223"/>
-    <mergeCell ref="J223:N223"/>
-    <mergeCell ref="O223:S223"/>
-    <mergeCell ref="C225:C229"/>
-    <mergeCell ref="C230:C237"/>
-    <mergeCell ref="C258:C265"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="C238:C245"/>
-    <mergeCell ref="E251:I251"/>
-    <mergeCell ref="J251:N251"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="C211:C218"/>
+    <mergeCell ref="C149:C156"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="C184:C191"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="C203:C210"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14247,10 +14251,10 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="56">
         <v>0.25</v>
       </c>
@@ -14274,10 +14278,10 @@
       <c r="R4" s="58"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -14378,7 +14382,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
@@ -14493,10 +14497,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -14597,7 +14601,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
@@ -14648,7 +14652,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
@@ -14752,7 +14756,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
@@ -14951,10 +14955,10 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="56">
         <v>0.25</v>
       </c>
@@ -14978,10 +14982,10 @@
       <c r="R22" s="58"/>
     </row>
     <row r="23" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -15082,7 +15086,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
@@ -15197,10 +15201,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -15301,7 +15305,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="66"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="11" t="s">
         <v>19</v>
       </c>
@@ -15352,7 +15356,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
@@ -15456,7 +15460,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
@@ -15767,10 +15771,10 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="56">
         <v>0.25</v>
       </c>
@@ -15794,10 +15798,10 @@
       <c r="R41" s="58"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="62"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -15898,7 +15902,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="11" t="s">
         <v>5</v>
       </c>
@@ -15949,10 +15953,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="64"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -16053,7 +16057,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="66"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
@@ -16104,7 +16108,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="11" t="s">
         <v>22</v>
       </c>
@@ -16208,7 +16212,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="9" t="s">
         <v>5</v>
       </c>
@@ -16639,10 +16643,10 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="65"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="56">
         <v>0.25</v>
       </c>
@@ -16666,10 +16670,10 @@
       <c r="R61" s="58"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="62"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -16770,7 +16774,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="60"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="11" t="s">
         <v>5</v>
       </c>
@@ -16885,10 +16889,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="64"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -16989,7 +16993,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="66"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="11" t="s">
         <v>19</v>
       </c>
@@ -17040,7 +17044,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
+      <c r="B69" s="61"/>
       <c r="C69" s="11" t="s">
         <v>22</v>
       </c>
@@ -17144,7 +17148,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="60"/>
+      <c r="B71" s="61"/>
       <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
@@ -17339,10 +17343,10 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="65"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="56">
         <v>0.25</v>
       </c>
@@ -17366,10 +17370,10 @@
       <c r="R78" s="58"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="62"/>
+      <c r="C79" s="63"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -17470,7 +17474,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="60"/>
+      <c r="B81" s="61"/>
       <c r="C81" s="11" t="s">
         <v>5</v>
       </c>
@@ -17585,10 +17589,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="64"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -17689,7 +17693,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="66"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="11" t="s">
         <v>19</v>
       </c>
@@ -17740,7 +17744,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="60"/>
+      <c r="B86" s="61"/>
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
@@ -17844,7 +17848,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="60"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="9" t="s">
         <v>5</v>
       </c>
@@ -18271,10 +18275,10 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="56">
         <v>0.25</v>
       </c>
@@ -18298,10 +18302,10 @@
       <c r="R99" s="58"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="62"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -18402,7 +18406,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="60"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="11" t="s">
         <v>5</v>
       </c>
@@ -18517,10 +18521,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="64"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -18621,7 +18625,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="66"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="11" t="s">
         <v>19</v>
       </c>
@@ -18672,7 +18676,7 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="60"/>
+      <c r="B107" s="61"/>
       <c r="C107" s="11" t="s">
         <v>22</v>
       </c>
@@ -18776,7 +18780,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="60"/>
+      <c r="B109" s="61"/>
       <c r="C109" s="9" t="s">
         <v>5</v>
       </c>
@@ -18971,10 +18975,10 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="61" t="s">
+      <c r="B116" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="65"/>
+      <c r="C116" s="64"/>
       <c r="D116" s="56">
         <v>0.25</v>
       </c>
@@ -18998,10 +19002,10 @@
       <c r="R116" s="58"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="61" t="s">
+      <c r="B117" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="62"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -19102,7 +19106,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="60"/>
+      <c r="B119" s="61"/>
       <c r="C119" s="11" t="s">
         <v>5</v>
       </c>
@@ -19217,10 +19221,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="63" t="s">
+      <c r="B121" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="64"/>
+      <c r="C121" s="66"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -19321,7 +19325,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="66"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="11" t="s">
         <v>19</v>
       </c>
@@ -19372,7 +19376,7 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="60"/>
+      <c r="B124" s="61"/>
       <c r="C124" s="11" t="s">
         <v>22</v>
       </c>
@@ -19476,7 +19480,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="60"/>
+      <c r="B126" s="61"/>
       <c r="C126" s="9" t="s">
         <v>5</v>
       </c>
@@ -19904,10 +19908,10 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="61" t="s">
+      <c r="B136" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="65"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="56">
         <v>0.25</v>
       </c>
@@ -19931,10 +19935,10 @@
       <c r="R136" s="58"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="61" t="s">
+      <c r="B137" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="62"/>
+      <c r="C137" s="63"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -20035,7 +20039,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="60"/>
+      <c r="B139" s="61"/>
       <c r="C139" s="11" t="s">
         <v>5</v>
       </c>
@@ -20150,10 +20154,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="63" t="s">
+      <c r="B141" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="64"/>
+      <c r="C141" s="66"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -20254,7 +20258,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="66"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="11" t="s">
         <v>19</v>
       </c>
@@ -20305,7 +20309,7 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="60"/>
+      <c r="B144" s="61"/>
       <c r="C144" s="11" t="s">
         <v>22</v>
       </c>
@@ -20409,7 +20413,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="60"/>
+      <c r="B146" s="61"/>
       <c r="C146" s="9" t="s">
         <v>5</v>
       </c>
@@ -20604,10 +20608,10 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="61" t="s">
+      <c r="B153" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C153" s="65"/>
+      <c r="C153" s="64"/>
       <c r="D153" s="56">
         <v>0.25</v>
       </c>
@@ -20631,10 +20635,10 @@
       <c r="R153" s="58"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="61" t="s">
+      <c r="B154" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="62"/>
+      <c r="C154" s="63"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -20735,7 +20739,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="60"/>
+      <c r="B156" s="61"/>
       <c r="C156" s="11" t="s">
         <v>5</v>
       </c>
@@ -20850,10 +20854,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="63" t="s">
+      <c r="B158" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="64"/>
+      <c r="C158" s="66"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -20954,7 +20958,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="66"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="11" t="s">
         <v>19</v>
       </c>
@@ -21005,7 +21009,7 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="60"/>
+      <c r="B161" s="61"/>
       <c r="C161" s="11" t="s">
         <v>22</v>
       </c>
@@ -21109,7 +21113,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="60"/>
+      <c r="B163" s="61"/>
       <c r="C163" s="9" t="s">
         <v>5</v>
       </c>
@@ -21421,10 +21425,10 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="61" t="s">
+      <c r="B171" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="65"/>
+      <c r="C171" s="64"/>
       <c r="D171" s="56">
         <v>0.25</v>
       </c>
@@ -21448,10 +21452,10 @@
       <c r="R171" s="58"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="61" t="s">
+      <c r="B172" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="62"/>
+      <c r="C172" s="63"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -21552,7 +21556,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="60"/>
+      <c r="B174" s="61"/>
       <c r="C174" s="11" t="s">
         <v>5</v>
       </c>
@@ -21667,10 +21671,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="63" t="s">
+      <c r="B176" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C176" s="64"/>
+      <c r="C176" s="66"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -21771,7 +21775,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="66"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="11" t="s">
         <v>19</v>
       </c>
@@ -21822,7 +21826,7 @@
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="60"/>
+      <c r="B179" s="61"/>
       <c r="C179" s="11" t="s">
         <v>22</v>
       </c>
@@ -21926,7 +21930,7 @@
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="60"/>
+      <c r="B181" s="61"/>
       <c r="C181" s="9" t="s">
         <v>5</v>
       </c>
@@ -22351,10 +22355,10 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="61" t="s">
+      <c r="B192" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="65"/>
+      <c r="C192" s="64"/>
       <c r="D192" s="56">
         <v>0.25</v>
       </c>
@@ -22378,10 +22382,10 @@
       <c r="R192" s="58"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="61" t="s">
+      <c r="B193" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="62"/>
+      <c r="C193" s="63"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -22482,7 +22486,7 @@
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="60"/>
+      <c r="B195" s="61"/>
       <c r="C195" s="11" t="s">
         <v>5</v>
       </c>
@@ -22597,10 +22601,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="63" t="s">
+      <c r="B197" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="64"/>
+      <c r="C197" s="66"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -22701,7 +22705,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="66"/>
+      <c r="B199" s="60"/>
       <c r="C199" s="11" t="s">
         <v>19</v>
       </c>
@@ -22752,7 +22756,7 @@
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="60"/>
+      <c r="B200" s="61"/>
       <c r="C200" s="11" t="s">
         <v>22</v>
       </c>
@@ -22856,7 +22860,7 @@
       </c>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="60"/>
+      <c r="B202" s="61"/>
       <c r="C202" s="9" t="s">
         <v>5</v>
       </c>
@@ -23052,10 +23056,10 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="61" t="s">
+      <c r="B209" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="65"/>
+      <c r="C209" s="64"/>
       <c r="D209" s="56">
         <v>0.25</v>
       </c>
@@ -23079,10 +23083,10 @@
       <c r="R209" s="58"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="61" t="s">
+      <c r="B210" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="62"/>
+      <c r="C210" s="63"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -23183,7 +23187,7 @@
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="60"/>
+      <c r="B212" s="61"/>
       <c r="C212" s="11" t="s">
         <v>5</v>
       </c>
@@ -23298,10 +23302,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="63" t="s">
+      <c r="B214" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="64"/>
+      <c r="C214" s="66"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -23402,7 +23406,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="66"/>
+      <c r="B216" s="60"/>
       <c r="C216" s="11" t="s">
         <v>19</v>
       </c>
@@ -23453,7 +23457,7 @@
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="60"/>
+      <c r="B217" s="61"/>
       <c r="C217" s="11" t="s">
         <v>22</v>
       </c>
@@ -23557,7 +23561,7 @@
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="60"/>
+      <c r="B219" s="61"/>
       <c r="C219" s="9" t="s">
         <v>5</v>
       </c>
@@ -23855,6 +23859,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="N192:R192"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="I153:M153"/>
+    <mergeCell ref="N153:R153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="I192:M192"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="I171:M171"/>
+    <mergeCell ref="N171:R171"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="N136:R136"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="B5:C5"/>
@@ -23879,90 +23967,6 @@
     <mergeCell ref="N41:R41"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="N192:R192"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="I153:M153"/>
-    <mergeCell ref="N153:R153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="I192:M192"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="I171:M171"/>
-    <mergeCell ref="N171:R171"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="N136:R136"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23985,10 +23989,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="56">
         <v>0.25</v>
       </c>
@@ -24012,10 +24016,10 @@
       <c r="R3" s="58"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2">
         <v>40</v>
       </c>
@@ -24116,7 +24120,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
@@ -24231,10 +24235,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -24335,7 +24339,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
@@ -24386,7 +24390,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
@@ -24490,7 +24494,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -25974,18 +25978,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25995,8 +25999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94ADC68-9302-4CA0-9276-97E3AD43674E}">
   <dimension ref="B2:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26021,10 +26025,10 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="56">
         <v>0.25</v>
       </c>
@@ -26042,10 +26046,10 @@
       <c r="L4" s="58"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -26110,7 +26114,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
@@ -26143,35 +26147,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="15">
+      <c r="C8" s="66"/>
+      <c r="D8" s="68">
         <v>51.249999999999901</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="69">
         <v>51.1111111111111</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="70">
         <v>51</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="68">
         <v>51.6666666666666</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="69">
         <v>51.1805555555555</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="70">
         <v>51.0833333333333</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="68">
         <v>51.1111111111111</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="69">
         <v>51.1111111111111</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="70">
         <v>51.4722222222222</v>
       </c>
     </row>
@@ -26179,7 +26183,7 @@
       <c r="B9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="5">
@@ -26191,7 +26195,7 @@
       <c r="F9" s="7">
         <v>378.77199999999903</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>58.514999999999901</v>
       </c>
       <c r="H9" s="6">
@@ -26200,7 +26204,7 @@
       <c r="I9" s="7">
         <v>256.06799999999998</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>34.512999999999998</v>
       </c>
       <c r="K9" s="6">
@@ -26211,68 +26215,68 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="18">
         <v>195.36699999999999</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="71">
         <v>579.78699999999901</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="19">
         <v>945.03800000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="71">
         <v>485.387</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="71">
         <v>1417.0039999999899</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="19">
         <v>2384.942</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="71">
         <v>761.87199999999905</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="71">
         <v>2299.84</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="19">
         <v>3867.1559999999899</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>28.1739999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="13">
         <v>83.094999999999899</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="14">
         <v>132.29</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>42.725999999999999</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="13">
         <v>153.55799999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="14">
         <v>271.62799999999999</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="13">
         <v>83.094999999999899</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="13">
         <v>241.18600000000001</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="14">
         <v>356.85400000000101</v>
       </c>
     </row>
@@ -26283,36 +26287,36 @@
       <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="18">
         <v>0.69</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="71">
         <v>3.2349999999999999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="19">
         <v>6.5509999999999904</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="18">
         <v>1.855</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="71">
         <v>7.4279999999999902</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="19">
         <v>11.442</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="18">
         <v>3.2349999999999999</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="71">
         <v>10.285</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="19">
         <v>16.777999999999899</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -26362,10 +26366,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="56">
         <v>0.25</v>
       </c>
@@ -26383,10 +26387,10 @@
       <c r="L19" s="58"/>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="2">
         <v>40</v>
       </c>
@@ -26451,7 +26455,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
@@ -26524,10 +26528,10 @@
       </c>
     </row>
     <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -26592,7 +26596,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
@@ -26625,7 +26629,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
@@ -26693,7 +26697,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
@@ -26896,10 +26900,10 @@
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="56">
         <v>0.25</v>
       </c>
@@ -26917,10 +26921,10 @@
       <c r="L38" s="58"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="2">
         <v>40</v>
       </c>
@@ -26985,7 +26989,7 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="60"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="11" t="s">
         <v>5</v>
       </c>
@@ -27018,35 +27022,35 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="15">
+      <c r="C42" s="66"/>
+      <c r="D42" s="68">
         <v>95.4166666666666</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="69">
         <v>97.2222222222222</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="70">
         <v>97.75</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="68">
         <v>100</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="69">
         <v>100</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="70">
         <v>100</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="68">
         <v>100</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="69">
         <v>100</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="70">
         <v>100</v>
       </c>
     </row>
@@ -27054,7 +27058,7 @@
       <c r="B43" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="5">
@@ -27066,7 +27070,7 @@
       <c r="F43" s="7">
         <v>818.60400000000004</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="6">
         <v>117.68799999999899</v>
       </c>
       <c r="H43" s="6">
@@ -27075,7 +27079,7 @@
       <c r="I43" s="7">
         <v>509.72699999999901</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <v>66.039000000000001</v>
       </c>
       <c r="K43" s="6">
@@ -27086,68 +27090,68 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="60"/>
+      <c r="C44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="18">
         <v>24.692634216652799</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="71">
         <v>112.497784911889</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="19">
         <v>152.58079298933299</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="71">
         <v>347.30066310632299</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="71">
         <v>990.16378983971003</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="19">
         <v>1698.13317421486</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="71">
         <v>601.75019392147397</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="71">
         <v>1885.6015084575199</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="19">
         <v>3189.9958773902399</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="12">
         <v>49.882999999999903</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="13">
         <v>151.58199999999999</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="14">
         <v>265.21800000000002</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="13">
         <v>82.760999999999896</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="13">
         <v>313.101</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="14">
         <v>546.36099999999999</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="13">
         <v>156.34100000000001</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="13">
         <v>482.56099999999998</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="14">
         <v>754.10699999999804</v>
       </c>
     </row>
@@ -27158,36 +27162,36 @@
       <c r="C46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="18">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="71">
         <v>1.18087423117313</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="19">
         <v>1.3646316173867901</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7">
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="71">
+        <v>0</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0</v>
+      </c>
+      <c r="K46" s="71">
+        <v>0</v>
+      </c>
+      <c r="L46" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
@@ -27234,10 +27238,10 @@
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="56">
         <v>0.25</v>
       </c>
@@ -27255,10 +27259,10 @@
       <c r="L52" s="58"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="2">
         <v>40</v>
       </c>
@@ -27323,7 +27327,7 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="11" t="s">
         <v>5</v>
       </c>
@@ -27356,10 +27360,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="64"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="15">
         <v>10</v>
       </c>
@@ -27424,32 +27428,32 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="18">
         <v>0</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="71">
         <v>0</v>
       </c>
       <c r="F58" s="19">
         <v>0</v>
       </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="G58" s="71">
+        <v>0</v>
+      </c>
+      <c r="H58" s="71">
         <v>0</v>
       </c>
       <c r="I58" s="19">
         <v>0</v>
       </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
+      <c r="J58" s="71">
+        <v>0</v>
+      </c>
+      <c r="K58" s="71">
         <v>0</v>
       </c>
       <c r="L58" s="19">
@@ -27457,35 +27461,35 @@
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="60"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="12">
         <v>2.214</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="13">
         <v>5.5010000000000003</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="14">
         <v>8.1389999999999905</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="13">
         <v>4.4209999999999896</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="13">
         <v>10.041</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="14">
         <v>16.111999999999998</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="13">
         <v>5.5010000000000003</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="13">
         <v>15.157</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="14">
         <v>24.221</v>
       </c>
     </row>
@@ -27525,7 +27529,7 @@
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="60"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
@@ -27570,10 +27574,10 @@
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="56">
         <v>0.25</v>
       </c>
@@ -27591,10 +27595,10 @@
       <c r="L66" s="58"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="62"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="2">
         <v>40</v>
       </c>
@@ -27659,7 +27663,7 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
+      <c r="B69" s="61"/>
       <c r="C69" s="11" t="s">
         <v>5</v>
       </c>
@@ -27692,10 +27696,10 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="64"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="15">
         <v>10</v>
       </c>
@@ -27760,7 +27764,7 @@
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="66"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="11" t="s">
         <v>19</v>
       </c>
@@ -27793,7 +27797,7 @@
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="60"/>
+      <c r="B73" s="61"/>
       <c r="C73" s="11" t="s">
         <v>22</v>
       </c>
@@ -27861,7 +27865,7 @@
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="60"/>
+      <c r="B75" s="61"/>
       <c r="C75" s="9" t="s">
         <v>5</v>
       </c>
@@ -27905,10 +27909,10 @@
       <c r="B79" s="8"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="65"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="56">
         <v>0.25</v>
       </c>
@@ -27926,10 +27930,10 @@
       <c r="L80" s="58"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="62"/>
+      <c r="C81" s="63"/>
       <c r="D81" s="2">
         <v>40</v>
       </c>
@@ -27994,7 +27998,7 @@
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="60"/>
+      <c r="B83" s="61"/>
       <c r="C83" s="11" t="s">
         <v>5</v>
       </c>
@@ -28027,35 +28031,35 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="63" t="s">
+      <c r="B84" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="64"/>
-      <c r="D84" s="15">
+      <c r="C84" s="66"/>
+      <c r="D84" s="68">
         <v>45.403225806451601</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="69">
         <v>44.614695340501697</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="70">
         <v>45.534946236559101</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="68">
         <v>45.799731182795597</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H84" s="69">
         <v>45.6989247311827</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="70">
         <v>45.643817204301001</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="68">
         <v>44.614695340501697</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="69">
         <v>45.764635603345198</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L84" s="70">
         <v>45.735663082437199</v>
       </c>
     </row>
@@ -28063,7 +28067,7 @@
       <c r="B85" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="5">
@@ -28072,19 +28076,19 @@
       <c r="E85" s="6">
         <v>8760.58499999999</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <v>14966.8029999999</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="6">
         <v>2411.5359999999901</v>
       </c>
       <c r="H85" s="6">
         <v>7086.0319999999801</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <v>11421.428</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="6">
         <v>1425.817</v>
       </c>
       <c r="K85" s="6">
@@ -28095,68 +28099,68 @@
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="66"/>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="60"/>
+      <c r="C86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="18">
         <v>1996.89399999999</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="71">
         <v>6057.6900000000096</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="71">
         <v>10395.513999999999</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="71">
         <v>7893.8299999999899</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="71">
         <v>23387.566999999999</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="71">
         <v>39006.135000000002</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="71">
         <v>13392.458000000001</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="71">
         <v>41847.157999999901</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="19">
         <v>69848.159999999902</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="60"/>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="61"/>
+      <c r="C87" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="12">
         <v>923.17700000000104</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="13">
         <v>2870.2179999999898</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="13">
         <v>4301.9760000000197</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="13">
         <v>1632.8589999999899</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="13">
         <v>5205.1689999999999</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="13">
         <v>9027.8719999999394</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="13">
         <v>2870.2179999999898</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="13">
         <v>7947.6309999999703</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L87" s="14">
         <v>13189.684999999899</v>
       </c>
     </row>
@@ -28167,36 +28171,36 @@
       <c r="C88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="18">
         <v>197.34800000000001</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="71">
         <v>714.03799999999706</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="19">
         <v>973.98299999999904</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="18">
         <v>294.84099999999899</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="71">
         <v>1088.3499999999899</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="19">
         <v>1825.0059999999901</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="18">
         <v>714.03799999999706</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="71">
         <v>1609.662</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="19">
         <v>2569.5189999999502</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="60"/>
+      <c r="B89" s="61"/>
       <c r="C89" s="9" t="s">
         <v>5</v>
       </c>
@@ -28241,10 +28245,10 @@
       <c r="B93" s="8"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="61" t="s">
+      <c r="B94" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="56">
         <v>0.25</v>
       </c>
@@ -28262,10 +28266,10 @@
       <c r="L94" s="58"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="61" t="s">
+      <c r="B95" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="62"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="2">
         <v>40</v>
       </c>
@@ -28330,7 +28334,7 @@
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="60"/>
+      <c r="B97" s="61"/>
       <c r="C97" s="11" t="s">
         <v>5</v>
       </c>
@@ -28363,35 +28367,35 @@
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="15">
+      <c r="C98" s="66"/>
+      <c r="D98" s="68">
         <v>60.2822580645161</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="69">
         <v>59.641577060931901</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="70">
         <v>60.577956989247298</v>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="68">
         <v>98.481182795698899</v>
       </c>
-      <c r="H98" s="16">
+      <c r="H98" s="69">
         <v>98.008512544802798</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="70">
         <v>98.087365591397798</v>
       </c>
-      <c r="J98" s="15">
+      <c r="J98" s="68">
         <v>97.853942652329707</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="69">
         <v>98.912783751493393</v>
       </c>
-      <c r="L98" s="17">
+      <c r="L98" s="70">
         <v>99.202508960573397</v>
       </c>
     </row>
@@ -28399,7 +28403,7 @@
       <c r="B99" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="5">
@@ -28411,7 +28415,7 @@
       <c r="F99" s="7">
         <v>23268.885594821601</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="6">
         <v>4708.5619999999899</v>
       </c>
       <c r="H99" s="6">
@@ -28420,7 +28424,7 @@
       <c r="I99" s="7">
         <v>22965.0279999999</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="6">
         <v>2641.3890000000001</v>
       </c>
       <c r="K99" s="6">
@@ -28431,68 +28435,68 @@
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="66"/>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="60"/>
+      <c r="C100" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="12">
-        <v>0</v>
-      </c>
-      <c r="E100" s="13">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13">
-        <v>0</v>
-      </c>
-      <c r="G100" s="12">
+      <c r="D100" s="18">
+        <v>0</v>
+      </c>
+      <c r="E100" s="71">
+        <v>0</v>
+      </c>
+      <c r="F100" s="19">
+        <v>0</v>
+      </c>
+      <c r="G100" s="71">
         <v>3598.55059499456</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="71">
         <v>9810.1000536523497</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="19">
         <v>16337.5327318983</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J100" s="71">
         <v>8824.0781863637294</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="71">
         <v>28925.5832057894</v>
       </c>
-      <c r="L100" s="14">
+      <c r="L100" s="19">
         <v>47770.936721560698</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="60"/>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="61"/>
+      <c r="C101" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="12">
         <v>1380.2659999999901</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="13">
         <v>4470.5259999999998</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="14">
         <v>6798.10700000002</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="13">
         <v>3773.5929999999798</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="13">
         <v>12212.977999999999</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="14">
         <v>21106.5780000003</v>
       </c>
-      <c r="J101" s="18">
+      <c r="J101" s="13">
         <v>6785.66099999994</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K101" s="13">
         <v>18950.976000000301</v>
       </c>
-      <c r="L101" s="19">
+      <c r="L101" s="14">
         <v>31716.034000000702</v>
       </c>
     </row>
@@ -28503,36 +28507,36 @@
       <c r="C102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="18">
         <v>110.469950599383</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="71">
         <v>402.28607968907801</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="19">
         <v>571.28340517831998</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="18">
         <v>55.043288273982697</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="71">
         <v>165.84378192937999</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="19">
         <v>259.526816352759</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="18">
         <v>94.460290388339899</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="71">
         <v>134.97928478287699</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="19">
         <v>144.37940356997399</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="60"/>
+      <c r="B103" s="61"/>
       <c r="C103" s="9" t="s">
         <v>5</v>
       </c>
@@ -28576,10 +28580,10 @@
       <c r="B106" s="8"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="65"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="56">
         <v>0.25</v>
       </c>
@@ -28597,10 +28601,10 @@
       <c r="L107" s="58"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="61" t="s">
+      <c r="B108" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="62"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="2">
         <v>40</v>
       </c>
@@ -28665,7 +28669,7 @@
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="60"/>
+      <c r="B110" s="61"/>
       <c r="C110" s="11" t="s">
         <v>5</v>
       </c>
@@ -28698,35 +28702,35 @@
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="63" t="s">
+      <c r="B111" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="64"/>
-      <c r="D111" s="15">
+      <c r="C111" s="66"/>
+      <c r="D111" s="68">
         <v>24.024226110363301</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="69">
         <v>23.853746074472799</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="70">
         <v>24.403768506056501</v>
       </c>
-      <c r="G111" s="15">
+      <c r="G111" s="68">
         <v>25.1884253028263</v>
       </c>
-      <c r="H111" s="16">
+      <c r="H111" s="69">
         <v>24.369672498878401</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="70">
         <v>24.048452220726698</v>
       </c>
-      <c r="J111" s="15">
+      <c r="J111" s="68">
         <v>23.853746074472799</v>
       </c>
-      <c r="K111" s="16">
+      <c r="K111" s="69">
         <v>24.163301929116098</v>
       </c>
-      <c r="L111" s="17">
+      <c r="L111" s="70">
         <v>24.224315836698</v>
       </c>
     </row>
@@ -28734,7 +28738,7 @@
       <c r="B112" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="5">
@@ -28746,7 +28750,7 @@
       <c r="F112" s="7">
         <v>6370.1729999999898</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="6">
         <v>1312.32</v>
       </c>
       <c r="H112" s="6">
@@ -28755,7 +28759,7 @@
       <c r="I112" s="7">
         <v>6322.4459999999899</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="6">
         <v>947.44499999999903</v>
       </c>
       <c r="K112" s="6">
@@ -28766,68 +28770,68 @@
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="66"/>
-      <c r="C113" s="11" t="s">
+      <c r="B113" s="60"/>
+      <c r="C113" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="18">
         <v>612.00800000000004</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="71">
         <v>1679.9569999999901</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="19">
         <v>2986.5859999999898</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="71">
         <v>2584.8179999999902</v>
       </c>
-      <c r="H113" s="13">
+      <c r="H113" s="71">
         <v>7360.8819999999896</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="19">
         <v>12171.7079999999</v>
       </c>
-      <c r="J113" s="12">
+      <c r="J113" s="71">
         <v>4493.5659999999898</v>
       </c>
-      <c r="K113" s="13">
+      <c r="K113" s="71">
         <v>14392.8669999999</v>
       </c>
-      <c r="L113" s="14">
+      <c r="L113" s="19">
         <v>23899.341</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" s="60"/>
-      <c r="C114" s="11" t="s">
+      <c r="B114" s="61"/>
+      <c r="C114" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="12">
         <v>422.82100000000003</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="13">
         <v>1275.1389999999899</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="14">
         <v>1993.52799999999</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G114" s="13">
         <v>754.21900000000005</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="13">
         <v>2395.3109999999901</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I114" s="14">
         <v>4162.0109999999804</v>
       </c>
-      <c r="J114" s="18">
+      <c r="J114" s="13">
         <v>1275.1389999999899</v>
       </c>
-      <c r="K114" s="4">
+      <c r="K114" s="13">
         <v>3719.8510000000001</v>
       </c>
-      <c r="L114" s="19">
+      <c r="L114" s="14">
         <v>6131.6579999999603</v>
       </c>
     </row>
@@ -28838,36 +28842,36 @@
       <c r="C115" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="18">
         <v>238.7</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="71">
         <v>767.90599999999995</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="19">
         <v>1159.67299999999</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="18">
         <v>361.00599999999798</v>
       </c>
-      <c r="H115" s="6">
+      <c r="H115" s="71">
         <v>1358.48099999999</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="19">
         <v>2344.0509999999999</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="18">
         <v>767.90599999999995</v>
       </c>
-      <c r="K115" s="6">
+      <c r="K115" s="71">
         <v>2078.826</v>
       </c>
-      <c r="L115" s="7">
+      <c r="L115" s="19">
         <v>3348.3039999999901</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="60"/>
+      <c r="B116" s="61"/>
       <c r="C116" s="9" t="s">
         <v>5</v>
       </c>
@@ -28912,10 +28916,10 @@
       <c r="B120" s="8"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="61" t="s">
+      <c r="B121" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="65"/>
+      <c r="C121" s="64"/>
       <c r="D121" s="56">
         <v>0.25</v>
       </c>
@@ -28933,10 +28937,10 @@
       <c r="L121" s="58"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="61" t="s">
+      <c r="B122" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="62"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="2">
         <v>40</v>
       </c>
@@ -29001,7 +29005,7 @@
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="60"/>
+      <c r="B124" s="61"/>
       <c r="C124" s="11" t="s">
         <v>5</v>
       </c>
@@ -29034,35 +29038,35 @@
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="63" t="s">
+      <c r="B125" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="64"/>
-      <c r="D125" s="15">
+      <c r="C125" s="66"/>
+      <c r="D125" s="68">
         <v>28.360215053763401</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="69">
         <v>27.7150537634408</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="70">
         <v>28.4650537634408</v>
       </c>
-      <c r="G125" s="15">
+      <c r="G125" s="68">
         <v>49.831989247311803</v>
       </c>
-      <c r="H125" s="16">
+      <c r="H125" s="69">
         <v>45.067204301075201</v>
       </c>
-      <c r="I125" s="17">
+      <c r="I125" s="70">
         <v>44.350806451612897</v>
       </c>
-      <c r="J125" s="15">
+      <c r="J125" s="68">
         <v>63.732078853046502</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="69">
         <v>67.795698924731099</v>
       </c>
-      <c r="L125" s="17">
+      <c r="L125" s="70">
         <v>66.600358422938996</v>
       </c>
     </row>
@@ -29070,7 +29074,7 @@
       <c r="B126" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="5">
@@ -29082,7 +29086,7 @@
       <c r="F126" s="7">
         <v>8704.0175770270598</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="6">
         <v>2821.25515378826</v>
       </c>
       <c r="H126" s="6">
@@ -29091,7 +29095,7 @@
       <c r="I126" s="7">
         <v>13193.9001144876</v>
       </c>
-      <c r="J126" s="5">
+      <c r="J126" s="6">
         <v>2558.0496280943398</v>
       </c>
       <c r="K126" s="6">
@@ -29102,68 +29106,68 @@
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" s="66"/>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="60"/>
+      <c r="C127" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="12">
-        <v>0</v>
-      </c>
-      <c r="E127" s="13">
-        <v>0</v>
-      </c>
-      <c r="F127" s="13">
-        <v>0</v>
-      </c>
-      <c r="G127" s="12">
-        <v>0</v>
-      </c>
-      <c r="H127" s="13">
-        <v>0</v>
-      </c>
-      <c r="I127" s="13">
-        <v>0</v>
-      </c>
-      <c r="J127" s="12">
+      <c r="D127" s="18">
+        <v>0</v>
+      </c>
+      <c r="E127" s="71">
+        <v>0</v>
+      </c>
+      <c r="F127" s="19">
+        <v>0</v>
+      </c>
+      <c r="G127" s="71">
+        <v>0</v>
+      </c>
+      <c r="H127" s="71">
+        <v>0</v>
+      </c>
+      <c r="I127" s="19">
+        <v>0</v>
+      </c>
+      <c r="J127" s="71">
         <v>43.417289241538697</v>
       </c>
-      <c r="K127" s="13">
+      <c r="K127" s="71">
         <v>426.60206244000699</v>
       </c>
-      <c r="L127" s="14">
+      <c r="L127" s="19">
         <v>446.41410795884099</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="60"/>
-      <c r="C128" s="11" t="s">
+      <c r="B128" s="61"/>
+      <c r="C128" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="12">
         <v>577.63399999999899</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="13">
         <v>1702.02699999999</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="14">
         <v>2728.9609999999898</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G128" s="13">
         <v>1857.0509999999999</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="13">
         <v>5577.0289999999904</v>
       </c>
-      <c r="I128" s="4">
+      <c r="I128" s="14">
         <v>9635.6639999999406</v>
       </c>
-      <c r="J128" s="18">
+      <c r="J128" s="13">
         <v>4190.7120000000004</v>
       </c>
-      <c r="K128" s="4">
+      <c r="K128" s="13">
         <v>13626.851999999901</v>
       </c>
-      <c r="L128" s="19">
+      <c r="L128" s="14">
         <v>22370.7760000003</v>
       </c>
     </row>
@@ -29174,36 +29178,36 @@
       <c r="C129" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="18">
         <v>221.58168134968099</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="71">
         <v>717.72764734836403</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="19">
         <v>1076.98142297293</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="18">
         <v>334.05684621172799</v>
       </c>
-      <c r="H129" s="6">
+      <c r="H129" s="71">
         <v>1252.3819088104401</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="19">
         <v>2170.65188551237</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129" s="18">
         <v>599.114154328567</v>
       </c>
-      <c r="K129" s="6">
+      <c r="K129" s="71">
         <v>1551.78792462254</v>
       </c>
-      <c r="L129" s="7">
+      <c r="L129" s="19">
         <v>2578.0878870677202</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="60"/>
+      <c r="B130" s="61"/>
       <c r="C130" s="9" t="s">
         <v>5</v>
       </c>
@@ -29248,10 +29252,10 @@
       <c r="B133" s="8"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B134" s="61" t="s">
+      <c r="B134" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="65"/>
+      <c r="C134" s="64"/>
       <c r="D134" s="56">
         <v>0.25</v>
       </c>
@@ -29269,10 +29273,10 @@
       <c r="L134" s="58"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="61" t="s">
+      <c r="B135" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="62"/>
+      <c r="C135" s="63"/>
       <c r="D135" s="2">
         <v>40</v>
       </c>
@@ -29337,7 +29341,7 @@
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B137" s="60"/>
+      <c r="B137" s="61"/>
       <c r="C137" s="11" t="s">
         <v>5</v>
       </c>
@@ -29370,35 +29374,35 @@
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B138" s="63" t="s">
+      <c r="B138" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="64"/>
-      <c r="D138" s="15">
+      <c r="C138" s="66"/>
+      <c r="D138" s="68">
         <v>28.360215053763401</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="69">
         <v>27.7150537634408</v>
       </c>
-      <c r="F138" s="17">
+      <c r="F138" s="70">
         <v>28.4650537634408</v>
       </c>
-      <c r="G138" s="15">
+      <c r="G138" s="68">
         <v>51.068548387096698</v>
       </c>
-      <c r="H138" s="16">
+      <c r="H138" s="69">
         <v>45.575716845878098</v>
       </c>
-      <c r="I138" s="17">
+      <c r="I138" s="70">
         <v>44.872311827956899</v>
       </c>
-      <c r="J138" s="15">
+      <c r="J138" s="68">
         <v>67.903225806451601</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="69">
         <v>72.119175627240097</v>
       </c>
-      <c r="L138" s="17">
+      <c r="L138" s="70">
         <v>70.579749103942603</v>
       </c>
     </row>
@@ -29406,7 +29410,7 @@
       <c r="B139" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="5">
@@ -29418,7 +29422,7 @@
       <c r="F139" s="7">
         <v>8704.0175770270598</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="6">
         <v>2867.6169973269498</v>
       </c>
       <c r="H139" s="6">
@@ -29427,7 +29431,7 @@
       <c r="I139" s="7">
         <v>13261.6639970166</v>
       </c>
-      <c r="J139" s="5">
+      <c r="J139" s="6">
         <v>2707.0443032415001</v>
       </c>
       <c r="K139" s="6">
@@ -29438,68 +29442,68 @@
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="66"/>
-      <c r="C140" s="11" t="s">
+      <c r="B140" s="60"/>
+      <c r="C140" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="12">
-        <v>0</v>
-      </c>
-      <c r="E140" s="13">
-        <v>0</v>
-      </c>
-      <c r="F140" s="13">
-        <v>0</v>
-      </c>
-      <c r="G140" s="12">
-        <v>0</v>
-      </c>
-      <c r="H140" s="13">
-        <v>0</v>
-      </c>
-      <c r="I140" s="13">
-        <v>0</v>
-      </c>
-      <c r="J140" s="12">
+      <c r="D140" s="18">
+        <v>0</v>
+      </c>
+      <c r="E140" s="71">
+        <v>0</v>
+      </c>
+      <c r="F140" s="19">
+        <v>0</v>
+      </c>
+      <c r="G140" s="71">
+        <v>0</v>
+      </c>
+      <c r="H140" s="71">
+        <v>0</v>
+      </c>
+      <c r="I140" s="19">
+        <v>0</v>
+      </c>
+      <c r="J140" s="71">
         <v>43.417289241538697</v>
       </c>
-      <c r="K140" s="13">
+      <c r="K140" s="71">
         <v>427.78766594927799</v>
       </c>
-      <c r="L140" s="14">
+      <c r="L140" s="19">
         <v>447.07390122965501</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="60"/>
-      <c r="C141" s="11" t="s">
+      <c r="B141" s="61"/>
+      <c r="C141" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="12">
         <v>577.63399999999899</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="13">
         <v>1702.02699999999</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="14">
         <v>2728.9609999999898</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G141" s="13">
         <v>1893.5229999999999</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="13">
         <v>5595.6759999999904</v>
       </c>
-      <c r="I141" s="4">
+      <c r="I141" s="14">
         <v>9667.3959999999406</v>
       </c>
-      <c r="J141" s="18">
+      <c r="J141" s="13">
         <v>4419.4059999999899</v>
       </c>
-      <c r="K141" s="4">
+      <c r="K141" s="13">
         <v>14372.9999999999</v>
       </c>
-      <c r="L141" s="19">
+      <c r="L141" s="14">
         <v>23554.240000000202</v>
       </c>
     </row>
@@ -29510,36 +29514,36 @@
       <c r="C142" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="18">
         <v>221.58168134968099</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="71">
         <v>717.72764734836403</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="19">
         <v>1076.98142297293</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="18">
         <v>331.52780574401697</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="71">
         <v>1253.87827064607</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="19">
         <v>2173.00688895443</v>
       </c>
-      <c r="J142" s="5">
+      <c r="J142" s="18">
         <v>575.04215649236198</v>
       </c>
-      <c r="K142" s="6">
+      <c r="K142" s="71">
         <v>1490.78389946945</v>
       </c>
-      <c r="L142" s="7">
+      <c r="L142" s="19">
         <v>2470.2381324373</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B143" s="60"/>
+      <c r="B143" s="61"/>
       <c r="C143" s="9" t="s">
         <v>5</v>
       </c>
@@ -29580,10 +29584,10 @@
       <c r="B147" s="8"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B148" s="61" t="s">
+      <c r="B148" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="65"/>
+      <c r="C148" s="64"/>
       <c r="D148" s="56">
         <v>0.25</v>
       </c>
@@ -29601,10 +29605,10 @@
       <c r="L148" s="58"/>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B149" s="61" t="s">
+      <c r="B149" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="62"/>
+      <c r="C149" s="63"/>
       <c r="D149" s="2">
         <v>40</v>
       </c>
@@ -29669,7 +29673,7 @@
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B151" s="60"/>
+      <c r="B151" s="61"/>
       <c r="C151" s="11" t="s">
         <v>5</v>
       </c>
@@ -29702,35 +29706,35 @@
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" s="63" t="s">
+      <c r="B152" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="64"/>
-      <c r="D152" s="15">
+      <c r="C152" s="66"/>
+      <c r="D152" s="68">
         <v>37.490892531876099</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="69">
         <v>37.2962204007286</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F152" s="70">
         <v>37.912568306010897</v>
       </c>
-      <c r="G152" s="15">
+      <c r="G152" s="68">
         <v>38.592896174863299</v>
       </c>
-      <c r="H152" s="16">
+      <c r="H152" s="69">
         <v>37.990475106253797</v>
       </c>
-      <c r="I152" s="17">
+      <c r="I152" s="70">
         <v>37.769239526411603</v>
       </c>
-      <c r="J152" s="15">
+      <c r="J152" s="68">
         <v>37.2962204007286</v>
       </c>
-      <c r="K152" s="16">
+      <c r="K152" s="69">
         <v>37.8433009512244</v>
       </c>
-      <c r="L152" s="17">
+      <c r="L152" s="70">
         <v>37.936247723132901</v>
       </c>
     </row>
@@ -29738,7 +29742,7 @@
       <c r="B153" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="5">
@@ -29750,7 +29754,7 @@
       <c r="F153" s="7">
         <v>135348.016</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="6">
         <v>23267.427</v>
       </c>
       <c r="H153" s="6">
@@ -29759,7 +29763,7 @@
       <c r="I153" s="7">
         <v>113002.269</v>
       </c>
-      <c r="J153" s="5">
+      <c r="J153" s="6">
         <v>14555.466</v>
       </c>
       <c r="K153" s="6">
@@ -29770,68 +29774,68 @@
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B154" s="66"/>
-      <c r="C154" s="11" t="s">
+      <c r="B154" s="60"/>
+      <c r="C154" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="18">
         <v>16398.6719999999</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="71">
         <v>47429.379000000103</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="19">
         <v>80558.0129999989</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="71">
         <v>65151.155999999901</v>
       </c>
-      <c r="H154" s="13">
+      <c r="H154" s="71">
         <v>189702.80999999901</v>
       </c>
-      <c r="I154" s="13">
+      <c r="I154" s="19">
         <v>315182.012999998</v>
       </c>
-      <c r="J154" s="12">
+      <c r="J154" s="71">
         <v>112040.93799999999</v>
       </c>
-      <c r="K154" s="13">
+      <c r="K154" s="71">
         <v>349755.27900000103</v>
       </c>
-      <c r="L154" s="14">
+      <c r="L154" s="19">
         <v>582188.41700000002</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="60"/>
-      <c r="C155" s="11" t="s">
+      <c r="B155" s="61"/>
+      <c r="C155" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="12">
         <v>8534.0769999999902</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="13">
         <v>25498.076000001602</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F155" s="14">
         <v>39645.643000001801</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="13">
         <v>15023.047000000201</v>
       </c>
-      <c r="H155" s="4">
+      <c r="H155" s="13">
         <v>47868.672000000799</v>
       </c>
-      <c r="I155" s="4">
+      <c r="I155" s="14">
         <v>83264.587999997806</v>
       </c>
-      <c r="J155" s="18">
+      <c r="J155" s="13">
         <v>25498.076000001602</v>
       </c>
-      <c r="K155" s="4">
+      <c r="K155" s="13">
         <v>74049.793999997695</v>
       </c>
-      <c r="L155" s="19">
+      <c r="L155" s="14">
         <v>122088.448999985</v>
       </c>
     </row>
@@ -29842,36 +29846,36 @@
       <c r="C156" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="18">
         <v>2839.3099999999899</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="71">
         <v>9317.8990000001595</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="19">
         <v>13422.6080000005</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="18">
         <v>4209.1819999999998</v>
       </c>
-      <c r="H156" s="6">
+      <c r="H156" s="71">
         <v>15422.8810000007</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="19">
         <v>26410.886000000701</v>
       </c>
-      <c r="J156" s="5">
+      <c r="J156" s="18">
         <v>9317.8990000001595</v>
       </c>
-      <c r="K156" s="6">
+      <c r="K156" s="71">
         <v>23458.593000000699</v>
       </c>
-      <c r="L156" s="7">
+      <c r="L156" s="19">
         <v>37533.597000000103</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B157" s="60"/>
+      <c r="B157" s="61"/>
       <c r="C157" s="9" t="s">
         <v>5</v>
       </c>
@@ -29918,10 +29922,10 @@
       <c r="B161" s="8"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B162" s="61" t="s">
+      <c r="B162" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="65"/>
+      <c r="C162" s="64"/>
       <c r="D162" s="56">
         <v>0.25</v>
       </c>
@@ -29939,10 +29943,10 @@
       <c r="L162" s="58"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B163" s="61" t="s">
+      <c r="B163" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="62"/>
+      <c r="C163" s="63"/>
       <c r="D163" s="2">
         <v>40</v>
       </c>
@@ -30007,7 +30011,7 @@
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B165" s="60"/>
+      <c r="B165" s="61"/>
       <c r="C165" s="11" t="s">
         <v>5</v>
       </c>
@@ -30040,35 +30044,35 @@
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B166" s="63" t="s">
+      <c r="B166" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C166" s="64"/>
-      <c r="D166" s="15">
+      <c r="C166" s="66"/>
+      <c r="D166" s="68">
         <v>48.226320582877896</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="69">
         <v>47.177823315118303</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F166" s="70">
         <v>47.6921675774134</v>
       </c>
-      <c r="G166" s="15">
+      <c r="G166" s="68">
         <v>80.862932604735803</v>
       </c>
-      <c r="H166" s="16">
+      <c r="H166" s="69">
         <v>77.591833636915595</v>
       </c>
-      <c r="I166" s="17">
+      <c r="I166" s="70">
         <v>77.205145719489906</v>
       </c>
-      <c r="J166" s="15">
+      <c r="J166" s="68">
         <v>88.366727383120804</v>
       </c>
-      <c r="K166" s="16">
+      <c r="K166" s="69">
         <v>90.725055656749603</v>
       </c>
-      <c r="L166" s="17">
+      <c r="L166" s="70">
         <v>90.570582877959893</v>
       </c>
     </row>
@@ -30076,100 +30080,100 @@
       <c r="B167" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="5">
         <v>39089.046438154801</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="6">
         <v>116218.580895627</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="7">
         <v>199051.54997373</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="6">
         <v>47333.995169554197</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="6">
         <v>143445.815290161</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167" s="7">
         <v>232425.50969515101</v>
       </c>
-      <c r="J167" s="4">
+      <c r="J167" s="6">
         <v>31739.099781575798</v>
       </c>
-      <c r="K167" s="4">
+      <c r="K167" s="6">
         <v>80685.706887105494</v>
       </c>
-      <c r="L167" s="4">
+      <c r="L167" s="7">
         <v>143837.329561235</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B168" s="66"/>
-      <c r="C168" s="11" t="s">
+      <c r="B168" s="60"/>
+      <c r="C168" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="18">
         <v>62.6266260465326</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="71">
         <v>253.86312214038699</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="19">
         <v>353.02941921400998</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G168" s="71">
         <v>21484.015108340998</v>
       </c>
-      <c r="H168" s="6">
+      <c r="H168" s="71">
         <v>55839.192232946101</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168" s="19">
         <v>91655.986653072396</v>
       </c>
-      <c r="J168" s="5">
+      <c r="J168" s="71">
         <v>56051.191862880602</v>
       </c>
-      <c r="K168" s="6">
+      <c r="K168" s="71">
         <v>183089.578469145</v>
       </c>
-      <c r="L168" s="7">
+      <c r="L168" s="19">
         <v>297307.87253847002</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B169" s="60"/>
-      <c r="C169" s="11" t="s">
+      <c r="B169" s="61"/>
+      <c r="C169" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="12">
         <v>12502.986000000101</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="13">
         <v>37600.384000001803</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="14">
         <v>58866.593000000299</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G169" s="13">
         <v>36744.546000001501</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H169" s="13">
         <v>115578.017999987</v>
       </c>
-      <c r="I169" s="7">
+      <c r="I169" s="14">
         <v>200654.74799998</v>
       </c>
-      <c r="J169" s="5">
+      <c r="J169" s="13">
         <v>69754.251999998101</v>
       </c>
-      <c r="K169" s="6">
+      <c r="K169" s="13">
         <v>211967.487999982</v>
       </c>
-      <c r="L169" s="7">
+      <c r="L169" s="14">
         <v>352606.74000000802</v>
       </c>
     </row>
@@ -30180,36 +30184,36 @@
       <c r="C170" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="18">
         <v>2241.3779357984899</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="71">
         <v>7339.5509822314998</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="19">
         <v>10703.107607055899</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="18">
         <v>2013.8119190336699</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H170" s="71">
         <v>7772.0188933449599</v>
       </c>
-      <c r="I170" s="7">
+      <c r="I170" s="19">
         <v>13047.2442578883</v>
       </c>
-      <c r="J170" s="5">
+      <c r="J170" s="18">
         <v>3520.0906782329498</v>
       </c>
-      <c r="K170" s="6">
+      <c r="K170" s="71">
         <v>7318.7465706147595</v>
       </c>
-      <c r="L170" s="7">
+      <c r="L170" s="19">
         <v>11229.1503665984</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B171" s="60"/>
+      <c r="B171" s="61"/>
       <c r="C171" s="9" t="s">
         <v>5</v>
       </c>
@@ -30243,6 +30247,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B143"/>
     <mergeCell ref="J162:L162"/>
     <mergeCell ref="B163:C163"/>
     <mergeCell ref="B164:B165"/>
@@ -30255,102 +30355,6 @@
     <mergeCell ref="B162:C162"/>
     <mergeCell ref="D162:F162"/>
     <mergeCell ref="G162:I162"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:L148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4A0C7-474C-472A-B5B9-2D2AC12A04C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8C427-115F-4A5D-94DE-BF0DBD41D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="465" windowWidth="28200" windowHeight="15015" activeTab="3" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -28335,8 +28335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D567EE6-8B0F-4FD1-9D13-2405BF230519}">
   <dimension ref="A2:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198:C241"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/simulationResults_profits.xlsx
+++ b/simulationResults_profits.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8C427-115F-4A5D-94DE-BF0DBD41D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10030F-889C-407B-BC99-CDF02068C4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="465" windowWidth="28200" windowHeight="15015" activeTab="3" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="9180" windowHeight="15480" activeTab="4" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="profits_costs" sheetId="2" r:id="rId1"/>
     <sheet name="Distributions" sheetId="3" r:id="rId2"/>
     <sheet name="Distributions_copy" sheetId="5" r:id="rId3"/>
     <sheet name="profits_costs_Copy" sheetId="6" r:id="rId4"/>
+    <sheet name="Distributions_copy (2)" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="61">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -307,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -484,11 +485,282 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,19 +850,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -604,6 +876,57 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14147,37 +14470,23 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C258:C265"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="C238:C245"/>
-    <mergeCell ref="E251:I251"/>
-    <mergeCell ref="J251:N251"/>
-    <mergeCell ref="O251:S251"/>
-    <mergeCell ref="C253:C257"/>
-    <mergeCell ref="E223:I223"/>
-    <mergeCell ref="J223:N223"/>
-    <mergeCell ref="O223:S223"/>
-    <mergeCell ref="C225:C229"/>
-    <mergeCell ref="C230:C237"/>
-    <mergeCell ref="O116:S116"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="C131:C138"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="E116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="E196:I196"/>
-    <mergeCell ref="J196:N196"/>
-    <mergeCell ref="O196:S196"/>
-    <mergeCell ref="E142:I142"/>
-    <mergeCell ref="J142:N142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="E169:I169"/>
-    <mergeCell ref="J169:N169"/>
-    <mergeCell ref="O169:S169"/>
+    <mergeCell ref="C211:C218"/>
+    <mergeCell ref="C149:C156"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="C184:C191"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="C203:C210"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C183"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C74"/>
     <mergeCell ref="E88:I88"/>
     <mergeCell ref="J88:N88"/>
     <mergeCell ref="O88:S88"/>
@@ -14190,23 +14499,37 @@
     <mergeCell ref="E60:I60"/>
     <mergeCell ref="J60:N60"/>
     <mergeCell ref="O60:S60"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="C211:C218"/>
-    <mergeCell ref="C149:C156"/>
-    <mergeCell ref="C157:C164"/>
-    <mergeCell ref="C184:C191"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="C203:C210"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C183"/>
+    <mergeCell ref="E196:I196"/>
+    <mergeCell ref="J196:N196"/>
+    <mergeCell ref="O196:S196"/>
+    <mergeCell ref="E142:I142"/>
+    <mergeCell ref="J142:N142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="E169:I169"/>
+    <mergeCell ref="J169:N169"/>
+    <mergeCell ref="O169:S169"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="E116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="O116:S116"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="C131:C138"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="O251:S251"/>
+    <mergeCell ref="C253:C257"/>
+    <mergeCell ref="E223:I223"/>
+    <mergeCell ref="J223:N223"/>
+    <mergeCell ref="O223:S223"/>
+    <mergeCell ref="C225:C229"/>
+    <mergeCell ref="C230:C237"/>
+    <mergeCell ref="C258:C265"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="C238:C245"/>
+    <mergeCell ref="E251:I251"/>
+    <mergeCell ref="J251:N251"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14243,10 +14566,10 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="59">
         <v>0.25</v>
       </c>
@@ -14270,10 +14593,10 @@
       <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -14374,7 +14697,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
@@ -14489,10 +14812,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="15">
         <v>51.249999999999901</v>
       </c>
@@ -14593,7 +14916,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
@@ -14644,7 +14967,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="64"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
@@ -14748,7 +15071,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
@@ -14947,10 +15270,10 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="59">
         <v>0.25</v>
       </c>
@@ -14974,10 +15297,10 @@
       <c r="R22" s="61"/>
     </row>
     <row r="23" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="66"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="2">
         <v>40</v>
       </c>
@@ -15078,7 +15401,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="64"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
@@ -15193,10 +15516,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -15297,7 +15620,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="11" t="s">
         <v>19</v>
       </c>
@@ -15348,7 +15671,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="64"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
@@ -15452,7 +15775,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="64"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
@@ -15763,10 +16086,10 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="59">
         <v>0.25</v>
       </c>
@@ -15790,10 +16113,10 @@
       <c r="R41" s="61"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="2">
         <v>40</v>
       </c>
@@ -15894,7 +16217,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="11" t="s">
         <v>5</v>
       </c>
@@ -15945,10 +16268,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="15">
         <v>95.4166666666666</v>
       </c>
@@ -16049,7 +16372,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="11" t="s">
         <v>19</v>
       </c>
@@ -16100,7 +16423,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="64"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="11" t="s">
         <v>22</v>
       </c>
@@ -16204,7 +16527,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="64"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="9" t="s">
         <v>5</v>
       </c>
@@ -16635,10 +16958,10 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="59">
         <v>0.25</v>
       </c>
@@ -16662,10 +16985,10 @@
       <c r="R61" s="61"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="66"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="2">
         <v>40</v>
       </c>
@@ -16766,7 +17089,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="64"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="11" t="s">
         <v>5</v>
       </c>
@@ -16881,10 +17204,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="69"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="15">
         <v>10</v>
       </c>
@@ -16985,7 +17308,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="63"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="11" t="s">
         <v>19</v>
       </c>
@@ -17036,7 +17359,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="64"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="11" t="s">
         <v>22</v>
       </c>
@@ -17140,7 +17463,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="64"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
@@ -17335,10 +17658,10 @@
       <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="65" t="s">
+      <c r="B78" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="67"/>
+      <c r="C78" s="68"/>
       <c r="D78" s="59">
         <v>0.25</v>
       </c>
@@ -17362,10 +17685,10 @@
       <c r="R78" s="61"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="66"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="2">
         <v>40</v>
       </c>
@@ -17466,7 +17789,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="64"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="11" t="s">
         <v>5</v>
       </c>
@@ -17581,10 +17904,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="69"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="15">
         <v>10</v>
       </c>
@@ -17685,7 +18008,7 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="63"/>
+      <c r="B85" s="69"/>
       <c r="C85" s="11" t="s">
         <v>19</v>
       </c>
@@ -17736,7 +18059,7 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="64"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
@@ -17840,7 +18163,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="64"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="9" t="s">
         <v>5</v>
       </c>
@@ -18267,10 +18590,10 @@
       <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="67"/>
+      <c r="C99" s="68"/>
       <c r="D99" s="59">
         <v>0.25</v>
       </c>
@@ -18294,10 +18617,10 @@
       <c r="R99" s="61"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="66"/>
+      <c r="C100" s="65"/>
       <c r="D100" s="2">
         <v>40</v>
       </c>
@@ -18398,7 +18721,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="64"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="11" t="s">
         <v>5</v>
       </c>
@@ -18513,10 +18836,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="69"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="15">
         <v>45.403225806451601</v>
       </c>
@@ -18617,7 +18940,7 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="63"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="11" t="s">
         <v>19</v>
       </c>
@@ -18668,7 +18991,7 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="64"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="11" t="s">
         <v>22</v>
       </c>
@@ -18772,7 +19095,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="64"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="9" t="s">
         <v>5</v>
       </c>
@@ -18967,10 +19290,10 @@
       <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="67"/>
+      <c r="C116" s="68"/>
       <c r="D116" s="59">
         <v>0.25</v>
       </c>
@@ -18994,10 +19317,10 @@
       <c r="R116" s="61"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="65" t="s">
+      <c r="B117" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="66"/>
+      <c r="C117" s="65"/>
       <c r="D117" s="2">
         <v>40</v>
       </c>
@@ -19098,7 +19421,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="64"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="11" t="s">
         <v>5</v>
       </c>
@@ -19213,10 +19536,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="68" t="s">
+      <c r="B121" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="69"/>
+      <c r="C121" s="67"/>
       <c r="D121" s="15">
         <v>60.2822580645161</v>
       </c>
@@ -19317,7 +19640,7 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="63"/>
+      <c r="B123" s="69"/>
       <c r="C123" s="11" t="s">
         <v>19</v>
       </c>
@@ -19368,7 +19691,7 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="64"/>
+      <c r="B124" s="63"/>
       <c r="C124" s="11" t="s">
         <v>22</v>
       </c>
@@ -19472,7 +19795,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="64"/>
+      <c r="B126" s="63"/>
       <c r="C126" s="9" t="s">
         <v>5</v>
       </c>
@@ -19900,10 +20223,10 @@
       <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="65" t="s">
+      <c r="B136" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="67"/>
+      <c r="C136" s="68"/>
       <c r="D136" s="59">
         <v>0.25</v>
       </c>
@@ -19927,10 +20250,10 @@
       <c r="R136" s="61"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="65" t="s">
+      <c r="B137" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="66"/>
+      <c r="C137" s="65"/>
       <c r="D137" s="2">
         <v>40</v>
       </c>
@@ -20031,7 +20354,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="64"/>
+      <c r="B139" s="63"/>
       <c r="C139" s="11" t="s">
         <v>5</v>
       </c>
@@ -20146,10 +20469,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="68" t="s">
+      <c r="B141" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="69"/>
+      <c r="C141" s="67"/>
       <c r="D141" s="15">
         <v>24.024226110363301</v>
       </c>
@@ -20250,7 +20573,7 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="63"/>
+      <c r="B143" s="69"/>
       <c r="C143" s="11" t="s">
         <v>19</v>
       </c>
@@ -20301,7 +20624,7 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="64"/>
+      <c r="B144" s="63"/>
       <c r="C144" s="11" t="s">
         <v>22</v>
       </c>
@@ -20405,7 +20728,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="64"/>
+      <c r="B146" s="63"/>
       <c r="C146" s="9" t="s">
         <v>5</v>
       </c>
@@ -20600,10 +20923,10 @@
       <c r="B152" s="8"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="65" t="s">
+      <c r="B153" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C153" s="67"/>
+      <c r="C153" s="68"/>
       <c r="D153" s="59">
         <v>0.25</v>
       </c>
@@ -20627,10 +20950,10 @@
       <c r="R153" s="61"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="65" t="s">
+      <c r="B154" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="66"/>
+      <c r="C154" s="65"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
@@ -20731,7 +21054,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="64"/>
+      <c r="B156" s="63"/>
       <c r="C156" s="11" t="s">
         <v>5</v>
       </c>
@@ -20846,10 +21169,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="68" t="s">
+      <c r="B158" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="69"/>
+      <c r="C158" s="67"/>
       <c r="D158" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -20950,7 +21273,7 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="63"/>
+      <c r="B160" s="69"/>
       <c r="C160" s="11" t="s">
         <v>19</v>
       </c>
@@ -21001,7 +21324,7 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="64"/>
+      <c r="B161" s="63"/>
       <c r="C161" s="11" t="s">
         <v>22</v>
       </c>
@@ -21105,7 +21428,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="64"/>
+      <c r="B163" s="63"/>
       <c r="C163" s="9" t="s">
         <v>5</v>
       </c>
@@ -21417,10 +21740,10 @@
       <c r="B170" s="8"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="65" t="s">
+      <c r="B171" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="67"/>
+      <c r="C171" s="68"/>
       <c r="D171" s="59">
         <v>0.25</v>
       </c>
@@ -21444,10 +21767,10 @@
       <c r="R171" s="61"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="65" t="s">
+      <c r="B172" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="66"/>
+      <c r="C172" s="65"/>
       <c r="D172" s="2">
         <v>40</v>
       </c>
@@ -21548,7 +21871,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="64"/>
+      <c r="B174" s="63"/>
       <c r="C174" s="11" t="s">
         <v>5</v>
       </c>
@@ -21663,10 +21986,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="68" t="s">
+      <c r="B176" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C176" s="69"/>
+      <c r="C176" s="67"/>
       <c r="D176" s="15">
         <v>28.360215053763401</v>
       </c>
@@ -21767,7 +22090,7 @@
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B178" s="63"/>
+      <c r="B178" s="69"/>
       <c r="C178" s="11" t="s">
         <v>19</v>
       </c>
@@ -21818,7 +22141,7 @@
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="64"/>
+      <c r="B179" s="63"/>
       <c r="C179" s="11" t="s">
         <v>22</v>
       </c>
@@ -21922,7 +22245,7 @@
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B181" s="64"/>
+      <c r="B181" s="63"/>
       <c r="C181" s="9" t="s">
         <v>5</v>
       </c>
@@ -22347,10 +22670,10 @@
       <c r="B191" s="8"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B192" s="65" t="s">
+      <c r="B192" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="67"/>
+      <c r="C192" s="68"/>
       <c r="D192" s="59">
         <v>0.25</v>
       </c>
@@ -22374,10 +22697,10 @@
       <c r="R192" s="61"/>
     </row>
     <row r="193" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B193" s="65" t="s">
+      <c r="B193" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="66"/>
+      <c r="C193" s="65"/>
       <c r="D193" s="2">
         <v>40</v>
       </c>
@@ -22478,7 +22801,7 @@
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B195" s="64"/>
+      <c r="B195" s="63"/>
       <c r="C195" s="11" t="s">
         <v>5</v>
       </c>
@@ -22593,10 +22916,10 @@
       </c>
     </row>
     <row r="197" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B197" s="68" t="s">
+      <c r="B197" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="69"/>
+      <c r="C197" s="67"/>
       <c r="D197" s="15">
         <v>37.490892531876099</v>
       </c>
@@ -22697,7 +23020,7 @@
       </c>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B199" s="63"/>
+      <c r="B199" s="69"/>
       <c r="C199" s="11" t="s">
         <v>19</v>
       </c>
@@ -22748,7 +23071,7 @@
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B200" s="64"/>
+      <c r="B200" s="63"/>
       <c r="C200" s="11" t="s">
         <v>22</v>
       </c>
@@ -22852,7 +23175,7 @@
       </c>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B202" s="64"/>
+      <c r="B202" s="63"/>
       <c r="C202" s="9" t="s">
         <v>5</v>
       </c>
@@ -23048,10 +23371,10 @@
       <c r="B208" s="8"/>
     </row>
     <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="65" t="s">
+      <c r="B209" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="67"/>
+      <c r="C209" s="68"/>
       <c r="D209" s="59">
         <v>0.25</v>
       </c>
@@ -23075,10 +23398,10 @@
       <c r="R209" s="61"/>
     </row>
     <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="65" t="s">
+      <c r="B210" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="66"/>
+      <c r="C210" s="65"/>
       <c r="D210" s="2">
         <v>40</v>
       </c>
@@ -23179,7 +23502,7 @@
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="64"/>
+      <c r="B212" s="63"/>
       <c r="C212" s="11" t="s">
         <v>5</v>
       </c>
@@ -23294,10 +23617,10 @@
       </c>
     </row>
     <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="68" t="s">
+      <c r="B214" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="69"/>
+      <c r="C214" s="67"/>
       <c r="D214" s="15">
         <v>48.226320582877896</v>
       </c>
@@ -23398,7 +23721,7 @@
       </c>
     </row>
     <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="63"/>
+      <c r="B216" s="69"/>
       <c r="C216" s="11" t="s">
         <v>19</v>
       </c>
@@ -23449,7 +23772,7 @@
       </c>
     </row>
     <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="64"/>
+      <c r="B217" s="63"/>
       <c r="C217" s="11" t="s">
         <v>22</v>
       </c>
@@ -23553,7 +23876,7 @@
       </c>
     </row>
     <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B219" s="64"/>
+      <c r="B219" s="63"/>
       <c r="C219" s="9" t="s">
         <v>5</v>
       </c>
@@ -23851,20 +24174,76 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="D209:H209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="N209:R209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B142:B144"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:C117"/>
@@ -23889,76 +24268,20 @@
     <mergeCell ref="N136:R136"/>
     <mergeCell ref="B155:B156"/>
     <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23969,7 +24292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94ADC68-9302-4CA0-9276-97E3AD43674E}">
   <dimension ref="B2:L171"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
@@ -23995,10 +24318,10 @@
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="59">
         <v>0.25</v>
       </c>
@@ -24016,10 +24339,10 @@
       <c r="L4" s="61"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2">
         <v>40</v>
       </c>
@@ -24084,7 +24407,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
@@ -24117,10 +24440,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="53">
         <v>51.249999999999901</v>
       </c>
@@ -24185,7 +24508,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -24218,7 +24541,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="64"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -24286,7 +24609,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="64"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -24336,10 +24659,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="59">
         <v>0.25</v>
       </c>
@@ -24357,10 +24680,10 @@
       <c r="L19" s="61"/>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="2">
         <v>40</v>
       </c>
@@ -24425,7 +24748,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
@@ -24498,10 +24821,10 @@
       </c>
     </row>
     <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="15">
         <v>79.1666666666666</v>
       </c>
@@ -24566,7 +24889,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
@@ -24599,7 +24922,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="64"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
@@ -24667,7 +24990,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="64"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
@@ -24870,10 +25193,10 @@
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="59">
         <v>0.25</v>
       </c>
@@ -24891,10 +25214,10 @@
       <c r="L38" s="61"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="66"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="2">
         <v>40</v>
       </c>
@@ -24959,7 +25282,7 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="64"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="11" t="s">
         <v>5</v>
       </c>
@@ -24992,10 +25315,10 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="53">
         <v>95.4166666666666</v>
       </c>
@@ -25060,7 +25383,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="9" t="s">
         <v>19</v>
       </c>
@@ -25093,7 +25416,7 @@
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="64"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="9" t="s">
         <v>22</v>
       </c>
@@ -25161,7 +25484,7 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="64"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
@@ -25208,10 +25531,10 @@
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="59">
         <v>0.25</v>
       </c>
@@ -25229,10 +25552,10 @@
       <c r="L52" s="61"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="66"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="2">
         <v>40</v>
       </c>
@@ -25297,7 +25620,7 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="64"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="11" t="s">
         <v>5</v>
       </c>
@@ -25330,10 +25653,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="15">
         <v>10</v>
       </c>
@@ -25398,7 +25721,7 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
@@ -25431,7 +25754,7 @@
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="64"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="11" t="s">
         <v>22</v>
       </c>
@@ -25499,7 +25822,7 @@
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="64"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
@@ -25544,10 +25867,10 @@
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="67"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="59">
         <v>0.25</v>
       </c>
@@ -25565,10 +25888,10 @@
       <c r="L66" s="61"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="66"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="2">
         <v>40</v>
       </c>
@@ -25633,7 +25956,7 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="64"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="11" t="s">
         <v>5</v>
       </c>
@@ -25666,10 +25989,10 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="68" t="s">
+      <c r="B70" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="69"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="15">
         <v>10</v>
       </c>
@@ -25734,7 +26057,7 @@
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="11" t="s">
         <v>19</v>
       </c>
@@ -25767,7 +26090,7 @@
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="11" t="s">
         <v>22</v>
       </c>
@@ -25835,7 +26158,7 @@
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="64"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="9" t="s">
         <v>5</v>
       </c>
@@ -25879,10 +26202,10 @@
       <c r="B79" s="8"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="67"/>
+      <c r="C80" s="68"/>
       <c r="D80" s="59">
         <v>0.25</v>
       </c>
@@ -25900,10 +26223,10 @@
       <c r="L80" s="61"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="66"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="2">
         <v>40</v>
       </c>
@@ -25968,7 +26291,7 @@
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="64"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="11" t="s">
         <v>5</v>
       </c>
@@ -26001,10 +26324,10 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="69"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="53">
         <v>45.403225806451601</v>
       </c>
@@ -26069,7 +26392,7 @@
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="63"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="9" t="s">
         <v>19</v>
       </c>
@@ -26102,7 +26425,7 @@
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="64"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="9" t="s">
         <v>22</v>
       </c>
@@ -26170,7 +26493,7 @@
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="64"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="9" t="s">
         <v>5</v>
       </c>
@@ -26215,10 +26538,10 @@
       <c r="B93" s="8"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="67"/>
+      <c r="C94" s="68"/>
       <c r="D94" s="59">
         <v>0.25</v>
       </c>
@@ -26236,10 +26559,10 @@
       <c r="L94" s="61"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="66"/>
+      <c r="C95" s="65"/>
       <c r="D95" s="2">
         <v>40</v>
       </c>
@@ -26304,7 +26627,7 @@
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="64"/>
+      <c r="B97" s="63"/>
       <c r="C97" s="11" t="s">
         <v>5</v>
       </c>
@@ -26337,10 +26660,10 @@
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="69"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="53">
         <v>60.2822580645161</v>
       </c>
@@ -26405,7 +26728,7 @@
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="63"/>
+      <c r="B100" s="69"/>
       <c r="C100" s="9" t="s">
         <v>19</v>
       </c>
@@ -26438,7 +26761,7 @@
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="64"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="9" t="s">
         <v>22</v>
       </c>
@@ -26506,7 +26829,7 @@
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="64"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="9" t="s">
         <v>5</v>
       </c>
@@ -26550,10 +26873,10 @@
       <c r="B106" s="8"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="67"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="59">
         <v>0.25</v>
       </c>
@@ -26571,10 +26894,10 @@
       <c r="L107" s="61"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="66"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="2">
         <v>40</v>
       </c>
@@ -26639,7 +26962,7 @@
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="64"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="11" t="s">
         <v>5</v>
       </c>
@@ -26672,10 +26995,10 @@
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="69"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="53">
         <v>24.024226110363301</v>
       </c>
@@ -26740,7 +27063,7 @@
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="63"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="9" t="s">
         <v>19</v>
       </c>
@@ -26773,7 +27096,7 @@
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" s="64"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="9" t="s">
         <v>22</v>
       </c>
@@ -26841,7 +27164,7 @@
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="64"/>
+      <c r="B116" s="63"/>
       <c r="C116" s="9" t="s">
         <v>5</v>
       </c>
@@ -26886,10 +27209,10 @@
       <c r="B120" s="8"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="65" t="s">
+      <c r="B121" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="67"/>
+      <c r="C121" s="68"/>
       <c r="D121" s="59">
         <v>0.25</v>
       </c>
@@ -26907,10 +27230,10 @@
       <c r="L121" s="61"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="65" t="s">
+      <c r="B122" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="66"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="2">
         <v>40</v>
       </c>
@@ -26975,7 +27298,7 @@
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="64"/>
+      <c r="B124" s="63"/>
       <c r="C124" s="11" t="s">
         <v>5</v>
       </c>
@@ -27008,10 +27331,10 @@
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="68" t="s">
+      <c r="B125" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="69"/>
+      <c r="C125" s="67"/>
       <c r="D125" s="53">
         <v>28.360215053763401</v>
       </c>
@@ -27076,7 +27399,7 @@
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" s="63"/>
+      <c r="B127" s="69"/>
       <c r="C127" s="9" t="s">
         <v>19</v>
       </c>
@@ -27109,7 +27432,7 @@
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="64"/>
+      <c r="B128" s="63"/>
       <c r="C128" s="9" t="s">
         <v>22</v>
       </c>
@@ -27177,7 +27500,7 @@
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="64"/>
+      <c r="B130" s="63"/>
       <c r="C130" s="9" t="s">
         <v>5</v>
       </c>
@@ -27222,10 +27545,10 @@
       <c r="B133" s="8"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B134" s="65" t="s">
+      <c r="B134" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="67"/>
+      <c r="C134" s="68"/>
       <c r="D134" s="59">
         <v>0.25</v>
       </c>
@@ -27243,10 +27566,10 @@
       <c r="L134" s="61"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="65" t="s">
+      <c r="B135" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="66"/>
+      <c r="C135" s="65"/>
       <c r="D135" s="2">
         <v>40</v>
       </c>
@@ -27311,7 +27634,7 @@
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B137" s="64"/>
+      <c r="B137" s="63"/>
       <c r="C137" s="11" t="s">
         <v>5</v>
       </c>
@@ -27344,10 +27667,10 @@
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B138" s="68" t="s">
+      <c r="B138" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="69"/>
+      <c r="C138" s="67"/>
       <c r="D138" s="53">
         <v>28.360215053763401</v>
       </c>
@@ -27412,7 +27735,7 @@
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="63"/>
+      <c r="B140" s="69"/>
       <c r="C140" s="9" t="s">
         <v>19</v>
       </c>
@@ -27445,7 +27768,7 @@
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="64"/>
+      <c r="B141" s="63"/>
       <c r="C141" s="9" t="s">
         <v>22</v>
       </c>
@@ -27513,7 +27836,7 @@
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B143" s="64"/>
+      <c r="B143" s="63"/>
       <c r="C143" s="9" t="s">
         <v>5</v>
       </c>
@@ -27554,10 +27877,10 @@
       <c r="B147" s="8"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B148" s="65" t="s">
+      <c r="B148" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="67"/>
+      <c r="C148" s="68"/>
       <c r="D148" s="59">
         <v>0.25</v>
       </c>
@@ -27575,10 +27898,10 @@
       <c r="L148" s="61"/>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B149" s="65" t="s">
+      <c r="B149" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="66"/>
+      <c r="C149" s="65"/>
       <c r="D149" s="2">
         <v>40</v>
       </c>
@@ -27643,7 +27966,7 @@
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B151" s="64"/>
+      <c r="B151" s="63"/>
       <c r="C151" s="11" t="s">
         <v>5</v>
       </c>
@@ -27676,10 +27999,10 @@
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" s="68" t="s">
+      <c r="B152" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="69"/>
+      <c r="C152" s="67"/>
       <c r="D152" s="53">
         <v>37.490892531876099</v>
       </c>
@@ -27744,7 +28067,7 @@
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B154" s="63"/>
+      <c r="B154" s="69"/>
       <c r="C154" s="9" t="s">
         <v>19</v>
       </c>
@@ -27777,7 +28100,7 @@
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="64"/>
+      <c r="B155" s="63"/>
       <c r="C155" s="9" t="s">
         <v>22</v>
       </c>
@@ -27845,7 +28168,7 @@
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B157" s="64"/>
+      <c r="B157" s="63"/>
       <c r="C157" s="9" t="s">
         <v>5</v>
       </c>
@@ -27892,10 +28215,10 @@
       <c r="B161" s="8"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B162" s="65" t="s">
+      <c r="B162" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="67"/>
+      <c r="C162" s="68"/>
       <c r="D162" s="59">
         <v>0.25</v>
       </c>
@@ -27913,10 +28236,10 @@
       <c r="L162" s="61"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B163" s="65" t="s">
+      <c r="B163" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="66"/>
+      <c r="C163" s="65"/>
       <c r="D163" s="2">
         <v>40</v>
       </c>
@@ -27981,7 +28304,7 @@
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B165" s="64"/>
+      <c r="B165" s="63"/>
       <c r="C165" s="11" t="s">
         <v>5</v>
       </c>
@@ -28014,10 +28337,10 @@
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B166" s="68" t="s">
+      <c r="B166" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C166" s="69"/>
+      <c r="C166" s="67"/>
       <c r="D166" s="53">
         <v>48.226320582877896</v>
       </c>
@@ -28082,7 +28405,7 @@
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B168" s="63"/>
+      <c r="B168" s="69"/>
       <c r="C168" s="9" t="s">
         <v>19</v>
       </c>
@@ -28115,7 +28438,7 @@
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B169" s="64"/>
+      <c r="B169" s="63"/>
       <c r="C169" s="9" t="s">
         <v>22</v>
       </c>
@@ -28183,7 +28506,7 @@
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B171" s="64"/>
+      <c r="B171" s="63"/>
       <c r="C171" s="9" t="s">
         <v>5</v>
       </c>
@@ -28217,6 +28540,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="J162:L162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:B7"/>
@@ -28229,102 +28648,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:L148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="J162:L162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="G162:I162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28335,7 +28658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D567EE6-8B0F-4FD1-9D13-2405BF230519}">
   <dimension ref="A2:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -36799,6 +37122,54 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C234:C241"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="K198:M198"/>
+    <mergeCell ref="C200:C204"/>
+    <mergeCell ref="C205:C212"/>
+    <mergeCell ref="C213:C220"/>
+    <mergeCell ref="C221:C225"/>
+    <mergeCell ref="C226:C233"/>
+    <mergeCell ref="B198:C199"/>
+    <mergeCell ref="B200:B220"/>
+    <mergeCell ref="B221:B241"/>
+    <mergeCell ref="C186:C193"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C173:C177"/>
+    <mergeCell ref="C178:C185"/>
+    <mergeCell ref="B150:C151"/>
+    <mergeCell ref="B152:B172"/>
+    <mergeCell ref="B173:B193"/>
+    <mergeCell ref="C138:C145"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="C117:C124"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="C130:C137"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="B104:B124"/>
+    <mergeCell ref="B125:B145"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B55:B75"/>
+    <mergeCell ref="B76:B96"/>
     <mergeCell ref="C40:C47"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -36811,54 +37182,3775 @@
     <mergeCell ref="B27:B47"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="C32:C39"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B55:B75"/>
-    <mergeCell ref="B76:B96"/>
-    <mergeCell ref="C138:C145"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="C109:C116"/>
-    <mergeCell ref="C117:C124"/>
-    <mergeCell ref="C125:C129"/>
-    <mergeCell ref="C130:C137"/>
-    <mergeCell ref="B102:C103"/>
-    <mergeCell ref="B104:B124"/>
-    <mergeCell ref="B125:B145"/>
-    <mergeCell ref="C186:C193"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="C157:C164"/>
-    <mergeCell ref="C165:C172"/>
-    <mergeCell ref="C173:C177"/>
-    <mergeCell ref="C178:C185"/>
-    <mergeCell ref="B150:C151"/>
-    <mergeCell ref="B152:B172"/>
-    <mergeCell ref="B173:B193"/>
-    <mergeCell ref="C234:C241"/>
-    <mergeCell ref="E198:G198"/>
-    <mergeCell ref="H198:J198"/>
-    <mergeCell ref="K198:M198"/>
-    <mergeCell ref="C200:C204"/>
-    <mergeCell ref="C205:C212"/>
-    <mergeCell ref="C213:C220"/>
-    <mergeCell ref="C221:C225"/>
-    <mergeCell ref="C226:C233"/>
-    <mergeCell ref="B198:C199"/>
-    <mergeCell ref="B200:B220"/>
-    <mergeCell ref="B221:B241"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA073D01-9559-4E99-A7DD-5A21D971758D}">
+  <dimension ref="B2:M145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" style="4"/>
+    <col min="4" max="4" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="11" style="4"/>
+    <col min="12" max="13" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="4"/>
+    <col min="15" max="15" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="28" width="11" style="4"/>
+    <col min="29" max="31" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97">
+        <v>40</v>
+      </c>
+      <c r="F5" s="98">
+        <v>120</v>
+      </c>
+      <c r="G5" s="98">
+        <v>200</v>
+      </c>
+      <c r="H5" s="97">
+        <v>40</v>
+      </c>
+      <c r="I5" s="98">
+        <v>120</v>
+      </c>
+      <c r="J5" s="98">
+        <v>200</v>
+      </c>
+      <c r="K5" s="97">
+        <v>40</v>
+      </c>
+      <c r="L5" s="98">
+        <v>120</v>
+      </c>
+      <c r="M5" s="99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="77">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="F6" s="78">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="G6" s="79">
+        <v>378.77199999999999</v>
+      </c>
+      <c r="H6" s="77">
+        <v>58.515000000000001</v>
+      </c>
+      <c r="I6" s="78">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="J6" s="79">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="K6" s="77">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="L6" s="78">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="M6" s="80">
+        <v>143.09599999999901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="101"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>90.058999999999997</v>
+      </c>
+      <c r="F7" s="13">
+        <v>250.551999999999</v>
+      </c>
+      <c r="G7" s="13">
+        <v>439.83199999999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>59.173000000000002</v>
+      </c>
+      <c r="I7" s="13">
+        <v>177.28799999999899</v>
+      </c>
+      <c r="J7" s="13">
+        <v>253.658999999999</v>
+      </c>
+      <c r="K7" s="12">
+        <v>31.5259999999999</v>
+      </c>
+      <c r="L7" s="13">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="M7" s="81">
+        <v>139.35499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="101"/>
+      <c r="C8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="53">
+        <v>51.249999999999901</v>
+      </c>
+      <c r="F8" s="54">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="G8" s="55">
+        <v>51</v>
+      </c>
+      <c r="H8" s="53">
+        <v>51.6666666666666</v>
+      </c>
+      <c r="I8" s="54">
+        <v>51.1805555555555</v>
+      </c>
+      <c r="J8" s="55">
+        <v>51.0833333333333</v>
+      </c>
+      <c r="K8" s="53">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="L8" s="54">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="M8" s="82">
+        <v>51.4722222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="101"/>
+      <c r="C9" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="F9" s="6">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="G9" s="7">
+        <v>378.77199999999903</v>
+      </c>
+      <c r="H9" s="6">
+        <v>58.514999999999901</v>
+      </c>
+      <c r="I9" s="6">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="K9" s="6">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="L9" s="6">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="M9" s="83">
+        <v>143.096</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="101"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="18">
+        <v>195.36699999999999</v>
+      </c>
+      <c r="F10" s="74">
+        <v>579.78699999999901</v>
+      </c>
+      <c r="G10" s="19">
+        <v>945.03800000000001</v>
+      </c>
+      <c r="H10" s="74">
+        <v>485.387</v>
+      </c>
+      <c r="I10" s="74">
+        <v>1417.0039999999899</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2384.942</v>
+      </c>
+      <c r="K10" s="74">
+        <v>761.87199999999905</v>
+      </c>
+      <c r="L10" s="74">
+        <v>2299.84</v>
+      </c>
+      <c r="M10" s="84">
+        <v>3867.1559999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="101"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12">
+        <v>28.1739999999999</v>
+      </c>
+      <c r="F11" s="13">
+        <v>83.094999999999899</v>
+      </c>
+      <c r="G11" s="14">
+        <v>132.29</v>
+      </c>
+      <c r="H11" s="13">
+        <v>42.725999999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <v>153.55799999999999</v>
+      </c>
+      <c r="J11" s="14">
+        <v>271.62799999999999</v>
+      </c>
+      <c r="K11" s="13">
+        <v>83.094999999999899</v>
+      </c>
+      <c r="L11" s="13">
+        <v>241.18600000000001</v>
+      </c>
+      <c r="M11" s="81">
+        <v>356.85400000000101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="101"/>
+      <c r="C12" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="F12" s="74">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6.5509999999999904</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1.855</v>
+      </c>
+      <c r="I12" s="74">
+        <v>7.4279999999999902</v>
+      </c>
+      <c r="J12" s="19">
+        <v>11.442</v>
+      </c>
+      <c r="K12" s="18">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="L12" s="74">
+        <v>10.285</v>
+      </c>
+      <c r="M12" s="84">
+        <v>16.777999999999899</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="102"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="87">
+        <v>23.068999999999999</v>
+      </c>
+      <c r="F13" s="88">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="G13" s="88">
+        <v>132.15499999999901</v>
+      </c>
+      <c r="H13" s="87">
+        <v>38.18</v>
+      </c>
+      <c r="I13" s="88">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="J13" s="88">
+        <v>263.291</v>
+      </c>
+      <c r="K13" s="87">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="L13" s="88">
+        <v>231.09</v>
+      </c>
+      <c r="M13" s="89">
+        <v>380.47500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="77">
+        <v>160.071</v>
+      </c>
+      <c r="F14" s="78">
+        <v>467.14999999999901</v>
+      </c>
+      <c r="G14" s="79">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="H14" s="77">
+        <v>117.688</v>
+      </c>
+      <c r="I14" s="78">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="J14" s="79">
+        <v>509.72699999999998</v>
+      </c>
+      <c r="K14" s="77">
+        <v>66.038999999999902</v>
+      </c>
+      <c r="L14" s="78">
+        <v>160.071</v>
+      </c>
+      <c r="M14" s="80">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="101"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="74">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="74">
+        <v>0</v>
+      </c>
+      <c r="I15" s="74">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="74">
+        <v>0</v>
+      </c>
+      <c r="L15" s="74">
+        <v>0</v>
+      </c>
+      <c r="M15" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="101"/>
+      <c r="C16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="53">
+        <v>95.4166666666666</v>
+      </c>
+      <c r="F16" s="54">
+        <v>97.2222222222222</v>
+      </c>
+      <c r="G16" s="55">
+        <v>97.75</v>
+      </c>
+      <c r="H16" s="53">
+        <v>100</v>
+      </c>
+      <c r="I16" s="54">
+        <v>100</v>
+      </c>
+      <c r="J16" s="55">
+        <v>100</v>
+      </c>
+      <c r="K16" s="53">
+        <v>100</v>
+      </c>
+      <c r="L16" s="54">
+        <v>100</v>
+      </c>
+      <c r="M16" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="101"/>
+      <c r="C17" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>160.071</v>
+      </c>
+      <c r="F17" s="6">
+        <v>467.15</v>
+      </c>
+      <c r="G17" s="7">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="H17" s="6">
+        <v>117.68799999999899</v>
+      </c>
+      <c r="I17" s="6">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="J17" s="7">
+        <v>509.72699999999901</v>
+      </c>
+      <c r="K17" s="6">
+        <v>66.039000000000001</v>
+      </c>
+      <c r="L17" s="6">
+        <v>160.070999999999</v>
+      </c>
+      <c r="M17" s="83">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="101"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="18">
+        <v>24.692634216652799</v>
+      </c>
+      <c r="F18" s="74">
+        <v>112.497784911889</v>
+      </c>
+      <c r="G18" s="19">
+        <v>152.58079298933299</v>
+      </c>
+      <c r="H18" s="74">
+        <v>347.30066310632299</v>
+      </c>
+      <c r="I18" s="74">
+        <v>990.16378983971003</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1698.13317421486</v>
+      </c>
+      <c r="K18" s="74">
+        <v>601.75019392147397</v>
+      </c>
+      <c r="L18" s="74">
+        <v>1885.6015084575199</v>
+      </c>
+      <c r="M18" s="84">
+        <v>3189.9958773902399</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="101"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12">
+        <v>49.882999999999903</v>
+      </c>
+      <c r="F19" s="13">
+        <v>151.58199999999999</v>
+      </c>
+      <c r="G19" s="14">
+        <v>265.21800000000002</v>
+      </c>
+      <c r="H19" s="13">
+        <v>82.760999999999896</v>
+      </c>
+      <c r="I19" s="13">
+        <v>313.101</v>
+      </c>
+      <c r="J19" s="14">
+        <v>546.36099999999999</v>
+      </c>
+      <c r="K19" s="13">
+        <v>156.34100000000001</v>
+      </c>
+      <c r="L19" s="13">
+        <v>482.56099999999998</v>
+      </c>
+      <c r="M19" s="81">
+        <v>754.10699999999804</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="101"/>
+      <c r="C20" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F20" s="74">
+        <v>1.18087423117313</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.3646316173867901</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="74">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="74">
+        <v>0</v>
+      </c>
+      <c r="M20" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="102"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="87">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="F21" s="88">
+        <v>3.57812576882686</v>
+      </c>
+      <c r="G21" s="88">
+        <v>4.4133683826132</v>
+      </c>
+      <c r="H21" s="87">
+        <v>0</v>
+      </c>
+      <c r="I21" s="88">
+        <v>0</v>
+      </c>
+      <c r="J21" s="88">
+        <v>0</v>
+      </c>
+      <c r="K21" s="87">
+        <v>0</v>
+      </c>
+      <c r="L21" s="88">
+        <v>0</v>
+      </c>
+      <c r="M21" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="60"/>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="2">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1">
+        <v>120</v>
+      </c>
+      <c r="G27" s="1">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1">
+        <v>120</v>
+      </c>
+      <c r="J27" s="1">
+        <v>200</v>
+      </c>
+      <c r="K27" s="2">
+        <v>40</v>
+      </c>
+      <c r="L27" s="1">
+        <v>120</v>
+      </c>
+      <c r="M27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G28" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="I28" s="6">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="J28" s="7">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="K28" s="5">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="L28" s="6">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="M28" s="7">
+        <v>30.446999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="63"/>
+      <c r="D29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>221.73400000000001</v>
+      </c>
+      <c r="F29" s="13">
+        <v>751.58199999999999</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1333.7239999999899</v>
+      </c>
+      <c r="H29" s="12">
+        <v>161.07</v>
+      </c>
+      <c r="I29" s="13">
+        <v>505.45800000000003</v>
+      </c>
+      <c r="J29" s="13">
+        <v>824.81899999999996</v>
+      </c>
+      <c r="K29" s="12">
+        <v>87.516000000000005</v>
+      </c>
+      <c r="L29" s="13">
+        <v>203.19900000000001</v>
+      </c>
+      <c r="M29" s="14">
+        <v>416.897999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="15">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="G30" s="17">
+        <v>11.25</v>
+      </c>
+      <c r="H30" s="15">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="I30" s="16">
+        <v>10.7638888888888</v>
+      </c>
+      <c r="J30" s="17">
+        <v>10.125</v>
+      </c>
+      <c r="K30" s="15">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="L30" s="16">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="M30" s="17">
+        <v>9.4722222222222197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G31" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="H31" s="5">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="I31" s="6">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="J31" s="7">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="K31" s="5">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="L31" s="6">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="M31" s="7">
+        <v>30.446999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="69"/>
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="63"/>
+      <c r="D33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2.214</v>
+      </c>
+      <c r="F33" s="13">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="G33" s="14">
+        <v>8.1389999999999905</v>
+      </c>
+      <c r="H33" s="13">
+        <v>4.4209999999999896</v>
+      </c>
+      <c r="I33" s="13">
+        <v>10.041</v>
+      </c>
+      <c r="J33" s="14">
+        <v>16.111999999999998</v>
+      </c>
+      <c r="K33" s="13">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="L33" s="13">
+        <v>15.157</v>
+      </c>
+      <c r="M33" s="14">
+        <v>24.221</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="18">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="G34" s="19">
+        <v>22.358000000000001</v>
+      </c>
+      <c r="H34" s="18">
+        <v>9.0299999999999905</v>
+      </c>
+      <c r="I34" s="4">
+        <v>27.227</v>
+      </c>
+      <c r="J34" s="19">
+        <v>46.946999999999797</v>
+      </c>
+      <c r="K34" s="18">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="L34" s="4">
+        <v>41.9669999999998</v>
+      </c>
+      <c r="M34" s="19">
+        <v>73.428000000000296</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="63"/>
+      <c r="D35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="12">
+        <v>99.1039999999999</v>
+      </c>
+      <c r="F35" s="13">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="G35" s="13">
+        <v>431.16699999999997</v>
+      </c>
+      <c r="H35" s="12">
+        <v>168.33099999999999</v>
+      </c>
+      <c r="I35" s="13">
+        <v>516.73800000000006</v>
+      </c>
+      <c r="J35" s="13">
+        <v>903.57199999999705</v>
+      </c>
+      <c r="K35" s="12">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="L35" s="13">
+        <v>799.92199999999696</v>
+      </c>
+      <c r="M35" s="14">
+        <v>1324.3039999999901</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="38" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="68"/>
+      <c r="E40" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L40" s="60"/>
+      <c r="M40" s="61"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" s="2">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>120</v>
+      </c>
+      <c r="G41" s="1">
+        <v>200</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>120</v>
+      </c>
+      <c r="J41" s="1">
+        <v>200</v>
+      </c>
+      <c r="K41" s="2">
+        <v>40</v>
+      </c>
+      <c r="L41" s="1">
+        <v>120</v>
+      </c>
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F42" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G42" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="H42" s="5">
+        <v>19.103584330537</v>
+      </c>
+      <c r="I42" s="6">
+        <v>56.964458761560202</v>
+      </c>
+      <c r="J42" s="7">
+        <v>60.226328751667999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>93.92</v>
+      </c>
+      <c r="L42" s="6">
+        <v>223.483</v>
+      </c>
+      <c r="M42" s="7">
+        <v>447.344999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="63"/>
+      <c r="D43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="12">
+        <v>221.73400000000001</v>
+      </c>
+      <c r="F43" s="13">
+        <v>751.58199999999999</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1333.7239999999899</v>
+      </c>
+      <c r="H43" s="12">
+        <v>145.53341566946301</v>
+      </c>
+      <c r="I43" s="13">
+        <v>462.67754123843901</v>
+      </c>
+      <c r="J43" s="13">
+        <v>786.92767124833199</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="15">
+        <v>10</v>
+      </c>
+      <c r="F44" s="16">
+        <v>10.2777777777777</v>
+      </c>
+      <c r="G44" s="17">
+        <v>11.25</v>
+      </c>
+      <c r="H44" s="15">
+        <v>30</v>
+      </c>
+      <c r="I44" s="16">
+        <v>24.7222222222222</v>
+      </c>
+      <c r="J44" s="17">
+        <v>18.25</v>
+      </c>
+      <c r="K44" s="15">
+        <v>77.0833333333333</v>
+      </c>
+      <c r="L44" s="16">
+        <v>80.324074074074005</v>
+      </c>
+      <c r="M44" s="17">
+        <v>77.2777777777777</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F45" s="6">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G45" s="7">
+        <v>12.381</v>
+      </c>
+      <c r="H45" s="5">
+        <v>19.103584330537</v>
+      </c>
+      <c r="I45" s="6">
+        <v>56.964458761560202</v>
+      </c>
+      <c r="J45" s="7">
+        <v>60.226328751667999</v>
+      </c>
+      <c r="K45" s="5">
+        <v>93.92</v>
+      </c>
+      <c r="L45" s="6">
+        <v>223.483</v>
+      </c>
+      <c r="M45" s="7">
+        <v>447.344999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="69"/>
+      <c r="D46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="63"/>
+      <c r="D47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2.214</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8.1389999999999905</v>
+      </c>
+      <c r="H47" s="18">
+        <v>15.0899999999999</v>
+      </c>
+      <c r="I47" s="4">
+        <v>25.02</v>
+      </c>
+      <c r="J47" s="4">
+        <v>28.196000000000002</v>
+      </c>
+      <c r="K47" s="18">
+        <v>138.71100000000001</v>
+      </c>
+      <c r="L47" s="4">
+        <v>467.86599999999902</v>
+      </c>
+      <c r="M47" s="19">
+        <v>733.05399999999804</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="F48" s="6">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="G48" s="7">
+        <v>22.358000000000001</v>
+      </c>
+      <c r="H48" s="5">
+        <v>11.055183124858999</v>
+      </c>
+      <c r="I48" s="6">
+        <v>29.3174195186871</v>
+      </c>
+      <c r="J48" s="7">
+        <v>48.831667450507801</v>
+      </c>
+      <c r="K48" s="5">
+        <v>6.1973107522549196</v>
+      </c>
+      <c r="L48" s="6">
+        <v>26.725692899775598</v>
+      </c>
+      <c r="M48" s="7">
+        <v>53.317144616080597</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="63"/>
+      <c r="D49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="12">
+        <v>99.1039999999999</v>
+      </c>
+      <c r="F49" s="13">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="G49" s="13">
+        <v>431.16699999999997</v>
+      </c>
+      <c r="H49" s="12">
+        <v>155.63681687514099</v>
+      </c>
+      <c r="I49" s="13">
+        <v>499.66858048131297</v>
+      </c>
+      <c r="J49" s="13">
+        <v>889.60333254948898</v>
+      </c>
+      <c r="K49" s="12">
+        <v>167.021689247745</v>
+      </c>
+      <c r="L49" s="13">
+        <v>362.45430710022401</v>
+      </c>
+      <c r="M49" s="14">
+        <v>635.58185538391797</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D50" s="21"/>
+    </row>
+    <row r="52" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="68"/>
+      <c r="E54" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L54" s="60"/>
+      <c r="M54" s="61"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="65"/>
+      <c r="E55" s="2">
+        <v>40</v>
+      </c>
+      <c r="F55" s="1">
+        <v>120</v>
+      </c>
+      <c r="G55" s="1">
+        <v>200</v>
+      </c>
+      <c r="H55" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" s="1">
+        <v>120</v>
+      </c>
+      <c r="J55" s="1">
+        <v>200</v>
+      </c>
+      <c r="K55" s="2">
+        <v>40</v>
+      </c>
+      <c r="L55" s="1">
+        <v>120</v>
+      </c>
+      <c r="M55" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="F56" s="6">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="G56" s="7">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="I56" s="6">
+        <v>7086.0319999999901</v>
+      </c>
+      <c r="J56" s="7">
+        <v>11421.428</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1425.81699999999</v>
+      </c>
+      <c r="L56" s="6">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="M56" s="7">
+        <v>6354.0019999999904</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="63"/>
+      <c r="D57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="12">
+        <v>3962.0720000000001</v>
+      </c>
+      <c r="F57" s="13">
+        <v>11716.35</v>
+      </c>
+      <c r="G57" s="13">
+        <v>20326.177999999902</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2297.0259999999898</v>
+      </c>
+      <c r="I57" s="13">
+        <v>7156.5720000000001</v>
+      </c>
+      <c r="J57" s="13">
+        <v>11543.5999999999</v>
+      </c>
+      <c r="K57" s="12">
+        <v>1215.5719999999999</v>
+      </c>
+      <c r="L57" s="13">
+        <v>3240.2179999999998</v>
+      </c>
+      <c r="M57" s="14">
+        <v>5716.29</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="67"/>
+      <c r="E58" s="53">
+        <v>45.403225806451601</v>
+      </c>
+      <c r="F58" s="54">
+        <v>44.614695340501697</v>
+      </c>
+      <c r="G58" s="55">
+        <v>45.534946236559101</v>
+      </c>
+      <c r="H58" s="53">
+        <v>45.799731182795597</v>
+      </c>
+      <c r="I58" s="54">
+        <v>45.6989247311827</v>
+      </c>
+      <c r="J58" s="55">
+        <v>45.643817204301001</v>
+      </c>
+      <c r="K58" s="53">
+        <v>44.614695340501697</v>
+      </c>
+      <c r="L58" s="54">
+        <v>45.764635603345198</v>
+      </c>
+      <c r="M58" s="55">
+        <v>45.735663082437199</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="F59" s="6">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="G59" s="6">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="I59" s="6">
+        <v>7086.0319999999801</v>
+      </c>
+      <c r="J59" s="6">
+        <v>11421.428</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1425.817</v>
+      </c>
+      <c r="L59" s="6">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="M59" s="7">
+        <v>6354.0019999999904</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="69"/>
+      <c r="D60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1996.89399999999</v>
+      </c>
+      <c r="F60" s="4">
+        <v>6057.6900000000096</v>
+      </c>
+      <c r="G60" s="4">
+        <v>10395.513999999999</v>
+      </c>
+      <c r="H60" s="4">
+        <v>7893.8299999999899</v>
+      </c>
+      <c r="I60" s="4">
+        <v>23387.566999999999</v>
+      </c>
+      <c r="J60" s="4">
+        <v>39006.135000000002</v>
+      </c>
+      <c r="K60" s="4">
+        <v>13392.458000000001</v>
+      </c>
+      <c r="L60" s="4">
+        <v>41847.157999999901</v>
+      </c>
+      <c r="M60" s="19">
+        <v>69848.159999999902</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="63"/>
+      <c r="D61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="12">
+        <v>923.17700000000104</v>
+      </c>
+      <c r="F61" s="13">
+        <v>2870.2179999999898</v>
+      </c>
+      <c r="G61" s="13">
+        <v>4301.9760000000197</v>
+      </c>
+      <c r="H61" s="13">
+        <v>1632.8589999999899</v>
+      </c>
+      <c r="I61" s="13">
+        <v>5205.1689999999999</v>
+      </c>
+      <c r="J61" s="13">
+        <v>9027.8719999999394</v>
+      </c>
+      <c r="K61" s="13">
+        <v>2870.2179999999898</v>
+      </c>
+      <c r="L61" s="13">
+        <v>7947.6309999999703</v>
+      </c>
+      <c r="M61" s="14">
+        <v>13189.684999999899</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="18">
+        <v>197.34800000000001</v>
+      </c>
+      <c r="F62" s="4">
+        <v>714.03799999999706</v>
+      </c>
+      <c r="G62" s="19">
+        <v>973.98299999999904</v>
+      </c>
+      <c r="H62" s="18">
+        <v>294.84099999999899</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1088.3499999999899</v>
+      </c>
+      <c r="J62" s="19">
+        <v>1825.0059999999901</v>
+      </c>
+      <c r="K62" s="18">
+        <v>714.03799999999706</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1609.662</v>
+      </c>
+      <c r="M62" s="19">
+        <v>2569.5189999999502</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="63"/>
+      <c r="D63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1051.4369999999999</v>
+      </c>
+      <c r="F63" s="13">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="G63" s="13">
+        <v>5513.1819999999698</v>
+      </c>
+      <c r="H63" s="12">
+        <v>2031.627</v>
+      </c>
+      <c r="I63" s="13">
+        <v>6553.7069999999403</v>
+      </c>
+      <c r="J63" s="13">
+        <v>11215.2600000001</v>
+      </c>
+      <c r="K63" s="12">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="L63" s="13">
+        <v>9945.9360000000197</v>
+      </c>
+      <c r="M63" s="14">
+        <v>16573.290000000201</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="66" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C66" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C68" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="68"/>
+      <c r="E68" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L68" s="60"/>
+      <c r="M68" s="61"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C69" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="65"/>
+      <c r="E69" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" s="1">
+        <v>120</v>
+      </c>
+      <c r="G69" s="1">
+        <v>200</v>
+      </c>
+      <c r="H69" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" s="1">
+        <v>120</v>
+      </c>
+      <c r="J69" s="1">
+        <v>200</v>
+      </c>
+      <c r="K69" s="2">
+        <v>40</v>
+      </c>
+      <c r="L69" s="1">
+        <v>120</v>
+      </c>
+      <c r="M69" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C70" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5">
+        <v>4631.1040494006102</v>
+      </c>
+      <c r="F70" s="6">
+        <v>13529.718920310899</v>
+      </c>
+      <c r="G70" s="7">
+        <v>23268.885594821601</v>
+      </c>
+      <c r="H70" s="5">
+        <v>4708.5619999999899</v>
+      </c>
+      <c r="I70" s="6">
+        <v>14242.603999999899</v>
+      </c>
+      <c r="J70" s="7">
+        <v>22965.0279999999</v>
+      </c>
+      <c r="K70" s="5">
+        <v>2641.3890000000001</v>
+      </c>
+      <c r="L70" s="6">
+        <v>6966.4930000000004</v>
+      </c>
+      <c r="M70" s="7">
+        <v>12070.291999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="63"/>
+      <c r="D71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="12">
+        <v>2335.3889505993898</v>
+      </c>
+      <c r="F71" s="13">
+        <v>6947.2160796890803</v>
+      </c>
+      <c r="G71" s="13">
+        <v>12024.095405178299</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
+      <c r="K71" s="12">
+        <v>0</v>
+      </c>
+      <c r="L71" s="13">
+        <v>0</v>
+      </c>
+      <c r="M71" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="53">
+        <v>60.2822580645161</v>
+      </c>
+      <c r="F72" s="54">
+        <v>59.641577060931901</v>
+      </c>
+      <c r="G72" s="55">
+        <v>60.577956989247298</v>
+      </c>
+      <c r="H72" s="53">
+        <v>98.481182795698899</v>
+      </c>
+      <c r="I72" s="54">
+        <v>98.008512544802798</v>
+      </c>
+      <c r="J72" s="55">
+        <v>98.087365591397798</v>
+      </c>
+      <c r="K72" s="53">
+        <v>97.853942652329707</v>
+      </c>
+      <c r="L72" s="54">
+        <v>98.912783751493393</v>
+      </c>
+      <c r="M72" s="55">
+        <v>99.202508960573397</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C73" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5">
+        <v>4631.1040494006102</v>
+      </c>
+      <c r="F73" s="6">
+        <v>13529.718920310899</v>
+      </c>
+      <c r="G73" s="7">
+        <v>23268.885594821601</v>
+      </c>
+      <c r="H73" s="6">
+        <v>4708.5619999999899</v>
+      </c>
+      <c r="I73" s="6">
+        <v>14242.603999999899</v>
+      </c>
+      <c r="J73" s="7">
+        <v>22965.0279999999</v>
+      </c>
+      <c r="K73" s="6">
+        <v>2641.3890000000001</v>
+      </c>
+      <c r="L73" s="6">
+        <v>6966.4930000000004</v>
+      </c>
+      <c r="M73" s="7">
+        <v>12070.291999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="69"/>
+      <c r="D74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="18">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="19">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>3598.55059499456</v>
+      </c>
+      <c r="I74" s="4">
+        <v>9810.1000536523497</v>
+      </c>
+      <c r="J74" s="19">
+        <v>16337.5327318983</v>
+      </c>
+      <c r="K74" s="4">
+        <v>8824.0781863637294</v>
+      </c>
+      <c r="L74" s="4">
+        <v>28925.5832057894</v>
+      </c>
+      <c r="M74" s="19">
+        <v>47770.936721560698</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C75" s="63"/>
+      <c r="D75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1380.2659999999901</v>
+      </c>
+      <c r="F75" s="13">
+        <v>4470.5259999999998</v>
+      </c>
+      <c r="G75" s="14">
+        <v>6798.10700000002</v>
+      </c>
+      <c r="H75" s="13">
+        <v>3773.5929999999798</v>
+      </c>
+      <c r="I75" s="13">
+        <v>12212.977999999999</v>
+      </c>
+      <c r="J75" s="14">
+        <v>21106.5780000003</v>
+      </c>
+      <c r="K75" s="13">
+        <v>6785.66099999994</v>
+      </c>
+      <c r="L75" s="13">
+        <v>18950.976000000301</v>
+      </c>
+      <c r="M75" s="14">
+        <v>31716.034000000702</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="18">
+        <v>110.469950599383</v>
+      </c>
+      <c r="F76" s="4">
+        <v>402.28607968907801</v>
+      </c>
+      <c r="G76" s="19">
+        <v>571.28340517831998</v>
+      </c>
+      <c r="H76" s="18">
+        <v>55.043288273982697</v>
+      </c>
+      <c r="I76" s="4">
+        <v>165.84378192937999</v>
+      </c>
+      <c r="J76" s="19">
+        <v>259.526816352759</v>
+      </c>
+      <c r="K76" s="18">
+        <v>94.460290388339899</v>
+      </c>
+      <c r="L76" s="4">
+        <v>134.97928478287699</v>
+      </c>
+      <c r="M76" s="19">
+        <v>144.37940356997399</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="63"/>
+      <c r="D77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="12">
+        <v>681.22604940061694</v>
+      </c>
+      <c r="F77" s="13">
+        <v>2291.7349203109202</v>
+      </c>
+      <c r="G77" s="13">
+        <v>3419.7505948216699</v>
+      </c>
+      <c r="H77" s="12">
+        <v>130.69071172601701</v>
+      </c>
+      <c r="I77" s="13">
+        <v>468.40421807061801</v>
+      </c>
+      <c r="J77" s="13">
+        <v>702.03318364723998</v>
+      </c>
+      <c r="K77" s="12">
+        <v>284.42570961166001</v>
+      </c>
+      <c r="L77" s="13">
+        <v>417.273715217122</v>
+      </c>
+      <c r="M77" s="14">
+        <v>472.08059643002503</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="23"/>
+    </row>
+    <row r="79" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C79" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="68"/>
+      <c r="E81" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L81" s="60"/>
+      <c r="M81" s="61"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C82" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="65"/>
+      <c r="E82" s="2">
+        <v>40</v>
+      </c>
+      <c r="F82" s="1">
+        <v>120</v>
+      </c>
+      <c r="G82" s="1">
+        <v>200</v>
+      </c>
+      <c r="H82" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" s="1">
+        <v>120</v>
+      </c>
+      <c r="J82" s="1">
+        <v>200</v>
+      </c>
+      <c r="K82" s="2">
+        <v>40</v>
+      </c>
+      <c r="L82" s="1">
+        <v>120</v>
+      </c>
+      <c r="M82" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C83" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1234.29</v>
+      </c>
+      <c r="F83" s="6">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="G83" s="7">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1312.32</v>
+      </c>
+      <c r="I83" s="6">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="J83" s="7">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="K83" s="5">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="L83" s="6">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="M83" s="7">
+        <v>4135.3130000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C84" s="63"/>
+      <c r="D84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="12">
+        <v>6331.741</v>
+      </c>
+      <c r="F84" s="13">
+        <v>20042.866000000002</v>
+      </c>
+      <c r="G84" s="13">
+        <v>34377.582999999897</v>
+      </c>
+      <c r="H84" s="12">
+        <v>3908.163</v>
+      </c>
+      <c r="I84" s="13">
+        <v>12500.022000000001</v>
+      </c>
+      <c r="J84" s="13">
+        <v>20331.940999999999</v>
+      </c>
+      <c r="K84" s="12">
+        <v>2135.1309999999899</v>
+      </c>
+      <c r="L84" s="13">
+        <v>5231.0429999999997</v>
+      </c>
+      <c r="M84" s="14">
+        <v>9693.7629999999899</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="67"/>
+      <c r="E85" s="53">
+        <v>24.024226110363301</v>
+      </c>
+      <c r="F85" s="54">
+        <v>23.853746074472799</v>
+      </c>
+      <c r="G85" s="55">
+        <v>24.403768506056501</v>
+      </c>
+      <c r="H85" s="53">
+        <v>25.1884253028263</v>
+      </c>
+      <c r="I85" s="54">
+        <v>24.369672498878401</v>
+      </c>
+      <c r="J85" s="55">
+        <v>24.048452220726698</v>
+      </c>
+      <c r="K85" s="53">
+        <v>23.853746074472799</v>
+      </c>
+      <c r="L85" s="54">
+        <v>24.163301929116098</v>
+      </c>
+      <c r="M85" s="55">
+        <v>24.224315836698</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C86" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1234.29</v>
+      </c>
+      <c r="F86" s="6">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="G86" s="7">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1312.32</v>
+      </c>
+      <c r="I86" s="6">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="J86" s="7">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="K86" s="6">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="L86" s="6">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="M86" s="7">
+        <v>4135.3130000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="69"/>
+      <c r="D87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="18">
+        <v>612.00800000000004</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1679.9569999999901</v>
+      </c>
+      <c r="G87" s="19">
+        <v>2986.5859999999898</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2584.8179999999902</v>
+      </c>
+      <c r="I87" s="4">
+        <v>7360.8819999999896</v>
+      </c>
+      <c r="J87" s="19">
+        <v>12171.7079999999</v>
+      </c>
+      <c r="K87" s="4">
+        <v>4493.5659999999898</v>
+      </c>
+      <c r="L87" s="4">
+        <v>14392.8669999999</v>
+      </c>
+      <c r="M87" s="19">
+        <v>23899.341</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C88" s="63"/>
+      <c r="D88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="12">
+        <v>422.82100000000003</v>
+      </c>
+      <c r="F88" s="13">
+        <v>1275.1389999999899</v>
+      </c>
+      <c r="G88" s="14">
+        <v>1993.52799999999</v>
+      </c>
+      <c r="H88" s="13">
+        <v>754.21900000000005</v>
+      </c>
+      <c r="I88" s="13">
+        <v>2395.3109999999901</v>
+      </c>
+      <c r="J88" s="14">
+        <v>4162.0109999999804</v>
+      </c>
+      <c r="K88" s="13">
+        <v>1275.1389999999899</v>
+      </c>
+      <c r="L88" s="13">
+        <v>3719.8510000000001</v>
+      </c>
+      <c r="M88" s="14">
+        <v>6131.6579999999603</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="18">
+        <v>238.7</v>
+      </c>
+      <c r="F89" s="4">
+        <v>767.90599999999995</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1159.67299999999</v>
+      </c>
+      <c r="H89" s="18">
+        <v>361.00599999999798</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1358.48099999999</v>
+      </c>
+      <c r="J89" s="19">
+        <v>2344.0509999999999</v>
+      </c>
+      <c r="K89" s="18">
+        <v>767.90599999999995</v>
+      </c>
+      <c r="L89" s="4">
+        <v>2078.826</v>
+      </c>
+      <c r="M89" s="19">
+        <v>3348.3039999999901</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="63"/>
+      <c r="D90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="12">
+        <v>2004.1510000000001</v>
+      </c>
+      <c r="F90" s="13">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="G90" s="13">
+        <v>10040.457</v>
+      </c>
+      <c r="H90" s="12">
+        <v>3572.32599999999</v>
+      </c>
+      <c r="I90" s="13">
+        <v>11989.241</v>
+      </c>
+      <c r="J90" s="13">
+        <v>20478.616000000002</v>
+      </c>
+      <c r="K90" s="12">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="L90" s="13">
+        <v>18230.887000000101</v>
+      </c>
+      <c r="M90" s="14">
+        <v>30062.030999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="93" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C93" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C95" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="68"/>
+      <c r="E95" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I95" s="60"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L95" s="60"/>
+      <c r="M95" s="61"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C96" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="65"/>
+      <c r="E96" s="2">
+        <v>40</v>
+      </c>
+      <c r="F96" s="1">
+        <v>120</v>
+      </c>
+      <c r="G96" s="1">
+        <v>200</v>
+      </c>
+      <c r="H96" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" s="1">
+        <v>120</v>
+      </c>
+      <c r="J96" s="1">
+        <v>200</v>
+      </c>
+      <c r="K96" s="2">
+        <v>40</v>
+      </c>
+      <c r="L96" s="1">
+        <v>120</v>
+      </c>
+      <c r="M96" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C97" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="G97" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2821.25515378826</v>
+      </c>
+      <c r="I97" s="6">
+        <v>8173.3360911895497</v>
+      </c>
+      <c r="J97" s="7">
+        <v>13193.9001144876</v>
+      </c>
+      <c r="K97" s="5">
+        <v>2558.0496280943398</v>
+      </c>
+      <c r="L97" s="6">
+        <v>6573.6179138121397</v>
+      </c>
+      <c r="M97" s="7">
+        <v>11653.578529516701</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C98" s="63"/>
+      <c r="D98" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="12">
+        <v>5857.4276813496799</v>
+      </c>
+      <c r="F98" s="13">
+        <v>18739.618647348299</v>
+      </c>
+      <c r="G98" s="13">
+        <v>32043.7384229729</v>
+      </c>
+      <c r="H98" s="12">
+        <v>2399.2278462117301</v>
+      </c>
+      <c r="I98" s="13">
+        <v>8214.7589088104505</v>
+      </c>
+      <c r="J98" s="13">
+        <v>13460.4868855124</v>
+      </c>
+      <c r="K98" s="12">
+        <v>524.52637190564599</v>
+      </c>
+      <c r="L98" s="13">
+        <v>992.41308618786002</v>
+      </c>
+      <c r="M98" s="14">
+        <v>2175.4974704832198</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C99" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="67"/>
+      <c r="E99" s="53">
+        <v>28.360215053763401</v>
+      </c>
+      <c r="F99" s="54">
+        <v>27.7150537634408</v>
+      </c>
+      <c r="G99" s="55">
+        <v>28.4650537634408</v>
+      </c>
+      <c r="H99" s="53">
+        <v>49.831989247311803</v>
+      </c>
+      <c r="I99" s="54">
+        <v>45.067204301075201</v>
+      </c>
+      <c r="J99" s="55">
+        <v>44.350806451612897</v>
+      </c>
+      <c r="K99" s="53">
+        <v>63.732078853046502</v>
+      </c>
+      <c r="L99" s="54">
+        <v>67.795698924731099</v>
+      </c>
+      <c r="M99" s="55">
+        <v>66.600358422938996</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C100" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="F100" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="G100" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="H100" s="6">
+        <v>2821.25515378826</v>
+      </c>
+      <c r="I100" s="6">
+        <v>8173.3360911895497</v>
+      </c>
+      <c r="J100" s="7">
+        <v>13193.9001144876</v>
+      </c>
+      <c r="K100" s="6">
+        <v>2558.0496280943398</v>
+      </c>
+      <c r="L100" s="6">
+        <v>6573.6179138121397</v>
+      </c>
+      <c r="M100" s="7">
+        <v>11653.578529516701</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C101" s="69"/>
+      <c r="D101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="18">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="19">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="19">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <v>43.417289241538697</v>
+      </c>
+      <c r="L101" s="4">
+        <v>426.60206244000699</v>
+      </c>
+      <c r="M101" s="19">
+        <v>446.41410795884099</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C102" s="63"/>
+      <c r="D102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="12">
+        <v>577.63399999999899</v>
+      </c>
+      <c r="F102" s="13">
+        <v>1702.02699999999</v>
+      </c>
+      <c r="G102" s="14">
+        <v>2728.9609999999898</v>
+      </c>
+      <c r="H102" s="13">
+        <v>1857.0509999999999</v>
+      </c>
+      <c r="I102" s="13">
+        <v>5577.0289999999904</v>
+      </c>
+      <c r="J102" s="14">
+        <v>9635.6639999999406</v>
+      </c>
+      <c r="K102" s="13">
+        <v>4190.7120000000004</v>
+      </c>
+      <c r="L102" s="13">
+        <v>13626.851999999901</v>
+      </c>
+      <c r="M102" s="14">
+        <v>22370.7760000003</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C103" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="18">
+        <v>221.58168134968099</v>
+      </c>
+      <c r="F103" s="4">
+        <v>717.72764734836403</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1076.98142297293</v>
+      </c>
+      <c r="H103" s="18">
+        <v>334.05684621172799</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1252.3819088104401</v>
+      </c>
+      <c r="J103" s="19">
+        <v>2170.65188551237</v>
+      </c>
+      <c r="K103" s="18">
+        <v>599.114154328567</v>
+      </c>
+      <c r="L103" s="4">
+        <v>1551.78792462254</v>
+      </c>
+      <c r="M103" s="19">
+        <v>2578.0878870677202</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C104" s="63"/>
+      <c r="D104" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="12">
+        <v>1866.4563186503201</v>
+      </c>
+      <c r="F104" s="13">
+        <v>6001.2453526516501</v>
+      </c>
+      <c r="G104" s="13">
+        <v>9387.7155770270601</v>
+      </c>
+      <c r="H104" s="12">
+        <v>2496.4431537882701</v>
+      </c>
+      <c r="I104" s="13">
+        <v>8913.6220911895398</v>
+      </c>
+      <c r="J104" s="13">
+        <v>15178.3621144876</v>
+      </c>
+      <c r="K104" s="12">
+        <v>3631.1738456714302</v>
+      </c>
+      <c r="L104" s="13">
+        <v>8850.9240753774102</v>
+      </c>
+      <c r="M104" s="14">
+        <v>14593.1291129323</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C106" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C108" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="68"/>
+      <c r="E108" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I108" s="60"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L108" s="60"/>
+      <c r="M108" s="61"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C109" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="65"/>
+      <c r="E109" s="2">
+        <v>40</v>
+      </c>
+      <c r="F109" s="1">
+        <v>120</v>
+      </c>
+      <c r="G109" s="1">
+        <v>200</v>
+      </c>
+      <c r="H109" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" s="1">
+        <v>120</v>
+      </c>
+      <c r="J109" s="1">
+        <v>200</v>
+      </c>
+      <c r="K109" s="2">
+        <v>40</v>
+      </c>
+      <c r="L109" s="1">
+        <v>120</v>
+      </c>
+      <c r="M109" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C110" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="F110" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="G110" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="H110" s="5">
+        <v>2867.6169973269498</v>
+      </c>
+      <c r="I110" s="6">
+        <v>8215.3330516625192</v>
+      </c>
+      <c r="J110" s="7">
+        <v>13261.6639970166</v>
+      </c>
+      <c r="K110" s="5">
+        <v>2707.0443032415001</v>
+      </c>
+      <c r="L110" s="6">
+        <v>6963.3504085897303</v>
+      </c>
+      <c r="M110" s="7">
+        <v>12326.682024571801</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C111" s="63"/>
+      <c r="D111" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="12">
+        <v>5857.4276813496799</v>
+      </c>
+      <c r="F111" s="13">
+        <v>18739.618647348299</v>
+      </c>
+      <c r="G111" s="13">
+        <v>32043.7384229729</v>
+      </c>
+      <c r="H111" s="12">
+        <v>2352.8660026730499</v>
+      </c>
+      <c r="I111" s="13">
+        <v>8172.7619483374901</v>
+      </c>
+      <c r="J111" s="13">
+        <v>13392.723002983401</v>
+      </c>
+      <c r="K111" s="12">
+        <v>375.53169675849102</v>
+      </c>
+      <c r="L111" s="13">
+        <v>602.68059141027504</v>
+      </c>
+      <c r="M111" s="14">
+        <v>1502.39397542811</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C112" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="67"/>
+      <c r="E112" s="53">
+        <v>28.360215053763401</v>
+      </c>
+      <c r="F112" s="54">
+        <v>27.7150537634408</v>
+      </c>
+      <c r="G112" s="55">
+        <v>28.4650537634408</v>
+      </c>
+      <c r="H112" s="53">
+        <v>51.068548387096698</v>
+      </c>
+      <c r="I112" s="54">
+        <v>45.575716845878098</v>
+      </c>
+      <c r="J112" s="55">
+        <v>44.872311827956899</v>
+      </c>
+      <c r="K112" s="53">
+        <v>67.903225806451601</v>
+      </c>
+      <c r="L112" s="54">
+        <v>72.119175627240097</v>
+      </c>
+      <c r="M112" s="55">
+        <v>70.579749103942603</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C113" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1708.60331865031</v>
+      </c>
+      <c r="F113" s="6">
+        <v>5064.3013526516297</v>
+      </c>
+      <c r="G113" s="7">
+        <v>8704.0175770270598</v>
+      </c>
+      <c r="H113" s="6">
+        <v>2867.6169973269498</v>
+      </c>
+      <c r="I113" s="6">
+        <v>8215.3330516625192</v>
+      </c>
+      <c r="J113" s="7">
+        <v>13261.6639970166</v>
+      </c>
+      <c r="K113" s="6">
+        <v>2707.0443032415001</v>
+      </c>
+      <c r="L113" s="6">
+        <v>6963.3504085897303</v>
+      </c>
+      <c r="M113" s="7">
+        <v>12326.682024571801</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C114" s="69"/>
+      <c r="D114" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="18">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0</v>
+      </c>
+      <c r="G114" s="19">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="19">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <v>43.417289241538697</v>
+      </c>
+      <c r="L114" s="4">
+        <v>427.78766594927799</v>
+      </c>
+      <c r="M114" s="19">
+        <v>447.07390122965501</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C115" s="63"/>
+      <c r="D115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="12">
+        <v>577.63399999999899</v>
+      </c>
+      <c r="F115" s="13">
+        <v>1702.02699999999</v>
+      </c>
+      <c r="G115" s="14">
+        <v>2728.9609999999898</v>
+      </c>
+      <c r="H115" s="13">
+        <v>1893.5229999999999</v>
+      </c>
+      <c r="I115" s="13">
+        <v>5595.6759999999904</v>
+      </c>
+      <c r="J115" s="14">
+        <v>9667.3959999999406</v>
+      </c>
+      <c r="K115" s="13">
+        <v>4419.4059999999899</v>
+      </c>
+      <c r="L115" s="13">
+        <v>14372.9999999999</v>
+      </c>
+      <c r="M115" s="14">
+        <v>23554.240000000202</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C116" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="18">
+        <v>221.58168134968099</v>
+      </c>
+      <c r="F116" s="4">
+        <v>717.72764734836403</v>
+      </c>
+      <c r="G116" s="19">
+        <v>1076.98142297293</v>
+      </c>
+      <c r="H116" s="18">
+        <v>331.52780574401697</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1253.87827064607</v>
+      </c>
+      <c r="J116" s="19">
+        <v>2173.00688895443</v>
+      </c>
+      <c r="K116" s="18">
+        <v>575.04215649236198</v>
+      </c>
+      <c r="L116" s="4">
+        <v>1490.78389946945</v>
+      </c>
+      <c r="M116" s="19">
+        <v>2470.2381324373</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C117" s="63"/>
+      <c r="D117" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1866.4563186503201</v>
+      </c>
+      <c r="F117" s="13">
+        <v>6001.2453526516501</v>
+      </c>
+      <c r="G117" s="13">
+        <v>9387.7155770270601</v>
+      </c>
+      <c r="H117" s="12">
+        <v>2462.5001942559702</v>
+      </c>
+      <c r="I117" s="13">
+        <v>8893.4787293539193</v>
+      </c>
+      <c r="J117" s="13">
+        <v>15144.275111045599</v>
+      </c>
+      <c r="K117" s="12">
+        <v>3426.5518435076301</v>
+      </c>
+      <c r="L117" s="13">
+        <v>8165.78010053052</v>
+      </c>
+      <c r="M117" s="14">
+        <v>13517.514867562701</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C120" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C122" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="68"/>
+      <c r="E122" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I122" s="60"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L122" s="60"/>
+      <c r="M122" s="61"/>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C123" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="65"/>
+      <c r="E123" s="2">
+        <v>40</v>
+      </c>
+      <c r="F123" s="1">
+        <v>120</v>
+      </c>
+      <c r="G123" s="1">
+        <v>200</v>
+      </c>
+      <c r="H123" s="2">
+        <v>40</v>
+      </c>
+      <c r="I123" s="1">
+        <v>120</v>
+      </c>
+      <c r="J123" s="1">
+        <v>200</v>
+      </c>
+      <c r="K123" s="2">
+        <v>40</v>
+      </c>
+      <c r="L123" s="1">
+        <v>120</v>
+      </c>
+      <c r="M123" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C124" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="5">
+        <v>26123.977999999901</v>
+      </c>
+      <c r="F124" s="6">
+        <v>79167.024999999907</v>
+      </c>
+      <c r="G124" s="7">
+        <v>135348.016</v>
+      </c>
+      <c r="H124" s="5">
+        <v>23267.427</v>
+      </c>
+      <c r="I124" s="6">
+        <v>69687.577000000107</v>
+      </c>
+      <c r="J124" s="7">
+        <v>113002.269</v>
+      </c>
+      <c r="K124" s="5">
+        <v>14555.466</v>
+      </c>
+      <c r="L124" s="6">
+        <v>36857.523999999801</v>
+      </c>
+      <c r="M124" s="7">
+        <v>64892.758999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C125" s="63"/>
+      <c r="D125" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="12">
+        <v>56296.473000000296</v>
+      </c>
+      <c r="F125" s="13">
+        <v>176162.95</v>
+      </c>
+      <c r="G125" s="13">
+        <v>305454.154999997</v>
+      </c>
+      <c r="H125" s="12">
+        <v>33110.817999999897</v>
+      </c>
+      <c r="I125" s="13">
+        <v>106312.841999999</v>
+      </c>
+      <c r="J125" s="13">
+        <v>173752.788999999</v>
+      </c>
+      <c r="K125" s="12">
+        <v>18220.236000000001</v>
+      </c>
+      <c r="L125" s="13">
+        <v>45562.927000000403</v>
+      </c>
+      <c r="M125" s="14">
+        <v>83217.548999999795</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C126" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="67"/>
+      <c r="E126" s="53">
+        <v>37.490892531876099</v>
+      </c>
+      <c r="F126" s="54">
+        <v>37.2962204007286</v>
+      </c>
+      <c r="G126" s="55">
+        <v>37.912568306010897</v>
+      </c>
+      <c r="H126" s="53">
+        <v>38.592896174863299</v>
+      </c>
+      <c r="I126" s="54">
+        <v>37.990475106253797</v>
+      </c>
+      <c r="J126" s="55">
+        <v>37.769239526411603</v>
+      </c>
+      <c r="K126" s="53">
+        <v>37.2962204007286</v>
+      </c>
+      <c r="L126" s="54">
+        <v>37.8433009512244</v>
+      </c>
+      <c r="M126" s="55">
+        <v>37.936247723132901</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C127" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="5">
+        <v>26123.977999999901</v>
+      </c>
+      <c r="F127" s="6">
+        <v>79167.024999999907</v>
+      </c>
+      <c r="G127" s="7">
+        <v>135348.016</v>
+      </c>
+      <c r="H127" s="6">
+        <v>23267.427</v>
+      </c>
+      <c r="I127" s="6">
+        <v>69687.577000000107</v>
+      </c>
+      <c r="J127" s="7">
+        <v>113002.269</v>
+      </c>
+      <c r="K127" s="6">
+        <v>14555.466</v>
+      </c>
+      <c r="L127" s="6">
+        <v>36857.523999999801</v>
+      </c>
+      <c r="M127" s="7">
+        <v>64892.758999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C128" s="69"/>
+      <c r="D128" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="18">
+        <v>16398.6719999999</v>
+      </c>
+      <c r="F128" s="4">
+        <v>47429.379000000103</v>
+      </c>
+      <c r="G128" s="19">
+        <v>80558.0129999989</v>
+      </c>
+      <c r="H128" s="4">
+        <v>65151.155999999901</v>
+      </c>
+      <c r="I128" s="4">
+        <v>189702.80999999901</v>
+      </c>
+      <c r="J128" s="19">
+        <v>315182.012999998</v>
+      </c>
+      <c r="K128" s="4">
+        <v>112040.93799999999</v>
+      </c>
+      <c r="L128" s="4">
+        <v>349755.27900000103</v>
+      </c>
+      <c r="M128" s="19">
+        <v>582188.41700000002</v>
+      </c>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C129" s="63"/>
+      <c r="D129" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="12">
+        <v>8534.0769999999902</v>
+      </c>
+      <c r="F129" s="13">
+        <v>25498.076000001602</v>
+      </c>
+      <c r="G129" s="14">
+        <v>39645.643000001801</v>
+      </c>
+      <c r="H129" s="13">
+        <v>15023.047000000201</v>
+      </c>
+      <c r="I129" s="13">
+        <v>47868.672000000799</v>
+      </c>
+      <c r="J129" s="14">
+        <v>83264.587999997806</v>
+      </c>
+      <c r="K129" s="13">
+        <v>25498.076000001602</v>
+      </c>
+      <c r="L129" s="13">
+        <v>74049.793999997695</v>
+      </c>
+      <c r="M129" s="14">
+        <v>122088.448999985</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C130" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="18">
+        <v>2839.3099999999899</v>
+      </c>
+      <c r="F130" s="4">
+        <v>9317.8990000001595</v>
+      </c>
+      <c r="G130" s="19">
+        <v>13422.6080000005</v>
+      </c>
+      <c r="H130" s="18">
+        <v>4209.1819999999998</v>
+      </c>
+      <c r="I130" s="4">
+        <v>15422.8810000007</v>
+      </c>
+      <c r="J130" s="19">
+        <v>26410.886000000701</v>
+      </c>
+      <c r="K130" s="18">
+        <v>9317.8990000001595</v>
+      </c>
+      <c r="L130" s="4">
+        <v>23458.593000000699</v>
+      </c>
+      <c r="M130" s="19">
+        <v>37533.597000000103</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C131" s="63"/>
+      <c r="D131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="12">
+        <v>16792.9820000004</v>
+      </c>
+      <c r="F131" s="13">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="G131" s="13">
+        <v>85985.149999994799</v>
+      </c>
+      <c r="H131" s="12">
+        <v>30673.140000001302</v>
+      </c>
+      <c r="I131" s="13">
+        <v>102431.10699999399</v>
+      </c>
+      <c r="J131" s="13">
+        <v>174969.47799998501</v>
+      </c>
+      <c r="K131" s="12">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="L131" s="13">
+        <v>156284.82199998901</v>
+      </c>
+      <c r="M131" s="14">
+        <v>257734.99999998201</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D132" s="21"/>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C134" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C136" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="68"/>
+      <c r="E136" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="F136" s="60"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I136" s="60"/>
+      <c r="J136" s="60"/>
+      <c r="K136" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="L136" s="60"/>
+      <c r="M136" s="61"/>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C137" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="65"/>
+      <c r="E137" s="2">
+        <v>40</v>
+      </c>
+      <c r="F137" s="1">
+        <v>120</v>
+      </c>
+      <c r="G137" s="1">
+        <v>200</v>
+      </c>
+      <c r="H137" s="2">
+        <v>40</v>
+      </c>
+      <c r="I137" s="1">
+        <v>120</v>
+      </c>
+      <c r="J137" s="1">
+        <v>200</v>
+      </c>
+      <c r="K137" s="2">
+        <v>40</v>
+      </c>
+      <c r="L137" s="1">
+        <v>120</v>
+      </c>
+      <c r="M137" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C138" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="5">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="F138" s="6">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G138" s="7">
+        <v>199051.54997373</v>
+      </c>
+      <c r="H138" s="5">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="I138" s="6">
+        <v>143445.815290161</v>
+      </c>
+      <c r="J138" s="7">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="K138" s="5">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="L138" s="6">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="M138" s="7">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C139" s="63"/>
+      <c r="D139" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="12">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="F139" s="13">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="G139" s="13">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="H139" s="12">
+        <v>9044.2498304456894</v>
+      </c>
+      <c r="I139" s="13">
+        <v>32554.6037098382</v>
+      </c>
+      <c r="J139" s="13">
+        <v>54329.548304848198</v>
+      </c>
+      <c r="K139" s="12">
+        <v>1036.6022184242499</v>
+      </c>
+      <c r="L139" s="13">
+        <v>1734.74411289472</v>
+      </c>
+      <c r="M139" s="14">
+        <v>4272.9784387647796</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C140" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="67"/>
+      <c r="E140" s="53">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="F140" s="54">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="G140" s="55">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="H140" s="53">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="I140" s="54">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="J140" s="55">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="K140" s="53">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="L140" s="54">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="M140" s="55">
+        <v>90.570582877959893</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C141" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="5">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="F141" s="6">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G141" s="7">
+        <v>199051.54997373</v>
+      </c>
+      <c r="H141" s="6">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="I141" s="6">
+        <v>143445.815290161</v>
+      </c>
+      <c r="J141" s="7">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="K141" s="6">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="L141" s="6">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="M141" s="7">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C142" s="69"/>
+      <c r="D142" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="18">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="F142" s="4">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="G142" s="19">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="H142" s="4">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="I142" s="4">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="J142" s="19">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="K142" s="4">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="L142" s="4">
+        <v>183089.578469145</v>
+      </c>
+      <c r="M142" s="19">
+        <v>297307.87253847002</v>
+      </c>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C143" s="63"/>
+      <c r="D143" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="12">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="F143" s="13">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="G143" s="14">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="H143" s="13">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="I143" s="13">
+        <v>115578.017999987</v>
+      </c>
+      <c r="J143" s="14">
+        <v>200654.74799998</v>
+      </c>
+      <c r="K143" s="13">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="L143" s="13">
+        <v>211967.487999982</v>
+      </c>
+      <c r="M143" s="14">
+        <v>352606.74000000802</v>
+      </c>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C144" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="18">
+        <v>2241.3779357984899</v>
+      </c>
+      <c r="F144" s="4">
+        <v>7339.5509822314998</v>
+      </c>
+      <c r="G144" s="19">
+        <v>10703.107607055899</v>
+      </c>
+      <c r="H144" s="18">
+        <v>2013.8119190336699</v>
+      </c>
+      <c r="I144" s="4">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="J144" s="19">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="K144" s="18">
+        <v>3520.0906782329498</v>
+      </c>
+      <c r="L144" s="4">
+        <v>7318.7465706147595</v>
+      </c>
+      <c r="M144" s="19">
+        <v>11229.1503665984</v>
+      </c>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C145" s="63"/>
+      <c r="D145" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="12">
+        <v>13422.005064201699</v>
+      </c>
+      <c r="F145" s="13">
+        <v>44355.147017769501</v>
+      </c>
+      <c r="G145" s="13">
+        <v>69483.700392940998</v>
+      </c>
+      <c r="H145" s="12">
+        <v>11147.0110809664</v>
+      </c>
+      <c r="I145" s="13">
+        <v>42372.623106654697</v>
+      </c>
+      <c r="J145" s="13">
+        <v>70942.959742109495</v>
+      </c>
+      <c r="K145" s="12">
+        <v>16020.7393217671</v>
+      </c>
+      <c r="L145" s="13">
+        <v>34506.974429385104</v>
+      </c>
+      <c r="M145" s="14">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
